--- a/data/Benchmarks/MKS.xlsx
+++ b/data/Benchmarks/MKS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\GitHub\MSTS_FJSP\data\Benchmarks\YFJS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\GitHub\MSTS_FJSP\data\Benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9ADEB7-5FF5-4CBA-8C03-AA595FBDABC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3E6F5A-8E8F-40AB-9336-6E137A1A52BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{87D6751E-06B1-440E-A7B4-B38AD42E9B96}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{87D6751E-06B1-440E-A7B4-B38AD42E9B96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="125">
   <si>
     <t>Shortest Path</t>
   </si>
@@ -406,13 +406,16 @@
   </si>
   <si>
     <t>[467;615]</t>
+  </si>
+  <si>
+    <t>Least Utilised Machine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,6 +445,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -621,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -670,24 +690,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1002,55 +1052,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C717E4-2E19-4E10-82CD-C66DD0E858F2}">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="28" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="28" t="s">
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="28" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="29" t="s">
+      <c r="O3" s="42"/>
+      <c r="P3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="30"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q3" s="42"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="3" t="s">
         <v>1</v>
@@ -1080,693 +1135,703 @@
         <v>3</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="P4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="15"/>
       <c r="D5" s="16"/>
-      <c r="E5" s="14">
-        <v>2213</v>
-      </c>
-      <c r="F5" s="15">
-        <v>1455</v>
-      </c>
-      <c r="G5" s="16">
-        <v>1379</v>
-      </c>
-      <c r="H5" s="14">
-        <v>2213</v>
-      </c>
-      <c r="I5" s="15">
-        <v>1455</v>
-      </c>
-      <c r="J5" s="16">
-        <v>1379</v>
-      </c>
-      <c r="K5" s="20">
+      <c r="E5" s="30">
+        <v>2048</v>
+      </c>
+      <c r="F5" s="31">
+        <v>1406</v>
+      </c>
+      <c r="G5" s="32">
+        <v>1335</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="20">
         <v>773</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="15">
+      <c r="O5" s="21"/>
+      <c r="P5" s="20">
+        <v>1318</v>
+      </c>
+      <c r="Q5" s="21">
         <v>1130</v>
       </c>
-      <c r="N5" s="16">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
-      <c r="E6" s="14">
-        <v>2143</v>
-      </c>
-      <c r="F6" s="15">
-        <v>1217</v>
-      </c>
-      <c r="G6" s="16">
-        <v>1144</v>
-      </c>
-      <c r="H6" s="14">
-        <v>2143</v>
-      </c>
-      <c r="I6" s="15">
-        <v>1217</v>
-      </c>
-      <c r="J6" s="16">
-        <v>1144</v>
-      </c>
-      <c r="K6" s="14">
+      <c r="E6" s="30">
+        <v>2023</v>
+      </c>
+      <c r="F6" s="35">
+        <v>1126</v>
+      </c>
+      <c r="G6" s="34">
+        <v>1140</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="14">
         <v>825</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="15">
+      <c r="O6" s="16"/>
+      <c r="P6" s="14">
+        <v>1243</v>
+      </c>
+      <c r="Q6" s="16">
         <v>1133</v>
       </c>
-      <c r="N6" s="16">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
-      <c r="E7" s="14">
-        <v>690</v>
+      <c r="E7" s="30">
+        <v>747</v>
       </c>
       <c r="F7" s="22">
-        <v>429</v>
-      </c>
-      <c r="G7" s="23">
-        <v>413</v>
-      </c>
-      <c r="H7" s="14">
-        <v>690</v>
-      </c>
-      <c r="I7" s="22">
-        <v>429</v>
-      </c>
-      <c r="J7" s="23">
-        <v>413</v>
-      </c>
-      <c r="K7" s="14">
+        <v>454</v>
+      </c>
+      <c r="G7" s="36">
+        <v>422</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="14">
         <v>347</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="15">
+      <c r="O7" s="16"/>
+      <c r="P7" s="14">
+        <v>439</v>
+      </c>
+      <c r="Q7" s="16">
         <v>575</v>
       </c>
-      <c r="N7" s="16">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="14">
+      <c r="E8" s="30">
         <v>1055</v>
       </c>
-      <c r="F8" s="22">
-        <v>495</v>
-      </c>
-      <c r="G8" s="23">
-        <v>533</v>
-      </c>
-      <c r="H8" s="14">
-        <v>1055</v>
-      </c>
-      <c r="I8" s="22">
-        <v>495</v>
-      </c>
-      <c r="J8" s="23">
-        <v>533</v>
-      </c>
-      <c r="K8" s="14">
+      <c r="F8" s="35">
+        <v>567</v>
+      </c>
+      <c r="G8" s="32">
+        <v>585</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="14">
         <v>390</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="15">
+      <c r="O8" s="16"/>
+      <c r="P8" s="14">
+        <v>569</v>
+      </c>
+      <c r="Q8" s="16">
         <v>576</v>
       </c>
-      <c r="N8" s="16">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="14">
-        <v>1207</v>
-      </c>
-      <c r="F9" s="15">
-        <v>1060</v>
-      </c>
-      <c r="G9" s="16">
-        <v>1057</v>
-      </c>
-      <c r="H9" s="14">
-        <v>1207</v>
-      </c>
-      <c r="I9" s="15">
-        <v>1060</v>
-      </c>
-      <c r="J9" s="16">
-        <v>1057</v>
-      </c>
-      <c r="K9" s="14">
+      <c r="E9" s="30">
+        <v>1069</v>
+      </c>
+      <c r="F9" s="31">
+        <v>975</v>
+      </c>
+      <c r="G9" s="32">
+        <v>975</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="14">
         <v>445</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="15">
+      <c r="O9" s="16"/>
+      <c r="P9" s="14">
+        <v>566</v>
+      </c>
+      <c r="Q9" s="16">
         <v>608</v>
       </c>
-      <c r="N9" s="16">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="14">
-        <v>1141</v>
-      </c>
-      <c r="F10" s="15">
+      <c r="E10" s="30">
+        <v>1151</v>
+      </c>
+      <c r="F10" s="31">
         <v>873</v>
       </c>
-      <c r="G10" s="16">
-        <v>775</v>
-      </c>
-      <c r="H10" s="14">
-        <v>1141</v>
-      </c>
-      <c r="I10" s="15">
-        <v>873</v>
-      </c>
-      <c r="J10" s="16">
-        <v>775</v>
-      </c>
-      <c r="K10" s="14" t="s">
+      <c r="G10" s="32">
+        <v>861</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="16">
+      <c r="O10" s="16">
         <v>446</v>
       </c>
-      <c r="M10" s="15">
+      <c r="P10" s="14">
         <v>633</v>
       </c>
-      <c r="N10" s="16">
+      <c r="Q10" s="16">
         <v>633</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="14">
-        <v>1149</v>
-      </c>
-      <c r="F11" s="15">
-        <v>835</v>
-      </c>
-      <c r="G11" s="16">
-        <v>835</v>
-      </c>
-      <c r="H11" s="14">
-        <v>1149</v>
-      </c>
-      <c r="I11" s="15">
-        <v>835</v>
-      </c>
-      <c r="J11" s="16">
-        <v>835</v>
-      </c>
-      <c r="K11" s="14">
+      <c r="E11" s="30">
+        <v>982</v>
+      </c>
+      <c r="F11" s="31">
+        <v>1101</v>
+      </c>
+      <c r="G11" s="32">
+        <v>1023</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="14">
         <v>444</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="15">
+      <c r="O11" s="16"/>
+      <c r="P11" s="14">
         <v>628</v>
       </c>
-      <c r="N11" s="16">
+      <c r="Q11" s="16">
         <v>628</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="14">
-        <v>1073</v>
-      </c>
-      <c r="F12" s="15">
-        <v>489</v>
-      </c>
-      <c r="G12" s="16">
-        <v>515</v>
-      </c>
-      <c r="H12" s="14">
-        <v>1073</v>
-      </c>
-      <c r="I12" s="15">
-        <v>489</v>
-      </c>
-      <c r="J12" s="16">
-        <v>515</v>
-      </c>
-      <c r="K12" s="14">
+      <c r="E12" s="30">
+        <v>1154</v>
+      </c>
+      <c r="F12" s="37">
+        <v>512</v>
+      </c>
+      <c r="G12" s="32">
+        <v>538</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="14">
         <v>353</v>
       </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="15">
+      <c r="O12" s="16"/>
+      <c r="P12" s="14">
+        <v>531</v>
+      </c>
+      <c r="Q12" s="16">
         <v>485</v>
       </c>
-      <c r="N12" s="16">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="S12" s="7"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="14">
+      <c r="E13" s="30">
         <v>554</v>
       </c>
-      <c r="F13" s="22">
-        <v>376</v>
-      </c>
-      <c r="G13" s="23">
-        <v>376</v>
-      </c>
-      <c r="H13" s="14">
-        <v>554</v>
-      </c>
-      <c r="I13" s="22">
-        <v>376</v>
-      </c>
-      <c r="J13" s="23">
-        <v>376</v>
-      </c>
-      <c r="K13" s="14">
+      <c r="F13" s="35">
+        <v>399</v>
+      </c>
+      <c r="G13" s="36">
+        <v>401</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="14">
         <v>242</v>
       </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="15">
+      <c r="O13" s="16"/>
+      <c r="P13" s="14">
+        <v>506</v>
+      </c>
+      <c r="Q13" s="16">
         <v>402</v>
       </c>
-      <c r="N13" s="16">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="14">
-        <v>793</v>
-      </c>
-      <c r="F14" s="15">
-        <v>754</v>
-      </c>
-      <c r="G14" s="16">
-        <v>754</v>
-      </c>
-      <c r="H14" s="14">
-        <v>793</v>
-      </c>
-      <c r="I14" s="15">
-        <v>754</v>
-      </c>
-      <c r="J14" s="16">
-        <v>754</v>
-      </c>
-      <c r="K14" s="14">
+      <c r="E14" s="30">
+        <v>880</v>
+      </c>
+      <c r="F14" s="31">
+        <v>712</v>
+      </c>
+      <c r="G14" s="32">
+        <v>897</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="14">
         <v>399</v>
       </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="15">
+      <c r="O14" s="16"/>
+      <c r="P14" s="14">
+        <v>541</v>
+      </c>
+      <c r="Q14" s="16">
         <v>513</v>
       </c>
-      <c r="N14" s="16">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="14">
-        <v>1520</v>
-      </c>
-      <c r="F15" s="15">
-        <v>792</v>
-      </c>
-      <c r="G15" s="23">
-        <v>731</v>
+      <c r="E15" s="30">
+        <v>1549</v>
+      </c>
+      <c r="F15" s="22">
+        <v>742</v>
+      </c>
+      <c r="G15" s="32">
+        <v>783</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="15"/>
       <c r="J15" s="16"/>
-      <c r="K15" s="14">
+      <c r="K15" s="14"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="14">
         <v>526</v>
       </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="15">
+      <c r="O15" s="16"/>
+      <c r="P15" s="14">
+        <v>740</v>
+      </c>
+      <c r="Q15" s="16">
         <v>745</v>
       </c>
-      <c r="N15" s="16">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="14">
-        <v>1491</v>
-      </c>
-      <c r="F16" s="15">
-        <v>935</v>
-      </c>
-      <c r="G16" s="16">
-        <v>935</v>
+      <c r="E16" s="30">
+        <v>1332</v>
+      </c>
+      <c r="F16" s="31">
+        <v>946</v>
+      </c>
+      <c r="G16" s="32">
+        <v>886</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="15"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="14">
+      <c r="K16" s="14"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="14">
         <v>512</v>
       </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="15">
+      <c r="O16" s="16"/>
+      <c r="P16" s="14">
+        <v>813</v>
+      </c>
+      <c r="Q16" s="16">
         <v>744</v>
       </c>
-      <c r="N16" s="16">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="14">
-        <v>1183</v>
-      </c>
-      <c r="F17" s="15">
-        <v>708</v>
-      </c>
-      <c r="G17" s="16">
-        <v>659</v>
+      <c r="E17" s="30">
+        <v>1227</v>
+      </c>
+      <c r="F17" s="31">
+        <v>727</v>
+      </c>
+      <c r="G17" s="34">
+        <v>706</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
       <c r="J17" s="16"/>
-      <c r="K17" s="14">
+      <c r="K17" s="14"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="14">
         <v>405</v>
       </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="15">
+      <c r="O17" s="16"/>
+      <c r="P17" s="14">
+        <v>717</v>
+      </c>
+      <c r="Q17" s="16">
         <v>553</v>
       </c>
-      <c r="N17" s="16">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="14">
-        <v>4965</v>
-      </c>
-      <c r="F18" s="15">
-        <v>3364</v>
-      </c>
-      <c r="G18" s="16">
-        <v>1781</v>
+      <c r="E18" s="30">
+        <v>4810</v>
+      </c>
+      <c r="F18" s="31">
+        <v>3282</v>
+      </c>
+      <c r="G18" s="34">
+        <v>1918</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="15"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="14">
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="14">
         <v>1317</v>
       </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="15">
+      <c r="O18" s="16"/>
+      <c r="P18" s="14">
+        <v>2055</v>
+      </c>
+      <c r="Q18" s="16">
         <v>1555</v>
       </c>
-      <c r="N18" s="16">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="14">
-        <v>5038</v>
-      </c>
-      <c r="F19" s="15">
-        <v>3926</v>
-      </c>
-      <c r="G19" s="16">
-        <v>1915</v>
+      <c r="E19" s="30">
+        <v>5232</v>
+      </c>
+      <c r="F19" s="31">
+        <v>3849</v>
+      </c>
+      <c r="G19" s="34">
+        <v>2170</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="15"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="14" t="s">
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="O19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="15">
+      <c r="P19" s="14">
+        <v>2296</v>
+      </c>
+      <c r="Q19" s="16">
         <v>1690</v>
       </c>
-      <c r="N19" s="16">
-        <v>2296</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
-      <c r="E20" s="14">
-        <v>4988</v>
-      </c>
-      <c r="F20" s="15">
-        <v>3447</v>
-      </c>
-      <c r="G20" s="23">
-        <v>1685</v>
+      <c r="E20" s="30">
+        <v>5284</v>
+      </c>
+      <c r="F20" s="31">
+        <v>3053</v>
+      </c>
+      <c r="G20" s="36">
+        <v>1749</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="15"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="14" t="s">
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="O20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="15">
+      <c r="P20" s="14">
+        <v>2006</v>
+      </c>
+      <c r="Q20" s="16">
         <v>1769</v>
       </c>
-      <c r="N20" s="16">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
-      <c r="E21" s="14">
-        <v>5915</v>
-      </c>
-      <c r="F21" s="15">
-        <v>2740</v>
-      </c>
-      <c r="G21" s="23">
-        <v>1634</v>
+      <c r="E21" s="30">
+        <v>6039</v>
+      </c>
+      <c r="F21" s="31">
+        <v>2584</v>
+      </c>
+      <c r="G21" s="36">
+        <v>1598</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="15"/>
       <c r="J21" s="16"/>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="14"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="O21" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="M21" s="15">
+      <c r="P21" s="14">
+        <v>2408</v>
+      </c>
+      <c r="Q21" s="16">
         <v>1734</v>
       </c>
-      <c r="N21" s="16">
-        <v>2408</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="14">
-        <v>6061</v>
-      </c>
-      <c r="F22" s="15">
-        <v>3091</v>
-      </c>
-      <c r="G22" s="16">
-        <v>1859</v>
+      <c r="E22" s="30">
+        <v>6214</v>
+      </c>
+      <c r="F22" s="31">
+        <v>3849</v>
+      </c>
+      <c r="G22" s="34">
+        <v>1873</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="15"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="14"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="O22" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="M22" s="15">
+      <c r="P22" s="14">
+        <v>2082</v>
+      </c>
+      <c r="Q22" s="16">
         <v>1735</v>
       </c>
-      <c r="N22" s="16">
-        <v>2082</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
-      <c r="E23" s="14">
-        <v>5808</v>
-      </c>
-      <c r="F23" s="15">
-        <v>3045</v>
-      </c>
-      <c r="G23" s="16">
-        <v>2086</v>
+      <c r="E23" s="30">
+        <v>6206</v>
+      </c>
+      <c r="F23" s="31">
+        <v>2976</v>
+      </c>
+      <c r="G23" s="34">
+        <v>1936</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="15"/>
       <c r="J23" s="16"/>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="14"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="O23" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M23" s="15">
+      <c r="P23" s="14">
+        <v>2038</v>
+      </c>
+      <c r="Q23" s="16">
         <v>1604</v>
       </c>
-      <c r="N23" s="16">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="18"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="17">
-        <v>5989</v>
-      </c>
-      <c r="F24" s="18">
-        <v>1993</v>
-      </c>
-      <c r="G24" s="19">
-        <v>1741</v>
+      <c r="E24" s="33">
+        <v>6198</v>
+      </c>
+      <c r="F24" s="38">
+        <v>1905</v>
+      </c>
+      <c r="G24" s="39">
+        <v>1688</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="18"/>
       <c r="J24" s="19"/>
-      <c r="K24" s="17" t="s">
+      <c r="K24" s="17"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="L24" s="19" t="s">
+      <c r="O24" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M24" s="18">
+      <c r="P24" s="17">
+        <v>2369</v>
+      </c>
+      <c r="Q24" s="19">
         <v>1700</v>
       </c>
-      <c r="N24" s="19">
-        <v>2369</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
         <v>44</v>
       </c>
@@ -1774,29 +1839,32 @@
       <c r="C25" s="25"/>
       <c r="D25" s="26"/>
       <c r="E25" s="24">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="F25" s="25">
-        <v>574</v>
+        <v>510</v>
       </c>
       <c r="G25" s="26">
-        <v>615</v>
+        <v>580</v>
       </c>
       <c r="H25" s="24"/>
       <c r="I25" s="25"/>
       <c r="J25" s="26"/>
-      <c r="K25" s="24">
+      <c r="K25" s="24"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="24">
         <v>257</v>
       </c>
-      <c r="L25" s="26"/>
-      <c r="M25" s="25">
+      <c r="O25" s="26"/>
+      <c r="P25" s="24">
+        <v>327</v>
+      </c>
+      <c r="Q25" s="26">
         <v>321</v>
       </c>
-      <c r="N25" s="26">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
         <v>45</v>
       </c>
@@ -1804,29 +1872,32 @@
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
       <c r="E26" s="11">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="F26" s="7">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="G26" s="8">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="7"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="11">
+      <c r="K26" s="11"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="11">
         <v>289</v>
       </c>
-      <c r="L26" s="8"/>
-      <c r="M26" s="33">
+      <c r="O26" s="8"/>
+      <c r="P26" s="11">
+        <v>382</v>
+      </c>
+      <c r="Q26" s="45">
         <v>350</v>
       </c>
-      <c r="N26" s="8">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
         <v>46</v>
       </c>
@@ -1836,27 +1907,30 @@
       <c r="E27" s="11">
         <v>1273</v>
       </c>
-      <c r="F27" s="34">
-        <v>607</v>
+      <c r="F27" s="40">
+        <v>657</v>
       </c>
       <c r="G27" s="8">
-        <v>876</v>
+        <v>813</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="11">
+      <c r="K27" s="11"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="11">
         <v>576</v>
       </c>
-      <c r="L27" s="8"/>
-      <c r="M27" s="33">
+      <c r="O27" s="8"/>
+      <c r="P27" s="11">
+        <v>710</v>
+      </c>
+      <c r="Q27" s="45">
         <v>631</v>
       </c>
-      <c r="N27" s="8">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
         <v>47</v>
       </c>
@@ -1864,29 +1938,32 @@
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
       <c r="E28" s="11">
-        <v>1328</v>
-      </c>
-      <c r="F28" s="32">
-        <v>702</v>
+        <v>1388</v>
+      </c>
+      <c r="F28" s="28">
+        <v>744</v>
       </c>
       <c r="G28" s="8">
-        <v>702</v>
+        <v>909</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="7"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="11">
+      <c r="K28" s="11"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="11">
         <v>606</v>
       </c>
-      <c r="L28" s="8"/>
-      <c r="M28" s="33">
+      <c r="O28" s="8"/>
+      <c r="P28" s="11">
+        <v>653</v>
+      </c>
+      <c r="Q28" s="45">
         <v>607</v>
       </c>
-      <c r="N28" s="8">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
         <v>48</v>
       </c>
@@ -1894,31 +1971,34 @@
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
       <c r="E29" s="11">
-        <v>921</v>
-      </c>
-      <c r="F29" s="32">
+        <v>1009</v>
+      </c>
+      <c r="F29" s="28">
+        <v>730</v>
+      </c>
+      <c r="G29" s="8">
         <v>644</v>
-      </c>
-      <c r="G29" s="8">
-        <v>673</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="7"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="11" t="s">
+      <c r="K29" s="11"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="L29" s="8" t="s">
+      <c r="O29" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="M29" s="33">
+      <c r="P29" s="11">
+        <v>482</v>
+      </c>
+      <c r="Q29" s="45">
         <v>505</v>
       </c>
-      <c r="N29" s="8">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
         <v>49</v>
       </c>
@@ -1926,31 +2006,34 @@
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
       <c r="E30" s="11">
-        <v>978</v>
-      </c>
-      <c r="F30" s="32">
-        <v>727</v>
+        <v>1181</v>
+      </c>
+      <c r="F30" s="28">
+        <v>648</v>
       </c>
       <c r="G30" s="8">
-        <v>628</v>
+        <v>649</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="7"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="11"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="O30" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="M30" s="33">
+      <c r="P30" s="11">
+        <v>489</v>
+      </c>
+      <c r="Q30" s="45">
         <v>497</v>
       </c>
-      <c r="N30" s="8">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
         <v>50</v>
       </c>
@@ -1958,31 +2041,34 @@
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="11">
-        <v>2144</v>
-      </c>
-      <c r="F31" s="32">
+        <v>2140</v>
+      </c>
+      <c r="F31" s="28">
+        <v>1302</v>
+      </c>
+      <c r="G31" s="8">
         <v>1315</v>
-      </c>
-      <c r="G31" s="8">
-        <v>1347</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="7"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="11"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="O31" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="M31" s="33">
+      <c r="P31" s="11">
+        <v>717</v>
+      </c>
+      <c r="Q31" s="45">
         <v>632</v>
       </c>
-      <c r="N31" s="8">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="27" t="s">
         <v>51</v>
       </c>
@@ -1990,31 +2076,34 @@
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
       <c r="E32" s="11">
-        <v>1532</v>
-      </c>
-      <c r="F32" s="32">
-        <v>1376</v>
+        <v>1697</v>
+      </c>
+      <c r="F32" s="28">
+        <v>1475</v>
       </c>
       <c r="G32" s="8">
-        <v>1500</v>
+        <v>1397</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="7"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="11"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="O32" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="M32" s="33">
+      <c r="P32" s="11">
+        <v>847</v>
+      </c>
+      <c r="Q32" s="45">
         <v>706</v>
       </c>
-      <c r="N32" s="8">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="27" t="s">
         <v>52</v>
       </c>
@@ -2022,9 +2111,9 @@
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
       <c r="E33" s="11">
-        <v>892</v>
-      </c>
-      <c r="F33" s="32">
+        <v>977</v>
+      </c>
+      <c r="F33" s="28">
         <v>819</v>
       </c>
       <c r="G33" s="8">
@@ -2033,20 +2122,23 @@
       <c r="H33" s="11"/>
       <c r="I33" s="7"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="11" t="s">
+      <c r="K33" s="11"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="L33" s="8" t="s">
+      <c r="O33" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="M33" s="33">
+      <c r="P33" s="11">
+        <v>535</v>
+      </c>
+      <c r="Q33" s="45">
         <v>533</v>
       </c>
-      <c r="N33" s="8">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
         <v>53</v>
       </c>
@@ -2054,31 +2146,34 @@
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
       <c r="E34" s="11">
-        <v>1280</v>
-      </c>
-      <c r="F34" s="32">
-        <v>1007</v>
+        <v>1082</v>
+      </c>
+      <c r="F34" s="28">
+        <v>959</v>
       </c>
       <c r="G34" s="8">
-        <v>833</v>
+        <v>740</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="7"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="11" t="s">
+      <c r="K34" s="11"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="L34" s="8" t="s">
+      <c r="O34" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="M34" s="33">
+      <c r="P34" s="11">
+        <v>629</v>
+      </c>
+      <c r="Q34" s="45">
         <v>621</v>
       </c>
-      <c r="N34" s="8">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
         <v>54</v>
       </c>
@@ -2086,31 +2181,34 @@
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="11">
-        <v>2440</v>
-      </c>
-      <c r="F35" s="32">
-        <v>1308</v>
+        <v>2653</v>
+      </c>
+      <c r="F35" s="28">
+        <v>1258</v>
       </c>
       <c r="G35" s="8">
-        <v>1221</v>
+        <v>1153</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="7"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="11" t="s">
+      <c r="K35" s="11"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="L35" s="8" t="s">
+      <c r="O35" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="M35" s="33">
+      <c r="P35" s="11">
+        <v>708</v>
+      </c>
+      <c r="Q35" s="45">
         <v>767</v>
       </c>
-      <c r="N35" s="8">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
         <v>55</v>
       </c>
@@ -2118,31 +2216,34 @@
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
       <c r="E36" s="11">
-        <v>1886</v>
-      </c>
-      <c r="F36" s="32">
-        <v>1502</v>
+        <v>2016</v>
+      </c>
+      <c r="F36" s="28">
+        <v>1511</v>
       </c>
       <c r="G36" s="8">
-        <v>1336</v>
+        <v>1357</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="7"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="11" t="s">
+      <c r="K36" s="11"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="L36" s="8" t="s">
+      <c r="O36" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="M36" s="33">
+      <c r="P36" s="11">
+        <v>720</v>
+      </c>
+      <c r="Q36" s="45">
         <v>727</v>
       </c>
-      <c r="N36" s="8">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="27" t="s">
         <v>56</v>
       </c>
@@ -2150,31 +2251,34 @@
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
       <c r="E37" s="11">
-        <v>1298</v>
-      </c>
-      <c r="F37" s="32">
-        <v>926</v>
-      </c>
-      <c r="G37" s="35">
-        <v>759</v>
+        <v>1401</v>
+      </c>
+      <c r="F37" s="28">
+        <v>860</v>
+      </c>
+      <c r="G37" s="29">
+        <v>946</v>
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="7"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="11" t="s">
+      <c r="K37" s="11"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="L37" s="8" t="s">
+      <c r="O37" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="M37" s="33">
+      <c r="P37" s="11">
+        <v>766</v>
+      </c>
+      <c r="Q37" s="45">
         <v>768</v>
       </c>
-      <c r="N37" s="8">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
         <v>57</v>
       </c>
@@ -2182,31 +2286,34 @@
       <c r="C38" s="7"/>
       <c r="D38" s="8"/>
       <c r="E38" s="11">
-        <v>2072</v>
-      </c>
-      <c r="F38" s="32">
-        <v>1245</v>
+        <v>1796</v>
+      </c>
+      <c r="F38" s="28">
+        <v>1003</v>
       </c>
       <c r="G38" s="8">
-        <v>985</v>
+        <v>1030</v>
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="7"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="11" t="s">
+      <c r="K38" s="11"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="L38" s="8" t="s">
+      <c r="O38" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="M38" s="33">
+      <c r="P38" s="11">
+        <v>871</v>
+      </c>
+      <c r="Q38" s="45">
         <v>888</v>
       </c>
-      <c r="N38" s="8">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
         <v>58</v>
       </c>
@@ -2214,31 +2321,34 @@
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
       <c r="E39" s="11">
-        <v>2671</v>
-      </c>
-      <c r="F39" s="32">
-        <v>1219</v>
+        <v>2457</v>
+      </c>
+      <c r="F39" s="28">
+        <v>1315</v>
       </c>
       <c r="G39" s="8">
-        <v>1327</v>
+        <v>1281</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="7"/>
       <c r="J39" s="8"/>
-      <c r="K39" s="11" t="s">
+      <c r="K39" s="11"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="L39" s="8" t="s">
+      <c r="O39" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="M39" s="33">
+      <c r="P39" s="11">
+        <v>818</v>
+      </c>
+      <c r="Q39" s="45">
         <v>788</v>
       </c>
-      <c r="N39" s="8">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="27" t="s">
         <v>59</v>
       </c>
@@ -2246,31 +2356,34 @@
       <c r="C40" s="7"/>
       <c r="D40" s="8"/>
       <c r="E40" s="11">
-        <v>2534</v>
-      </c>
-      <c r="F40" s="32">
-        <v>1746</v>
+        <v>2547</v>
+      </c>
+      <c r="F40" s="28">
+        <v>1535</v>
       </c>
       <c r="G40" s="8">
-        <v>1725</v>
+        <v>1953</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="7"/>
       <c r="J40" s="8"/>
-      <c r="K40" s="11" t="s">
+      <c r="K40" s="11"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="L40" s="8" t="s">
+      <c r="O40" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="M40" s="33">
+      <c r="P40" s="11">
+        <v>831</v>
+      </c>
+      <c r="Q40" s="45">
         <v>808</v>
       </c>
-      <c r="N40" s="8">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="27" t="s">
         <v>60</v>
       </c>
@@ -2278,31 +2391,34 @@
       <c r="C41" s="7"/>
       <c r="D41" s="8"/>
       <c r="E41" s="11">
-        <v>1560</v>
-      </c>
-      <c r="F41" s="32">
-        <v>1402</v>
+        <v>1449</v>
+      </c>
+      <c r="F41" s="28">
+        <v>1168</v>
       </c>
       <c r="G41" s="8">
-        <v>1319</v>
+        <v>1222</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="7"/>
       <c r="J41" s="8"/>
-      <c r="K41" s="11" t="s">
+      <c r="K41" s="11"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="L41" s="8" t="s">
+      <c r="O41" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="M41" s="33">
+      <c r="P41" s="11">
+        <v>910</v>
+      </c>
+      <c r="Q41" s="45">
         <v>935</v>
       </c>
-      <c r="N41" s="8">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="27" t="s">
         <v>61</v>
       </c>
@@ -2310,31 +2426,34 @@
       <c r="C42" s="7"/>
       <c r="D42" s="8"/>
       <c r="E42" s="11">
-        <v>2027</v>
-      </c>
-      <c r="F42" s="32">
-        <v>1122</v>
+        <v>2089</v>
+      </c>
+      <c r="F42" s="28">
+        <v>1312</v>
       </c>
       <c r="G42" s="8">
-        <v>1192</v>
+        <v>1172</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="7"/>
       <c r="J42" s="8"/>
-      <c r="K42" s="11" t="s">
+      <c r="K42" s="11"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="L42" s="8" t="s">
+      <c r="O42" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="M42" s="33">
+      <c r="P42" s="11">
+        <v>951</v>
+      </c>
+      <c r="Q42" s="45">
         <v>939</v>
       </c>
-      <c r="N42" s="8">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="27" t="s">
         <v>62</v>
       </c>
@@ -2342,31 +2461,34 @@
       <c r="C43" s="7"/>
       <c r="D43" s="8"/>
       <c r="E43" s="11">
-        <v>1434</v>
-      </c>
-      <c r="F43" s="32">
-        <v>1147</v>
+        <v>1740</v>
+      </c>
+      <c r="F43" s="28">
+        <v>1040</v>
       </c>
       <c r="G43" s="8">
-        <v>841</v>
+        <v>1011</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="7"/>
       <c r="J43" s="8"/>
-      <c r="K43" s="11" t="s">
+      <c r="K43" s="11"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="L43" s="8" t="s">
+      <c r="O43" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="M43" s="33">
+      <c r="P43" s="11">
+        <v>601</v>
+      </c>
+      <c r="Q43" s="45">
         <v>598</v>
       </c>
-      <c r="N43" s="8">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="27" t="s">
         <v>63</v>
       </c>
@@ -2374,31 +2496,34 @@
       <c r="C44" s="7"/>
       <c r="D44" s="8"/>
       <c r="E44" s="11">
-        <v>2381</v>
-      </c>
-      <c r="F44" s="32">
-        <v>1248</v>
+        <v>2345</v>
+      </c>
+      <c r="F44" s="28">
+        <v>1315</v>
       </c>
       <c r="G44" s="8">
-        <v>1206</v>
+        <v>1309</v>
       </c>
       <c r="H44" s="11"/>
       <c r="I44" s="7"/>
       <c r="J44" s="8"/>
-      <c r="K44" s="11" t="s">
+      <c r="K44" s="11"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L44" s="8" t="s">
+      <c r="O44" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="M44" s="33">
+      <c r="P44" s="11">
+        <v>815</v>
+      </c>
+      <c r="Q44" s="45">
         <v>854</v>
       </c>
-      <c r="N44" s="8">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="27" t="s">
         <v>64</v>
       </c>
@@ -2406,31 +2531,34 @@
       <c r="C45" s="7"/>
       <c r="D45" s="8"/>
       <c r="E45" s="11">
-        <v>1991</v>
-      </c>
-      <c r="F45" s="32">
-        <v>1232</v>
+        <v>1949</v>
+      </c>
+      <c r="F45" s="28">
+        <v>1378</v>
       </c>
       <c r="G45" s="8">
-        <v>1409</v>
+        <v>1365</v>
       </c>
       <c r="H45" s="11"/>
       <c r="I45" s="7"/>
       <c r="J45" s="8"/>
-      <c r="K45" s="11" t="s">
+      <c r="K45" s="11"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="L45" s="8" t="s">
+      <c r="O45" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="M45" s="33">
+      <c r="P45" s="11">
+        <v>965</v>
+      </c>
+      <c r="Q45" s="45">
         <v>937</v>
       </c>
-      <c r="N45" s="8">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="27" t="s">
         <v>65</v>
       </c>
@@ -2438,31 +2566,34 @@
       <c r="C46" s="7"/>
       <c r="D46" s="8"/>
       <c r="E46" s="11">
-        <v>2228</v>
-      </c>
-      <c r="F46" s="32">
-        <v>1375</v>
+        <v>1985</v>
+      </c>
+      <c r="F46" s="28">
+        <v>1603</v>
       </c>
       <c r="G46" s="8">
-        <v>1226</v>
+        <v>1212</v>
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="7"/>
       <c r="J46" s="8"/>
-      <c r="K46" s="11" t="s">
+      <c r="K46" s="11"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="L46" s="8" t="s">
+      <c r="O46" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="M46" s="33">
+      <c r="P46" s="11">
+        <v>902</v>
+      </c>
+      <c r="Q46" s="45">
         <v>826</v>
       </c>
-      <c r="N46" s="8">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="27" t="s">
         <v>66</v>
       </c>
@@ -2470,31 +2601,34 @@
       <c r="C47" s="7"/>
       <c r="D47" s="8"/>
       <c r="E47" s="11">
-        <v>1450</v>
-      </c>
-      <c r="F47" s="32">
-        <v>1201</v>
+        <v>1429</v>
+      </c>
+      <c r="F47" s="28">
+        <v>1136</v>
       </c>
       <c r="G47" s="8">
-        <v>853</v>
+        <v>902</v>
       </c>
       <c r="H47" s="11"/>
       <c r="I47" s="7"/>
       <c r="J47" s="8"/>
-      <c r="K47" s="11" t="s">
+      <c r="K47" s="11"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="L47" s="8" t="s">
+      <c r="O47" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="M47" s="33">
+      <c r="P47" s="11">
+        <v>632</v>
+      </c>
+      <c r="Q47" s="45">
         <v>548</v>
       </c>
-      <c r="N47" s="8">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="27" t="s">
         <v>67</v>
       </c>
@@ -2502,31 +2636,34 @@
       <c r="C48" s="7"/>
       <c r="D48" s="8"/>
       <c r="E48" s="11">
-        <v>1604</v>
-      </c>
-      <c r="F48" s="32">
-        <v>1110</v>
+        <v>1847</v>
+      </c>
+      <c r="F48" s="28">
+        <v>1014</v>
       </c>
       <c r="G48" s="8">
-        <v>969</v>
+        <v>1037</v>
       </c>
       <c r="H48" s="11"/>
       <c r="I48" s="7"/>
       <c r="J48" s="8"/>
-      <c r="K48" s="11" t="s">
+      <c r="K48" s="11"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="L48" s="8" t="s">
+      <c r="O48" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="M48" s="33">
+      <c r="P48" s="11">
+        <v>674</v>
+      </c>
+      <c r="Q48" s="45">
         <v>687</v>
       </c>
-      <c r="N48" s="8">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
         <v>68</v>
       </c>
@@ -2534,31 +2671,34 @@
       <c r="C49" s="7"/>
       <c r="D49" s="8"/>
       <c r="E49" s="11">
-        <v>2869</v>
-      </c>
-      <c r="F49" s="32">
-        <v>1163</v>
+        <v>3083</v>
+      </c>
+      <c r="F49" s="28">
+        <v>1201</v>
       </c>
       <c r="G49" s="8">
-        <v>1176</v>
+        <v>1124</v>
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="7"/>
       <c r="J49" s="8"/>
-      <c r="K49" s="11" t="s">
+      <c r="K49" s="11"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="L49" s="8" t="s">
+      <c r="O49" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="M49" s="33">
+      <c r="P49" s="11">
+        <v>897</v>
+      </c>
+      <c r="Q49" s="45">
         <v>885</v>
       </c>
-      <c r="N49" s="8">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="27" t="s">
         <v>69</v>
       </c>
@@ -2566,31 +2706,34 @@
       <c r="C50" s="7"/>
       <c r="D50" s="8"/>
       <c r="E50" s="11">
-        <v>2767</v>
-      </c>
-      <c r="F50" s="32">
-        <v>1445</v>
+        <v>2339</v>
+      </c>
+      <c r="F50" s="28">
+        <v>1301</v>
       </c>
       <c r="G50" s="8">
-        <v>1592</v>
+        <v>1450</v>
       </c>
       <c r="H50" s="11"/>
       <c r="I50" s="7"/>
       <c r="J50" s="8"/>
-      <c r="K50" s="11" t="s">
+      <c r="K50" s="11"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L50" s="8" t="s">
+      <c r="O50" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M50" s="33">
+      <c r="P50" s="11">
+        <v>903</v>
+      </c>
+      <c r="Q50" s="45">
         <v>915</v>
       </c>
-      <c r="N50" s="8">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="27" t="s">
         <v>70</v>
       </c>
@@ -2598,31 +2741,34 @@
       <c r="C51" s="7"/>
       <c r="D51" s="8"/>
       <c r="E51" s="11">
-        <v>3049</v>
-      </c>
-      <c r="F51" s="32">
-        <v>1926</v>
+        <v>2991</v>
+      </c>
+      <c r="F51" s="28">
+        <v>1675</v>
       </c>
       <c r="G51" s="8">
-        <v>1626</v>
+        <v>1638</v>
       </c>
       <c r="H51" s="11"/>
       <c r="I51" s="7"/>
       <c r="J51" s="8"/>
-      <c r="K51" s="11" t="s">
+      <c r="K51" s="11"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="L51" s="8" t="s">
+      <c r="O51" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="M51" s="33">
+      <c r="P51" s="11">
+        <v>981</v>
+      </c>
+      <c r="Q51" s="45">
         <v>982</v>
       </c>
-      <c r="N51" s="8">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="27" t="s">
         <v>71</v>
       </c>
@@ -2630,31 +2776,34 @@
       <c r="C52" s="7"/>
       <c r="D52" s="8"/>
       <c r="E52" s="11">
-        <v>2319</v>
-      </c>
-      <c r="F52" s="32">
-        <v>1272</v>
+        <v>2402</v>
+      </c>
+      <c r="F52" s="28">
+        <v>1567</v>
       </c>
       <c r="G52" s="8">
-        <v>1042</v>
+        <v>1210</v>
       </c>
       <c r="H52" s="11"/>
       <c r="I52" s="7"/>
       <c r="J52" s="8"/>
-      <c r="K52" s="11" t="s">
+      <c r="K52" s="11"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="L52" s="8" t="s">
+      <c r="O52" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="M52" s="33">
+      <c r="P52" s="11">
+        <v>703</v>
+      </c>
+      <c r="Q52" s="45">
         <v>633</v>
       </c>
-      <c r="N52" s="8">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="27" t="s">
         <v>72</v>
       </c>
@@ -2662,31 +2811,34 @@
       <c r="C53" s="7"/>
       <c r="D53" s="8"/>
       <c r="E53" s="11">
-        <v>2587</v>
-      </c>
-      <c r="F53" s="32">
-        <v>1692</v>
+        <v>2843</v>
+      </c>
+      <c r="F53" s="28">
+        <v>1993</v>
       </c>
       <c r="G53" s="8">
-        <v>1684</v>
+        <v>1633</v>
       </c>
       <c r="H53" s="11"/>
       <c r="I53" s="7"/>
       <c r="J53" s="8"/>
-      <c r="K53" s="11" t="s">
+      <c r="K53" s="11"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="L53" s="8" t="s">
+      <c r="O53" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="M53" s="33">
+      <c r="P53" s="11">
+        <v>760</v>
+      </c>
+      <c r="Q53" s="45">
         <v>800</v>
       </c>
-      <c r="N53" s="8">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="27" t="s">
         <v>73</v>
       </c>
@@ -2694,38 +2846,42 @@
       <c r="C54" s="9"/>
       <c r="D54" s="10"/>
       <c r="E54" s="12">
-        <v>2506</v>
+        <v>2637</v>
       </c>
       <c r="F54" s="9">
-        <v>1044</v>
+        <v>1084</v>
       </c>
       <c r="G54" s="10">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="9"/>
       <c r="J54" s="10"/>
-      <c r="K54" s="12" t="s">
+      <c r="K54" s="12"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="L54" s="10" t="s">
+      <c r="O54" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="M54" s="9">
+      <c r="P54" s="12">
+        <v>657</v>
+      </c>
+      <c r="Q54" s="10">
         <v>640</v>
       </c>
-      <c r="N54" s="10">
-        <v>657</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="M3:N3"/>
+  <mergeCells count="7">
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="K3:M3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Benchmarks/MKS.xlsx
+++ b/data/Benchmarks/MKS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\GitHub\MSTS_FJSP\data\Benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3E6F5A-8E8F-40AB-9336-6E137A1A52BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704A1CC9-9812-40E6-9368-C200F085D937}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{87D6751E-06B1-440E-A7B4-B38AD42E9B96}"/>
+    <workbookView xWindow="2856" yWindow="144" windowWidth="17280" windowHeight="9132" xr2:uid="{87D6751E-06B1-440E-A7B4-B38AD42E9B96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="223">
   <si>
     <t>Shortest Path</t>
   </si>
@@ -409,6 +409,300 @@
   </si>
   <si>
     <t>Least Utilised Machine</t>
+  </si>
+  <si>
+    <t>510/475</t>
+  </si>
+  <si>
+    <t>580/467</t>
+  </si>
+  <si>
+    <t>475/409</t>
+  </si>
+  <si>
+    <t>657/586</t>
+  </si>
+  <si>
+    <t>744/686</t>
+  </si>
+  <si>
+    <t>1201/1069</t>
+  </si>
+  <si>
+    <t>730/644</t>
+  </si>
+  <si>
+    <t>648/531</t>
+  </si>
+  <si>
+    <t>1302/979</t>
+  </si>
+  <si>
+    <t>1475/895</t>
+  </si>
+  <si>
+    <t>819/819</t>
+  </si>
+  <si>
+    <t>959/633</t>
+  </si>
+  <si>
+    <t>1258/862</t>
+  </si>
+  <si>
+    <t>1511/1162</t>
+  </si>
+  <si>
+    <t>860/816</t>
+  </si>
+  <si>
+    <t>1003/936</t>
+  </si>
+  <si>
+    <t>1315/994</t>
+  </si>
+  <si>
+    <t>1535/1275</t>
+  </si>
+  <si>
+    <t>1168/1029</t>
+  </si>
+  <si>
+    <t>1312/1022</t>
+  </si>
+  <si>
+    <t>1040/892</t>
+  </si>
+  <si>
+    <t>1315/905</t>
+  </si>
+  <si>
+    <t>1378/1160</t>
+  </si>
+  <si>
+    <t>1603/1013</t>
+  </si>
+  <si>
+    <t>1136/748</t>
+  </si>
+  <si>
+    <t>1014/884</t>
+  </si>
+  <si>
+    <t>1301/1067</t>
+  </si>
+  <si>
+    <t>1675/1213</t>
+  </si>
+  <si>
+    <t>1567/1034</t>
+  </si>
+  <si>
+    <t>1993/1057</t>
+  </si>
+  <si>
+    <t>1084/830</t>
+  </si>
+  <si>
+    <t>529/409</t>
+  </si>
+  <si>
+    <t>813/734</t>
+  </si>
+  <si>
+    <t>909/707</t>
+  </si>
+  <si>
+    <t>644/644</t>
+  </si>
+  <si>
+    <t>649/531</t>
+  </si>
+  <si>
+    <t>1315/1047</t>
+  </si>
+  <si>
+    <t>1397/967</t>
+  </si>
+  <si>
+    <t>740/693</t>
+  </si>
+  <si>
+    <t>1153/970</t>
+  </si>
+  <si>
+    <t>1357/935</t>
+  </si>
+  <si>
+    <t>946/740</t>
+  </si>
+  <si>
+    <t>1030/936</t>
+  </si>
+  <si>
+    <t>1281/1191</t>
+  </si>
+  <si>
+    <t>1953/1598</t>
+  </si>
+  <si>
+    <t>1222/1190</t>
+  </si>
+  <si>
+    <t>1172/1096</t>
+  </si>
+  <si>
+    <t>1011/757</t>
+  </si>
+  <si>
+    <t>1309/927</t>
+  </si>
+  <si>
+    <t>1365/1240</t>
+  </si>
+  <si>
+    <t>1212/1073</t>
+  </si>
+  <si>
+    <t>902/677</t>
+  </si>
+  <si>
+    <t>1037/953</t>
+  </si>
+  <si>
+    <t>1124/1079</t>
+  </si>
+  <si>
+    <t>1450/1161</t>
+  </si>
+  <si>
+    <t>1638/1550</t>
+  </si>
+  <si>
+    <t>1210/921</t>
+  </si>
+  <si>
+    <t>1633/1207</t>
+  </si>
+  <si>
+    <t>1073/846</t>
+  </si>
+  <si>
+    <t>1335/1335</t>
+  </si>
+  <si>
+    <t>1140/824</t>
+  </si>
+  <si>
+    <t>422/404</t>
+  </si>
+  <si>
+    <t>585/472</t>
+  </si>
+  <si>
+    <t>975/688</t>
+  </si>
+  <si>
+    <t>861/685</t>
+  </si>
+  <si>
+    <t>1023/835</t>
+  </si>
+  <si>
+    <t>538/463</t>
+  </si>
+  <si>
+    <t>401/331</t>
+  </si>
+  <si>
+    <t>897/715</t>
+  </si>
+  <si>
+    <t>783/694</t>
+  </si>
+  <si>
+    <t>886/810</t>
+  </si>
+  <si>
+    <t>706/534</t>
+  </si>
+  <si>
+    <t>1918/1655</t>
+  </si>
+  <si>
+    <t>2170/1559</t>
+  </si>
+  <si>
+    <t>1749/1559</t>
+  </si>
+  <si>
+    <t>1598/1355</t>
+  </si>
+  <si>
+    <t>1873/1587</t>
+  </si>
+  <si>
+    <t>1936/1585</t>
+  </si>
+  <si>
+    <t>1688/1688</t>
+  </si>
+  <si>
+    <t>1406/1297</t>
+  </si>
+  <si>
+    <t>1126/902</t>
+  </si>
+  <si>
+    <t>454/404</t>
+  </si>
+  <si>
+    <t>567/472</t>
+  </si>
+  <si>
+    <t>873/685</t>
+  </si>
+  <si>
+    <t>1101/835</t>
+  </si>
+  <si>
+    <t>512/463</t>
+  </si>
+  <si>
+    <t>399/331</t>
+  </si>
+  <si>
+    <t>712/712</t>
+  </si>
+  <si>
+    <t>742/683</t>
+  </si>
+  <si>
+    <t>946/810</t>
+  </si>
+  <si>
+    <t>727/562</t>
+  </si>
+  <si>
+    <t>3282/1744</t>
+  </si>
+  <si>
+    <t>3053/1522</t>
+  </si>
+  <si>
+    <t>3849/2680</t>
+  </si>
+  <si>
+    <t>2584/2542</t>
+  </si>
+  <si>
+    <t>3849/3462</t>
+  </si>
+  <si>
+    <t>2976/2769</t>
+  </si>
+  <si>
+    <t>1905/1537</t>
   </si>
 </sst>
 </file>
@@ -691,7 +985,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -716,13 +1009,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -735,7 +1029,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1054,12 +1348,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C717E4-2E19-4E10-82CD-C66DD0E858F2}">
   <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="6" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1085,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="43" t="s">
         <v>0</v>
       </c>
@@ -1163,14 +1458,14 @@
       <c r="B5" s="14"/>
       <c r="C5" s="15"/>
       <c r="D5" s="16"/>
-      <c r="E5" s="30">
+      <c r="E5" s="29">
         <v>2048</v>
       </c>
-      <c r="F5" s="31">
-        <v>1406</v>
-      </c>
-      <c r="G5" s="32">
-        <v>1335</v>
+      <c r="F5" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>184</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="15"/>
@@ -1196,14 +1491,14 @@
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
-      <c r="E6" s="30">
+      <c r="E6" s="29">
         <v>2023</v>
       </c>
-      <c r="F6" s="35">
-        <v>1126</v>
-      </c>
-      <c r="G6" s="34">
-        <v>1140</v>
+      <c r="F6" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>185</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="15"/>
@@ -1229,14 +1524,14 @@
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
-      <c r="E7" s="30">
+      <c r="E7" s="29">
         <v>747</v>
       </c>
-      <c r="F7" s="22">
-        <v>454</v>
-      </c>
-      <c r="G7" s="36">
-        <v>422</v>
+      <c r="F7" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>186</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="22"/>
@@ -1262,14 +1557,14 @@
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="30">
+      <c r="E8" s="29">
         <v>1055</v>
       </c>
-      <c r="F8" s="35">
-        <v>567</v>
-      </c>
-      <c r="G8" s="32">
-        <v>585</v>
+      <c r="F8" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>187</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="22"/>
@@ -1295,14 +1590,14 @@
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="30">
+      <c r="E9" s="29">
         <v>1069</v>
       </c>
-      <c r="F9" s="31">
-        <v>975</v>
-      </c>
-      <c r="G9" s="32">
-        <v>975</v>
+      <c r="F9" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>188</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
@@ -1328,14 +1623,14 @@
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="30">
+      <c r="E10" s="29">
         <v>1151</v>
       </c>
-      <c r="F10" s="31">
-        <v>873</v>
-      </c>
-      <c r="G10" s="32">
-        <v>861</v>
+      <c r="F10" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>189</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="15"/>
@@ -1363,14 +1658,14 @@
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="30">
+      <c r="E11" s="29">
         <v>982</v>
       </c>
-      <c r="F11" s="31">
-        <v>1101</v>
-      </c>
-      <c r="G11" s="32">
-        <v>1023</v>
+      <c r="F11" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>190</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="15"/>
@@ -1396,14 +1691,14 @@
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="30">
+      <c r="E12" s="29">
         <v>1154</v>
       </c>
-      <c r="F12" s="37">
-        <v>512</v>
-      </c>
-      <c r="G12" s="32">
-        <v>538</v>
+      <c r="F12" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>191</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="15"/>
@@ -1430,14 +1725,14 @@
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="30">
+      <c r="E13" s="29">
         <v>554</v>
       </c>
-      <c r="F13" s="35">
-        <v>399</v>
-      </c>
-      <c r="G13" s="36">
-        <v>401</v>
+      <c r="F13" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>192</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="22"/>
@@ -1463,14 +1758,14 @@
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="30">
+      <c r="E14" s="29">
         <v>880</v>
       </c>
-      <c r="F14" s="31">
-        <v>712</v>
-      </c>
-      <c r="G14" s="32">
-        <v>897</v>
+      <c r="F14" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="15"/>
@@ -1496,14 +1791,14 @@
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="30">
+      <c r="E15" s="29">
         <v>1549</v>
       </c>
-      <c r="F15" s="22">
-        <v>742</v>
-      </c>
-      <c r="G15" s="32">
-        <v>783</v>
+      <c r="F15" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>194</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="15"/>
@@ -1529,14 +1824,14 @@
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="30">
+      <c r="E16" s="29">
         <v>1332</v>
       </c>
-      <c r="F16" s="31">
-        <v>946</v>
-      </c>
-      <c r="G16" s="32">
-        <v>886</v>
+      <c r="F16" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>195</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="15"/>
@@ -1562,14 +1857,14 @@
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="30">
+      <c r="E17" s="29">
         <v>1227</v>
       </c>
-      <c r="F17" s="31">
-        <v>727</v>
-      </c>
-      <c r="G17" s="34">
-        <v>706</v>
+      <c r="F17" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>196</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
@@ -1595,14 +1890,14 @@
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="30">
+      <c r="E18" s="29">
         <v>4810</v>
       </c>
-      <c r="F18" s="31">
-        <v>3282</v>
-      </c>
-      <c r="G18" s="34">
-        <v>1918</v>
+      <c r="F18" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>197</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="15"/>
@@ -1628,14 +1923,14 @@
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="30">
+      <c r="E19" s="29">
         <v>5232</v>
       </c>
-      <c r="F19" s="31">
-        <v>3849</v>
-      </c>
-      <c r="G19" s="34">
-        <v>2170</v>
+      <c r="F19" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>198</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="15"/>
@@ -1663,14 +1958,14 @@
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
-      <c r="E20" s="30">
+      <c r="E20" s="29">
         <v>5284</v>
       </c>
-      <c r="F20" s="31">
-        <v>3053</v>
-      </c>
-      <c r="G20" s="36">
-        <v>1749</v>
+      <c r="F20" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>199</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="15"/>
@@ -1698,14 +1993,14 @@
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
-      <c r="E21" s="30">
+      <c r="E21" s="29">
         <v>6039</v>
       </c>
-      <c r="F21" s="31">
-        <v>2584</v>
-      </c>
-      <c r="G21" s="36">
-        <v>1598</v>
+      <c r="F21" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>200</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="15"/>
@@ -1733,14 +2028,14 @@
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="30">
+      <c r="E22" s="29">
         <v>6214</v>
       </c>
-      <c r="F22" s="31">
-        <v>3849</v>
-      </c>
-      <c r="G22" s="34">
-        <v>1873</v>
+      <c r="F22" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>201</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="15"/>
@@ -1768,14 +2063,14 @@
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
-      <c r="E23" s="30">
+      <c r="E23" s="29">
         <v>6206</v>
       </c>
-      <c r="F23" s="31">
-        <v>2976</v>
-      </c>
-      <c r="G23" s="34">
-        <v>1936</v>
+      <c r="F23" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>202</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="15"/>
@@ -1803,14 +2098,14 @@
       <c r="B24" s="17"/>
       <c r="C24" s="18"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="33">
+      <c r="E24" s="32">
         <v>6198</v>
       </c>
-      <c r="F24" s="38">
-        <v>1905</v>
-      </c>
-      <c r="G24" s="39">
-        <v>1688</v>
+      <c r="F24" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>203</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="18"/>
@@ -1841,11 +2136,11 @@
       <c r="E25" s="24">
         <v>633</v>
       </c>
-      <c r="F25" s="25">
-        <v>510</v>
-      </c>
-      <c r="G25" s="26">
-        <v>580</v>
+      <c r="F25" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>126</v>
       </c>
       <c r="H25" s="24"/>
       <c r="I25" s="25"/>
@@ -1874,11 +2169,11 @@
       <c r="E26" s="11">
         <v>522</v>
       </c>
-      <c r="F26" s="7">
-        <v>475</v>
-      </c>
-      <c r="G26" s="8">
-        <v>529</v>
+      <c r="F26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="7"/>
@@ -1893,7 +2188,7 @@
       <c r="P26" s="11">
         <v>382</v>
       </c>
-      <c r="Q26" s="45">
+      <c r="Q26" s="38">
         <v>350</v>
       </c>
     </row>
@@ -1907,11 +2202,11 @@
       <c r="E27" s="11">
         <v>1273</v>
       </c>
-      <c r="F27" s="40">
-        <v>657</v>
-      </c>
-      <c r="G27" s="8">
-        <v>813</v>
+      <c r="F27" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="7"/>
@@ -1926,7 +2221,7 @@
       <c r="P27" s="11">
         <v>710</v>
       </c>
-      <c r="Q27" s="45">
+      <c r="Q27" s="38">
         <v>631</v>
       </c>
     </row>
@@ -1940,11 +2235,11 @@
       <c r="E28" s="11">
         <v>1388</v>
       </c>
-      <c r="F28" s="28">
-        <v>744</v>
-      </c>
-      <c r="G28" s="8">
-        <v>909</v>
+      <c r="F28" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="7"/>
@@ -1959,7 +2254,7 @@
       <c r="P28" s="11">
         <v>653</v>
       </c>
-      <c r="Q28" s="45">
+      <c r="Q28" s="38">
         <v>607</v>
       </c>
     </row>
@@ -1973,11 +2268,11 @@
       <c r="E29" s="11">
         <v>1009</v>
       </c>
-      <c r="F29" s="28">
-        <v>730</v>
-      </c>
-      <c r="G29" s="8">
-        <v>644</v>
+      <c r="F29" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="7"/>
@@ -1994,7 +2289,7 @@
       <c r="P29" s="11">
         <v>482</v>
       </c>
-      <c r="Q29" s="45">
+      <c r="Q29" s="38">
         <v>505</v>
       </c>
     </row>
@@ -2008,11 +2303,11 @@
       <c r="E30" s="11">
         <v>1181</v>
       </c>
-      <c r="F30" s="28">
-        <v>648</v>
-      </c>
-      <c r="G30" s="8">
-        <v>649</v>
+      <c r="F30" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="7"/>
@@ -2029,7 +2324,7 @@
       <c r="P30" s="11">
         <v>489</v>
       </c>
-      <c r="Q30" s="45">
+      <c r="Q30" s="38">
         <v>497</v>
       </c>
     </row>
@@ -2043,11 +2338,11 @@
       <c r="E31" s="11">
         <v>2140</v>
       </c>
-      <c r="F31" s="28">
-        <v>1302</v>
-      </c>
-      <c r="G31" s="8">
-        <v>1315</v>
+      <c r="F31" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="7"/>
@@ -2064,7 +2359,7 @@
       <c r="P31" s="11">
         <v>717</v>
       </c>
-      <c r="Q31" s="45">
+      <c r="Q31" s="38">
         <v>632</v>
       </c>
     </row>
@@ -2078,11 +2373,11 @@
       <c r="E32" s="11">
         <v>1697</v>
       </c>
-      <c r="F32" s="28">
-        <v>1475</v>
-      </c>
-      <c r="G32" s="8">
-        <v>1397</v>
+      <c r="F32" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="7"/>
@@ -2099,7 +2394,7 @@
       <c r="P32" s="11">
         <v>847</v>
       </c>
-      <c r="Q32" s="45">
+      <c r="Q32" s="38">
         <v>706</v>
       </c>
     </row>
@@ -2113,11 +2408,11 @@
       <c r="E33" s="11">
         <v>977</v>
       </c>
-      <c r="F33" s="28">
-        <v>819</v>
-      </c>
-      <c r="G33" s="8">
-        <v>819</v>
+      <c r="F33" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="7"/>
@@ -2134,7 +2429,7 @@
       <c r="P33" s="11">
         <v>535</v>
       </c>
-      <c r="Q33" s="45">
+      <c r="Q33" s="38">
         <v>533</v>
       </c>
     </row>
@@ -2148,11 +2443,11 @@
       <c r="E34" s="11">
         <v>1082</v>
       </c>
-      <c r="F34" s="28">
-        <v>959</v>
-      </c>
-      <c r="G34" s="8">
-        <v>740</v>
+      <c r="F34" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="7"/>
@@ -2169,7 +2464,7 @@
       <c r="P34" s="11">
         <v>629</v>
       </c>
-      <c r="Q34" s="45">
+      <c r="Q34" s="38">
         <v>621</v>
       </c>
     </row>
@@ -2183,11 +2478,11 @@
       <c r="E35" s="11">
         <v>2653</v>
       </c>
-      <c r="F35" s="28">
-        <v>1258</v>
-      </c>
-      <c r="G35" s="8">
-        <v>1153</v>
+      <c r="F35" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="7"/>
@@ -2204,7 +2499,7 @@
       <c r="P35" s="11">
         <v>708</v>
       </c>
-      <c r="Q35" s="45">
+      <c r="Q35" s="38">
         <v>767</v>
       </c>
     </row>
@@ -2218,11 +2513,11 @@
       <c r="E36" s="11">
         <v>2016</v>
       </c>
-      <c r="F36" s="28">
-        <v>1511</v>
-      </c>
-      <c r="G36" s="8">
-        <v>1357</v>
+      <c r="F36" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="7"/>
@@ -2239,7 +2534,7 @@
       <c r="P36" s="11">
         <v>720</v>
       </c>
-      <c r="Q36" s="45">
+      <c r="Q36" s="38">
         <v>727</v>
       </c>
     </row>
@@ -2253,11 +2548,11 @@
       <c r="E37" s="11">
         <v>1401</v>
       </c>
-      <c r="F37" s="28">
-        <v>860</v>
-      </c>
-      <c r="G37" s="29">
-        <v>946</v>
+      <c r="F37" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" s="40" t="s">
+        <v>166</v>
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="7"/>
@@ -2274,7 +2569,7 @@
       <c r="P37" s="11">
         <v>766</v>
       </c>
-      <c r="Q37" s="45">
+      <c r="Q37" s="38">
         <v>768</v>
       </c>
     </row>
@@ -2288,11 +2583,11 @@
       <c r="E38" s="11">
         <v>1796</v>
       </c>
-      <c r="F38" s="28">
-        <v>1003</v>
-      </c>
-      <c r="G38" s="8">
-        <v>1030</v>
+      <c r="F38" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="7"/>
@@ -2309,7 +2604,7 @@
       <c r="P38" s="11">
         <v>871</v>
       </c>
-      <c r="Q38" s="45">
+      <c r="Q38" s="38">
         <v>888</v>
       </c>
     </row>
@@ -2323,11 +2618,11 @@
       <c r="E39" s="11">
         <v>2457</v>
       </c>
-      <c r="F39" s="28">
-        <v>1315</v>
-      </c>
-      <c r="G39" s="8">
-        <v>1281</v>
+      <c r="F39" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="7"/>
@@ -2344,7 +2639,7 @@
       <c r="P39" s="11">
         <v>818</v>
       </c>
-      <c r="Q39" s="45">
+      <c r="Q39" s="38">
         <v>788</v>
       </c>
     </row>
@@ -2358,11 +2653,11 @@
       <c r="E40" s="11">
         <v>2547</v>
       </c>
-      <c r="F40" s="28">
-        <v>1535</v>
-      </c>
-      <c r="G40" s="8">
-        <v>1953</v>
+      <c r="F40" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="7"/>
@@ -2379,7 +2674,7 @@
       <c r="P40" s="11">
         <v>831</v>
       </c>
-      <c r="Q40" s="45">
+      <c r="Q40" s="38">
         <v>808</v>
       </c>
     </row>
@@ -2393,11 +2688,11 @@
       <c r="E41" s="11">
         <v>1449</v>
       </c>
-      <c r="F41" s="28">
-        <v>1168</v>
-      </c>
-      <c r="G41" s="8">
-        <v>1222</v>
+      <c r="F41" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="7"/>
@@ -2414,7 +2709,7 @@
       <c r="P41" s="11">
         <v>910</v>
       </c>
-      <c r="Q41" s="45">
+      <c r="Q41" s="38">
         <v>935</v>
       </c>
     </row>
@@ -2428,11 +2723,11 @@
       <c r="E42" s="11">
         <v>2089</v>
       </c>
-      <c r="F42" s="28">
-        <v>1312</v>
-      </c>
-      <c r="G42" s="8">
-        <v>1172</v>
+      <c r="F42" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="7"/>
@@ -2449,7 +2744,7 @@
       <c r="P42" s="11">
         <v>951</v>
       </c>
-      <c r="Q42" s="45">
+      <c r="Q42" s="38">
         <v>939</v>
       </c>
     </row>
@@ -2463,11 +2758,11 @@
       <c r="E43" s="11">
         <v>1740</v>
       </c>
-      <c r="F43" s="28">
-        <v>1040</v>
-      </c>
-      <c r="G43" s="8">
-        <v>1011</v>
+      <c r="F43" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="7"/>
@@ -2484,7 +2779,7 @@
       <c r="P43" s="11">
         <v>601</v>
       </c>
-      <c r="Q43" s="45">
+      <c r="Q43" s="38">
         <v>598</v>
       </c>
     </row>
@@ -2498,11 +2793,11 @@
       <c r="E44" s="11">
         <v>2345</v>
       </c>
-      <c r="F44" s="28">
-        <v>1315</v>
-      </c>
-      <c r="G44" s="8">
-        <v>1309</v>
+      <c r="F44" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="H44" s="11"/>
       <c r="I44" s="7"/>
@@ -2519,7 +2814,7 @@
       <c r="P44" s="11">
         <v>815</v>
       </c>
-      <c r="Q44" s="45">
+      <c r="Q44" s="38">
         <v>854</v>
       </c>
     </row>
@@ -2533,11 +2828,11 @@
       <c r="E45" s="11">
         <v>1949</v>
       </c>
-      <c r="F45" s="28">
-        <v>1378</v>
-      </c>
-      <c r="G45" s="8">
-        <v>1365</v>
+      <c r="F45" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="H45" s="11"/>
       <c r="I45" s="7"/>
@@ -2554,7 +2849,7 @@
       <c r="P45" s="11">
         <v>965</v>
       </c>
-      <c r="Q45" s="45">
+      <c r="Q45" s="38">
         <v>937</v>
       </c>
     </row>
@@ -2568,11 +2863,11 @@
       <c r="E46" s="11">
         <v>1985</v>
       </c>
-      <c r="F46" s="28">
-        <v>1603</v>
-      </c>
-      <c r="G46" s="8">
-        <v>1212</v>
+      <c r="F46" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="7"/>
@@ -2589,7 +2884,7 @@
       <c r="P46" s="11">
         <v>902</v>
       </c>
-      <c r="Q46" s="45">
+      <c r="Q46" s="38">
         <v>826</v>
       </c>
     </row>
@@ -2603,11 +2898,11 @@
       <c r="E47" s="11">
         <v>1429</v>
       </c>
-      <c r="F47" s="28">
-        <v>1136</v>
-      </c>
-      <c r="G47" s="8">
-        <v>902</v>
+      <c r="F47" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="H47" s="11"/>
       <c r="I47" s="7"/>
@@ -2624,7 +2919,7 @@
       <c r="P47" s="11">
         <v>632</v>
       </c>
-      <c r="Q47" s="45">
+      <c r="Q47" s="38">
         <v>548</v>
       </c>
     </row>
@@ -2638,11 +2933,11 @@
       <c r="E48" s="11">
         <v>1847</v>
       </c>
-      <c r="F48" s="28">
-        <v>1014</v>
-      </c>
-      <c r="G48" s="8">
-        <v>1037</v>
+      <c r="F48" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="H48" s="11"/>
       <c r="I48" s="7"/>
@@ -2659,7 +2954,7 @@
       <c r="P48" s="11">
         <v>674</v>
       </c>
-      <c r="Q48" s="45">
+      <c r="Q48" s="38">
         <v>687</v>
       </c>
     </row>
@@ -2673,11 +2968,11 @@
       <c r="E49" s="11">
         <v>3083</v>
       </c>
-      <c r="F49" s="28">
-        <v>1201</v>
-      </c>
-      <c r="G49" s="8">
-        <v>1124</v>
+      <c r="F49" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="7"/>
@@ -2694,7 +2989,7 @@
       <c r="P49" s="11">
         <v>897</v>
       </c>
-      <c r="Q49" s="45">
+      <c r="Q49" s="38">
         <v>885</v>
       </c>
     </row>
@@ -2708,11 +3003,11 @@
       <c r="E50" s="11">
         <v>2339</v>
       </c>
-      <c r="F50" s="28">
-        <v>1301</v>
-      </c>
-      <c r="G50" s="8">
-        <v>1450</v>
+      <c r="F50" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="H50" s="11"/>
       <c r="I50" s="7"/>
@@ -2729,7 +3024,7 @@
       <c r="P50" s="11">
         <v>903</v>
       </c>
-      <c r="Q50" s="45">
+      <c r="Q50" s="38">
         <v>915</v>
       </c>
     </row>
@@ -2743,11 +3038,11 @@
       <c r="E51" s="11">
         <v>2991</v>
       </c>
-      <c r="F51" s="28">
-        <v>1675</v>
-      </c>
-      <c r="G51" s="8">
-        <v>1638</v>
+      <c r="F51" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="H51" s="11"/>
       <c r="I51" s="7"/>
@@ -2764,7 +3059,7 @@
       <c r="P51" s="11">
         <v>981</v>
       </c>
-      <c r="Q51" s="45">
+      <c r="Q51" s="38">
         <v>982</v>
       </c>
     </row>
@@ -2778,11 +3073,11 @@
       <c r="E52" s="11">
         <v>2402</v>
       </c>
-      <c r="F52" s="28">
-        <v>1567</v>
-      </c>
-      <c r="G52" s="8">
-        <v>1210</v>
+      <c r="F52" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="H52" s="11"/>
       <c r="I52" s="7"/>
@@ -2799,7 +3094,7 @@
       <c r="P52" s="11">
         <v>703</v>
       </c>
-      <c r="Q52" s="45">
+      <c r="Q52" s="38">
         <v>633</v>
       </c>
     </row>
@@ -2813,11 +3108,11 @@
       <c r="E53" s="11">
         <v>2843</v>
       </c>
-      <c r="F53" s="28">
-        <v>1993</v>
-      </c>
-      <c r="G53" s="8">
-        <v>1633</v>
+      <c r="F53" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="H53" s="11"/>
       <c r="I53" s="7"/>
@@ -2834,7 +3129,7 @@
       <c r="P53" s="11">
         <v>760</v>
       </c>
-      <c r="Q53" s="45">
+      <c r="Q53" s="38">
         <v>800</v>
       </c>
     </row>
@@ -2848,11 +3143,11 @@
       <c r="E54" s="12">
         <v>2637</v>
       </c>
-      <c r="F54" s="9">
-        <v>1084</v>
-      </c>
-      <c r="G54" s="10">
-        <v>1073</v>
+      <c r="F54" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="9"/>
@@ -2879,9 +3174,9 @@
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="K3:M3"/>
+    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Benchmarks/MKS.xlsx
+++ b/data/Benchmarks/MKS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\GitHub\MSTS_FJSP\data\Benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A280B936-C4D2-4153-9749-1CBDF669E89B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFDAAC5-F7DE-4164-B670-47FAAB213D04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{87D6751E-06B1-440E-A7B4-B38AD42E9B96}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{87D6751E-06B1-440E-A7B4-B38AD42E9B96}"/>
   </bookViews>
   <sheets>
     <sheet name="Birgin Test Cases" sheetId="1" r:id="rId1"/>
@@ -953,13 +953,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -974,9 +977,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1293,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C717E4-2E19-4E10-82CD-C66DD0E858F2}">
   <dimension ref="A1:X61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="P60" sqref="P60"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1307,76 +1307,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="67" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="R3" s="68"/>
-      <c r="S3" s="69" t="s">
+      <c r="R3" s="71"/>
+      <c r="S3" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="68"/>
-      <c r="U3" s="67" t="s">
+      <c r="T3" s="71"/>
+      <c r="U3" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="V3" s="68"/>
+      <c r="V3" s="71"/>
       <c r="W3" s="6"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="67" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="67" t="s">
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="68"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="71"/>
       <c r="Q4" s="3" t="s">
         <v>5</v>
       </c>
@@ -2599,9 +2599,9 @@
       <c r="A25" s="12"/>
       <c r="B25" s="47"/>
       <c r="C25" s="57"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="43">
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="58">
         <f>AVERAGE(F5:F24)</f>
         <v>0.38696242821194859</v>
       </c>
@@ -2657,60 +2657,60 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="67" t="s">
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="R27" s="68"/>
-      <c r="S27" s="69" t="s">
+      <c r="R27" s="71"/>
+      <c r="S27" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="T27" s="68"/>
-      <c r="U27" s="67" t="s">
+      <c r="T27" s="71"/>
+      <c r="U27" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="V27" s="68"/>
+      <c r="V27" s="71"/>
       <c r="W27" s="11"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="67" t="s">
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="67" t="s">
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="68"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="71"/>
       <c r="Q28" s="3" t="s">
         <v>5</v>
       </c>
@@ -2742,7 +2742,7 @@
       <c r="C29" s="42">
         <v>422</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="42">
         <f t="shared" ref="D29:D43" si="3">(B29-C29)/B29</f>
         <v>0.33333333333333331</v>
       </c>
@@ -2759,11 +2759,11 @@
       <c r="H29" s="42">
         <v>475</v>
       </c>
-      <c r="I29" s="43">
+      <c r="I29" s="42">
         <f t="shared" ref="I29:I58" si="4">(G29-H29)/G29</f>
         <v>6.8627450980392163E-2</v>
       </c>
-      <c r="J29" s="76">
+      <c r="J29" s="69">
         <v>310</v>
       </c>
       <c r="K29">
@@ -2776,11 +2776,11 @@
       <c r="M29" s="42">
         <v>467</v>
       </c>
-      <c r="N29" s="43">
+      <c r="N29" s="42">
         <f t="shared" ref="N29:N58" si="5">(L29-M29)/L29</f>
         <v>0.19482758620689655</v>
       </c>
-      <c r="O29" s="76">
+      <c r="O29" s="69">
         <v>299</v>
       </c>
       <c r="P29">
@@ -2815,7 +2815,7 @@
       <c r="C30" s="7">
         <v>409</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <f t="shared" si="3"/>
         <v>0.21647509578544061</v>
       </c>
@@ -2826,7 +2826,7 @@
       <c r="H30" s="7">
         <v>409</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="7">
         <f t="shared" si="4"/>
         <v>0.13894736842105262</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>321</v>
       </c>
       <c r="K30">
-        <f t="shared" ref="K30:K59" si="6">(G30-J30)/G30</f>
+        <f t="shared" ref="K30:K58" si="6">(G30-J30)/G30</f>
         <v>0.32421052631578945</v>
       </c>
       <c r="L30" s="11">
@@ -2843,7 +2843,7 @@
       <c r="M30" s="7">
         <v>409</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="7">
         <f t="shared" si="5"/>
         <v>0.22684310018903592</v>
       </c>
@@ -2881,7 +2881,7 @@
       <c r="C31" s="7">
         <v>942</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <f t="shared" si="3"/>
         <v>0.26001571091908876</v>
       </c>
@@ -2892,7 +2892,7 @@
       <c r="H31" s="49">
         <v>586</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="7">
         <f t="shared" si="4"/>
         <v>0.1080669710806697</v>
       </c>
@@ -2909,7 +2909,7 @@
       <c r="M31" s="7">
         <v>734</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="7">
         <f t="shared" si="5"/>
         <v>9.7170971709717099E-2</v>
       </c>
@@ -2947,7 +2947,7 @@
       <c r="C32" s="7">
         <v>744</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <f t="shared" si="3"/>
         <v>0.46397694524495675</v>
       </c>
@@ -2958,7 +2958,7 @@
       <c r="H32" s="7">
         <v>686</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="7">
         <f t="shared" si="4"/>
         <v>7.7956989247311828E-2</v>
       </c>
@@ -2975,7 +2975,7 @@
       <c r="M32" s="7">
         <v>707</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N32" s="7">
         <f t="shared" si="5"/>
         <v>0.22222222222222221</v>
       </c>
@@ -3013,7 +3013,7 @@
       <c r="C33" s="7">
         <v>708</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <f t="shared" si="3"/>
         <v>0.29831516352824577</v>
       </c>
@@ -3024,7 +3024,7 @@
       <c r="H33" s="7">
         <v>644</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="7">
         <f t="shared" si="4"/>
         <v>0.11780821917808219</v>
       </c>
@@ -3041,7 +3041,7 @@
       <c r="M33" s="7">
         <v>644</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N33" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3081,7 +3081,7 @@
       <c r="C34" s="7">
         <v>742</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <f t="shared" si="3"/>
         <v>0.37171888230313294</v>
       </c>
@@ -3092,7 +3092,7 @@
       <c r="H34" s="7">
         <v>531</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="7">
         <f t="shared" si="4"/>
         <v>0.18055555555555555</v>
       </c>
@@ -3109,7 +3109,7 @@
       <c r="M34" s="7">
         <v>531</v>
       </c>
-      <c r="N34" s="8">
+      <c r="N34" s="7">
         <f t="shared" si="5"/>
         <v>0.18181818181818182</v>
       </c>
@@ -3149,7 +3149,7 @@
       <c r="C35" s="7">
         <v>1112</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <f t="shared" si="3"/>
         <v>0.48037383177570092</v>
       </c>
@@ -3160,11 +3160,11 @@
       <c r="H35" s="7">
         <v>979</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="7">
         <f t="shared" si="4"/>
         <v>0.24807987711213517</v>
       </c>
-      <c r="J35" s="75">
+      <c r="J35" s="68">
         <v>840</v>
       </c>
       <c r="K35">
@@ -3177,7 +3177,7 @@
       <c r="M35" s="7">
         <v>1047</v>
       </c>
-      <c r="N35" s="8">
+      <c r="N35" s="7">
         <f t="shared" si="5"/>
         <v>0.20380228136882128</v>
       </c>
@@ -3217,7 +3217,7 @@
       <c r="C36" s="7">
         <v>1070</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <f t="shared" si="3"/>
         <v>0.36947554507955216</v>
       </c>
@@ -3228,11 +3228,11 @@
       <c r="H36" s="7">
         <v>895</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="7">
         <f t="shared" si="4"/>
         <v>0.39322033898305087</v>
       </c>
-      <c r="J36" s="75">
+      <c r="J36" s="68">
         <v>884</v>
       </c>
       <c r="K36">
@@ -3245,7 +3245,7 @@
       <c r="M36" s="7">
         <v>967</v>
       </c>
-      <c r="N36" s="8">
+      <c r="N36" s="7">
         <f t="shared" si="5"/>
         <v>0.30780243378668576</v>
       </c>
@@ -3285,7 +3285,7 @@
       <c r="C37" s="7">
         <v>837</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <f t="shared" si="3"/>
         <v>0.14329580348004095</v>
       </c>
@@ -3296,7 +3296,7 @@
       <c r="H37" s="7">
         <v>819</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3313,7 +3313,7 @@
       <c r="M37" s="7">
         <v>819</v>
       </c>
-      <c r="N37" s="8">
+      <c r="N37" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3353,7 +3353,7 @@
       <c r="C38" s="7">
         <v>742</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <f t="shared" si="3"/>
         <v>0.3142329020332717</v>
       </c>
@@ -3364,7 +3364,7 @@
       <c r="H38" s="7">
         <v>633</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I38" s="7">
         <f t="shared" si="4"/>
         <v>0.33993743482794575</v>
       </c>
@@ -3381,7 +3381,7 @@
       <c r="M38" s="7">
         <v>693</v>
       </c>
-      <c r="N38" s="8">
+      <c r="N38" s="7">
         <f t="shared" si="5"/>
         <v>6.3513513513513517E-2</v>
       </c>
@@ -3421,7 +3421,7 @@
       <c r="C39" s="7">
         <v>1202</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <f t="shared" si="3"/>
         <v>0.54692800603090841</v>
       </c>
@@ -3432,7 +3432,7 @@
       <c r="H39" s="7">
         <v>862</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="7">
         <f t="shared" si="4"/>
         <v>0.31478537360890302</v>
       </c>
@@ -3449,7 +3449,7 @@
       <c r="M39" s="7">
         <v>970</v>
       </c>
-      <c r="N39" s="8">
+      <c r="N39" s="7">
         <f t="shared" si="5"/>
         <v>0.15871639202081528</v>
       </c>
@@ -3489,7 +3489,7 @@
       <c r="C40" s="7">
         <v>1375</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7">
         <f t="shared" si="3"/>
         <v>0.31795634920634919</v>
       </c>
@@ -3500,11 +3500,11 @@
       <c r="H40" s="7">
         <v>1162</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I40" s="7">
         <f t="shared" si="4"/>
         <v>0.23097286565188616</v>
       </c>
-      <c r="J40" s="75">
+      <c r="J40" s="68">
         <v>844</v>
       </c>
       <c r="K40">
@@ -3517,7 +3517,7 @@
       <c r="M40" s="7">
         <v>935</v>
       </c>
-      <c r="N40" s="8">
+      <c r="N40" s="7">
         <f t="shared" si="5"/>
         <v>0.31098010316875463</v>
       </c>
@@ -3557,7 +3557,7 @@
       <c r="C41" s="49">
         <v>754</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="7">
         <f t="shared" si="3"/>
         <v>0.46181299072091364</v>
       </c>
@@ -3568,7 +3568,7 @@
       <c r="H41" s="7">
         <v>816</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="7">
         <f t="shared" si="4"/>
         <v>5.1162790697674418E-2</v>
       </c>
@@ -3585,7 +3585,7 @@
       <c r="M41" s="49">
         <v>740</v>
       </c>
-      <c r="N41" s="8">
+      <c r="N41" s="7">
         <f t="shared" si="5"/>
         <v>0.21775898520084566</v>
       </c>
@@ -3625,7 +3625,7 @@
       <c r="C42" s="7">
         <v>1103</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="7">
         <f t="shared" si="3"/>
         <v>0.38585746102449886</v>
       </c>
@@ -3636,7 +3636,7 @@
       <c r="H42" s="7">
         <v>936</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="7">
         <f t="shared" si="4"/>
         <v>6.6799601196410763E-2</v>
       </c>
@@ -3653,7 +3653,7 @@
       <c r="M42" s="7">
         <v>936</v>
       </c>
-      <c r="N42" s="8">
+      <c r="N42" s="7">
         <f t="shared" si="5"/>
         <v>9.1262135922330095E-2</v>
       </c>
@@ -3693,7 +3693,7 @@
       <c r="C43" s="7">
         <v>2305</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <f t="shared" si="3"/>
         <v>6.1864061864061862E-2</v>
       </c>
@@ -3704,11 +3704,11 @@
       <c r="H43" s="7">
         <v>994</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I43" s="7">
         <f t="shared" si="4"/>
         <v>0.24410646387832699</v>
       </c>
-      <c r="J43" s="75">
+      <c r="J43" s="68">
         <v>998</v>
       </c>
       <c r="K43">
@@ -3721,7 +3721,7 @@
       <c r="M43" s="7">
         <v>1191</v>
       </c>
-      <c r="N43" s="8">
+      <c r="N43" s="7">
         <f t="shared" si="5"/>
         <v>7.0257611241217793E-2</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>2547</v>
       </c>
       <c r="C44" s="7"/>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>179</v>
       </c>
       <c r="E44" s="7"/>
@@ -3769,11 +3769,11 @@
       <c r="H44" s="7">
         <v>1275</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I44" s="7">
         <f t="shared" si="4"/>
         <v>0.16938110749185667</v>
       </c>
-      <c r="J44" s="75">
+      <c r="J44" s="68">
         <v>1086</v>
       </c>
       <c r="K44">
@@ -3786,7 +3786,7 @@
       <c r="M44" s="7">
         <v>1598</v>
       </c>
-      <c r="N44" s="8">
+      <c r="N44" s="7">
         <f t="shared" si="5"/>
         <v>0.18177163338453661</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>1449</v>
       </c>
       <c r="C45" s="7"/>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="7" t="s">
         <v>179</v>
       </c>
       <c r="E45" s="7"/>
@@ -3834,7 +3834,7 @@
       <c r="H45" s="7">
         <v>1029</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I45" s="7">
         <f t="shared" si="4"/>
         <v>0.1190068493150685</v>
       </c>
@@ -3851,7 +3851,7 @@
       <c r="M45" s="7">
         <v>1190</v>
       </c>
-      <c r="N45" s="8">
+      <c r="N45" s="7">
         <f t="shared" si="5"/>
         <v>2.6186579378068741E-2</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>2089</v>
       </c>
       <c r="C46" s="7"/>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="7" t="s">
         <v>179</v>
       </c>
       <c r="E46" s="7"/>
@@ -3899,7 +3899,7 @@
       <c r="H46" s="7">
         <v>1022</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I46" s="7">
         <f t="shared" si="4"/>
         <v>0.22103658536585366</v>
       </c>
@@ -3916,7 +3916,7 @@
       <c r="M46" s="7">
         <v>1096</v>
       </c>
-      <c r="N46" s="8">
+      <c r="N46" s="7">
         <f t="shared" si="5"/>
         <v>6.4846416382252553E-2</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>1740</v>
       </c>
       <c r="C47" s="7"/>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>179</v>
       </c>
       <c r="E47" s="7"/>
@@ -3964,11 +3964,11 @@
       <c r="H47" s="7">
         <v>892</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I47" s="7">
         <f t="shared" si="4"/>
         <v>0.1423076923076923</v>
       </c>
-      <c r="J47" s="75">
+      <c r="J47" s="68">
         <v>635</v>
       </c>
       <c r="K47">
@@ -3981,7 +3981,7 @@
       <c r="M47" s="7">
         <v>757</v>
       </c>
-      <c r="N47" s="8">
+      <c r="N47" s="7">
         <f t="shared" si="5"/>
         <v>0.25123639960435212</v>
       </c>
@@ -4021,7 +4021,7 @@
       <c r="C48" s="7">
         <v>1110</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <f>(B48-C48)/B48</f>
         <v>0.5266524520255863</v>
       </c>
@@ -4032,11 +4032,11 @@
       <c r="H48" s="7">
         <v>905</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I48" s="7">
         <f t="shared" si="4"/>
         <v>0.31178707224334601</v>
       </c>
-      <c r="J48" s="75">
+      <c r="J48" s="68">
         <v>1091</v>
       </c>
       <c r="K48">
@@ -4049,7 +4049,7 @@
       <c r="M48" s="7">
         <v>927</v>
       </c>
-      <c r="N48" s="8">
+      <c r="N48" s="7">
         <f t="shared" si="5"/>
         <v>0.29182582123758594</v>
       </c>
@@ -4089,7 +4089,7 @@
       <c r="C49" s="7">
         <v>1232</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="7">
         <f>(B49-C49)/B49</f>
         <v>0.36788096459722935</v>
       </c>
@@ -4100,11 +4100,11 @@
       <c r="H49" s="7">
         <v>1160</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I49" s="7">
         <f t="shared" si="4"/>
         <v>0.15820029027576196</v>
       </c>
-      <c r="J49" s="75">
+      <c r="J49" s="68">
         <v>1006</v>
       </c>
       <c r="K49">
@@ -4117,7 +4117,7 @@
       <c r="M49" s="7">
         <v>1240</v>
       </c>
-      <c r="N49" s="8">
+      <c r="N49" s="7">
         <f t="shared" si="5"/>
         <v>9.1575091575091569E-2</v>
       </c>
@@ -4157,7 +4157,7 @@
       <c r="C50" s="7">
         <v>1985</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="7" t="s">
         <v>179</v>
       </c>
       <c r="E50" s="7"/>
@@ -4167,11 +4167,11 @@
       <c r="H50" s="7">
         <v>1013</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I50" s="7">
         <f t="shared" si="4"/>
         <v>0.36805988771054271</v>
       </c>
-      <c r="J50" s="75">
+      <c r="J50" s="68">
         <v>915</v>
       </c>
       <c r="K50">
@@ -4184,7 +4184,7 @@
       <c r="M50" s="7">
         <v>1073</v>
       </c>
-      <c r="N50" s="8">
+      <c r="N50" s="7">
         <f t="shared" si="5"/>
         <v>0.11468646864686469</v>
       </c>
@@ -4224,7 +4224,7 @@
       <c r="C51" s="7">
         <v>960</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="7">
         <f>(B51-C51)/B51</f>
         <v>0.32820153953813858</v>
       </c>
@@ -4235,7 +4235,7 @@
       <c r="H51" s="7">
         <v>748</v>
       </c>
-      <c r="I51" s="8">
+      <c r="I51" s="7">
         <f t="shared" si="4"/>
         <v>0.34154929577464788</v>
       </c>
@@ -4252,7 +4252,7 @@
       <c r="M51" s="7">
         <v>677</v>
       </c>
-      <c r="N51" s="8">
+      <c r="N51" s="7">
         <f t="shared" si="5"/>
         <v>0.24944567627494457</v>
       </c>
@@ -4292,7 +4292,7 @@
       <c r="C52" s="7">
         <v>1159</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="7">
         <f>(B52-C52)/B52</f>
         <v>0.37249593936112613</v>
       </c>
@@ -4303,11 +4303,11 @@
       <c r="H52" s="7">
         <v>884</v>
       </c>
-      <c r="I52" s="8">
+      <c r="I52" s="7">
         <f t="shared" si="4"/>
         <v>0.12820512820512819</v>
       </c>
-      <c r="J52" s="75">
+      <c r="J52" s="68">
         <v>767</v>
       </c>
       <c r="K52">
@@ -4320,7 +4320,7 @@
       <c r="M52" s="7">
         <v>953</v>
       </c>
-      <c r="N52" s="8">
+      <c r="N52" s="7">
         <f t="shared" si="5"/>
         <v>8.1002892960462869E-2</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>3083</v>
       </c>
       <c r="C53" s="7"/>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="7" t="s">
         <v>179</v>
       </c>
       <c r="E53" s="7"/>
@@ -4368,7 +4368,7 @@
       <c r="H53" s="7">
         <v>1069</v>
       </c>
-      <c r="I53" s="8">
+      <c r="I53" s="7">
         <f t="shared" si="4"/>
         <v>0.10990840965861781</v>
       </c>
@@ -4385,7 +4385,7 @@
       <c r="M53" s="7">
         <v>1079</v>
       </c>
-      <c r="N53" s="8">
+      <c r="N53" s="7">
         <f t="shared" si="5"/>
         <v>4.0035587188612103E-2</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>2339</v>
       </c>
       <c r="C54" s="7"/>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="7" t="s">
         <v>179</v>
       </c>
       <c r="E54" s="7"/>
@@ -4433,11 +4433,11 @@
       <c r="H54" s="7">
         <v>1067</v>
       </c>
-      <c r="I54" s="8">
+      <c r="I54" s="7">
         <f t="shared" si="4"/>
         <v>0.17986164488854728</v>
       </c>
-      <c r="J54" s="75">
+      <c r="J54" s="68">
         <v>943</v>
       </c>
       <c r="K54">
@@ -4450,7 +4450,7 @@
       <c r="M54" s="7">
         <v>1161</v>
       </c>
-      <c r="N54" s="8">
+      <c r="N54" s="7">
         <f t="shared" si="5"/>
         <v>0.19931034482758619</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>2991</v>
       </c>
       <c r="C55" s="7"/>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="7" t="s">
         <v>179</v>
       </c>
       <c r="E55" s="7"/>
@@ -4498,11 +4498,11 @@
       <c r="H55" s="7">
         <v>1213</v>
       </c>
-      <c r="I55" s="8">
+      <c r="I55" s="7">
         <f t="shared" si="4"/>
         <v>0.27582089552238803</v>
       </c>
-      <c r="J55" s="75">
+      <c r="J55" s="68">
         <v>1277</v>
       </c>
       <c r="K55">
@@ -4515,7 +4515,7 @@
       <c r="M55" s="7">
         <v>1550</v>
       </c>
-      <c r="N55" s="8">
+      <c r="N55" s="7">
         <f t="shared" si="5"/>
         <v>5.3724053724053727E-2</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>2402</v>
       </c>
       <c r="C56" s="7"/>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="7" t="s">
         <v>179</v>
       </c>
       <c r="E56" s="7"/>
@@ -4563,11 +4563,11 @@
       <c r="H56" s="7">
         <v>1034</v>
       </c>
-      <c r="I56" s="8">
+      <c r="I56" s="7">
         <f t="shared" si="4"/>
         <v>0.34014039566049775</v>
       </c>
-      <c r="J56" s="75">
+      <c r="J56" s="68">
         <v>875</v>
       </c>
       <c r="K56">
@@ -4580,7 +4580,7 @@
       <c r="M56" s="7">
         <v>921</v>
       </c>
-      <c r="N56" s="8">
+      <c r="N56" s="7">
         <f t="shared" si="5"/>
         <v>0.23884297520661157</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>2843</v>
       </c>
       <c r="C57" s="7"/>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="7" t="s">
         <v>179</v>
       </c>
       <c r="E57" s="7"/>
@@ -4628,11 +4628,11 @@
       <c r="H57" s="7">
         <v>1057</v>
       </c>
-      <c r="I57" s="8">
+      <c r="I57" s="7">
         <f t="shared" si="4"/>
         <v>0.46964375313597589</v>
       </c>
-      <c r="J57" s="75">
+      <c r="J57" s="68">
         <v>1027</v>
       </c>
       <c r="K57">
@@ -4645,7 +4645,7 @@
       <c r="M57" s="7">
         <v>1207</v>
       </c>
-      <c r="N57" s="8">
+      <c r="N57" s="7">
         <f t="shared" si="5"/>
         <v>0.2608695652173913</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>2637</v>
       </c>
       <c r="C58" s="9"/>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="9" t="s">
         <v>179</v>
       </c>
       <c r="E58" s="9"/>
@@ -4693,11 +4693,11 @@
       <c r="H58" s="9">
         <v>830</v>
       </c>
-      <c r="I58" s="10">
+      <c r="I58" s="9">
         <f t="shared" si="4"/>
         <v>0.23431734317343172</v>
       </c>
-      <c r="J58" s="74">
+      <c r="J58" s="67">
         <v>780</v>
       </c>
       <c r="K58">
@@ -4710,14 +4710,14 @@
       <c r="M58" s="9">
         <v>846</v>
       </c>
-      <c r="N58" s="10">
+      <c r="N58" s="9">
         <f t="shared" si="5"/>
         <v>0.21155638397017706</v>
       </c>
       <c r="O58" s="9">
         <v>996</v>
       </c>
-      <c r="P58">
+      <c r="P58" s="10">
         <f t="shared" si="7"/>
         <v>7.1761416589002799E-2</v>
       </c>
@@ -4749,6 +4749,7 @@
         <v>0.34846647251850404</v>
       </c>
       <c r="E59" s="9"/>
+      <c r="F59" s="58"/>
       <c r="G59" s="12"/>
       <c r="H59" s="9"/>
       <c r="I59" s="10">
@@ -4756,7 +4757,7 @@
         <v>0.20500845503829185</v>
       </c>
       <c r="J59" s="9"/>
-      <c r="K59">
+      <c r="K59" s="43">
         <f>AVERAGE(K29:K58)</f>
         <v>0.31952238853568588</v>
       </c>
@@ -4767,7 +4768,7 @@
         <v>0.15679638026492096</v>
       </c>
       <c r="O59" s="9"/>
-      <c r="P59">
+      <c r="P59" s="58">
         <f>AVERAGE(P29:P58)</f>
         <v>0.28215751257393301</v>
       </c>
@@ -4778,6 +4779,9 @@
       <c r="U59" s="12"/>
       <c r="V59" s="10"/>
     </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="K60" s="42"/>
+    </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>175</v>
@@ -4785,21 +4789,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="B27:P27"/>
+    <mergeCell ref="Q27:R27"/>
     <mergeCell ref="S27:T27"/>
     <mergeCell ref="U27:V27"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="G28:K28"/>
     <mergeCell ref="L28:P28"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="B27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="B3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4818,37 +4822,37 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="67" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="67" t="s">
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="67" t="s">
+      <c r="I3" s="70"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="L3" s="68"/>
+      <c r="L3" s="71"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
@@ -5213,43 +5217,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="67" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="67" t="s">
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="67" t="s">
+      <c r="I3" s="70"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="L3" s="68"/>
-      <c r="M3" s="71" t="s">
+      <c r="L3" s="71"/>
+      <c r="M3" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="73"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="76"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>

--- a/data/Benchmarks/MKS.xlsx
+++ b/data/Benchmarks/MKS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\GitHub\MSTS_FJSP\data\Benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFDAAC5-F7DE-4164-B670-47FAAB213D04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A903BD10-024C-4E3B-A82F-AA82B44B388F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{87D6751E-06B1-440E-A7B4-B38AD42E9B96}"/>
   </bookViews>
@@ -956,13 +956,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1293,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C717E4-2E19-4E10-82CD-C66DD0E858F2}">
   <dimension ref="A1:X61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1323,32 +1323,32 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
       <c r="P3" s="71"/>
-      <c r="Q3" s="72" t="s">
+      <c r="Q3" s="70" t="s">
         <v>177</v>
       </c>
       <c r="R3" s="71"/>
-      <c r="S3" s="70" t="s">
+      <c r="S3" s="72" t="s">
         <v>7</v>
       </c>
       <c r="T3" s="71"/>
-      <c r="U3" s="72" t="s">
+      <c r="U3" s="70" t="s">
         <v>172</v>
       </c>
       <c r="V3" s="71"/>
@@ -1356,26 +1356,26 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="71"/>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="71"/>
-      <c r="L4" s="72" t="s">
+      <c r="L4" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
       <c r="P4" s="71"/>
       <c r="Q4" s="3" t="s">
         <v>5</v>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="D6" s="49"/>
       <c r="E6" s="49"/>
-      <c r="F6" s="43">
+      <c r="F6" s="8">
         <f t="shared" ref="F6:F18" si="0">(B6-C6)/B6</f>
         <v>0.59466139396935247</v>
       </c>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D7" s="51"/>
       <c r="E7" s="51"/>
-      <c r="F7" s="43">
+      <c r="F7" s="8">
         <f t="shared" si="0"/>
         <v>0.39357429718875503</v>
       </c>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="D8" s="65"/>
       <c r="E8" s="65"/>
-      <c r="F8" s="43">
+      <c r="F8" s="8">
         <f t="shared" si="0"/>
         <v>0.53649289099526065</v>
       </c>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="D9" s="64"/>
       <c r="E9" s="64"/>
-      <c r="F9" s="43">
+      <c r="F9" s="8">
         <f t="shared" si="0"/>
         <v>0.35640785781103834</v>
       </c>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="D10" s="64"/>
       <c r="E10" s="64"/>
-      <c r="F10" s="43">
+      <c r="F10" s="8">
         <f t="shared" si="0"/>
         <v>0.40486533449174633</v>
       </c>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
-      <c r="F11" s="43">
+      <c r="F11" s="8">
         <f t="shared" si="0"/>
         <v>0.14969450101832993</v>
       </c>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="D12" s="64"/>
       <c r="E12" s="64"/>
-      <c r="F12" s="43">
+      <c r="F12" s="8">
         <f t="shared" si="0"/>
         <v>0.53466204506065862</v>
       </c>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="D13" s="65"/>
       <c r="E13" s="65"/>
-      <c r="F13" s="43">
+      <c r="F13" s="8">
         <f t="shared" si="0"/>
         <v>0.39891696750902528</v>
       </c>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="D14" s="64"/>
       <c r="E14" s="64"/>
-      <c r="F14" s="43">
+      <c r="F14" s="8">
         <f t="shared" si="0"/>
         <v>0.17840909090909091</v>
       </c>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D15" s="65"/>
       <c r="E15" s="65"/>
-      <c r="F15" s="43">
+      <c r="F15" s="8">
         <f t="shared" si="0"/>
         <v>0.55907036797934151</v>
       </c>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="D16" s="66"/>
       <c r="E16" s="66"/>
-      <c r="F16" s="43">
+      <c r="F16" s="8">
         <f t="shared" si="0"/>
         <v>0.4144144144144144</v>
       </c>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="D17" s="66"/>
       <c r="E17" s="66"/>
-      <c r="F17" s="43">
+      <c r="F17" s="8">
         <f t="shared" si="0"/>
         <v>0.49877750611246946</v>
       </c>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="43">
+      <c r="F18" s="8">
         <f t="shared" si="0"/>
         <v>9.6257796257796263E-2</v>
       </c>
@@ -2251,7 +2251,7 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="8" t="s">
         <v>179</v>
       </c>
       <c r="G19" s="11">
@@ -2310,7 +2310,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="8" t="s">
         <v>179</v>
       </c>
       <c r="G20" s="11">
@@ -2369,7 +2369,7 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="8" t="s">
         <v>179</v>
       </c>
       <c r="G21" s="11">
@@ -2428,7 +2428,7 @@
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="8" t="s">
         <v>179</v>
       </c>
       <c r="G22" s="11">
@@ -2487,7 +2487,7 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="8" t="s">
         <v>179</v>
       </c>
       <c r="G23" s="11">
@@ -2546,7 +2546,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="8" t="s">
         <v>179</v>
       </c>
       <c r="G24" s="52">
@@ -2657,32 +2657,32 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
       <c r="P27" s="71"/>
-      <c r="Q27" s="72" t="s">
+      <c r="Q27" s="70" t="s">
         <v>177</v>
       </c>
       <c r="R27" s="71"/>
-      <c r="S27" s="70" t="s">
+      <c r="S27" s="72" t="s">
         <v>7</v>
       </c>
       <c r="T27" s="71"/>
-      <c r="U27" s="72" t="s">
+      <c r="U27" s="70" t="s">
         <v>172</v>
       </c>
       <c r="V27" s="71"/>
@@ -2690,26 +2690,26 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
       <c r="F28" s="71"/>
-      <c r="G28" s="72" t="s">
+      <c r="G28" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
       <c r="K28" s="71"/>
-      <c r="L28" s="72" t="s">
+      <c r="L28" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="70"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
       <c r="P28" s="71"/>
       <c r="Q28" s="3" t="s">
         <v>5</v>
@@ -4789,21 +4789,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="B27:P27"/>
+    <mergeCell ref="Q27:R27"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="B27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4834,22 +4834,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="70"/>
+      <c r="C3" s="72"/>
       <c r="D3" s="71"/>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="72" t="s">
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="70"/>
+      <c r="I3" s="72"/>
       <c r="J3" s="71"/>
-      <c r="K3" s="72" t="s">
+      <c r="K3" s="70" t="s">
         <v>154</v>
       </c>
       <c r="L3" s="71"/>
@@ -5229,22 +5229,22 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="70"/>
+      <c r="C3" s="72"/>
       <c r="D3" s="71"/>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="72" t="s">
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="70"/>
+      <c r="I3" s="72"/>
       <c r="J3" s="71"/>
-      <c r="K3" s="72" t="s">
+      <c r="K3" s="70" t="s">
         <v>145</v>
       </c>
       <c r="L3" s="71"/>

--- a/data/Benchmarks/MKS.xlsx
+++ b/data/Benchmarks/MKS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\GitHub\MSTS_FJSP\data\Benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A903BD10-024C-4E3B-A82F-AA82B44B388F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2459ACD7-E8A5-40F2-8700-E89860EEF0CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{87D6751E-06B1-440E-A7B4-B38AD42E9B96}"/>
   </bookViews>
@@ -819,7 +819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -956,13 +956,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -975,6 +975,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -992,6 +995,3840 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ" sz="1600" b="1"/>
+              <a:t>YFJS Makespan</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Birgin Test Cases'!$G$4:$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LRMT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Birgin Test Cases'!$A$5:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>YFJS01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>YFJS02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>YFJS03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>YFJS04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>YFJS05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>YFJS06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>YFJS07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>YFJS08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>YFJS09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>YFJS10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>YFJS11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>YFJS12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>YFJS13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>YFJS14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>YFJS15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>YFJS16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>YFJS17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>YFJS18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>YFJS19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>YFJS20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Birgin Test Cases'!$J$5:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>811</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>866</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2768</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1821</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2478</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3385</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2769</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1551</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C04-4313-AD2D-E6987983724D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Birgin Test Cases'!$L$4:$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ERT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Birgin Test Cases'!$A$5:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>YFJS01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>YFJS02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>YFJS03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>YFJS04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>YFJS05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>YFJS06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>YFJS07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>YFJS08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>YFJS09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>YFJS10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>YFJS11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>YFJS12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>YFJS13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>YFJS14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>YFJS15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>YFJS16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>YFJS17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>YFJS18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>YFJS19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>YFJS20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Birgin Test Cases'!$O$5:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1317</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1514</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1491</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1305</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1451</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9C04-4313-AD2D-E6987983724D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Birgin Test Cases'!$S$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Birgin Test Cases'!$A$5:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>YFJS01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>YFJS02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>YFJS03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>YFJS04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>YFJS05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>YFJS06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>YFJS07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>YFJS08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>YFJS09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>YFJS10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>YFJS11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>YFJS12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>YFJS13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>YFJS14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>YFJS15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>YFJS16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>YFJS17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>YFJS18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>YFJS19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>YFJS20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Birgin Test Cases'!$S$5:$S$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1318</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>813</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2296</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2408</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2082</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2369</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9C04-4313-AD2D-E6987983724D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Birgin Test Cases'!$T$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>List+Beam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Birgin Test Cases'!$A$5:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>YFJS01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>YFJS02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>YFJS03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>YFJS04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>YFJS05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>YFJS06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>YFJS07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>YFJS08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>YFJS09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>YFJS10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>YFJS11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>YFJS12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>YFJS13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>YFJS14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>YFJS15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>YFJS16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>YFJS17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>YFJS18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>YFJS19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>YFJS20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Birgin Test Cases'!$T$5:$T$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1555</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1690</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1769</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1734</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1735</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1604</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9C04-4313-AD2D-E6987983724D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="550128072"/>
+        <c:axId val="550122168"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Birgin Test Cases'!$Q$3:$R$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPLEX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Birgin Test Cases'!$X$5:$X$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1317</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1244</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1231</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1290</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-9C04-4313-AD2D-E6987983724D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="550128072"/>
+        <c:axId val="550122168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="550128072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550122168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="550122168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Makespan</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550128072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ" sz="1600" b="1"/>
+              <a:t>DAFJS Makespan</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Birgin Test Cases'!$G$4:$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LRMT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-6ABC-47E3-BB7D-0938C27B516A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Birgin Test Cases'!$A$29:$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>DAFJS01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DAFJS02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DAFJS03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DAFJS04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DAFJS05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DAFJS06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DAFJS07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DAFJS08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DAFJS09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DAFJS10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DAFJS11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DAFJS12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>DAFJS13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>DAFJS14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>DAFJS15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>DAFJS16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>DAFJS17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>DAFJS18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>DAFJS19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>DAFJS20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>DAFJS21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>DAFJS22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>DAFJS23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>DAFJS24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>DAFJS25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>DAFJS26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>DAFJS27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>DAFJS28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>DAFJS29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>DAFJS30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Birgin Test Cases'!$J$29:$J$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>747</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>758</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1013</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>788</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>838</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>893</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1389</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>780</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6ABC-47E3-BB7D-0938C27B516A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Birgin Test Cases'!$L$4:$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ERT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Birgin Test Cases'!$A$29:$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>DAFJS01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DAFJS02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DAFJS03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DAFJS04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DAFJS05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DAFJS06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DAFJS07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DAFJS08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DAFJS09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DAFJS10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DAFJS11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DAFJS12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>DAFJS13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>DAFJS14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>DAFJS15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>DAFJS16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>DAFJS17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>DAFJS18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>DAFJS19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>DAFJS20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>DAFJS21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>DAFJS22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>DAFJS23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>DAFJS24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>DAFJS25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>DAFJS26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>DAFJS27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>DAFJS28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>DAFJS29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>DAFJS30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Birgin Test Cases'!$O$29:$O$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>815</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>942</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>942</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1379</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>806</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1068</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>939</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6ABC-47E3-BB7D-0938C27B516A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Birgin Test Cases'!$S$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Birgin Test Cases'!$A$29:$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>DAFJS01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DAFJS02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DAFJS03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DAFJS04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DAFJS05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DAFJS06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DAFJS07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DAFJS08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DAFJS09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DAFJS10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DAFJS11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DAFJS12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>DAFJS13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>DAFJS14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>DAFJS15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>DAFJS16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>DAFJS17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>DAFJS18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>DAFJS19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>DAFJS20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>DAFJS21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>DAFJS22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>DAFJS23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>DAFJS24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>DAFJS25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>DAFJS26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>DAFJS27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>DAFJS28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>DAFJS29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>DAFJS30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Birgin Test Cases'!$S$29:$S$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>847</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>818</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>815</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>632</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>897</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6ABC-47E3-BB7D-0938C27B516A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Birgin Test Cases'!$T$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>List+Beam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Birgin Test Cases'!$A$29:$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>DAFJS01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DAFJS02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DAFJS03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DAFJS04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DAFJS05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DAFJS06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DAFJS07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DAFJS08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DAFJS09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DAFJS10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DAFJS11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DAFJS12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>DAFJS13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>DAFJS14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>DAFJS15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>DAFJS16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>DAFJS17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>DAFJS18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>DAFJS19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>DAFJS20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>DAFJS21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>DAFJS22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>DAFJS23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>DAFJS24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>DAFJS25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>DAFJS26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>DAFJS27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>DAFJS28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>DAFJS29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>DAFJS30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Birgin Test Cases'!$T$29:$T$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>632</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>706</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>788</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>939</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>854</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>826</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>640</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6ABC-47E3-BB7D-0938C27B516A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="550128072"/>
+        <c:axId val="550122168"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Birgin Test Cases'!$Q$3:$R$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPLEX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Birgin Test Cases'!$A$29:$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>DAFJS01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DAFJS02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DAFJS03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DAFJS04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DAFJS05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DAFJS06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DAFJS07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DAFJS08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DAFJS09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DAFJS10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DAFJS11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DAFJS12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>DAFJS13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>DAFJS14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>DAFJS15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>DAFJS16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>DAFJS17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>DAFJS18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>DAFJS19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>DAFJS20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>DAFJS21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>DAFJS22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>DAFJS23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>DAFJS24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>DAFJS25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>DAFJS26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>DAFJS27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>DAFJS28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>DAFJS29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>DAFJS30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Birgin Test Cases'!$X$29:$X$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>798</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>879</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>898</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>615</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-6ABC-47E3-BB7D-0938C27B516A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="550128072"/>
+        <c:axId val="550122168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="550128072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550122168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="550122168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Makespan</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550128072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>597535</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171238</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED299B68-725D-4CD3-B4AF-0CF334CDE170}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6862678B-AC88-45FB-BD82-D0FDEE5C488C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1291,14 +5128,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C717E4-2E19-4E10-82CD-C66DD0E858F2}">
-  <dimension ref="A1:X61"/>
+  <dimension ref="A1:Y61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AP21" sqref="AP21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="7" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9.77734375" customWidth="1"/>
     <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
@@ -1306,7 +5144,7 @@
     <col min="20" max="20" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="73" t="s">
         <v>71</v>
       </c>
@@ -1321,61 +5159,62 @@
       <c r="J1" s="73"/>
       <c r="K1" s="73"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
       <c r="P3" s="71"/>
-      <c r="Q3" s="70" t="s">
+      <c r="Q3" s="72" t="s">
         <v>177</v>
       </c>
       <c r="R3" s="71"/>
-      <c r="S3" s="72" t="s">
+      <c r="S3" s="70" t="s">
         <v>7</v>
       </c>
       <c r="T3" s="71"/>
-      <c r="U3" s="70" t="s">
+      <c r="U3" s="72" t="s">
         <v>172</v>
       </c>
       <c r="V3" s="71"/>
       <c r="W3" s="6"/>
+      <c r="X3" s="7"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="71"/>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="71"/>
-      <c r="L4" s="70" t="s">
+      <c r="L4" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
       <c r="P4" s="71"/>
       <c r="Q4" s="3" t="s">
         <v>5</v>
@@ -1398,8 +5237,9 @@
       <c r="W4" s="38" t="s">
         <v>176</v>
       </c>
+      <c r="X4" s="77"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
         <v>9</v>
       </c>
@@ -1421,23 +5261,33 @@
       <c r="H5" s="42">
         <v>1297</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="43">
+      <c r="I5" s="42">
         <f>(G5-H5)/G5</f>
         <v>7.7524893314367002E-2</v>
       </c>
+      <c r="J5" s="69">
+        <v>811</v>
+      </c>
+      <c r="K5" s="43">
+        <f>(G5-J5)/G5</f>
+        <v>0.42318634423897583</v>
+      </c>
       <c r="L5" s="42">
         <v>1335</v>
       </c>
       <c r="M5" s="42">
         <v>1335</v>
       </c>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="43">
+      <c r="N5" s="42">
         <f>(L5-M5)/L5</f>
         <v>0</v>
+      </c>
+      <c r="O5" s="69">
+        <v>805</v>
+      </c>
+      <c r="P5" s="43">
+        <f>(L5-O5)/L5</f>
+        <v>0.39700374531835209</v>
       </c>
       <c r="Q5" s="19">
         <v>773</v>
@@ -1458,8 +5308,11 @@
       <c r="W5" s="53">
         <v>886</v>
       </c>
+      <c r="X5" s="35">
+        <v>773</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
         <v>10</v>
       </c>
@@ -1481,11 +5334,16 @@
       <c r="H6" s="49">
         <v>902</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="8">
-        <f t="shared" ref="K6:K24" si="1">(G6-H6)/G6</f>
+      <c r="I6" s="42">
+        <f t="shared" ref="I6:I24" si="1">(G6-H6)/G6</f>
         <v>0.19893428063943161</v>
+      </c>
+      <c r="J6" s="49">
+        <v>866</v>
+      </c>
+      <c r="K6" s="43">
+        <f t="shared" ref="K6:K24" si="2">(G6-J6)/G6</f>
+        <v>0.23090586145648312</v>
       </c>
       <c r="L6" s="51">
         <v>1140</v>
@@ -1493,11 +5351,16 @@
       <c r="M6" s="49">
         <v>824</v>
       </c>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
+      <c r="N6" s="7">
+        <f t="shared" ref="N6:N24" si="3">(L6-M6)/L6</f>
+        <v>0.27719298245614032</v>
+      </c>
+      <c r="O6" s="49">
+        <v>954</v>
+      </c>
       <c r="P6" s="8">
-        <f t="shared" ref="P6:P24" si="2">(L6-M6)/L6</f>
-        <v>0.27719298245614032</v>
+        <f t="shared" ref="P6:P24" si="4">(L6-O6)/L6</f>
+        <v>0.16315789473684211</v>
       </c>
       <c r="Q6" s="13">
         <v>825</v>
@@ -1518,8 +5381,11 @@
       <c r="W6" s="54">
         <v>944</v>
       </c>
+      <c r="X6" s="35">
+        <v>825</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
         <v>11</v>
       </c>
@@ -1541,23 +5407,33 @@
       <c r="H7" s="49">
         <v>404</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="8">
+      <c r="I7" s="42">
         <f t="shared" si="1"/>
         <v>0.11013215859030837</v>
       </c>
+      <c r="J7" s="49">
+        <v>366</v>
+      </c>
+      <c r="K7" s="43">
+        <f t="shared" si="2"/>
+        <v>0.19383259911894274</v>
+      </c>
       <c r="L7" s="49">
         <v>422</v>
       </c>
       <c r="M7" s="49">
         <v>404</v>
       </c>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
+      <c r="N7" s="7">
+        <f t="shared" si="3"/>
+        <v>4.2654028436018961E-2</v>
+      </c>
+      <c r="O7" s="49">
+        <v>384</v>
+      </c>
       <c r="P7" s="8">
-        <f t="shared" si="2"/>
-        <v>4.2654028436018961E-2</v>
+        <f t="shared" si="4"/>
+        <v>9.004739336492891E-2</v>
       </c>
       <c r="Q7" s="13">
         <v>347</v>
@@ -1578,8 +5454,11 @@
       <c r="W7" s="54">
         <v>406</v>
       </c>
+      <c r="X7" s="35">
+        <v>347</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>12</v>
       </c>
@@ -1601,23 +5480,33 @@
       <c r="H8" s="49">
         <v>472</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="8">
+      <c r="I8" s="42">
         <f t="shared" si="1"/>
         <v>0.16754850088183421</v>
       </c>
+      <c r="J8" s="49">
+        <v>413</v>
+      </c>
+      <c r="K8" s="43">
+        <f t="shared" si="2"/>
+        <v>0.27160493827160492</v>
+      </c>
       <c r="L8" s="7">
         <v>585</v>
       </c>
       <c r="M8" s="49">
         <v>472</v>
       </c>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
+      <c r="N8" s="7">
+        <f t="shared" si="3"/>
+        <v>0.19316239316239317</v>
+      </c>
+      <c r="O8" s="49">
+        <v>427</v>
+      </c>
       <c r="P8" s="8">
-        <f t="shared" si="2"/>
-        <v>0.19316239316239317</v>
+        <f t="shared" si="4"/>
+        <v>0.27008547008547007</v>
       </c>
       <c r="Q8" s="13">
         <v>390</v>
@@ -1638,8 +5527,11 @@
       <c r="W8" s="54">
         <v>628</v>
       </c>
+      <c r="X8" s="35">
+        <v>390</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>13</v>
       </c>
@@ -1661,23 +5553,33 @@
       <c r="H9" s="7">
         <v>688</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="8">
+      <c r="I9" s="42">
         <f t="shared" si="1"/>
         <v>0.29435897435897435</v>
       </c>
+      <c r="J9" s="65">
+        <v>490</v>
+      </c>
+      <c r="K9" s="43">
+        <f t="shared" si="2"/>
+        <v>0.49743589743589745</v>
+      </c>
       <c r="L9" s="7">
         <v>975</v>
       </c>
       <c r="M9" s="7">
         <v>688</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="N9" s="7">
+        <f t="shared" si="3"/>
+        <v>0.29435897435897435</v>
+      </c>
+      <c r="O9" s="65">
+        <v>514</v>
+      </c>
       <c r="P9" s="8">
-        <f t="shared" si="2"/>
-        <v>0.29435897435897435</v>
+        <f t="shared" si="4"/>
+        <v>0.47282051282051279</v>
       </c>
       <c r="Q9" s="13">
         <v>445</v>
@@ -1698,8 +5600,11 @@
       <c r="W9" s="54">
         <v>689</v>
       </c>
+      <c r="X9" s="35">
+        <v>445</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>14</v>
       </c>
@@ -1721,23 +5626,33 @@
       <c r="H10" s="7">
         <v>685</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="8">
+      <c r="I10" s="42">
         <f t="shared" si="1"/>
         <v>0.21534936998854526</v>
       </c>
+      <c r="J10" s="65">
+        <v>565</v>
+      </c>
+      <c r="K10" s="43">
+        <f t="shared" si="2"/>
+        <v>0.35280641466208479</v>
+      </c>
       <c r="L10" s="7">
         <v>861</v>
       </c>
       <c r="M10" s="7">
         <v>685</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="N10" s="7">
+        <f t="shared" si="3"/>
+        <v>0.20441347270615565</v>
+      </c>
+      <c r="O10" s="65">
+        <v>500</v>
+      </c>
       <c r="P10" s="8">
-        <f t="shared" si="2"/>
-        <v>0.20441347270615565</v>
+        <f t="shared" si="4"/>
+        <v>0.41927990708478513</v>
       </c>
       <c r="Q10" s="13" t="s">
         <v>29</v>
@@ -1760,8 +5675,11 @@
       <c r="W10" s="54">
         <v>606</v>
       </c>
+      <c r="X10" s="35">
+        <v>446</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
@@ -1783,23 +5701,33 @@
       <c r="H11" s="7">
         <v>835</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="8">
+      <c r="I11" s="42">
         <f t="shared" si="1"/>
         <v>0.24159854677565848</v>
       </c>
+      <c r="J11" s="65">
+        <v>498</v>
+      </c>
+      <c r="K11" s="43">
+        <f t="shared" si="2"/>
+        <v>0.54768392370572205</v>
+      </c>
       <c r="L11" s="7">
         <v>1023</v>
       </c>
       <c r="M11" s="7">
         <v>835</v>
       </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="N11" s="7">
+        <f t="shared" si="3"/>
+        <v>0.18377321603128055</v>
+      </c>
+      <c r="O11" s="65">
+        <v>479</v>
+      </c>
       <c r="P11" s="8">
-        <f t="shared" si="2"/>
-        <v>0.18377321603128055</v>
+        <f t="shared" si="4"/>
+        <v>0.53176930596285432</v>
       </c>
       <c r="Q11" s="13">
         <v>444</v>
@@ -1820,8 +5748,11 @@
       <c r="W11" s="54">
         <v>714</v>
       </c>
+      <c r="X11" s="35">
+        <v>444</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
         <v>16</v>
       </c>
@@ -1843,23 +5774,33 @@
       <c r="H12" s="49">
         <v>463</v>
       </c>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="8">
+      <c r="I12" s="42">
         <f t="shared" si="1"/>
         <v>9.5703125E-2</v>
       </c>
+      <c r="J12" s="49">
+        <v>413</v>
+      </c>
+      <c r="K12" s="43">
+        <f t="shared" si="2"/>
+        <v>0.193359375</v>
+      </c>
       <c r="L12" s="7">
         <v>538</v>
       </c>
       <c r="M12" s="49">
         <v>463</v>
       </c>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
+      <c r="N12" s="7">
+        <f t="shared" si="3"/>
+        <v>0.13940520446096655</v>
+      </c>
+      <c r="O12" s="49">
+        <v>361</v>
+      </c>
       <c r="P12" s="8">
-        <f t="shared" si="2"/>
-        <v>0.13940520446096655</v>
+        <f t="shared" si="4"/>
+        <v>0.32899628252788105</v>
       </c>
       <c r="Q12" s="13">
         <v>353</v>
@@ -1880,8 +5821,11 @@
       <c r="W12" s="54">
         <v>411</v>
       </c>
+      <c r="X12" s="35">
+        <v>353</v>
+      </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>17</v>
       </c>
@@ -1903,23 +5847,33 @@
       <c r="H13" s="49">
         <v>331</v>
       </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="8">
+      <c r="I13" s="42">
         <f t="shared" si="1"/>
         <v>0.17042606516290726</v>
       </c>
+      <c r="J13" s="49">
+        <v>242</v>
+      </c>
+      <c r="K13" s="43">
+        <f t="shared" si="2"/>
+        <v>0.39348370927318294</v>
+      </c>
       <c r="L13" s="49">
         <v>401</v>
       </c>
       <c r="M13" s="49">
         <v>331</v>
       </c>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
+      <c r="N13" s="7">
+        <f t="shared" si="3"/>
+        <v>0.1745635910224439</v>
+      </c>
+      <c r="O13" s="49">
+        <v>276</v>
+      </c>
       <c r="P13" s="8">
-        <f t="shared" si="2"/>
-        <v>0.1745635910224439</v>
+        <f t="shared" si="4"/>
+        <v>0.3117206982543641</v>
       </c>
       <c r="Q13" s="13">
         <v>242</v>
@@ -1940,8 +5894,11 @@
       <c r="W13" s="54">
         <v>297</v>
       </c>
+      <c r="X13" s="35">
+        <v>242</v>
+      </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
         <v>18</v>
       </c>
@@ -1963,23 +5920,33 @@
       <c r="H14" s="7">
         <v>712</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="8">
+      <c r="I14" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="J14" s="65">
+        <v>427</v>
+      </c>
+      <c r="K14" s="43">
+        <f t="shared" si="2"/>
+        <v>0.4002808988764045</v>
+      </c>
       <c r="L14" s="7">
         <v>897</v>
       </c>
       <c r="M14" s="7">
         <v>715</v>
       </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="N14" s="7">
+        <f t="shared" si="3"/>
+        <v>0.20289855072463769</v>
+      </c>
+      <c r="O14" s="65">
+        <v>400</v>
+      </c>
       <c r="P14" s="8">
-        <f t="shared" si="2"/>
-        <v>0.20289855072463769</v>
+        <f t="shared" si="4"/>
+        <v>0.55406911928651059</v>
       </c>
       <c r="Q14" s="13">
         <v>399</v>
@@ -2000,8 +5967,11 @@
       <c r="W14" s="54">
         <v>452</v>
       </c>
+      <c r="X14" s="35">
+        <v>399</v>
+      </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>19</v>
       </c>
@@ -2023,23 +5993,33 @@
       <c r="H15" s="49">
         <v>683</v>
       </c>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="8">
+      <c r="I15" s="42">
         <f t="shared" si="1"/>
         <v>7.9514824797843664E-2</v>
       </c>
+      <c r="J15" s="49">
+        <v>613</v>
+      </c>
+      <c r="K15" s="43">
+        <f t="shared" si="2"/>
+        <v>0.1738544474393531</v>
+      </c>
       <c r="L15" s="7">
         <v>783</v>
       </c>
       <c r="M15" s="49">
         <v>694</v>
       </c>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
+      <c r="N15" s="7">
+        <f t="shared" si="3"/>
+        <v>0.1136653895274585</v>
+      </c>
+      <c r="O15" s="49">
+        <v>622</v>
+      </c>
       <c r="P15" s="8">
-        <f t="shared" si="2"/>
-        <v>0.1136653895274585</v>
+        <f t="shared" si="4"/>
+        <v>0.20561941251596424</v>
       </c>
       <c r="Q15" s="13">
         <v>526</v>
@@ -2060,8 +6040,11 @@
       <c r="W15" s="54">
         <v>874</v>
       </c>
+      <c r="X15" s="35">
+        <v>526</v>
+      </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
         <v>20</v>
       </c>
@@ -2083,23 +6066,33 @@
       <c r="H16" s="51">
         <v>810</v>
       </c>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="8">
+      <c r="I16" s="42">
         <f t="shared" si="1"/>
         <v>0.14376321353065538</v>
       </c>
+      <c r="J16" s="49">
+        <v>594</v>
+      </c>
+      <c r="K16" s="43">
+        <f t="shared" si="2"/>
+        <v>0.37209302325581395</v>
+      </c>
       <c r="L16" s="7">
         <v>886</v>
       </c>
       <c r="M16" s="7">
         <v>810</v>
       </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="N16" s="7">
+        <f t="shared" si="3"/>
+        <v>8.5778781038374718E-2</v>
+      </c>
+      <c r="O16" s="65">
+        <v>555</v>
+      </c>
       <c r="P16" s="8">
-        <f t="shared" si="2"/>
-        <v>8.5778781038374718E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.37358916478555304</v>
       </c>
       <c r="Q16" s="13">
         <v>512</v>
@@ -2120,8 +6113,11 @@
       <c r="W16" s="54">
         <v>669</v>
       </c>
+      <c r="X16" s="35">
+        <v>512</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
         <v>21</v>
       </c>
@@ -2143,23 +6139,33 @@
       <c r="H17" s="51">
         <v>562</v>
       </c>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="8">
+      <c r="I17" s="42">
         <f t="shared" si="1"/>
         <v>0.22696011004126548</v>
       </c>
+      <c r="J17" s="49">
+        <v>448</v>
+      </c>
+      <c r="K17" s="43">
+        <f t="shared" si="2"/>
+        <v>0.38376891334250346</v>
+      </c>
       <c r="L17" s="51">
         <v>706</v>
       </c>
       <c r="M17" s="49">
         <v>534</v>
       </c>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
+      <c r="N17" s="7">
+        <f t="shared" si="3"/>
+        <v>0.24362606232294617</v>
+      </c>
+      <c r="O17" s="49">
+        <v>475</v>
+      </c>
       <c r="P17" s="8">
-        <f t="shared" si="2"/>
-        <v>0.24362606232294617</v>
+        <f t="shared" si="4"/>
+        <v>0.32719546742209632</v>
       </c>
       <c r="Q17" s="13">
         <v>405</v>
@@ -2180,8 +6186,11 @@
       <c r="W17" s="54">
         <v>546</v>
       </c>
+      <c r="X17" s="35">
+        <v>405</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>22</v>
       </c>
@@ -2203,23 +6212,33 @@
       <c r="H18" s="51">
         <v>1744</v>
       </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="8">
+      <c r="I18" s="42">
         <f t="shared" si="1"/>
         <v>0.46861669713589277</v>
       </c>
+      <c r="J18" s="51">
+        <v>2015</v>
+      </c>
+      <c r="K18" s="43">
+        <f t="shared" si="2"/>
+        <v>0.38604509445460083</v>
+      </c>
       <c r="L18" s="51">
         <v>1918</v>
       </c>
       <c r="M18" s="51">
         <v>1655</v>
       </c>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
+      <c r="N18" s="7">
+        <f t="shared" si="3"/>
+        <v>0.13712200208550573</v>
+      </c>
+      <c r="O18" s="49">
+        <v>1317</v>
+      </c>
       <c r="P18" s="8">
-        <f t="shared" si="2"/>
-        <v>0.13712200208550573</v>
+        <f t="shared" si="4"/>
+        <v>0.31334723670490094</v>
       </c>
       <c r="Q18" s="13">
         <v>1317</v>
@@ -2240,8 +6259,11 @@
       <c r="W18" s="54">
         <v>1443</v>
       </c>
+      <c r="X18" s="35">
+        <v>1317</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="44" t="s">
         <v>23</v>
       </c>
@@ -2260,23 +6282,33 @@
       <c r="H19" s="7">
         <v>2680</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="8">
+      <c r="I19" s="42">
         <f t="shared" si="1"/>
         <v>0.30371525071447131</v>
       </c>
+      <c r="J19" s="68">
+        <v>2768</v>
+      </c>
+      <c r="K19" s="43">
+        <f t="shared" si="2"/>
+        <v>0.28085216939464797</v>
+      </c>
       <c r="L19" s="51">
         <v>2170</v>
       </c>
       <c r="M19" s="49">
         <v>1559</v>
       </c>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
+      <c r="N19" s="7">
+        <f t="shared" si="3"/>
+        <v>0.28156682027649771</v>
+      </c>
+      <c r="O19" s="49">
+        <v>1514</v>
+      </c>
       <c r="P19" s="8">
-        <f t="shared" si="2"/>
-        <v>0.28156682027649771</v>
+        <f t="shared" si="4"/>
+        <v>0.30230414746543777</v>
       </c>
       <c r="Q19" s="13" t="s">
         <v>30</v>
@@ -2299,8 +6331,11 @@
       <c r="W19" s="54">
         <v>1454</v>
       </c>
+      <c r="X19" s="35">
+        <v>1244</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
         <v>24</v>
       </c>
@@ -2319,23 +6354,33 @@
       <c r="H20" s="49">
         <v>1522</v>
       </c>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="8">
+      <c r="I20" s="42">
         <f t="shared" si="1"/>
         <v>0.50147396003930556</v>
       </c>
+      <c r="J20" s="49">
+        <v>1821</v>
+      </c>
+      <c r="K20" s="43">
+        <f t="shared" si="2"/>
+        <v>0.40353750409433342</v>
+      </c>
       <c r="L20" s="49">
         <v>1749</v>
       </c>
       <c r="M20" s="49">
         <v>1559</v>
       </c>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
+      <c r="N20" s="7">
+        <f t="shared" si="3"/>
+        <v>0.10863350485991996</v>
+      </c>
+      <c r="O20" s="49">
+        <v>1491</v>
+      </c>
       <c r="P20" s="8">
-        <f t="shared" si="2"/>
-        <v>0.10863350485991996</v>
+        <f t="shared" si="4"/>
+        <v>0.14751286449399656</v>
       </c>
       <c r="Q20" s="13" t="s">
         <v>31</v>
@@ -2358,8 +6403,11 @@
       <c r="W20" s="54">
         <v>1468</v>
       </c>
+      <c r="X20" s="35">
+        <v>1231</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
         <v>25</v>
       </c>
@@ -2378,23 +6426,33 @@
       <c r="H21" s="7">
         <v>2542</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="8">
+      <c r="I21" s="42">
         <f t="shared" si="1"/>
         <v>1.6253869969040248E-2</v>
       </c>
+      <c r="J21" s="68">
+        <v>2478</v>
+      </c>
+      <c r="K21" s="43">
+        <f t="shared" si="2"/>
+        <v>4.1021671826625389E-2</v>
+      </c>
       <c r="L21" s="49">
         <v>1598</v>
       </c>
       <c r="M21" s="49">
         <v>1355</v>
       </c>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
+      <c r="N21" s="7">
+        <f t="shared" si="3"/>
+        <v>0.15206508135168961</v>
+      </c>
+      <c r="O21" s="49">
+        <v>1305</v>
+      </c>
       <c r="P21" s="8">
-        <f t="shared" si="2"/>
-        <v>0.15206508135168961</v>
+        <f t="shared" si="4"/>
+        <v>0.18335419274092615</v>
       </c>
       <c r="Q21" s="13" t="s">
         <v>33</v>
@@ -2417,8 +6475,11 @@
       <c r="W21" s="54">
         <v>1274</v>
       </c>
+      <c r="X21" s="35">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
         <v>26</v>
       </c>
@@ -2437,23 +6498,33 @@
       <c r="H22" s="7">
         <v>3462</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="8">
+      <c r="I22" s="42">
         <f t="shared" si="1"/>
         <v>0.10054559625876851</v>
       </c>
+      <c r="J22" s="7">
+        <v>3385</v>
+      </c>
+      <c r="K22" s="43">
+        <f t="shared" si="2"/>
+        <v>0.12055079241361392</v>
+      </c>
       <c r="L22" s="51">
         <v>1873</v>
       </c>
       <c r="M22" s="49">
         <v>1587</v>
       </c>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
+      <c r="N22" s="7">
+        <f t="shared" si="3"/>
+        <v>0.15269620928990923</v>
+      </c>
+      <c r="O22" s="49">
+        <v>1451</v>
+      </c>
       <c r="P22" s="8">
-        <f t="shared" si="2"/>
-        <v>0.15269620928990923</v>
+        <f t="shared" si="4"/>
+        <v>0.22530699412706887</v>
       </c>
       <c r="Q22" s="13" t="s">
         <v>35</v>
@@ -2476,8 +6547,11 @@
       <c r="W22" s="54">
         <v>1297</v>
       </c>
+      <c r="X22" s="35">
+        <v>1499</v>
+      </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
         <v>27</v>
       </c>
@@ -2496,23 +6570,33 @@
       <c r="H23" s="7">
         <v>2769</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8">
+      <c r="I23" s="42">
         <f t="shared" si="1"/>
         <v>6.955645161290322E-2</v>
       </c>
+      <c r="J23" s="64">
+        <v>2769</v>
+      </c>
+      <c r="K23" s="43">
+        <f t="shared" si="2"/>
+        <v>6.955645161290322E-2</v>
+      </c>
       <c r="L23" s="51">
         <v>1936</v>
       </c>
       <c r="M23" s="49">
         <v>1585</v>
       </c>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
+      <c r="N23" s="7">
+        <f t="shared" si="3"/>
+        <v>0.18130165289256198</v>
+      </c>
+      <c r="O23" s="49">
+        <v>1333</v>
+      </c>
       <c r="P23" s="8">
-        <f t="shared" si="2"/>
-        <v>0.18130165289256198</v>
+        <f t="shared" si="4"/>
+        <v>0.31146694214876031</v>
       </c>
       <c r="Q23" s="13" t="s">
         <v>37</v>
@@ -2535,8 +6619,11 @@
       <c r="W23" s="54">
         <v>1224</v>
       </c>
+      <c r="X23" s="35">
+        <v>1333</v>
+      </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
         <v>28</v>
       </c>
@@ -2555,23 +6642,33 @@
       <c r="H24" s="46">
         <v>1537</v>
       </c>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="10">
+      <c r="I24" s="42">
         <f t="shared" si="1"/>
         <v>0.1931758530183727</v>
       </c>
+      <c r="J24" s="46">
+        <v>1551</v>
+      </c>
+      <c r="K24" s="43">
+        <f t="shared" si="2"/>
+        <v>0.1858267716535433</v>
+      </c>
       <c r="L24" s="46">
         <v>1688</v>
       </c>
       <c r="M24" s="46">
         <v>1688</v>
       </c>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
+      <c r="N24" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="46">
+        <v>1336</v>
+      </c>
       <c r="P24" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.20853080568720378</v>
       </c>
       <c r="Q24" s="16" t="s">
         <v>39</v>
@@ -2594,8 +6691,11 @@
       <c r="W24" s="55">
         <v>1184</v>
       </c>
+      <c r="X24" s="35">
+        <v>1279</v>
+      </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="47"/>
       <c r="C25" s="57"/>
@@ -2607,19 +6707,25 @@
       </c>
       <c r="G25" s="47"/>
       <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
+      <c r="I25" s="57">
+        <f>AVERAGE(I5:I24)</f>
+        <v>0.18375758709152726</v>
+      </c>
       <c r="J25" s="57"/>
       <c r="K25" s="58">
         <f>AVERAGE(K5:K24)</f>
-        <v>0.18375758709152726</v>
+        <v>0.29608434007636181</v>
       </c>
       <c r="L25" s="47"/>
       <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
+      <c r="N25" s="57">
+        <f>AVERAGE(N5:N24)</f>
+        <v>0.15844389585019375</v>
+      </c>
       <c r="O25" s="57"/>
       <c r="P25" s="58">
         <f>AVERAGE(P5:P24)</f>
-        <v>0.15844389585019375</v>
+        <v>0.30685887787672039</v>
       </c>
       <c r="Q25" s="47"/>
       <c r="R25" s="58"/>
@@ -2628,8 +6734,9 @@
       <c r="U25" s="59"/>
       <c r="V25" s="60"/>
       <c r="W25" s="56"/>
+      <c r="X25" s="35"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -2653,63 +6760,65 @@
       <c r="U26" s="14"/>
       <c r="V26" s="14"/>
       <c r="W26" s="35"/>
-      <c r="X26" s="7"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="7"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
       <c r="P27" s="71"/>
-      <c r="Q27" s="70" t="s">
+      <c r="Q27" s="72" t="s">
         <v>177</v>
       </c>
       <c r="R27" s="71"/>
-      <c r="S27" s="72" t="s">
+      <c r="S27" s="70" t="s">
         <v>7</v>
       </c>
       <c r="T27" s="71"/>
-      <c r="U27" s="70" t="s">
+      <c r="U27" s="72" t="s">
         <v>172</v>
       </c>
       <c r="V27" s="71"/>
       <c r="W27" s="11"/>
+      <c r="X27" s="7"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
       <c r="F28" s="71"/>
-      <c r="G28" s="70" t="s">
+      <c r="G28" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
       <c r="K28" s="71"/>
-      <c r="L28" s="70" t="s">
+      <c r="L28" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
       <c r="P28" s="71"/>
       <c r="Q28" s="3" t="s">
         <v>5</v>
@@ -2730,9 +6839,10 @@
         <v>174</v>
       </c>
       <c r="W28" s="63"/>
-      <c r="X28" s="7"/>
+      <c r="X28" s="77"/>
+      <c r="Y28" s="7"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="61" t="s">
         <v>41</v>
       </c>
@@ -2743,7 +6853,7 @@
         <v>422</v>
       </c>
       <c r="D29" s="42">
-        <f t="shared" ref="D29:D43" si="3">(B29-C29)/B29</f>
+        <f t="shared" ref="D29:D43" si="5">(B29-C29)/B29</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="E29" s="42">
@@ -2760,15 +6870,15 @@
         <v>475</v>
       </c>
       <c r="I29" s="42">
-        <f t="shared" ref="I29:I58" si="4">(G29-H29)/G29</f>
+        <f>(G29-H29)/G29</f>
         <v>6.8627450980392163E-2</v>
       </c>
       <c r="J29" s="69">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="K29">
         <f>(G29-J29)/G29</f>
-        <v>0.39215686274509803</v>
+        <v>0.42156862745098039</v>
       </c>
       <c r="L29" s="41">
         <v>580</v>
@@ -2777,15 +6887,15 @@
         <v>467</v>
       </c>
       <c r="N29" s="42">
-        <f t="shared" ref="N29:N58" si="5">(L29-M29)/L29</f>
+        <f t="shared" ref="N29:N58" si="6">(L29-M29)/L29</f>
         <v>0.19482758620689655</v>
       </c>
       <c r="O29" s="69">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="P29">
         <f>(L29-O29)/L29</f>
-        <v>0.48448275862068968</v>
+        <v>0.53275862068965518</v>
       </c>
       <c r="Q29" s="19">
         <v>257</v>
@@ -2804,8 +6914,11 @@
         <v>257</v>
       </c>
       <c r="W29" s="11"/>
+      <c r="X29" s="35">
+        <v>257</v>
+      </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="61" t="s">
         <v>42</v>
       </c>
@@ -2816,7 +6929,7 @@
         <v>409</v>
       </c>
       <c r="D30" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.21647509578544061</v>
       </c>
       <c r="E30" s="7"/>
@@ -2827,14 +6940,14 @@
         <v>409</v>
       </c>
       <c r="I30" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I30:I58" si="7">(G30-H30)/G30</f>
         <v>0.13894736842105262</v>
       </c>
       <c r="J30" s="49">
         <v>321</v>
       </c>
       <c r="K30">
-        <f t="shared" ref="K30:K58" si="6">(G30-J30)/G30</f>
+        <f t="shared" ref="K30:K58" si="8">(G30-J30)/G30</f>
         <v>0.32421052631578945</v>
       </c>
       <c r="L30" s="11">
@@ -2844,15 +6957,15 @@
         <v>409</v>
       </c>
       <c r="N30" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.22684310018903592</v>
       </c>
-      <c r="O30" s="66">
-        <v>351</v>
+      <c r="O30" s="65">
+        <v>331</v>
       </c>
       <c r="P30">
-        <f t="shared" ref="P30:P58" si="7">(L30-O30)/L30</f>
-        <v>0.33648393194706994</v>
+        <f t="shared" ref="P30:P58" si="9">(L30-O30)/L30</f>
+        <v>0.37429111531190928</v>
       </c>
       <c r="Q30" s="13">
         <v>289</v>
@@ -2870,8 +6983,11 @@
       <c r="V30" s="15">
         <v>289</v>
       </c>
+      <c r="X30" s="35">
+        <v>289</v>
+      </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="61" t="s">
         <v>43</v>
       </c>
@@ -2882,7 +6998,7 @@
         <v>942</v>
       </c>
       <c r="D31" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.26001571091908876</v>
       </c>
       <c r="E31" s="7"/>
@@ -2893,15 +7009,15 @@
         <v>586</v>
       </c>
       <c r="I31" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.1080669710806697</v>
       </c>
-      <c r="J31" s="51">
-        <v>650</v>
+      <c r="J31" s="49">
+        <v>603</v>
       </c>
       <c r="K31">
-        <f t="shared" si="6"/>
-        <v>1.06544901065449E-2</v>
+        <f t="shared" si="8"/>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="L31" s="11">
         <v>813</v>
@@ -2910,15 +7026,15 @@
         <v>734</v>
       </c>
       <c r="N31" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.7170971709717099E-2</v>
       </c>
-      <c r="O31" s="64">
-        <v>751</v>
+      <c r="O31" s="65">
+        <v>575</v>
       </c>
       <c r="P31">
-        <f t="shared" si="7"/>
-        <v>7.626076260762607E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.29274292742927427</v>
       </c>
       <c r="Q31" s="13">
         <v>576</v>
@@ -2936,8 +7052,11 @@
       <c r="V31" s="15">
         <v>576</v>
       </c>
+      <c r="X31" s="35">
+        <v>576</v>
+      </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="61" t="s">
         <v>44</v>
       </c>
@@ -2948,7 +7067,7 @@
         <v>744</v>
       </c>
       <c r="D32" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.46397694524495675</v>
       </c>
       <c r="E32" s="7"/>
@@ -2959,14 +7078,14 @@
         <v>686</v>
       </c>
       <c r="I32" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.7956989247311828E-2</v>
       </c>
       <c r="J32" s="49">
         <v>606</v>
       </c>
       <c r="K32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.18548387096774194</v>
       </c>
       <c r="L32" s="11">
@@ -2976,15 +7095,15 @@
         <v>707</v>
       </c>
       <c r="N32" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="O32" s="66">
-        <v>620</v>
+      <c r="O32" s="65">
+        <v>607</v>
       </c>
       <c r="P32">
-        <f t="shared" si="7"/>
-        <v>0.31793179317931791</v>
+        <f t="shared" si="9"/>
+        <v>0.33223322332233224</v>
       </c>
       <c r="Q32" s="13">
         <v>606</v>
@@ -3002,8 +7121,11 @@
       <c r="V32" s="15">
         <v>606</v>
       </c>
+      <c r="X32" s="35">
+        <v>606</v>
+      </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="61" t="s">
         <v>45</v>
       </c>
@@ -3014,7 +7136,7 @@
         <v>708</v>
       </c>
       <c r="D33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.29831516352824577</v>
       </c>
       <c r="E33" s="7"/>
@@ -3025,14 +7147,14 @@
         <v>644</v>
       </c>
       <c r="I33" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.11780821917808219</v>
       </c>
       <c r="J33" s="65">
         <v>443</v>
       </c>
       <c r="K33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.39315068493150684</v>
       </c>
       <c r="L33" s="11">
@@ -3042,15 +7164,15 @@
         <v>644</v>
       </c>
       <c r="N33" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O33" s="65">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="P33">
-        <f t="shared" si="7"/>
-        <v>0.27018633540372672</v>
+        <f t="shared" si="9"/>
+        <v>0.296583850931677</v>
       </c>
       <c r="Q33" s="13" t="s">
         <v>72</v>
@@ -3070,8 +7192,11 @@
       <c r="V33" s="15">
         <v>389</v>
       </c>
+      <c r="X33" s="35">
+        <v>394</v>
+      </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="61" t="s">
         <v>46</v>
       </c>
@@ -3082,7 +7207,7 @@
         <v>742</v>
       </c>
       <c r="D34" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.37171888230313294</v>
       </c>
       <c r="E34" s="7"/>
@@ -3093,15 +7218,15 @@
         <v>531</v>
       </c>
       <c r="I34" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.18055555555555555</v>
       </c>
       <c r="J34" s="65">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="K34">
-        <f t="shared" si="6"/>
-        <v>0.28858024691358025</v>
+        <f t="shared" si="8"/>
+        <v>0.27314814814814814</v>
       </c>
       <c r="L34" s="11">
         <v>649</v>
@@ -3110,15 +7235,15 @@
         <v>531</v>
       </c>
       <c r="N34" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="O34" s="66">
-        <v>496</v>
+      <c r="O34" s="65">
+        <v>459</v>
       </c>
       <c r="P34">
-        <f t="shared" si="7"/>
-        <v>0.23574730354391371</v>
+        <f t="shared" si="9"/>
+        <v>0.29275808936825887</v>
       </c>
       <c r="Q34" s="13" t="s">
         <v>73</v>
@@ -3138,8 +7263,11 @@
       <c r="V34" s="15">
         <v>412</v>
       </c>
+      <c r="X34" s="35">
+        <v>410</v>
+      </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="61" t="s">
         <v>47</v>
       </c>
@@ -3150,7 +7278,7 @@
         <v>1112</v>
       </c>
       <c r="D35" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.48037383177570092</v>
       </c>
       <c r="E35" s="7"/>
@@ -3161,15 +7289,15 @@
         <v>979</v>
       </c>
       <c r="I35" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.24807987711213517</v>
       </c>
       <c r="J35" s="68">
-        <v>840</v>
+        <v>747</v>
       </c>
       <c r="K35">
-        <f t="shared" si="6"/>
-        <v>0.35483870967741937</v>
+        <f t="shared" si="8"/>
+        <v>0.42626728110599077</v>
       </c>
       <c r="L35" s="11">
         <v>1315</v>
@@ -3178,15 +7306,15 @@
         <v>1047</v>
       </c>
       <c r="N35" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.20380228136882128</v>
       </c>
       <c r="O35" s="64">
-        <v>857</v>
+        <v>732</v>
       </c>
       <c r="P35">
-        <f t="shared" si="7"/>
-        <v>0.34828897338403042</v>
+        <f t="shared" si="9"/>
+        <v>0.44334600760456272</v>
       </c>
       <c r="Q35" s="13" t="s">
         <v>74</v>
@@ -3206,8 +7334,11 @@
       <c r="V35" s="15">
         <v>512</v>
       </c>
+      <c r="X35" s="35">
+        <v>547</v>
+      </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="61" t="s">
         <v>48</v>
       </c>
@@ -3218,7 +7349,7 @@
         <v>1070</v>
       </c>
       <c r="D36" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.36947554507955216</v>
       </c>
       <c r="E36" s="7"/>
@@ -3229,15 +7360,15 @@
         <v>895</v>
       </c>
       <c r="I36" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.39322033898305087</v>
       </c>
-      <c r="J36" s="68">
-        <v>884</v>
+      <c r="J36" s="66">
+        <v>776</v>
       </c>
       <c r="K36">
-        <f t="shared" si="6"/>
-        <v>0.40067796610169493</v>
+        <f t="shared" si="8"/>
+        <v>0.47389830508474579</v>
       </c>
       <c r="L36" s="11">
         <v>1397</v>
@@ -3246,15 +7377,15 @@
         <v>967</v>
       </c>
       <c r="N36" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.30780243378668576</v>
       </c>
       <c r="O36" s="64">
-        <v>911</v>
+        <v>945</v>
       </c>
       <c r="P36">
-        <f t="shared" si="7"/>
-        <v>0.34788833214030063</v>
+        <f t="shared" si="9"/>
+        <v>0.32355046528274872</v>
       </c>
       <c r="Q36" s="13" t="s">
         <v>75</v>
@@ -3274,8 +7405,11 @@
       <c r="V36" s="15">
         <v>628</v>
       </c>
+      <c r="X36" s="35">
+        <v>631</v>
+      </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="61" t="s">
         <v>49</v>
       </c>
@@ -3286,7 +7420,7 @@
         <v>837</v>
       </c>
       <c r="D37" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.14329580348004095</v>
       </c>
       <c r="E37" s="7"/>
@@ -3297,15 +7431,15 @@
         <v>819</v>
       </c>
       <c r="I37" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J37" s="65">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="K37">
-        <f t="shared" si="6"/>
-        <v>0.38461538461538464</v>
+        <f t="shared" si="8"/>
+        <v>0.41147741147741146</v>
       </c>
       <c r="L37" s="11">
         <v>819</v>
@@ -3314,15 +7448,15 @@
         <v>819</v>
       </c>
       <c r="N37" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O37" s="65">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="P37">
-        <f t="shared" si="7"/>
-        <v>0.38827838827838829</v>
+        <f t="shared" si="9"/>
+        <v>0.39194139194139194</v>
       </c>
       <c r="Q37" s="13" t="s">
         <v>76</v>
@@ -3342,8 +7476,11 @@
       <c r="V37" s="15">
         <v>464</v>
       </c>
+      <c r="X37" s="35">
+        <v>471</v>
+      </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="61" t="s">
         <v>50</v>
       </c>
@@ -3354,7 +7491,7 @@
         <v>742</v>
       </c>
       <c r="D38" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.3142329020332717</v>
       </c>
       <c r="E38" s="7"/>
@@ -3365,15 +7502,15 @@
         <v>633</v>
       </c>
       <c r="I38" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.33993743482794575</v>
       </c>
       <c r="J38" s="65">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="K38">
-        <f t="shared" si="6"/>
-        <v>0.37747653806047965</v>
+        <f t="shared" si="8"/>
+        <v>0.38790406673618355</v>
       </c>
       <c r="L38" s="11">
         <v>740</v>
@@ -3382,15 +7519,15 @@
         <v>693</v>
       </c>
       <c r="N38" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.3513513513513517E-2</v>
       </c>
-      <c r="O38" s="66">
-        <v>623</v>
+      <c r="O38" s="65">
+        <v>600</v>
       </c>
       <c r="P38">
-        <f t="shared" si="7"/>
-        <v>0.1581081081081081</v>
+        <f t="shared" si="9"/>
+        <v>0.1891891891891892</v>
       </c>
       <c r="Q38" s="13" t="s">
         <v>77</v>
@@ -3410,8 +7547,11 @@
       <c r="V38" s="15">
         <v>533</v>
       </c>
+      <c r="X38" s="35">
+        <v>538</v>
+      </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="61" t="s">
         <v>51</v>
       </c>
@@ -3422,7 +7562,7 @@
         <v>1202</v>
       </c>
       <c r="D39" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.54692800603090841</v>
       </c>
       <c r="E39" s="7"/>
@@ -3433,15 +7573,15 @@
         <v>862</v>
       </c>
       <c r="I39" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.31478537360890302</v>
       </c>
       <c r="J39" s="66">
-        <v>726</v>
+        <v>758</v>
       </c>
       <c r="K39">
-        <f t="shared" si="6"/>
-        <v>0.42289348171701113</v>
+        <f t="shared" si="8"/>
+        <v>0.39745627980922099</v>
       </c>
       <c r="L39" s="11">
         <v>1153</v>
@@ -3450,15 +7590,15 @@
         <v>970</v>
       </c>
       <c r="N39" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.15871639202081528</v>
       </c>
       <c r="O39" s="64">
-        <v>770</v>
+        <v>815</v>
       </c>
       <c r="P39">
-        <f t="shared" si="7"/>
-        <v>0.33217692974848223</v>
+        <f t="shared" si="9"/>
+        <v>0.29314830875975717</v>
       </c>
       <c r="Q39" s="13" t="s">
         <v>78</v>
@@ -3478,8 +7618,11 @@
       <c r="V39" s="15">
         <v>659</v>
       </c>
+      <c r="X39" s="35">
+        <v>701</v>
+      </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="61" t="s">
         <v>52</v>
       </c>
@@ -3490,7 +7633,7 @@
         <v>1375</v>
       </c>
       <c r="D40" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.31795634920634919</v>
       </c>
       <c r="E40" s="7"/>
@@ -3501,15 +7644,15 @@
         <v>1162</v>
       </c>
       <c r="I40" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.23097286565188616</v>
       </c>
       <c r="J40" s="68">
-        <v>844</v>
+        <v>743</v>
       </c>
       <c r="K40">
-        <f t="shared" si="6"/>
-        <v>0.44142951687624088</v>
+        <f t="shared" si="8"/>
+        <v>0.50827266710787555</v>
       </c>
       <c r="L40" s="11">
         <v>1357</v>
@@ -3518,15 +7661,15 @@
         <v>935</v>
       </c>
       <c r="N40" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.31098010316875463</v>
       </c>
       <c r="O40" s="64">
-        <v>1080</v>
+        <v>821</v>
       </c>
       <c r="P40">
-        <f t="shared" si="7"/>
-        <v>0.20412675018422993</v>
+        <f t="shared" si="9"/>
+        <v>0.39498894620486369</v>
       </c>
       <c r="Q40" s="13" t="s">
         <v>79</v>
@@ -3546,8 +7689,11 @@
       <c r="V40" s="15">
         <v>645</v>
       </c>
+      <c r="X40" s="35">
+        <v>720</v>
+      </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="61" t="s">
         <v>53</v>
       </c>
@@ -3558,7 +7704,7 @@
         <v>754</v>
       </c>
       <c r="D41" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.46181299072091364</v>
       </c>
       <c r="E41" s="49"/>
@@ -3569,15 +7715,15 @@
         <v>816</v>
       </c>
       <c r="I41" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.1162790697674418E-2</v>
       </c>
       <c r="J41" s="65">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="K41">
-        <f t="shared" si="6"/>
-        <v>0.23255813953488372</v>
+        <f t="shared" si="8"/>
+        <v>0.20930232558139536</v>
       </c>
       <c r="L41" s="11">
         <v>946</v>
@@ -3586,15 +7732,15 @@
         <v>740</v>
       </c>
       <c r="N41" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.21775898520084566</v>
       </c>
       <c r="O41" s="49">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="P41">
-        <f t="shared" si="7"/>
-        <v>0.29915433403805497</v>
+        <f t="shared" si="9"/>
+        <v>0.29069767441860467</v>
       </c>
       <c r="Q41" s="13" t="s">
         <v>80</v>
@@ -3614,8 +7760,11 @@
       <c r="V41" s="15">
         <v>656</v>
       </c>
+      <c r="X41" s="35">
+        <v>683</v>
+      </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="61" t="s">
         <v>54</v>
       </c>
@@ -3626,7 +7775,7 @@
         <v>1103</v>
       </c>
       <c r="D42" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.38585746102449886</v>
       </c>
       <c r="E42" s="7"/>
@@ -3637,15 +7786,15 @@
         <v>936</v>
       </c>
       <c r="I42" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6.6799601196410763E-2</v>
       </c>
       <c r="J42" s="65">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="K42">
-        <f t="shared" si="6"/>
-        <v>0.24626121635094717</v>
+        <f t="shared" si="8"/>
+        <v>0.25324027916251246</v>
       </c>
       <c r="L42" s="11">
         <v>1030</v>
@@ -3654,15 +7803,15 @@
         <v>936</v>
       </c>
       <c r="N42" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.1262135922330095E-2</v>
       </c>
       <c r="O42" s="65">
-        <v>802</v>
+        <v>759</v>
       </c>
       <c r="P42">
-        <f t="shared" si="7"/>
-        <v>0.22135922330097088</v>
+        <f t="shared" si="9"/>
+        <v>0.26310679611650484</v>
       </c>
       <c r="Q42" s="13" t="s">
         <v>81</v>
@@ -3682,8 +7831,11 @@
       <c r="V42" s="15">
         <v>735</v>
       </c>
+      <c r="X42" s="35">
+        <v>775</v>
+      </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="61" t="s">
         <v>55</v>
       </c>
@@ -3694,7 +7846,7 @@
         <v>2305</v>
       </c>
       <c r="D43" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.1864061864061862E-2</v>
       </c>
       <c r="E43" s="7"/>
@@ -3705,15 +7857,15 @@
         <v>994</v>
       </c>
       <c r="I43" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.24410646387832699</v>
       </c>
       <c r="J43" s="68">
-        <v>998</v>
+        <v>1013</v>
       </c>
       <c r="K43">
-        <f t="shared" si="6"/>
-        <v>0.24106463878326997</v>
+        <f t="shared" si="8"/>
+        <v>0.22965779467680608</v>
       </c>
       <c r="L43" s="11">
         <v>1281</v>
@@ -3722,15 +7874,15 @@
         <v>1191</v>
       </c>
       <c r="N43" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.0257611241217793E-2</v>
       </c>
       <c r="O43" s="64">
-        <v>849</v>
+        <v>1008</v>
       </c>
       <c r="P43">
-        <f t="shared" si="7"/>
-        <v>0.33723653395784542</v>
+        <f t="shared" si="9"/>
+        <v>0.21311475409836064</v>
       </c>
       <c r="Q43" s="13" t="s">
         <v>82</v>
@@ -3750,8 +7902,11 @@
       <c r="V43" s="15">
         <v>671</v>
       </c>
+      <c r="X43" s="35">
+        <v>796</v>
+      </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="61" t="s">
         <v>56</v>
       </c>
@@ -3770,15 +7925,15 @@
         <v>1275</v>
       </c>
       <c r="I44" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.16938110749185667</v>
       </c>
       <c r="J44" s="68">
-        <v>1086</v>
+        <v>986</v>
       </c>
       <c r="K44">
-        <f t="shared" si="6"/>
-        <v>0.29250814332247554</v>
+        <f t="shared" si="8"/>
+        <v>0.35765472312703583</v>
       </c>
       <c r="L44" s="11">
         <v>1953</v>
@@ -3787,15 +7942,15 @@
         <v>1598</v>
       </c>
       <c r="N44" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.18177163338453661</v>
       </c>
       <c r="O44" s="64">
-        <v>1237</v>
+        <v>942</v>
       </c>
       <c r="P44">
-        <f t="shared" si="7"/>
-        <v>0.36661546338965695</v>
+        <f t="shared" si="9"/>
+        <v>0.51766513056835639</v>
       </c>
       <c r="Q44" s="13" t="s">
         <v>83</v>
@@ -3815,8 +7970,11 @@
       <c r="V44" s="15">
         <v>679</v>
       </c>
+      <c r="X44" s="35">
+        <v>798</v>
+      </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="61" t="s">
         <v>57</v>
       </c>
@@ -3835,15 +7993,15 @@
         <v>1029</v>
       </c>
       <c r="I45" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.1190068493150685</v>
       </c>
       <c r="J45" s="65">
-        <v>858</v>
+        <v>821</v>
       </c>
       <c r="K45">
-        <f t="shared" si="6"/>
-        <v>0.2654109589041096</v>
+        <f t="shared" si="8"/>
+        <v>0.2970890410958904</v>
       </c>
       <c r="L45" s="11">
         <v>1222</v>
@@ -3852,15 +8010,15 @@
         <v>1190</v>
       </c>
       <c r="N45" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6186579378068741E-2</v>
       </c>
-      <c r="O45" s="65">
-        <v>877</v>
+      <c r="O45" s="66">
+        <v>928</v>
       </c>
       <c r="P45">
-        <f t="shared" si="7"/>
-        <v>0.28232405891980361</v>
+        <f t="shared" si="9"/>
+        <v>0.24058919803600654</v>
       </c>
       <c r="Q45" s="13" t="s">
         <v>84</v>
@@ -3880,8 +8038,11 @@
       <c r="V45" s="15">
         <v>800</v>
       </c>
+      <c r="X45" s="35">
+        <v>902</v>
+      </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="61" t="s">
         <v>58</v>
       </c>
@@ -3900,15 +8061,15 @@
         <v>1022</v>
       </c>
       <c r="I46" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.22103658536585366</v>
       </c>
       <c r="J46" s="65">
-        <v>818</v>
+        <v>788</v>
       </c>
       <c r="K46">
-        <f t="shared" si="6"/>
-        <v>0.37652439024390244</v>
+        <f t="shared" si="8"/>
+        <v>0.39939024390243905</v>
       </c>
       <c r="L46" s="11">
         <v>1172</v>
@@ -3917,15 +8078,15 @@
         <v>1096</v>
       </c>
       <c r="N46" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.4846416382252553E-2</v>
       </c>
       <c r="O46" s="65">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="P46">
-        <f t="shared" si="7"/>
-        <v>0.30631399317406144</v>
+        <f t="shared" si="9"/>
+        <v>0.29863481228668942</v>
       </c>
       <c r="Q46" s="13" t="s">
         <v>85</v>
@@ -3945,8 +8106,11 @@
       <c r="V46" s="15">
         <v>799</v>
       </c>
+      <c r="X46" s="35">
+        <v>878</v>
+      </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" s="61" t="s">
         <v>59</v>
       </c>
@@ -3965,15 +8129,15 @@
         <v>892</v>
       </c>
       <c r="I47" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.1423076923076923</v>
       </c>
       <c r="J47" s="68">
-        <v>635</v>
+        <v>733</v>
       </c>
       <c r="K47">
-        <f t="shared" si="6"/>
-        <v>0.38942307692307693</v>
+        <f t="shared" si="8"/>
+        <v>0.2951923076923077</v>
       </c>
       <c r="L47" s="11">
         <v>1011</v>
@@ -3982,15 +8146,15 @@
         <v>757</v>
       </c>
       <c r="N47" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25123639960435212</v>
       </c>
       <c r="O47" s="64">
-        <v>608</v>
+        <v>627</v>
       </c>
       <c r="P47">
-        <f t="shared" si="7"/>
-        <v>0.39861523244312563</v>
+        <f t="shared" si="9"/>
+        <v>0.37982195845697331</v>
       </c>
       <c r="Q47" s="13" t="s">
         <v>86</v>
@@ -4010,8 +8174,11 @@
       <c r="V47" s="15">
         <v>524</v>
       </c>
+      <c r="X47" s="35">
+        <v>585</v>
+      </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="61" t="s">
         <v>60</v>
       </c>
@@ -4033,15 +8200,15 @@
         <v>905</v>
       </c>
       <c r="I48" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.31178707224334601</v>
       </c>
-      <c r="J48" s="68">
-        <v>1091</v>
+      <c r="J48" s="65">
+        <v>795</v>
       </c>
       <c r="K48">
-        <f t="shared" si="6"/>
-        <v>0.17034220532319391</v>
+        <f t="shared" si="8"/>
+        <v>0.39543726235741444</v>
       </c>
       <c r="L48" s="11">
         <v>1309</v>
@@ -4050,15 +8217,15 @@
         <v>927</v>
       </c>
       <c r="N48" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.29182582123758594</v>
       </c>
       <c r="O48" s="64">
-        <v>878</v>
+        <v>858</v>
       </c>
       <c r="P48">
-        <f t="shared" si="7"/>
-        <v>0.32925897631779982</v>
+        <f t="shared" si="9"/>
+        <v>0.34453781512605042</v>
       </c>
       <c r="Q48" s="13" t="s">
         <v>87</v>
@@ -4078,8 +8245,11 @@
       <c r="V48" s="15">
         <v>705</v>
       </c>
+      <c r="X48" s="35">
+        <v>810</v>
+      </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="61" t="s">
         <v>61</v>
       </c>
@@ -4101,15 +8271,15 @@
         <v>1160</v>
       </c>
       <c r="I49" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.15820029027576196</v>
       </c>
-      <c r="J49" s="68">
-        <v>1006</v>
+      <c r="J49" s="65">
+        <v>935</v>
       </c>
       <c r="K49">
-        <f t="shared" si="6"/>
-        <v>0.26995645863570394</v>
+        <f t="shared" si="8"/>
+        <v>0.32148040638606679</v>
       </c>
       <c r="L49" s="11">
         <v>1365</v>
@@ -4118,15 +8288,15 @@
         <v>1240</v>
       </c>
       <c r="N49" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.1575091575091569E-2</v>
       </c>
-      <c r="O49" s="66">
-        <v>939</v>
+      <c r="O49" s="68">
+        <v>1011</v>
       </c>
       <c r="P49">
-        <f t="shared" si="7"/>
-        <v>0.31208791208791209</v>
+        <f t="shared" si="9"/>
+        <v>0.25934065934065936</v>
       </c>
       <c r="Q49" s="13" t="s">
         <v>88</v>
@@ -4146,8 +8316,11 @@
       <c r="V49" s="15">
         <v>808</v>
       </c>
+      <c r="X49" s="35">
+        <v>959</v>
+      </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" s="61" t="s">
         <v>62</v>
       </c>
@@ -4168,15 +8341,15 @@
         <v>1013</v>
       </c>
       <c r="I50" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.36805988771054271</v>
       </c>
-      <c r="J50" s="68">
-        <v>915</v>
+      <c r="J50" s="65">
+        <v>810</v>
       </c>
       <c r="K50">
-        <f t="shared" si="6"/>
-        <v>0.42919525888958204</v>
+        <f t="shared" si="8"/>
+        <v>0.49469744229569557</v>
       </c>
       <c r="L50" s="11">
         <v>1212</v>
@@ -4185,15 +8358,15 @@
         <v>1073</v>
       </c>
       <c r="N50" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.11468646864686469</v>
       </c>
-      <c r="O50" s="64">
-        <v>938</v>
+      <c r="O50" s="65">
+        <v>763</v>
       </c>
       <c r="P50">
-        <f t="shared" si="7"/>
-        <v>0.22607260726072606</v>
+        <f t="shared" si="9"/>
+        <v>0.37046204620462048</v>
       </c>
       <c r="Q50" s="13" t="s">
         <v>89</v>
@@ -4213,8 +8386,11 @@
       <c r="V50" s="15">
         <v>708</v>
       </c>
+      <c r="X50" s="35">
+        <v>896</v>
+      </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="61" t="s">
         <v>63</v>
       </c>
@@ -4236,15 +8412,15 @@
         <v>748</v>
       </c>
       <c r="I51" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.34154929577464788</v>
       </c>
-      <c r="J51" s="66">
-        <v>603</v>
+      <c r="J51" s="68">
+        <v>735</v>
       </c>
       <c r="K51">
-        <f t="shared" si="6"/>
-        <v>0.46919014084507044</v>
+        <f t="shared" si="8"/>
+        <v>0.35299295774647887</v>
       </c>
       <c r="L51" s="11">
         <v>902</v>
@@ -4253,15 +8429,15 @@
         <v>677</v>
       </c>
       <c r="N51" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.24944567627494457</v>
       </c>
       <c r="O51" s="64">
-        <v>683</v>
+        <v>639</v>
       </c>
       <c r="P51">
-        <f t="shared" si="7"/>
-        <v>0.24279379157427938</v>
+        <f t="shared" si="9"/>
+        <v>0.29157427937915742</v>
       </c>
       <c r="Q51" s="13" t="s">
         <v>90</v>
@@ -4281,8 +8457,11 @@
       <c r="V51" s="15">
         <v>476</v>
       </c>
+      <c r="X51" s="35">
+        <v>537</v>
+      </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" s="61" t="s">
         <v>64</v>
       </c>
@@ -4304,15 +8483,15 @@
         <v>884</v>
       </c>
       <c r="I52" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.12820512820512819</v>
       </c>
       <c r="J52" s="68">
-        <v>767</v>
+        <v>838</v>
       </c>
       <c r="K52">
-        <f t="shared" si="6"/>
-        <v>0.24358974358974358</v>
+        <f t="shared" si="8"/>
+        <v>0.17357001972386588</v>
       </c>
       <c r="L52" s="11">
         <v>1037</v>
@@ -4321,15 +8500,15 @@
         <v>953</v>
       </c>
       <c r="N52" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.1002892960462869E-2</v>
       </c>
-      <c r="O52" s="64">
-        <v>742</v>
+      <c r="O52" s="65">
+        <v>674</v>
       </c>
       <c r="P52">
-        <f t="shared" si="7"/>
-        <v>0.28447444551591128</v>
+        <f t="shared" si="9"/>
+        <v>0.35004821600771457</v>
       </c>
       <c r="Q52" s="13" t="s">
         <v>91</v>
@@ -4349,8 +8528,11 @@
       <c r="V52" s="15">
         <v>564</v>
       </c>
+      <c r="X52" s="35">
+        <v>648</v>
+      </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" s="61" t="s">
         <v>65</v>
       </c>
@@ -4369,15 +8551,15 @@
         <v>1069</v>
       </c>
       <c r="I53" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.10990840965861781</v>
       </c>
-      <c r="J53" s="65">
-        <v>884</v>
+      <c r="J53" s="66">
+        <v>893</v>
       </c>
       <c r="K53">
-        <f t="shared" si="6"/>
-        <v>0.26394671107410489</v>
+        <f t="shared" si="8"/>
+        <v>0.25645295587010825</v>
       </c>
       <c r="L53" s="11">
         <v>1124</v>
@@ -4386,15 +8568,15 @@
         <v>1079</v>
       </c>
       <c r="N53" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.0035587188612103E-2</v>
       </c>
       <c r="O53" s="64">
-        <v>993</v>
+        <v>942</v>
       </c>
       <c r="P53">
-        <f t="shared" si="7"/>
-        <v>0.11654804270462633</v>
+        <f t="shared" si="9"/>
+        <v>0.16192170818505339</v>
       </c>
       <c r="Q53" s="13" t="s">
         <v>92</v>
@@ -4414,8 +8596,11 @@
       <c r="V53" s="15">
         <v>752</v>
       </c>
+      <c r="X53" s="35">
+        <v>879</v>
+      </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" s="61" t="s">
         <v>66</v>
       </c>
@@ -4434,15 +8619,15 @@
         <v>1067</v>
       </c>
       <c r="I54" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.17986164488854728</v>
       </c>
-      <c r="J54" s="68">
-        <v>943</v>
+      <c r="J54" s="65">
+        <v>888</v>
       </c>
       <c r="K54">
-        <f t="shared" si="6"/>
-        <v>0.2751729438893159</v>
+        <f t="shared" si="8"/>
+        <v>0.31744811683320523</v>
       </c>
       <c r="L54" s="11">
         <v>1450</v>
@@ -4451,15 +8636,15 @@
         <v>1161</v>
       </c>
       <c r="N54" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.19931034482758619</v>
       </c>
       <c r="O54" s="64">
-        <v>968</v>
+        <v>1003</v>
       </c>
       <c r="P54">
-        <f t="shared" si="7"/>
-        <v>0.33241379310344826</v>
+        <f t="shared" si="9"/>
+        <v>0.30827586206896551</v>
       </c>
       <c r="Q54" s="13" t="s">
         <v>93</v>
@@ -4479,8 +8664,11 @@
       <c r="V54" s="15">
         <v>745</v>
       </c>
+      <c r="X54" s="35">
+        <v>898</v>
+      </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" s="61" t="s">
         <v>67</v>
       </c>
@@ -4499,15 +8687,15 @@
         <v>1213</v>
       </c>
       <c r="I55" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.27582089552238803</v>
       </c>
       <c r="J55" s="68">
-        <v>1277</v>
+        <v>1389</v>
       </c>
       <c r="K55">
-        <f t="shared" si="6"/>
-        <v>0.23761194029850746</v>
+        <f t="shared" si="8"/>
+        <v>0.17074626865671641</v>
       </c>
       <c r="L55" s="11">
         <v>1638</v>
@@ -4516,15 +8704,15 @@
         <v>1550</v>
       </c>
       <c r="N55" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.3724053724053727E-2</v>
       </c>
       <c r="O55" s="64">
-        <v>1393</v>
+        <v>1379</v>
       </c>
       <c r="P55">
-        <f t="shared" si="7"/>
-        <v>0.14957264957264957</v>
+        <f t="shared" si="9"/>
+        <v>0.15811965811965811</v>
       </c>
       <c r="Q55" s="13" t="s">
         <v>94</v>
@@ -4544,8 +8732,11 @@
       <c r="V55" s="15">
         <v>831</v>
       </c>
+      <c r="X55" s="35">
+        <v>981</v>
+      </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" s="61" t="s">
         <v>68</v>
       </c>
@@ -4564,15 +8755,15 @@
         <v>1034</v>
       </c>
       <c r="I56" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.34014039566049775</v>
       </c>
       <c r="J56" s="68">
-        <v>875</v>
+        <v>771</v>
       </c>
       <c r="K56">
-        <f t="shared" si="6"/>
-        <v>0.44160816847479262</v>
+        <f t="shared" si="8"/>
+        <v>0.5079770261646458</v>
       </c>
       <c r="L56" s="11">
         <v>1210</v>
@@ -4581,15 +8772,15 @@
         <v>921</v>
       </c>
       <c r="N56" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.23884297520661157</v>
       </c>
       <c r="O56" s="64">
-        <v>773</v>
+        <v>806</v>
       </c>
       <c r="P56">
-        <f t="shared" si="7"/>
-        <v>0.3611570247933884</v>
+        <f t="shared" si="9"/>
+        <v>0.33388429752066118</v>
       </c>
       <c r="Q56" s="13" t="s">
         <v>95</v>
@@ -4609,8 +8800,11 @@
       <c r="V56" s="15">
         <v>543</v>
       </c>
+      <c r="X56" s="35">
+        <v>572</v>
+      </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" s="61" t="s">
         <v>69</v>
       </c>
@@ -4629,15 +8823,15 @@
         <v>1057</v>
       </c>
       <c r="I57" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.46964375313597589</v>
       </c>
       <c r="J57" s="68">
-        <v>1027</v>
+        <v>1036</v>
       </c>
       <c r="K57">
-        <f t="shared" si="6"/>
-        <v>0.48469643753135977</v>
+        <f t="shared" si="8"/>
+        <v>0.4801806322127446</v>
       </c>
       <c r="L57" s="11">
         <v>1633</v>
@@ -4646,15 +8840,15 @@
         <v>1207</v>
       </c>
       <c r="N57" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2608695652173913</v>
       </c>
       <c r="O57" s="64">
-        <v>1099</v>
+        <v>1068</v>
       </c>
       <c r="P57">
-        <f t="shared" si="7"/>
-        <v>0.32700551132884265</v>
+        <f t="shared" si="9"/>
+        <v>0.34598897734231476</v>
       </c>
       <c r="Q57" s="13" t="s">
         <v>96</v>
@@ -4674,8 +8868,11 @@
       <c r="V57" s="15">
         <v>654</v>
       </c>
+      <c r="X57" s="35">
+        <v>710</v>
+      </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" s="62" t="s">
         <v>70</v>
       </c>
@@ -4694,14 +8891,14 @@
         <v>830</v>
       </c>
       <c r="I58" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.23431734317343172</v>
       </c>
       <c r="J58" s="67">
         <v>780</v>
       </c>
       <c r="K58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.28044280442804426</v>
       </c>
       <c r="L58" s="12">
@@ -4711,15 +8908,15 @@
         <v>846</v>
       </c>
       <c r="N58" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.21155638397017706</v>
       </c>
       <c r="O58" s="9">
-        <v>996</v>
+        <v>939</v>
       </c>
       <c r="P58" s="10">
-        <f t="shared" si="7"/>
-        <v>7.1761416589002799E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.12488350419384903</v>
       </c>
       <c r="Q58" s="16" t="s">
         <v>97</v>
@@ -4739,8 +8936,11 @@
       <c r="V58" s="18">
         <v>555</v>
       </c>
+      <c r="X58" s="35">
+        <v>615</v>
+      </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="12"/>
       <c r="C59" s="9"/>
@@ -4759,7 +8959,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="43">
         <f>AVERAGE(K29:K58)</f>
-        <v>0.31952238853568588</v>
+        <v>0.33593274192902955</v>
       </c>
       <c r="L59" s="12"/>
       <c r="M59" s="9"/>
@@ -4770,7 +8970,7 @@
       <c r="O59" s="9"/>
       <c r="P59" s="58">
         <f>AVERAGE(P29:P58)</f>
-        <v>0.28215751257393301</v>
+        <v>0.31367331611686061</v>
       </c>
       <c r="Q59" s="12"/>
       <c r="R59" s="10"/>
@@ -4779,35 +8979,36 @@
       <c r="U59" s="12"/>
       <c r="V59" s="10"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K60" s="42"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>175</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="B27:P27"/>
+    <mergeCell ref="Q27:R27"/>
     <mergeCell ref="S27:T27"/>
     <mergeCell ref="U27:V27"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="G28:K28"/>
     <mergeCell ref="L28:P28"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="B27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="B3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4834,22 +9035,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="72"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="71"/>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="70" t="s">
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="72"/>
+      <c r="I3" s="70"/>
       <c r="J3" s="71"/>
-      <c r="K3" s="70" t="s">
+      <c r="K3" s="72" t="s">
         <v>154</v>
       </c>
       <c r="L3" s="71"/>
@@ -5229,22 +9430,22 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="72"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="71"/>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="70" t="s">
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="72"/>
+      <c r="I3" s="70"/>
       <c r="J3" s="71"/>
-      <c r="K3" s="70" t="s">
+      <c r="K3" s="72" t="s">
         <v>145</v>
       </c>
       <c r="L3" s="71"/>

--- a/data/Benchmarks/MKS.xlsx
+++ b/data/Benchmarks/MKS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\GitHub\MSTS_FJSP\data\Benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2459ACD7-E8A5-40F2-8700-E89860EEF0CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BC2E9A-9B1E-489F-BAE2-78238E35F964}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{87D6751E-06B1-440E-A7B4-B38AD42E9B96}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{87D6751E-06B1-440E-A7B4-B38AD42E9B96}"/>
   </bookViews>
   <sheets>
     <sheet name="Birgin Test Cases" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="180">
   <si>
     <t>SMT</t>
   </si>
@@ -819,7 +819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -956,13 +956,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -977,9 +980,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1444,6 +1445,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0680-4033-8D19-0774B908C676}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
@@ -1458,6 +1464,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0680-4033-8D19-0774B908C676}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -5130,8 +5141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C717E4-2E19-4E10-82CD-C66DD0E858F2}">
   <dimension ref="A1:Y61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AP21" sqref="AP21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5145,77 +5156,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="72" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="R3" s="71"/>
-      <c r="S3" s="70" t="s">
+      <c r="R3" s="72"/>
+      <c r="S3" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="71"/>
-      <c r="U3" s="72" t="s">
+      <c r="T3" s="72"/>
+      <c r="U3" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="V3" s="71"/>
+      <c r="V3" s="72"/>
       <c r="W3" s="6"/>
       <c r="X3" s="7"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="72" t="s">
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="71"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="72"/>
       <c r="Q4" s="3" t="s">
         <v>5</v>
       </c>
@@ -5237,7 +5248,7 @@
       <c r="W4" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="X4" s="77"/>
+      <c r="X4" s="70"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
@@ -6765,61 +6776,61 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="72" t="s">
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="R27" s="71"/>
-      <c r="S27" s="70" t="s">
+      <c r="R27" s="72"/>
+      <c r="S27" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="T27" s="71"/>
-      <c r="U27" s="72" t="s">
+      <c r="T27" s="72"/>
+      <c r="U27" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="V27" s="71"/>
+      <c r="V27" s="72"/>
       <c r="W27" s="11"/>
       <c r="X27" s="7"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="72" t="s">
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="72" t="s">
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="70"/>
-      <c r="P28" s="71"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="72"/>
       <c r="Q28" s="3" t="s">
         <v>5</v>
       </c>
@@ -6839,7 +6850,7 @@
         <v>174</v>
       </c>
       <c r="W28" s="63"/>
-      <c r="X28" s="77"/>
+      <c r="X28" s="70"/>
       <c r="Y28" s="7"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
@@ -8989,21 +9000,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="B27:P27"/>
+    <mergeCell ref="Q27:R27"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="B27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9023,37 +9034,37 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="72" t="s">
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="70"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="72" t="s">
+      <c r="I3" s="73"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="L3" s="71"/>
+      <c r="L3" s="72"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
@@ -9406,10 +9417,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849930BA-C1CC-4AFE-B573-763F33389D3C}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9417,871 +9428,1395 @@
     <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72" t="s">
+      <c r="B3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="I3" s="70"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="72" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="74" t="s">
+      <c r="R3" s="72"/>
+      <c r="S3" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="77"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="23">
+        <v>91</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43">
+        <f>(B5-C5)/B5</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="24">
+        <v>91</v>
+      </c>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42">
+        <f>(G5-H5)/G5</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="69">
+        <v>66</v>
+      </c>
+      <c r="K5" s="43">
+        <f>(G5-J5)/G5</f>
+        <v>0.27472527472527475</v>
+      </c>
+      <c r="L5" s="25">
+        <v>91</v>
+      </c>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42">
+        <f>(L5-M5)/L5</f>
+        <v>1</v>
+      </c>
+      <c r="O5" s="69">
+        <v>66</v>
+      </c>
+      <c r="P5" s="43">
+        <f>(L5-O5)/L5</f>
+        <v>0.27472527472527475</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>66</v>
+      </c>
+      <c r="R5" s="20">
+        <v>66</v>
+      </c>
+      <c r="S5" s="11">
+        <v>66</v>
+      </c>
+      <c r="T5" s="7">
+        <v>66</v>
+      </c>
+      <c r="U5" s="35">
+        <v>66</v>
+      </c>
+      <c r="V5" s="8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="23">
+        <v>128</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="8">
+        <f t="shared" ref="F6:F18" si="0">(B6-C6)/B6</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="24">
+        <v>128</v>
+      </c>
+      <c r="H6" s="49"/>
+      <c r="I6" s="42">
+        <f>(G6-H6)/G6</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="49">
+        <v>107</v>
+      </c>
+      <c r="K6" s="43">
+        <f>(G6-J6)/G6</f>
+        <v>0.1640625</v>
+      </c>
+      <c r="L6" s="25">
+        <v>128</v>
+      </c>
+      <c r="M6" s="49"/>
+      <c r="N6" s="7">
+        <f t="shared" ref="N6:N24" si="1">(L6-M6)/L6</f>
+        <v>1</v>
+      </c>
+      <c r="O6" s="49">
+        <v>107</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" ref="P6:P24" si="2">(L6-O6)/L6</f>
+        <v>0.1640625</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>107</v>
+      </c>
+      <c r="R6" s="15">
+        <v>107</v>
+      </c>
+      <c r="S6" s="11">
+        <v>107</v>
+      </c>
+      <c r="T6" s="35">
+        <v>107</v>
+      </c>
+      <c r="U6" s="35">
+        <v>107</v>
+      </c>
+      <c r="V6" s="32">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="23">
+        <v>298</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="24">
+        <v>298</v>
+      </c>
+      <c r="H7" s="49"/>
+      <c r="I7" s="42">
+        <f>(G7-H7)/G7</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="78">
+        <v>236</v>
+      </c>
+      <c r="K7" s="43">
+        <f>(G7-J7)/G7</f>
+        <v>0.20805369127516779</v>
+      </c>
+      <c r="L7" s="25">
+        <v>298</v>
+      </c>
+      <c r="M7" s="49"/>
+      <c r="N7" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O7" s="49">
+        <v>221</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="2"/>
+        <v>0.25838926174496646</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>221</v>
+      </c>
+      <c r="R7" s="15">
+        <v>221</v>
+      </c>
+      <c r="S7" s="11">
+        <v>221</v>
+      </c>
+      <c r="T7" s="7">
+        <v>221</v>
+      </c>
+      <c r="U7" s="7">
+        <v>221</v>
+      </c>
+      <c r="V7" s="8">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="23">
+        <v>396</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="24">
+        <v>396</v>
+      </c>
+      <c r="H8" s="49"/>
+      <c r="I8" s="42">
+        <f>(G8-H8)/G8</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="49">
+        <v>355</v>
+      </c>
+      <c r="K8" s="43">
+        <f>(G8-J8)/G8</f>
+        <v>0.10353535353535354</v>
+      </c>
+      <c r="L8" s="25">
+        <v>396</v>
+      </c>
+      <c r="M8" s="49"/>
+      <c r="N8" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="49">
+        <v>355</v>
+      </c>
+      <c r="P8" s="8">
+        <f t="shared" si="2"/>
+        <v>0.10353535353535354</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>355</v>
+      </c>
+      <c r="R8" s="15">
+        <v>355</v>
+      </c>
+      <c r="S8" s="11">
+        <v>355</v>
+      </c>
+      <c r="T8" s="7">
+        <v>355</v>
+      </c>
+      <c r="U8" s="7">
+        <v>355</v>
+      </c>
+      <c r="V8" s="8">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="23">
+        <v>119</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="21">
+        <v>119</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="42">
+        <f>(G9-H9)/G9</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="49">
+        <v>119</v>
+      </c>
+      <c r="K9" s="43">
+        <f>(G9-J9)/G9</f>
         <v>0</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="L9" s="22">
+        <v>119</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="O9" s="65">
+        <v>119</v>
+      </c>
+      <c r="P9" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="Q9" s="13">
+        <v>119</v>
+      </c>
+      <c r="R9" s="15">
+        <v>119</v>
+      </c>
+      <c r="S9" s="11">
+        <v>119</v>
+      </c>
+      <c r="T9" s="7">
+        <v>119</v>
+      </c>
+      <c r="U9" s="7">
+        <v>119</v>
+      </c>
+      <c r="V9" s="8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="23">
+        <v>360</v>
+      </c>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>149</v>
+      <c r="G10" s="24">
+        <v>360</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="42">
+        <f>(G10-H10)/G10</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="49">
+        <v>320</v>
+      </c>
+      <c r="K10" s="43">
+        <f>(G10-J10)/G10</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L10" s="25">
+        <v>360</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O10" s="65">
+        <v>320</v>
+      </c>
+      <c r="P10" s="8">
+        <f t="shared" si="2"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>320</v>
+      </c>
+      <c r="R10" s="15">
+        <v>320</v>
+      </c>
+      <c r="S10" s="11">
+        <v>320</v>
+      </c>
+      <c r="T10" s="7">
+        <v>320</v>
+      </c>
+      <c r="U10" s="7">
+        <v>320</v>
+      </c>
+      <c r="V10" s="8">
+        <v>320</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="23">
-        <v>91</v>
-      </c>
-      <c r="F5" s="24">
-        <v>91</v>
-      </c>
-      <c r="G5" s="25">
-        <v>91</v>
-      </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="19">
-        <v>66</v>
-      </c>
-      <c r="L5" s="20">
-        <v>66</v>
-      </c>
-      <c r="M5" s="11">
-        <v>66</v>
-      </c>
-      <c r="N5" s="7">
-        <v>66</v>
-      </c>
-      <c r="O5" s="35">
-        <v>66</v>
-      </c>
-      <c r="P5" s="8">
-        <v>66</v>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="23">
+        <v>397</v>
+      </c>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="21">
+        <v>397</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="42">
+        <f>(G11-H11)/G11</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="49">
+        <v>397</v>
+      </c>
+      <c r="K11" s="43">
+        <f>(G11-J11)/G11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="22">
+        <v>397</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O11" s="65">
+        <v>397</v>
+      </c>
+      <c r="P11" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>397</v>
+      </c>
+      <c r="R11" s="15">
+        <v>397</v>
+      </c>
+      <c r="S11" s="11">
+        <v>397</v>
+      </c>
+      <c r="T11" s="7">
+        <v>397</v>
+      </c>
+      <c r="U11" s="7">
+        <v>397</v>
+      </c>
+      <c r="V11" s="8">
+        <v>397</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="23">
-        <v>128</v>
-      </c>
-      <c r="F6" s="24">
-        <v>128</v>
-      </c>
-      <c r="G6" s="25">
-        <v>128</v>
-      </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="13">
-        <v>107</v>
-      </c>
-      <c r="L6" s="15">
-        <v>107</v>
-      </c>
-      <c r="M6" s="11">
-        <v>107</v>
-      </c>
-      <c r="N6" s="35">
-        <v>107</v>
-      </c>
-      <c r="O6" s="35">
-        <v>107</v>
-      </c>
-      <c r="P6" s="32">
-        <v>107</v>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="23">
+        <v>325</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="24">
+        <v>325</v>
+      </c>
+      <c r="H12" s="49"/>
+      <c r="I12" s="42">
+        <f>(G12-H12)/G12</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="49">
+        <v>253</v>
+      </c>
+      <c r="K12" s="43">
+        <f>(G12-J12)/G12</f>
+        <v>0.22153846153846155</v>
+      </c>
+      <c r="L12" s="25">
+        <v>325</v>
+      </c>
+      <c r="M12" s="49"/>
+      <c r="N12" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O12" s="49">
+        <v>253</v>
+      </c>
+      <c r="P12" s="8">
+        <f t="shared" si="2"/>
+        <v>0.22153846153846155</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>253</v>
+      </c>
+      <c r="R12" s="15">
+        <v>253</v>
+      </c>
+      <c r="S12" s="11">
+        <v>253</v>
+      </c>
+      <c r="T12" s="7">
+        <v>253</v>
+      </c>
+      <c r="U12" s="7">
+        <v>253</v>
+      </c>
+      <c r="V12" s="8">
+        <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="23">
-        <v>298</v>
-      </c>
-      <c r="F7" s="24">
-        <v>298</v>
-      </c>
-      <c r="G7" s="25">
-        <v>298</v>
-      </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="13">
-        <v>221</v>
-      </c>
-      <c r="L7" s="15">
-        <v>221</v>
-      </c>
-      <c r="M7" s="11">
-        <v>221</v>
-      </c>
-      <c r="N7" s="7">
-        <v>221</v>
-      </c>
-      <c r="O7" s="7">
-        <v>221</v>
-      </c>
-      <c r="P7" s="8">
-        <v>221</v>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="23">
+        <v>257</v>
+      </c>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="24">
+        <v>290</v>
+      </c>
+      <c r="H13" s="49"/>
+      <c r="I13" s="42">
+        <f>(G13-H13)/G13</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="78">
+        <v>220</v>
+      </c>
+      <c r="K13" s="43">
+        <f>(G13-J13)/G13</f>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="L13" s="25">
+        <v>257</v>
+      </c>
+      <c r="M13" s="49"/>
+      <c r="N13" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="49">
+        <v>210</v>
+      </c>
+      <c r="P13" s="8">
+        <f t="shared" si="2"/>
+        <v>0.1828793774319066</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>210</v>
+      </c>
+      <c r="R13" s="15">
+        <v>210</v>
+      </c>
+      <c r="S13" s="11">
+        <v>210</v>
+      </c>
+      <c r="T13" s="7">
+        <v>210</v>
+      </c>
+      <c r="U13" s="7">
+        <v>210</v>
+      </c>
+      <c r="V13" s="8">
+        <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="23">
-        <v>396</v>
-      </c>
-      <c r="F8" s="24">
-        <v>396</v>
-      </c>
-      <c r="G8" s="25">
-        <v>396</v>
-      </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="13">
-        <v>355</v>
-      </c>
-      <c r="L8" s="15">
-        <v>355</v>
-      </c>
-      <c r="M8" s="11">
-        <v>355</v>
-      </c>
-      <c r="N8" s="7">
-        <v>355</v>
-      </c>
-      <c r="O8" s="7">
-        <v>355</v>
-      </c>
-      <c r="P8" s="8">
-        <v>355</v>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="26">
+        <v>516</v>
+      </c>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="36">
+        <v>516</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="42">
+        <f>(G14-H14)/G14</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="49">
+        <v>516</v>
+      </c>
+      <c r="K14" s="43">
+        <f>(G14-J14)/G14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="37">
+        <v>516</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O14" s="65">
+        <v>516</v>
+      </c>
+      <c r="P14" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>516</v>
+      </c>
+      <c r="R14" s="18">
+        <v>516</v>
+      </c>
+      <c r="S14" s="12">
+        <v>516</v>
+      </c>
+      <c r="T14" s="9">
+        <v>516</v>
+      </c>
+      <c r="U14" s="9">
+        <v>516</v>
+      </c>
+      <c r="V14" s="10">
+        <v>519</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="23">
-        <v>119</v>
-      </c>
-      <c r="F9" s="21">
-        <v>119</v>
-      </c>
-      <c r="G9" s="22">
-        <v>119</v>
-      </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="13">
-        <v>119</v>
-      </c>
-      <c r="L9" s="15">
-        <v>119</v>
-      </c>
-      <c r="M9" s="11">
-        <v>119</v>
-      </c>
-      <c r="N9" s="7">
-        <v>119</v>
-      </c>
-      <c r="O9" s="7">
-        <v>119</v>
-      </c>
-      <c r="P9" s="8">
-        <v>119</v>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="23">
+        <v>719</v>
+      </c>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="24">
+        <v>664</v>
+      </c>
+      <c r="H15" s="49"/>
+      <c r="I15" s="42">
+        <f>(G15-H15)/G15</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="78">
+        <v>479</v>
+      </c>
+      <c r="K15" s="43">
+        <f>(G15-J15)/G15</f>
+        <v>0.27861445783132532</v>
+      </c>
+      <c r="L15" s="25">
+        <v>664</v>
+      </c>
+      <c r="M15" s="49"/>
+      <c r="N15" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="78">
+        <v>495</v>
+      </c>
+      <c r="P15" s="8">
+        <f t="shared" si="2"/>
+        <v>0.25451807228915663</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>468</v>
+      </c>
+      <c r="R15" s="15">
+        <v>468</v>
+      </c>
+      <c r="S15" s="11">
+        <v>479</v>
+      </c>
+      <c r="T15" s="7">
+        <v>491</v>
+      </c>
+      <c r="U15" s="7">
+        <v>469</v>
+      </c>
+      <c r="V15" s="8">
+        <v>469</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="23">
-        <v>360</v>
-      </c>
-      <c r="F10" s="24">
-        <v>360</v>
-      </c>
-      <c r="G10" s="25">
-        <v>360</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="13">
-        <v>320</v>
-      </c>
-      <c r="L10" s="15">
-        <v>320</v>
-      </c>
-      <c r="M10" s="11">
-        <v>320</v>
-      </c>
-      <c r="N10" s="7">
-        <v>320</v>
-      </c>
-      <c r="O10" s="7">
-        <v>320</v>
-      </c>
-      <c r="P10" s="8">
-        <v>320</v>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="23">
+        <v>628</v>
+      </c>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="24">
+        <v>571</v>
+      </c>
+      <c r="H16" s="51"/>
+      <c r="I16" s="42">
+        <f>(G16-H16)/G16</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="78">
+        <v>459</v>
+      </c>
+      <c r="K16" s="43">
+        <f>(G16-J16)/G16</f>
+        <v>0.19614711033274956</v>
+      </c>
+      <c r="L16" s="25">
+        <v>586</v>
+      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O16" s="68">
+        <v>466</v>
+      </c>
+      <c r="P16" s="8">
+        <f t="shared" si="2"/>
+        <v>0.20477815699658702</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>446</v>
+      </c>
+      <c r="R16" s="15">
+        <v>446</v>
+      </c>
+      <c r="S16" s="11">
+        <v>495</v>
+      </c>
+      <c r="T16" s="35">
+        <v>482</v>
+      </c>
+      <c r="U16" s="35">
+        <v>482</v>
+      </c>
+      <c r="V16" s="8">
+        <v>468</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="23">
-        <v>397</v>
-      </c>
-      <c r="F11" s="21">
-        <v>397</v>
-      </c>
-      <c r="G11" s="22">
-        <v>397</v>
-      </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="13">
-        <v>397</v>
-      </c>
-      <c r="L11" s="15">
-        <v>397</v>
-      </c>
-      <c r="M11" s="11">
-        <v>397</v>
-      </c>
-      <c r="N11" s="7">
-        <v>397</v>
-      </c>
-      <c r="O11" s="7">
-        <v>397</v>
-      </c>
-      <c r="P11" s="8">
-        <v>397</v>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="23">
+        <v>761</v>
+      </c>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="24">
+        <v>731</v>
+      </c>
+      <c r="H17" s="51"/>
+      <c r="I17" s="42">
+        <f>(G17-H17)/G17</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="78">
+        <v>473</v>
+      </c>
+      <c r="K17" s="43">
+        <f>(G17-J17)/G17</f>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="L17" s="25">
+        <v>723</v>
+      </c>
+      <c r="M17" s="49"/>
+      <c r="N17" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O17" s="78">
+        <v>479</v>
+      </c>
+      <c r="P17" s="8">
+        <f t="shared" si="2"/>
+        <v>0.33748271092669435</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>466</v>
+      </c>
+      <c r="R17" s="15">
+        <v>466</v>
+      </c>
+      <c r="S17" s="11">
+        <v>553</v>
+      </c>
+      <c r="T17" s="35">
+        <v>538</v>
+      </c>
+      <c r="U17" s="35">
+        <v>533</v>
+      </c>
+      <c r="V17" s="8">
+        <v>538</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="23">
-        <v>325</v>
-      </c>
-      <c r="F12" s="24">
-        <v>325</v>
-      </c>
-      <c r="G12" s="25">
-        <v>325</v>
-      </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="13">
-        <v>253</v>
-      </c>
-      <c r="L12" s="15">
-        <v>253</v>
-      </c>
-      <c r="M12" s="11">
-        <v>253</v>
-      </c>
-      <c r="N12" s="7">
-        <v>253</v>
-      </c>
-      <c r="O12" s="7">
-        <v>253</v>
-      </c>
-      <c r="P12" s="8">
-        <v>256</v>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="23">
+        <v>891</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="24">
+        <v>851</v>
+      </c>
+      <c r="H18" s="51"/>
+      <c r="I18" s="42">
+        <f>(G18-H18)/G18</f>
+        <v>1</v>
+      </c>
+      <c r="J18" s="78">
+        <v>572</v>
+      </c>
+      <c r="K18" s="43">
+        <f>(G18-J18)/G18</f>
+        <v>0.32784958871915393</v>
+      </c>
+      <c r="L18" s="25">
+        <v>816</v>
+      </c>
+      <c r="M18" s="51"/>
+      <c r="N18" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="78">
+        <v>567</v>
+      </c>
+      <c r="P18" s="8">
+        <f t="shared" si="2"/>
+        <v>0.30514705882352944</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>554</v>
+      </c>
+      <c r="R18" s="15">
+        <v>554</v>
+      </c>
+      <c r="S18" s="11">
+        <v>656</v>
+      </c>
+      <c r="T18" s="35">
+        <v>650</v>
+      </c>
+      <c r="U18" s="35">
+        <v>634</v>
+      </c>
+      <c r="V18" s="8">
+        <v>618</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="23">
-        <v>257</v>
-      </c>
-      <c r="F13" s="24">
-        <v>290</v>
-      </c>
-      <c r="G13" s="25">
-        <v>257</v>
-      </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="13">
-        <v>210</v>
-      </c>
-      <c r="L13" s="15">
-        <v>210</v>
-      </c>
-      <c r="M13" s="11">
-        <v>210</v>
-      </c>
-      <c r="N13" s="7">
-        <v>210</v>
-      </c>
-      <c r="O13" s="7">
-        <v>210</v>
-      </c>
-      <c r="P13" s="8">
-        <v>210</v>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="23">
+        <v>815</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" s="24">
+        <v>762</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="42">
+        <f>(G19-H19)/G19</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="78">
+        <v>584</v>
+      </c>
+      <c r="K19" s="43">
+        <f>(G19-J19)/G19</f>
+        <v>0.23359580052493439</v>
+      </c>
+      <c r="L19" s="25">
+        <v>784</v>
+      </c>
+      <c r="M19" s="49"/>
+      <c r="N19" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="78">
+        <v>561</v>
+      </c>
+      <c r="P19" s="8">
+        <f t="shared" si="2"/>
+        <v>0.28443877551020408</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>514</v>
+      </c>
+      <c r="R19" s="15">
+        <v>514</v>
+      </c>
+      <c r="S19" s="11">
+        <v>650</v>
+      </c>
+      <c r="T19" s="35">
+        <v>662</v>
+      </c>
+      <c r="U19" s="35">
+        <v>625</v>
+      </c>
+      <c r="V19" s="8">
+        <v>625</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="26">
-        <v>516</v>
-      </c>
-      <c r="F14" s="36">
-        <v>516</v>
-      </c>
-      <c r="G14" s="37">
-        <v>516</v>
-      </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="16">
-        <v>516</v>
-      </c>
-      <c r="L14" s="18">
-        <v>516</v>
-      </c>
-      <c r="M14" s="12">
-        <v>516</v>
-      </c>
-      <c r="N14" s="9">
-        <v>516</v>
-      </c>
-      <c r="O14" s="9">
-        <v>516</v>
-      </c>
-      <c r="P14" s="10">
-        <v>519</v>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="23">
+        <v>960</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" s="24">
+        <v>826</v>
+      </c>
+      <c r="H20" s="49"/>
+      <c r="I20" s="42">
+        <f>(G20-H20)/G20</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="78">
+        <v>700</v>
+      </c>
+      <c r="K20" s="43">
+        <f>(G20-J20)/G20</f>
+        <v>0.15254237288135594</v>
+      </c>
+      <c r="L20" s="25">
+        <v>879</v>
+      </c>
+      <c r="M20" s="49"/>
+      <c r="N20" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="78">
+        <v>650</v>
+      </c>
+      <c r="P20" s="8">
+        <f t="shared" si="2"/>
+        <v>0.26052332195676908</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>608</v>
+      </c>
+      <c r="R20" s="15">
+        <v>608</v>
+      </c>
+      <c r="S20" s="11">
+        <v>762</v>
+      </c>
+      <c r="T20" s="35">
+        <v>785</v>
+      </c>
+      <c r="U20" s="35">
+        <v>717</v>
+      </c>
+      <c r="V20" s="8">
+        <v>730</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="23">
-        <v>719</v>
-      </c>
-      <c r="F15" s="24">
-        <v>664</v>
-      </c>
-      <c r="G15" s="25">
-        <v>664</v>
-      </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="13">
-        <v>468</v>
-      </c>
-      <c r="L15" s="15">
-        <v>468</v>
-      </c>
-      <c r="M15" s="11">
-        <v>479</v>
-      </c>
-      <c r="N15" s="7">
-        <v>491</v>
-      </c>
-      <c r="O15" s="7">
-        <v>469</v>
-      </c>
-      <c r="P15" s="8">
-        <v>469</v>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="23">
+        <v>1243</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" s="24">
+        <v>1167</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="42">
+        <f>(G21-H21)/G21</f>
+        <v>1</v>
+      </c>
+      <c r="J21" s="78">
+        <v>897</v>
+      </c>
+      <c r="K21" s="43">
+        <f>(G21-J21)/G21</f>
+        <v>0.23136246786632392</v>
+      </c>
+      <c r="L21" s="25">
+        <v>1139</v>
+      </c>
+      <c r="M21" s="49"/>
+      <c r="N21" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O21" s="78">
+        <v>905</v>
+      </c>
+      <c r="P21" s="8">
+        <f t="shared" si="2"/>
+        <v>0.2054433713784021</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>881</v>
+      </c>
+      <c r="R21" s="15">
+        <v>879</v>
+      </c>
+      <c r="S21" s="11">
+        <v>1020</v>
+      </c>
+      <c r="T21" s="35">
+        <v>1081</v>
+      </c>
+      <c r="U21" s="35">
+        <v>964</v>
+      </c>
+      <c r="V21" s="8">
+        <v>947</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="23">
-        <v>628</v>
-      </c>
-      <c r="F16" s="24">
-        <v>571</v>
-      </c>
-      <c r="G16" s="25">
-        <v>586</v>
-      </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="13">
-        <v>446</v>
-      </c>
-      <c r="L16" s="15">
-        <v>446</v>
-      </c>
-      <c r="M16" s="11">
-        <v>495</v>
-      </c>
-      <c r="N16" s="35">
-        <v>482</v>
-      </c>
-      <c r="O16" s="35">
-        <v>482</v>
-      </c>
-      <c r="P16" s="8">
-        <v>468</v>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="23">
+        <v>1260</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" s="24">
+        <v>1207</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="42">
+        <f>(G22-H22)/G22</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="78">
+        <v>973</v>
+      </c>
+      <c r="K22" s="43">
+        <f>(G22-J22)/G22</f>
+        <v>0.19386909693454846</v>
+      </c>
+      <c r="L22" s="25">
+        <v>1179</v>
+      </c>
+      <c r="M22" s="49"/>
+      <c r="N22" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O22" s="78">
+        <v>970</v>
+      </c>
+      <c r="P22" s="8">
+        <f t="shared" si="2"/>
+        <v>0.17726887192536048</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>894</v>
+      </c>
+      <c r="R22" s="15">
+        <v>894</v>
+      </c>
+      <c r="S22" s="11">
+        <v>1030</v>
+      </c>
+      <c r="T22" s="35">
+        <v>1122</v>
+      </c>
+      <c r="U22" s="35">
+        <v>970</v>
+      </c>
+      <c r="V22" s="8">
+        <v>922</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="23">
-        <v>761</v>
-      </c>
-      <c r="F17" s="24">
-        <v>731</v>
-      </c>
-      <c r="G17" s="25">
-        <v>723</v>
-      </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="13">
-        <v>466</v>
-      </c>
-      <c r="L17" s="15">
-        <v>466</v>
-      </c>
-      <c r="M17" s="11">
-        <v>553</v>
-      </c>
-      <c r="N17" s="35">
-        <v>538</v>
-      </c>
-      <c r="O17" s="35">
-        <v>533</v>
-      </c>
-      <c r="P17" s="8">
-        <v>538</v>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="23">
+        <v>1610</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" s="24">
+        <v>1500</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="42">
+        <f>(G23-H23)/G23</f>
+        <v>1</v>
+      </c>
+      <c r="J23" s="78">
+        <v>1154</v>
+      </c>
+      <c r="K23" s="43">
+        <f>(G23-J23)/G23</f>
+        <v>0.23066666666666666</v>
+      </c>
+      <c r="L23" s="25">
+        <v>1513</v>
+      </c>
+      <c r="M23" s="49"/>
+      <c r="N23" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O23" s="78">
+        <v>1175</v>
+      </c>
+      <c r="P23" s="8">
+        <f t="shared" si="2"/>
+        <v>0.22339722405816259</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>1192</v>
+      </c>
+      <c r="R23" s="15">
+        <v>1088</v>
+      </c>
+      <c r="S23" s="11">
+        <v>1180</v>
+      </c>
+      <c r="T23" s="35">
+        <v>1243</v>
+      </c>
+      <c r="U23" s="35">
+        <v>1105</v>
+      </c>
+      <c r="V23" s="8">
+        <v>1105</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="23">
-        <v>891</v>
-      </c>
-      <c r="F18" s="24">
-        <v>851</v>
-      </c>
-      <c r="G18" s="25">
-        <v>816</v>
-      </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="13">
-        <v>554</v>
-      </c>
-      <c r="L18" s="15">
-        <v>554</v>
-      </c>
-      <c r="M18" s="11">
-        <v>656</v>
-      </c>
-      <c r="N18" s="35">
-        <v>650</v>
-      </c>
-      <c r="O18" s="35">
-        <v>634</v>
-      </c>
-      <c r="P18" s="8">
-        <v>618</v>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="26">
+        <v>2011</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" s="33">
+        <v>1761</v>
+      </c>
+      <c r="H24" s="46"/>
+      <c r="I24" s="42">
+        <f>(G24-H24)/G24</f>
+        <v>1</v>
+      </c>
+      <c r="J24" s="67">
+        <v>1463</v>
+      </c>
+      <c r="K24" s="43">
+        <f>(G24-J24)/G24</f>
+        <v>0.16922203293583191</v>
+      </c>
+      <c r="L24" s="34">
+        <v>1976</v>
+      </c>
+      <c r="M24" s="46"/>
+      <c r="N24" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O24" s="67">
+        <v>1328</v>
+      </c>
+      <c r="P24" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32793522267206476</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>1276</v>
+      </c>
+      <c r="R24" s="18">
+        <v>1196</v>
+      </c>
+      <c r="S24" s="12">
+        <v>1538</v>
+      </c>
+      <c r="T24" s="9">
+        <v>1615</v>
+      </c>
+      <c r="U24" s="9">
+        <v>1404</v>
+      </c>
+      <c r="V24" s="10">
+        <v>1384</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="23">
-        <v>815</v>
-      </c>
-      <c r="F19" s="24">
-        <v>762</v>
-      </c>
-      <c r="G19" s="25">
-        <v>784</v>
-      </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="13">
-        <v>514</v>
-      </c>
-      <c r="L19" s="15">
-        <v>514</v>
-      </c>
-      <c r="M19" s="11">
-        <v>650</v>
-      </c>
-      <c r="N19" s="35">
-        <v>662</v>
-      </c>
-      <c r="O19" s="35">
-        <v>625</v>
-      </c>
-      <c r="P19" s="8">
-        <v>625</v>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="58">
+        <f>AVERAGE(F5:F24)</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="47"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57">
+        <f>AVERAGE(I5:I24)</f>
+        <v>1</v>
+      </c>
+      <c r="J25" s="57"/>
+      <c r="K25" s="58">
+        <f>AVERAGE(K5:K24)</f>
+        <v>0.18456082368468371</v>
+      </c>
+      <c r="L25" s="47"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57">
+        <f>AVERAGE(N5:N24)</f>
+        <v>1</v>
+      </c>
+      <c r="O25" s="57"/>
+      <c r="P25" s="58">
+        <f>AVERAGE(P5:P24)</f>
+        <v>0.19485870633120025</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="23">
-        <v>960</v>
-      </c>
-      <c r="F20" s="24">
-        <v>826</v>
-      </c>
-      <c r="G20" s="25">
-        <v>879</v>
-      </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="13">
-        <v>608</v>
-      </c>
-      <c r="L20" s="15">
-        <v>608</v>
-      </c>
-      <c r="M20" s="11">
-        <v>762</v>
-      </c>
-      <c r="N20" s="35">
-        <v>785</v>
-      </c>
-      <c r="O20" s="35">
-        <v>717</v>
-      </c>
-      <c r="P20" s="8">
-        <v>730</v>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="23">
-        <v>1243</v>
-      </c>
-      <c r="F21" s="24">
-        <v>1167</v>
-      </c>
-      <c r="G21" s="25">
-        <v>1139</v>
-      </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="13">
-        <v>881</v>
-      </c>
-      <c r="L21" s="15">
-        <v>879</v>
-      </c>
-      <c r="M21" s="11">
-        <v>1020</v>
-      </c>
-      <c r="N21" s="35">
-        <v>1081</v>
-      </c>
-      <c r="O21" s="35">
-        <v>964</v>
-      </c>
-      <c r="P21" s="8">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="23">
-        <v>1260</v>
-      </c>
-      <c r="F22" s="24">
-        <v>1207</v>
-      </c>
-      <c r="G22" s="25">
-        <v>1179</v>
-      </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="13">
-        <v>894</v>
-      </c>
-      <c r="L22" s="15">
-        <v>894</v>
-      </c>
-      <c r="M22" s="11">
-        <v>1030</v>
-      </c>
-      <c r="N22" s="35">
-        <v>1122</v>
-      </c>
-      <c r="O22" s="35">
-        <v>970</v>
-      </c>
-      <c r="P22" s="8">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="23">
-        <v>1610</v>
-      </c>
-      <c r="F23" s="24">
-        <v>1500</v>
-      </c>
-      <c r="G23" s="25">
-        <v>1513</v>
-      </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="13">
-        <v>1192</v>
-      </c>
-      <c r="L23" s="15">
-        <v>1088</v>
-      </c>
-      <c r="M23" s="11">
-        <v>1180</v>
-      </c>
-      <c r="N23" s="35">
-        <v>1243</v>
-      </c>
-      <c r="O23" s="35">
-        <v>1105</v>
-      </c>
-      <c r="P23" s="8">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="26">
-        <v>2011</v>
-      </c>
-      <c r="F24" s="33">
-        <v>1761</v>
-      </c>
-      <c r="G24" s="34">
-        <v>1976</v>
-      </c>
-      <c r="H24" s="26"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="16">
-        <v>1276</v>
-      </c>
-      <c r="L24" s="18">
-        <v>1196</v>
-      </c>
-      <c r="M24" s="12">
-        <v>1538</v>
-      </c>
-      <c r="N24" s="9">
-        <v>1615</v>
-      </c>
-      <c r="O24" s="9">
-        <v>1404</v>
-      </c>
-      <c r="P24" s="10">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:P3"/>
+  <mergeCells count="7">
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="Q3:R3"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Benchmarks/MKS.xlsx
+++ b/data/Benchmarks/MKS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\GitHub\MSTS_FJSP\data\Benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BC2E9A-9B1E-489F-BAE2-78238E35F964}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73035459-4C96-4A42-9A21-90C003774406}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{87D6751E-06B1-440E-A7B4-B38AD42E9B96}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{87D6751E-06B1-440E-A7B4-B38AD42E9B96}"/>
   </bookViews>
   <sheets>
     <sheet name="Birgin Test Cases" sheetId="1" r:id="rId1"/>
@@ -959,13 +959,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -980,7 +981,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2387,7 +2387,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>295</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>321</c:v>
@@ -5141,8 +5141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C717E4-2E19-4E10-82CD-C66DD0E858F2}">
   <dimension ref="A1:Y61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:P25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5156,77 +5156,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="71" t="s">
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="R3" s="72"/>
-      <c r="S3" s="73" t="s">
+      <c r="R3" s="73"/>
+      <c r="S3" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="72"/>
-      <c r="U3" s="71" t="s">
+      <c r="T3" s="73"/>
+      <c r="U3" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="V3" s="72"/>
+      <c r="V3" s="73"/>
       <c r="W3" s="6"/>
       <c r="X3" s="7"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="71" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="71" t="s">
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="73"/>
       <c r="Q4" s="3" t="s">
         <v>5</v>
       </c>
@@ -6776,61 +6776,61 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="71" t="s">
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="R27" s="72"/>
-      <c r="S27" s="73" t="s">
+      <c r="R27" s="73"/>
+      <c r="S27" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="T27" s="72"/>
-      <c r="U27" s="71" t="s">
+      <c r="T27" s="73"/>
+      <c r="U27" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="V27" s="72"/>
+      <c r="V27" s="73"/>
       <c r="W27" s="11"/>
       <c r="X27" s="7"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="71" t="s">
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="71" t="s">
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="73"/>
       <c r="Q28" s="3" t="s">
         <v>5</v>
       </c>
@@ -6885,11 +6885,11 @@
         <v>6.8627450980392163E-2</v>
       </c>
       <c r="J29" s="69">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="K29">
         <f>(G29-J29)/G29</f>
-        <v>0.42156862745098039</v>
+        <v>0.44313725490196076</v>
       </c>
       <c r="L29" s="41">
         <v>580</v>
@@ -8970,7 +8970,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="43">
         <f>AVERAGE(K29:K58)</f>
-        <v>0.33593274192902955</v>
+        <v>0.33665169617739554</v>
       </c>
       <c r="L59" s="12"/>
       <c r="M59" s="9"/>
@@ -9000,21 +9000,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="B27:P27"/>
+    <mergeCell ref="Q27:R27"/>
     <mergeCell ref="S27:T27"/>
     <mergeCell ref="U27:V27"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="G28:K28"/>
     <mergeCell ref="L28:P28"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="B27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="B3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9034,37 +9034,37 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="71" t="s">
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="71" t="s">
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="73"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="71" t="s">
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74" t="s">
         <v>154</v>
       </c>
-      <c r="L3" s="72"/>
+      <c r="L3" s="73"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
@@ -9419,7 +9419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849930BA-C1CC-4AFE-B573-763F33389D3C}">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
@@ -9429,69 +9429,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="71" t="s">
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="R3" s="72"/>
-      <c r="S3" s="75" t="s">
+      <c r="R3" s="73"/>
+      <c r="S3" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="78"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="71" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="71" t="s">
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="73"/>
       <c r="Q4" s="3" t="s">
         <v>143</v>
       </c>
@@ -9530,14 +9530,14 @@
       </c>
       <c r="H5" s="42"/>
       <c r="I5" s="42">
-        <f>(G5-H5)/G5</f>
+        <f t="shared" ref="I5:I24" si="0">(G5-H5)/G5</f>
         <v>1</v>
       </c>
       <c r="J5" s="69">
         <v>66</v>
       </c>
       <c r="K5" s="43">
-        <f>(G5-J5)/G5</f>
+        <f t="shared" ref="K5:K24" si="1">(G5-J5)/G5</f>
         <v>0.27472527472527475</v>
       </c>
       <c r="L5" s="25">
@@ -9585,7 +9585,7 @@
       <c r="D6" s="49"/>
       <c r="E6" s="49"/>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F18" si="0">(B6-C6)/B6</f>
+        <f t="shared" ref="F6:F18" si="2">(B6-C6)/B6</f>
         <v>1</v>
       </c>
       <c r="G6" s="24">
@@ -9593,14 +9593,14 @@
       </c>
       <c r="H6" s="49"/>
       <c r="I6" s="42">
-        <f>(G6-H6)/G6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J6" s="49">
         <v>107</v>
       </c>
       <c r="K6" s="43">
-        <f>(G6-J6)/G6</f>
+        <f t="shared" si="1"/>
         <v>0.1640625</v>
       </c>
       <c r="L6" s="25">
@@ -9608,14 +9608,14 @@
       </c>
       <c r="M6" s="49"/>
       <c r="N6" s="7">
-        <f t="shared" ref="N6:N24" si="1">(L6-M6)/L6</f>
+        <f t="shared" ref="N6:N24" si="3">(L6-M6)/L6</f>
         <v>1</v>
       </c>
       <c r="O6" s="49">
         <v>107</v>
       </c>
       <c r="P6" s="8">
-        <f t="shared" ref="P6:P24" si="2">(L6-O6)/L6</f>
+        <f t="shared" ref="P6:P24" si="4">(L6-O6)/L6</f>
         <v>0.1640625</v>
       </c>
       <c r="Q6" s="13">
@@ -9648,22 +9648,22 @@
       <c r="D7" s="51"/>
       <c r="E7" s="51"/>
       <c r="F7" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="24">
+        <v>298</v>
+      </c>
+      <c r="H7" s="49"/>
+      <c r="I7" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="24">
-        <v>298</v>
-      </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="42">
-        <f>(G7-H7)/G7</f>
-        <v>1</v>
-      </c>
-      <c r="J7" s="78">
+      <c r="J7" s="71">
         <v>236</v>
       </c>
       <c r="K7" s="43">
-        <f>(G7-J7)/G7</f>
+        <f t="shared" si="1"/>
         <v>0.20805369127516779</v>
       </c>
       <c r="L7" s="25">
@@ -9671,14 +9671,14 @@
       </c>
       <c r="M7" s="49"/>
       <c r="N7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O7" s="49">
         <v>221</v>
       </c>
       <c r="P7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.25838926174496646</v>
       </c>
       <c r="Q7" s="13">
@@ -9711,22 +9711,22 @@
       <c r="D8" s="65"/>
       <c r="E8" s="65"/>
       <c r="F8" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="24">
+        <v>396</v>
+      </c>
+      <c r="H8" s="49"/>
+      <c r="I8" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G8" s="24">
-        <v>396</v>
-      </c>
-      <c r="H8" s="49"/>
-      <c r="I8" s="42">
-        <f>(G8-H8)/G8</f>
-        <v>1</v>
-      </c>
       <c r="J8" s="49">
         <v>355</v>
       </c>
       <c r="K8" s="43">
-        <f>(G8-J8)/G8</f>
+        <f t="shared" si="1"/>
         <v>0.10353535353535354</v>
       </c>
       <c r="L8" s="25">
@@ -9734,14 +9734,14 @@
       </c>
       <c r="M8" s="49"/>
       <c r="N8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O8" s="49">
         <v>355</v>
       </c>
       <c r="P8" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10353535353535354</v>
       </c>
       <c r="Q8" s="13">
@@ -9774,22 +9774,22 @@
       <c r="D9" s="64"/>
       <c r="E9" s="64"/>
       <c r="F9" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="21">
+        <v>119</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="21">
-        <v>119</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="42">
-        <f>(G9-H9)/G9</f>
-        <v>1</v>
-      </c>
       <c r="J9" s="49">
         <v>119</v>
       </c>
       <c r="K9" s="43">
-        <f>(G9-J9)/G9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L9" s="22">
@@ -9797,14 +9797,14 @@
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O9" s="65">
         <v>119</v>
       </c>
       <c r="P9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q9" s="13">
@@ -9837,22 +9837,22 @@
       <c r="D10" s="64"/>
       <c r="E10" s="64"/>
       <c r="F10" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="24">
+        <v>360</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10" s="24">
-        <v>360</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="42">
-        <f>(G10-H10)/G10</f>
-        <v>1</v>
-      </c>
       <c r="J10" s="49">
         <v>320</v>
       </c>
       <c r="K10" s="43">
-        <f>(G10-J10)/G10</f>
+        <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="L10" s="25">
@@ -9860,14 +9860,14 @@
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O10" s="65">
         <v>320</v>
       </c>
       <c r="P10" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="Q10" s="13">
@@ -9900,22 +9900,22 @@
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
       <c r="F11" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="21">
+        <v>397</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="21">
-        <v>397</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="42">
-        <f>(G11-H11)/G11</f>
-        <v>1</v>
-      </c>
       <c r="J11" s="49">
         <v>397</v>
       </c>
       <c r="K11" s="43">
-        <f>(G11-J11)/G11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L11" s="22">
@@ -9923,14 +9923,14 @@
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O11" s="65">
         <v>397</v>
       </c>
       <c r="P11" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q11" s="13">
@@ -9963,22 +9963,22 @@
       <c r="D12" s="64"/>
       <c r="E12" s="64"/>
       <c r="F12" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="24">
+        <v>325</v>
+      </c>
+      <c r="H12" s="49"/>
+      <c r="I12" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G12" s="24">
-        <v>325</v>
-      </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="42">
-        <f>(G12-H12)/G12</f>
-        <v>1</v>
-      </c>
       <c r="J12" s="49">
         <v>253</v>
       </c>
       <c r="K12" s="43">
-        <f>(G12-J12)/G12</f>
+        <f t="shared" si="1"/>
         <v>0.22153846153846155</v>
       </c>
       <c r="L12" s="25">
@@ -9986,14 +9986,14 @@
       </c>
       <c r="M12" s="49"/>
       <c r="N12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O12" s="49">
         <v>253</v>
       </c>
       <c r="P12" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.22153846153846155</v>
       </c>
       <c r="Q12" s="13">
@@ -10026,22 +10026,22 @@
       <c r="D13" s="65"/>
       <c r="E13" s="65"/>
       <c r="F13" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="24">
+        <v>290</v>
+      </c>
+      <c r="H13" s="49"/>
+      <c r="I13" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="24">
-        <v>290</v>
-      </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="42">
-        <f>(G13-H13)/G13</f>
-        <v>1</v>
-      </c>
-      <c r="J13" s="78">
+      <c r="J13" s="71">
         <v>220</v>
       </c>
       <c r="K13" s="43">
-        <f>(G13-J13)/G13</f>
+        <f t="shared" si="1"/>
         <v>0.2413793103448276</v>
       </c>
       <c r="L13" s="25">
@@ -10049,14 +10049,14 @@
       </c>
       <c r="M13" s="49"/>
       <c r="N13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O13" s="49">
         <v>210</v>
       </c>
       <c r="P13" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.1828793774319066</v>
       </c>
       <c r="Q13" s="13">
@@ -10089,22 +10089,22 @@
       <c r="D14" s="64"/>
       <c r="E14" s="64"/>
       <c r="F14" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="36">
+        <v>516</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G14" s="36">
-        <v>516</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="42">
-        <f>(G14-H14)/G14</f>
-        <v>1</v>
-      </c>
       <c r="J14" s="49">
         <v>516</v>
       </c>
       <c r="K14" s="43">
-        <f>(G14-J14)/G14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L14" s="37">
@@ -10112,14 +10112,14 @@
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O14" s="65">
         <v>516</v>
       </c>
       <c r="P14" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q14" s="16">
@@ -10152,22 +10152,22 @@
       <c r="D15" s="65"/>
       <c r="E15" s="65"/>
       <c r="F15" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="24">
+        <v>664</v>
+      </c>
+      <c r="H15" s="49"/>
+      <c r="I15" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G15" s="24">
-        <v>664</v>
-      </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="42">
-        <f>(G15-H15)/G15</f>
-        <v>1</v>
-      </c>
-      <c r="J15" s="78">
+      <c r="J15" s="71">
         <v>479</v>
       </c>
       <c r="K15" s="43">
-        <f>(G15-J15)/G15</f>
+        <f t="shared" si="1"/>
         <v>0.27861445783132532</v>
       </c>
       <c r="L15" s="25">
@@ -10175,14 +10175,14 @@
       </c>
       <c r="M15" s="49"/>
       <c r="N15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O15" s="78">
+      <c r="O15" s="71">
         <v>495</v>
       </c>
       <c r="P15" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.25451807228915663</v>
       </c>
       <c r="Q15" s="13">
@@ -10215,22 +10215,22 @@
       <c r="D16" s="66"/>
       <c r="E16" s="66"/>
       <c r="F16" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="24">
+        <v>571</v>
+      </c>
+      <c r="H16" s="51"/>
+      <c r="I16" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G16" s="24">
-        <v>571</v>
-      </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="42">
-        <f>(G16-H16)/G16</f>
-        <v>1</v>
-      </c>
-      <c r="J16" s="78">
+      <c r="J16" s="71">
         <v>459</v>
       </c>
       <c r="K16" s="43">
-        <f>(G16-J16)/G16</f>
+        <f t="shared" si="1"/>
         <v>0.19614711033274956</v>
       </c>
       <c r="L16" s="25">
@@ -10238,14 +10238,14 @@
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O16" s="68">
         <v>466</v>
       </c>
       <c r="P16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.20477815699658702</v>
       </c>
       <c r="Q16" s="13">
@@ -10278,22 +10278,22 @@
       <c r="D17" s="66"/>
       <c r="E17" s="66"/>
       <c r="F17" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="24">
+        <v>731</v>
+      </c>
+      <c r="H17" s="51"/>
+      <c r="I17" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G17" s="24">
-        <v>731</v>
-      </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="42">
-        <f>(G17-H17)/G17</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="78">
+      <c r="J17" s="71">
         <v>473</v>
       </c>
       <c r="K17" s="43">
-        <f>(G17-J17)/G17</f>
+        <f t="shared" si="1"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="L17" s="25">
@@ -10301,14 +10301,14 @@
       </c>
       <c r="M17" s="49"/>
       <c r="N17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O17" s="78">
+      <c r="O17" s="71">
         <v>479</v>
       </c>
       <c r="P17" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.33748271092669435</v>
       </c>
       <c r="Q17" s="13">
@@ -10341,22 +10341,22 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="24">
+        <v>851</v>
+      </c>
+      <c r="H18" s="51"/>
+      <c r="I18" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G18" s="24">
-        <v>851</v>
-      </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="42">
-        <f>(G18-H18)/G18</f>
-        <v>1</v>
-      </c>
-      <c r="J18" s="78">
+      <c r="J18" s="71">
         <v>572</v>
       </c>
       <c r="K18" s="43">
-        <f>(G18-J18)/G18</f>
+        <f t="shared" si="1"/>
         <v>0.32784958871915393</v>
       </c>
       <c r="L18" s="25">
@@ -10364,14 +10364,14 @@
       </c>
       <c r="M18" s="51"/>
       <c r="N18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O18" s="78">
+      <c r="O18" s="71">
         <v>567</v>
       </c>
       <c r="P18" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.30514705882352944</v>
       </c>
       <c r="Q18" s="13">
@@ -10411,14 +10411,14 @@
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="42">
-        <f>(G19-H19)/G19</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J19" s="78">
+      <c r="J19" s="71">
         <v>584</v>
       </c>
       <c r="K19" s="43">
-        <f>(G19-J19)/G19</f>
+        <f t="shared" si="1"/>
         <v>0.23359580052493439</v>
       </c>
       <c r="L19" s="25">
@@ -10426,14 +10426,14 @@
       </c>
       <c r="M19" s="49"/>
       <c r="N19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O19" s="78">
+      <c r="O19" s="71">
         <v>561</v>
       </c>
       <c r="P19" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.28443877551020408</v>
       </c>
       <c r="Q19" s="13">
@@ -10473,14 +10473,14 @@
       </c>
       <c r="H20" s="49"/>
       <c r="I20" s="42">
-        <f>(G20-H20)/G20</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J20" s="78">
+      <c r="J20" s="71">
         <v>700</v>
       </c>
       <c r="K20" s="43">
-        <f>(G20-J20)/G20</f>
+        <f t="shared" si="1"/>
         <v>0.15254237288135594</v>
       </c>
       <c r="L20" s="25">
@@ -10488,14 +10488,14 @@
       </c>
       <c r="M20" s="49"/>
       <c r="N20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O20" s="78">
+      <c r="O20" s="71">
         <v>650</v>
       </c>
       <c r="P20" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.26052332195676908</v>
       </c>
       <c r="Q20" s="13">
@@ -10535,14 +10535,14 @@
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="42">
-        <f>(G21-H21)/G21</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J21" s="78">
+      <c r="J21" s="71">
         <v>897</v>
       </c>
       <c r="K21" s="43">
-        <f>(G21-J21)/G21</f>
+        <f t="shared" si="1"/>
         <v>0.23136246786632392</v>
       </c>
       <c r="L21" s="25">
@@ -10550,14 +10550,14 @@
       </c>
       <c r="M21" s="49"/>
       <c r="N21" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O21" s="78">
+      <c r="O21" s="71">
         <v>905</v>
       </c>
       <c r="P21" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.2054433713784021</v>
       </c>
       <c r="Q21" s="13">
@@ -10597,14 +10597,14 @@
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="42">
-        <f>(G22-H22)/G22</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J22" s="78">
+      <c r="J22" s="71">
         <v>973</v>
       </c>
       <c r="K22" s="43">
-        <f>(G22-J22)/G22</f>
+        <f t="shared" si="1"/>
         <v>0.19386909693454846</v>
       </c>
       <c r="L22" s="25">
@@ -10612,14 +10612,14 @@
       </c>
       <c r="M22" s="49"/>
       <c r="N22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O22" s="78">
+      <c r="O22" s="71">
         <v>970</v>
       </c>
       <c r="P22" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17726887192536048</v>
       </c>
       <c r="Q22" s="13">
@@ -10659,14 +10659,14 @@
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="42">
-        <f>(G23-H23)/G23</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J23" s="78">
+      <c r="J23" s="71">
         <v>1154</v>
       </c>
       <c r="K23" s="43">
-        <f>(G23-J23)/G23</f>
+        <f t="shared" si="1"/>
         <v>0.23066666666666666</v>
       </c>
       <c r="L23" s="25">
@@ -10674,14 +10674,14 @@
       </c>
       <c r="M23" s="49"/>
       <c r="N23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O23" s="78">
+      <c r="O23" s="71">
         <v>1175</v>
       </c>
       <c r="P23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.22339722405816259</v>
       </c>
       <c r="Q23" s="13">
@@ -10721,14 +10721,14 @@
       </c>
       <c r="H24" s="46"/>
       <c r="I24" s="42">
-        <f>(G24-H24)/G24</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J24" s="67">
         <v>1463</v>
       </c>
       <c r="K24" s="43">
-        <f>(G24-J24)/G24</f>
+        <f t="shared" si="1"/>
         <v>0.16922203293583191</v>
       </c>
       <c r="L24" s="34">
@@ -10736,14 +10736,14 @@
       </c>
       <c r="M24" s="46"/>
       <c r="N24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O24" s="67">
         <v>1328</v>
       </c>
       <c r="P24" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.32793522267206476</v>
       </c>
       <c r="Q24" s="16">
@@ -10810,13 +10810,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="S3:V3"/>
     <mergeCell ref="B3:P3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="L4:P4"/>
     <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Benchmarks/MKS.xlsx
+++ b/data/Benchmarks/MKS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\GitHub\MSTS_FJSP\data\Benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73035459-4C96-4A42-9A21-90C003774406}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC502A0B-86AA-480B-85AB-044AE48BA138}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{87D6751E-06B1-440E-A7B4-B38AD42E9B96}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{87D6751E-06B1-440E-A7B4-B38AD42E9B96}"/>
   </bookViews>
   <sheets>
     <sheet name="Birgin Test Cases" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="178">
   <si>
     <t>SMT</t>
   </si>
@@ -47,9 +47,6 @@
     <t>ERT</t>
   </si>
   <si>
-    <t>Random</t>
-  </si>
-  <si>
     <t>Greedy</t>
   </si>
   <si>
@@ -401,9 +398,6 @@
     <t>[467;615]</t>
   </si>
   <si>
-    <t>Least Utilised Machine</t>
-  </si>
-  <si>
     <t>SFJS01</t>
   </si>
   <si>
@@ -509,33 +503,6 @@
     <t>Tab2</t>
   </si>
   <si>
-    <t>MK1</t>
-  </si>
-  <si>
-    <t>MK2</t>
-  </si>
-  <si>
-    <t>MK3</t>
-  </si>
-  <si>
-    <t>MK4</t>
-  </si>
-  <si>
-    <t>MK5</t>
-  </si>
-  <si>
-    <t>MK6</t>
-  </si>
-  <si>
-    <t>MK7</t>
-  </si>
-  <si>
-    <t>MK8</t>
-  </si>
-  <si>
-    <t>MK9</t>
-  </si>
-  <si>
     <t>MK10</t>
   </si>
   <si>
@@ -576,6 +543,33 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>MK01</t>
+  </si>
+  <si>
+    <t>MK02</t>
+  </si>
+  <si>
+    <t>MK03</t>
+  </si>
+  <si>
+    <t>MK04</t>
+  </si>
+  <si>
+    <t>MK05</t>
+  </si>
+  <si>
+    <t>MK06</t>
+  </si>
+  <si>
+    <t>MK07</t>
+  </si>
+  <si>
+    <t>MK08</t>
+  </si>
+  <si>
+    <t>MK09</t>
   </si>
 </sst>
 </file>
@@ -819,9 +813,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -843,9 +836,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -875,19 +865,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -920,11 +898,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -960,13 +935,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1173,52 +1161,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>811</c:v>
+                  <c:v>877</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>866</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>366</c:v>
+                  <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>413</c:v>
+                  <c:v>459</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>490</c:v>
+                  <c:v>481</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>565</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>498</c:v>
+                  <c:v>519</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>413</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>242</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>427</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>613</c:v>
+                  <c:v>583</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>594</c:v>
+                  <c:v>551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>448</c:v>
+                  <c:v>471</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015</c:v>
+                  <c:v>1905</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2768</c:v>
+                  <c:v>2686</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1821</c:v>
+                  <c:v>1441</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2478</c:v>
@@ -1230,7 +1218,7 @@
                   <c:v>2769</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1551</c:v>
+                  <c:v>1546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1340,64 +1328,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>805</c:v>
+                  <c:v>859</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>954</c:v>
+                  <c:v>967</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>384</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>427</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>514</c:v>
+                  <c:v>519</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>500</c:v>
+                  <c:v>516</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>479</c:v>
+                  <c:v>516</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>361</c:v>
+                  <c:v>413</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>276</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>400</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>622</c:v>
+                  <c:v>616</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>555</c:v>
+                  <c:v>624</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>475</c:v>
+                  <c:v>467</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1317</c:v>
+                  <c:v>1341</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1514</c:v>
+                  <c:v>1411</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1491</c:v>
+                  <c:v>1377</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1305</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1451</c:v>
+                  <c:v>1422</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1333</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1336</c:v>
+                  <c:v>1312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2390,91 +2378,91 @@
                   <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>321</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>603</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>606</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>443</c:v>
+                  <c:v>473</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>471</c:v>
+                  <c:v>462</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>747</c:v>
+                  <c:v>593</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>776</c:v>
+                  <c:v>716</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>482</c:v>
+                  <c:v>516</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>587</c:v>
+                  <c:v>558</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>758</c:v>
+                  <c:v>692</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>743</c:v>
+                  <c:v>783</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>680</c:v>
+                  <c:v>676</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>749</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1013</c:v>
+                  <c:v>740</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>986</c:v>
+                  <c:v>783</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>821</c:v>
+                  <c:v>864</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>788</c:v>
+                  <c:v>790</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>733</c:v>
+                  <c:v>567</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>795</c:v>
+                  <c:v>732</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>935</c:v>
+                  <c:v>829</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>810</c:v>
+                  <c:v>758</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>735</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>838</c:v>
+                  <c:v>622</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>893</c:v>
+                  <c:v>772</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>888</c:v>
+                  <c:v>772</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1389</c:v>
+                  <c:v>911</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>771</c:v>
+                  <c:v>595</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1036</c:v>
+                  <c:v>728</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>780</c:v>
+                  <c:v>597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2614,13 +2602,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>271</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>331</c:v>
+                  <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>575</c:v>
+                  <c:v>576</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>607</c:v>
@@ -2629,79 +2617,79 @@
                   <c:v>453</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>459</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>732</c:v>
+                  <c:v>727</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>945</c:v>
+                  <c:v>797</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>498</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>600</c:v>
+                  <c:v>604</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>815</c:v>
+                  <c:v>713</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>821</c:v>
+                  <c:v>763</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>671</c:v>
+                  <c:v>696</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>759</c:v>
+                  <c:v>764</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1008</c:v>
+                  <c:v>809</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>942</c:v>
+                  <c:v>915</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>928</c:v>
+                  <c:v>837</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>822</c:v>
+                  <c:v>803</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>627</c:v>
+                  <c:v>574</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>858</c:v>
+                  <c:v>809</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1011</c:v>
+                  <c:v>840</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>763</c:v>
+                  <c:v>802</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>639</c:v>
+                  <c:v>558</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>674</c:v>
+                  <c:v>691</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>942</c:v>
+                  <c:v>810</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1003</c:v>
+                  <c:v>819</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1379</c:v>
+                  <c:v>897</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>806</c:v>
+                  <c:v>644</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1068</c:v>
+                  <c:v>1034</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>939</c:v>
+                  <c:v>657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5141,8 +5129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C717E4-2E19-4E10-82CD-C66DD0E858F2}">
   <dimension ref="A1:Y61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q59" sqref="Q59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5156,3865 +5144,3865 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="A1" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="73"/>
+        <v>3</v>
+      </c>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="75"/>
       <c r="Q3" s="74" t="s">
-        <v>177</v>
-      </c>
-      <c r="R3" s="73"/>
-      <c r="S3" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="T3" s="73"/>
+        <v>166</v>
+      </c>
+      <c r="R3" s="75"/>
+      <c r="S3" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="75"/>
       <c r="U3" s="74" t="s">
-        <v>172</v>
-      </c>
-      <c r="V3" s="73"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="7"/>
+        <v>161</v>
+      </c>
+      <c r="V3" s="75"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="6"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="73"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="75"/>
       <c r="G4" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="73"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="75"/>
       <c r="L4" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="3" t="s">
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="S4" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="U4" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="V4" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="W4" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="X4" s="70"/>
+      <c r="S4" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U4" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="V4" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="W4" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="X4" s="61"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="41">
+      <c r="A5" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="35">
         <v>2048</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="36">
         <v>1431</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43">
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37">
         <f>(B5-C5)/B5</f>
         <v>0.30126953125</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="66">
         <v>1406</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="64">
         <v>1297</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="64">
         <f>(G5-H5)/G5</f>
         <v>7.7524893314367002E-2</v>
       </c>
-      <c r="J5" s="69">
-        <v>811</v>
-      </c>
-      <c r="K5" s="43">
+      <c r="J5" s="63">
+        <v>877</v>
+      </c>
+      <c r="K5" s="67">
         <f>(G5-J5)/G5</f>
-        <v>0.42318634423897583</v>
-      </c>
-      <c r="L5" s="42">
+        <v>0.37624466571834991</v>
+      </c>
+      <c r="L5" s="64">
         <v>1335</v>
       </c>
-      <c r="M5" s="42">
+      <c r="M5" s="64">
         <v>1335</v>
       </c>
-      <c r="N5" s="42">
+      <c r="N5" s="64">
         <f>(L5-M5)/L5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="69">
-        <v>805</v>
-      </c>
-      <c r="P5" s="43">
+      <c r="O5" s="63">
+        <v>859</v>
+      </c>
+      <c r="P5" s="67">
         <f>(L5-O5)/L5</f>
-        <v>0.39700374531835209</v>
-      </c>
-      <c r="Q5" s="19">
+        <v>0.35655430711610486</v>
+      </c>
+      <c r="Q5" s="17">
         <v>773</v>
       </c>
-      <c r="R5" s="20"/>
-      <c r="S5" s="19">
+      <c r="R5" s="18"/>
+      <c r="S5" s="17">
         <v>1318</v>
       </c>
-      <c r="T5" s="20">
+      <c r="T5" s="18">
         <v>1130</v>
       </c>
-      <c r="U5" s="19">
+      <c r="U5" s="17">
         <v>773</v>
       </c>
-      <c r="V5" s="20">
+      <c r="V5" s="18">
         <v>773</v>
       </c>
-      <c r="W5" s="53">
+      <c r="W5" s="44">
         <v>886</v>
       </c>
-      <c r="X5" s="35">
+      <c r="X5" s="29">
         <v>773</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="A6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10">
         <v>2023</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="42">
         <v>820</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="8">
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="7">
         <f t="shared" ref="F6:F18" si="0">(B6-C6)/B6</f>
         <v>0.59466139396935247</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="68">
         <v>1126</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="62">
         <v>902</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="64">
         <f t="shared" ref="I6:I24" si="1">(G6-H6)/G6</f>
         <v>0.19893428063943161</v>
       </c>
-      <c r="J6" s="49">
+      <c r="J6" s="43">
         <v>866</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="67">
         <f t="shared" ref="K6:K24" si="2">(G6-J6)/G6</f>
         <v>0.23090586145648312</v>
       </c>
-      <c r="L6" s="51">
+      <c r="L6" s="62">
         <v>1140</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="62">
         <v>824</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="62">
         <f t="shared" ref="N6:N24" si="3">(L6-M6)/L6</f>
         <v>0.27719298245614032</v>
       </c>
-      <c r="O6" s="49">
-        <v>954</v>
-      </c>
-      <c r="P6" s="8">
+      <c r="O6" s="43">
+        <v>967</v>
+      </c>
+      <c r="P6" s="69">
         <f t="shared" ref="P6:P24" si="4">(L6-O6)/L6</f>
-        <v>0.16315789473684211</v>
-      </c>
-      <c r="Q6" s="13">
+        <v>0.15175438596491228</v>
+      </c>
+      <c r="Q6" s="12">
         <v>825</v>
       </c>
-      <c r="R6" s="15"/>
-      <c r="S6" s="13">
+      <c r="R6" s="14"/>
+      <c r="S6" s="12">
         <v>1243</v>
       </c>
-      <c r="T6" s="15">
+      <c r="T6" s="14">
         <v>1133</v>
       </c>
-      <c r="U6" s="13">
+      <c r="U6" s="12">
         <v>825</v>
       </c>
-      <c r="V6" s="15">
+      <c r="V6" s="14">
         <v>825</v>
       </c>
-      <c r="W6" s="54">
+      <c r="W6" s="45">
         <v>944</v>
       </c>
-      <c r="X6" s="35">
+      <c r="X6" s="29">
         <v>825</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="A7" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10">
         <v>747</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="43">
         <v>453</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="8">
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="7">
         <f t="shared" si="0"/>
         <v>0.39357429718875503</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="68">
         <v>454</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="62">
         <v>404</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="64">
         <f t="shared" si="1"/>
         <v>0.11013215859030837</v>
       </c>
-      <c r="J7" s="49">
-        <v>366</v>
-      </c>
-      <c r="K7" s="43">
+      <c r="J7" s="43">
+        <v>373</v>
+      </c>
+      <c r="K7" s="67">
         <f t="shared" si="2"/>
-        <v>0.19383259911894274</v>
-      </c>
-      <c r="L7" s="49">
+        <v>0.17841409691629956</v>
+      </c>
+      <c r="L7" s="62">
         <v>422</v>
       </c>
-      <c r="M7" s="49">
+      <c r="M7" s="62">
         <v>404</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="62">
         <f t="shared" si="3"/>
         <v>4.2654028436018961E-2</v>
       </c>
-      <c r="O7" s="49">
-        <v>384</v>
-      </c>
-      <c r="P7" s="8">
+      <c r="O7" s="43">
+        <v>368</v>
+      </c>
+      <c r="P7" s="69">
         <f t="shared" si="4"/>
-        <v>9.004739336492891E-2</v>
-      </c>
-      <c r="Q7" s="13">
+        <v>0.12796208530805686</v>
+      </c>
+      <c r="Q7" s="12">
         <v>347</v>
       </c>
-      <c r="R7" s="15"/>
-      <c r="S7" s="13">
+      <c r="R7" s="14"/>
+      <c r="S7" s="12">
         <v>439</v>
       </c>
-      <c r="T7" s="15">
+      <c r="T7" s="14">
         <v>575</v>
       </c>
-      <c r="U7" s="13">
+      <c r="U7" s="12">
         <v>347</v>
       </c>
-      <c r="V7" s="15">
+      <c r="V7" s="14">
         <v>347</v>
       </c>
-      <c r="W7" s="54">
+      <c r="W7" s="45">
         <v>406</v>
       </c>
-      <c r="X7" s="35">
+      <c r="X7" s="29">
         <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="11">
+      <c r="A8" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10">
         <v>1055</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="56">
         <v>489</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="8">
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>0.53649289099526065</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="68">
         <v>567</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="62">
         <v>472</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="64">
         <f t="shared" si="1"/>
         <v>0.16754850088183421</v>
       </c>
-      <c r="J8" s="49">
-        <v>413</v>
-      </c>
-      <c r="K8" s="43">
+      <c r="J8" s="43">
+        <v>459</v>
+      </c>
+      <c r="K8" s="67">
         <f t="shared" si="2"/>
-        <v>0.27160493827160492</v>
-      </c>
-      <c r="L8" s="7">
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="L8" s="62">
         <v>585</v>
       </c>
-      <c r="M8" s="49">
+      <c r="M8" s="62">
         <v>472</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="62">
         <f t="shared" si="3"/>
         <v>0.19316239316239317</v>
       </c>
-      <c r="O8" s="49">
+      <c r="O8" s="43">
         <v>427</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="69">
         <f t="shared" si="4"/>
         <v>0.27008547008547007</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="12">
         <v>390</v>
       </c>
-      <c r="R8" s="15"/>
-      <c r="S8" s="13">
+      <c r="R8" s="14"/>
+      <c r="S8" s="12">
         <v>569</v>
       </c>
-      <c r="T8" s="15">
+      <c r="T8" s="14">
         <v>576</v>
       </c>
-      <c r="U8" s="13">
+      <c r="U8" s="12">
         <v>390</v>
       </c>
-      <c r="V8" s="15">
+      <c r="V8" s="14">
         <v>390</v>
       </c>
-      <c r="W8" s="54">
+      <c r="W8" s="45">
         <v>628</v>
       </c>
-      <c r="X8" s="35">
+      <c r="X8" s="29">
         <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="A9" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="10">
         <v>1069</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="55">
         <v>688</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="8">
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="7">
         <f t="shared" si="0"/>
         <v>0.35640785781103834</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="68">
         <v>975</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="62">
         <v>688</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="64">
         <f t="shared" si="1"/>
         <v>0.29435897435897435</v>
       </c>
-      <c r="J9" s="65">
-        <v>490</v>
-      </c>
-      <c r="K9" s="43">
+      <c r="J9" s="57">
+        <v>481</v>
+      </c>
+      <c r="K9" s="67">
         <f t="shared" si="2"/>
-        <v>0.49743589743589745</v>
-      </c>
-      <c r="L9" s="7">
+        <v>0.50666666666666671</v>
+      </c>
+      <c r="L9" s="62">
         <v>975</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="62">
         <v>688</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="62">
         <f t="shared" si="3"/>
         <v>0.29435897435897435</v>
       </c>
-      <c r="O9" s="65">
-        <v>514</v>
-      </c>
-      <c r="P9" s="8">
+      <c r="O9" s="57">
+        <v>519</v>
+      </c>
+      <c r="P9" s="69">
         <f t="shared" si="4"/>
-        <v>0.47282051282051279</v>
-      </c>
-      <c r="Q9" s="13">
+        <v>0.46769230769230768</v>
+      </c>
+      <c r="Q9" s="12">
         <v>445</v>
       </c>
-      <c r="R9" s="15"/>
-      <c r="S9" s="13">
+      <c r="R9" s="14"/>
+      <c r="S9" s="12">
         <v>566</v>
       </c>
-      <c r="T9" s="15">
+      <c r="T9" s="14">
         <v>608</v>
       </c>
-      <c r="U9" s="13">
+      <c r="U9" s="12">
         <v>445</v>
       </c>
-      <c r="V9" s="15">
+      <c r="V9" s="14">
         <v>445</v>
       </c>
-      <c r="W9" s="54">
+      <c r="W9" s="45">
         <v>689</v>
       </c>
-      <c r="X9" s="35">
+      <c r="X9" s="29">
         <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="11">
+      <c r="A10" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="10">
         <v>1151</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="55">
         <v>685</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="8">
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="7">
         <f t="shared" si="0"/>
         <v>0.40486533449174633</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="68">
         <v>873</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="62">
         <v>685</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="64">
         <f t="shared" si="1"/>
         <v>0.21534936998854526</v>
       </c>
-      <c r="J10" s="65">
+      <c r="J10" s="57">
         <v>565</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="67">
         <f t="shared" si="2"/>
         <v>0.35280641466208479</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="62">
         <v>861</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="62">
         <v>685</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="62">
         <f t="shared" si="3"/>
         <v>0.20441347270615565</v>
       </c>
-      <c r="O10" s="65">
-        <v>500</v>
-      </c>
-      <c r="P10" s="8">
+      <c r="O10" s="57">
+        <v>516</v>
+      </c>
+      <c r="P10" s="69">
         <f t="shared" si="4"/>
-        <v>0.41927990708478513</v>
-      </c>
-      <c r="Q10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="R10" s="15">
+        <v>0.40069686411149824</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="14">
         <v>446</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S10" s="12">
         <v>633</v>
       </c>
-      <c r="T10" s="15">
+      <c r="T10" s="14">
         <v>633</v>
       </c>
-      <c r="U10" s="13">
+      <c r="U10" s="12">
         <v>447</v>
       </c>
-      <c r="V10" s="15">
+      <c r="V10" s="14">
         <v>447</v>
       </c>
-      <c r="W10" s="54">
+      <c r="W10" s="45">
         <v>606</v>
       </c>
-      <c r="X10" s="35">
+      <c r="X10" s="29">
         <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="11">
+      <c r="A11" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="10">
         <v>982</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="55">
         <v>835</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="8">
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="7">
         <f t="shared" si="0"/>
         <v>0.14969450101832993</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="68">
         <v>1101</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="62">
         <v>835</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="64">
         <f t="shared" si="1"/>
         <v>0.24159854677565848</v>
       </c>
-      <c r="J11" s="65">
-        <v>498</v>
-      </c>
-      <c r="K11" s="43">
+      <c r="J11" s="57">
+        <v>519</v>
+      </c>
+      <c r="K11" s="67">
         <f t="shared" si="2"/>
-        <v>0.54768392370572205</v>
-      </c>
-      <c r="L11" s="7">
+        <v>0.52861035422343328</v>
+      </c>
+      <c r="L11" s="62">
         <v>1023</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="62">
         <v>835</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="62">
         <f t="shared" si="3"/>
         <v>0.18377321603128055</v>
       </c>
-      <c r="O11" s="65">
-        <v>479</v>
-      </c>
-      <c r="P11" s="8">
+      <c r="O11" s="57">
+        <v>516</v>
+      </c>
+      <c r="P11" s="69">
         <f t="shared" si="4"/>
-        <v>0.53176930596285432</v>
-      </c>
-      <c r="Q11" s="13">
+        <v>0.49560117302052786</v>
+      </c>
+      <c r="Q11" s="12">
         <v>444</v>
       </c>
-      <c r="R11" s="15"/>
-      <c r="S11" s="13">
+      <c r="R11" s="14"/>
+      <c r="S11" s="12">
         <v>628</v>
       </c>
-      <c r="T11" s="15">
+      <c r="T11" s="14">
         <v>628</v>
       </c>
-      <c r="U11" s="13">
+      <c r="U11" s="12">
         <v>444</v>
       </c>
-      <c r="V11" s="15">
+      <c r="V11" s="14">
         <v>444</v>
       </c>
-      <c r="W11" s="54">
+      <c r="W11" s="45">
         <v>714</v>
       </c>
-      <c r="X11" s="35">
+      <c r="X11" s="29">
         <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="11">
+      <c r="A12" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="10">
         <v>1154</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="55">
         <v>537</v>
       </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="8">
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="7">
         <f t="shared" si="0"/>
         <v>0.53466204506065862</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="68">
         <v>512</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="62">
         <v>463</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="64">
         <f t="shared" si="1"/>
         <v>9.5703125E-2</v>
       </c>
-      <c r="J12" s="49">
+      <c r="J12" s="43">
         <v>413</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="67">
         <f t="shared" si="2"/>
         <v>0.193359375</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="62">
         <v>538</v>
       </c>
-      <c r="M12" s="49">
+      <c r="M12" s="62">
         <v>463</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="62">
         <f t="shared" si="3"/>
         <v>0.13940520446096655</v>
       </c>
-      <c r="O12" s="49">
-        <v>361</v>
-      </c>
-      <c r="P12" s="8">
+      <c r="O12" s="43">
+        <v>413</v>
+      </c>
+      <c r="P12" s="69">
         <f t="shared" si="4"/>
-        <v>0.32899628252788105</v>
-      </c>
-      <c r="Q12" s="13">
+        <v>0.23234200743494424</v>
+      </c>
+      <c r="Q12" s="12">
         <v>353</v>
       </c>
-      <c r="R12" s="15"/>
-      <c r="S12" s="13">
+      <c r="R12" s="14"/>
+      <c r="S12" s="12">
         <v>531</v>
       </c>
-      <c r="T12" s="15">
+      <c r="T12" s="14">
         <v>485</v>
       </c>
-      <c r="U12" s="13">
+      <c r="U12" s="12">
         <v>353</v>
       </c>
-      <c r="V12" s="15">
+      <c r="V12" s="14">
         <v>353</v>
       </c>
-      <c r="W12" s="54">
+      <c r="W12" s="45">
         <v>411</v>
       </c>
-      <c r="X12" s="35">
+      <c r="X12" s="29">
         <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="11">
+      <c r="A13" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="10">
         <v>554</v>
       </c>
-      <c r="C13" s="65">
+      <c r="C13" s="56">
         <v>333</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="8">
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0.39891696750902528</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13" s="68">
         <v>399</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13" s="62">
         <v>331</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="64">
         <f t="shared" si="1"/>
         <v>0.17042606516290726</v>
       </c>
-      <c r="J13" s="49">
-        <v>242</v>
-      </c>
-      <c r="K13" s="43">
+      <c r="J13" s="43">
+        <v>247</v>
+      </c>
+      <c r="K13" s="67">
         <f t="shared" si="2"/>
-        <v>0.39348370927318294</v>
-      </c>
-      <c r="L13" s="49">
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="L13" s="62">
         <v>401</v>
       </c>
-      <c r="M13" s="49">
+      <c r="M13" s="62">
         <v>331</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="62">
         <f t="shared" si="3"/>
         <v>0.1745635910224439</v>
       </c>
-      <c r="O13" s="49">
-        <v>276</v>
-      </c>
-      <c r="P13" s="8">
+      <c r="O13" s="43">
+        <v>285</v>
+      </c>
+      <c r="P13" s="69">
         <f t="shared" si="4"/>
-        <v>0.3117206982543641</v>
-      </c>
-      <c r="Q13" s="13">
+        <v>0.2892768079800499</v>
+      </c>
+      <c r="Q13" s="12">
         <v>242</v>
       </c>
-      <c r="R13" s="15"/>
-      <c r="S13" s="13">
+      <c r="R13" s="14"/>
+      <c r="S13" s="12">
         <v>506</v>
       </c>
-      <c r="T13" s="15">
+      <c r="T13" s="14">
         <v>402</v>
       </c>
-      <c r="U13" s="13">
+      <c r="U13" s="12">
         <v>242</v>
       </c>
-      <c r="V13" s="15">
+      <c r="V13" s="14">
         <v>242</v>
       </c>
-      <c r="W13" s="54">
+      <c r="W13" s="45">
         <v>297</v>
       </c>
-      <c r="X13" s="35">
+      <c r="X13" s="29">
         <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="11">
+      <c r="A14" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="10">
         <v>880</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="55">
         <v>723</v>
       </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="8">
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="7">
         <f t="shared" si="0"/>
         <v>0.17840909090909091</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="68">
         <v>712</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="62">
         <v>712</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="65">
-        <v>427</v>
-      </c>
-      <c r="K14" s="43">
+      <c r="J14" s="57">
+        <v>441</v>
+      </c>
+      <c r="K14" s="67">
         <f t="shared" si="2"/>
-        <v>0.4002808988764045</v>
-      </c>
-      <c r="L14" s="7">
+        <v>0.3806179775280899</v>
+      </c>
+      <c r="L14" s="62">
         <v>897</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="62">
         <v>715</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="62">
         <f t="shared" si="3"/>
         <v>0.20289855072463769</v>
       </c>
-      <c r="O14" s="65">
-        <v>400</v>
-      </c>
-      <c r="P14" s="8">
+      <c r="O14" s="57">
+        <v>423</v>
+      </c>
+      <c r="P14" s="69">
         <f t="shared" si="4"/>
-        <v>0.55406911928651059</v>
-      </c>
-      <c r="Q14" s="13">
+        <v>0.52842809364548493</v>
+      </c>
+      <c r="Q14" s="12">
         <v>399</v>
       </c>
-      <c r="R14" s="15"/>
-      <c r="S14" s="13">
+      <c r="R14" s="14"/>
+      <c r="S14" s="12">
         <v>541</v>
       </c>
-      <c r="T14" s="15">
+      <c r="T14" s="14">
         <v>513</v>
       </c>
-      <c r="U14" s="13">
+      <c r="U14" s="12">
         <v>399</v>
       </c>
-      <c r="V14" s="15">
+      <c r="V14" s="14">
         <v>399</v>
       </c>
-      <c r="W14" s="54">
+      <c r="W14" s="45">
         <v>452</v>
       </c>
-      <c r="X14" s="35">
+      <c r="X14" s="29">
         <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="11">
+      <c r="A15" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="10">
         <v>1549</v>
       </c>
-      <c r="C15" s="65">
+      <c r="C15" s="56">
         <v>683</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="8">
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="7">
         <f t="shared" si="0"/>
         <v>0.55907036797934151</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="68">
         <v>742</v>
       </c>
-      <c r="H15" s="49">
+      <c r="H15" s="62">
         <v>683</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="64">
         <f t="shared" si="1"/>
         <v>7.9514824797843664E-2</v>
       </c>
-      <c r="J15" s="49">
-        <v>613</v>
-      </c>
-      <c r="K15" s="43">
+      <c r="J15" s="43">
+        <v>583</v>
+      </c>
+      <c r="K15" s="67">
         <f t="shared" si="2"/>
-        <v>0.1738544474393531</v>
-      </c>
-      <c r="L15" s="7">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="L15" s="62">
         <v>783</v>
       </c>
-      <c r="M15" s="49">
+      <c r="M15" s="62">
         <v>694</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="62">
         <f t="shared" si="3"/>
         <v>0.1136653895274585</v>
       </c>
-      <c r="O15" s="49">
-        <v>622</v>
-      </c>
-      <c r="P15" s="8">
+      <c r="O15" s="43">
+        <v>616</v>
+      </c>
+      <c r="P15" s="69">
         <f t="shared" si="4"/>
-        <v>0.20561941251596424</v>
-      </c>
-      <c r="Q15" s="13">
+        <v>0.21328224776500637</v>
+      </c>
+      <c r="Q15" s="12">
         <v>526</v>
       </c>
-      <c r="R15" s="15"/>
-      <c r="S15" s="13">
+      <c r="R15" s="14"/>
+      <c r="S15" s="12">
         <v>740</v>
       </c>
-      <c r="T15" s="15">
+      <c r="T15" s="14">
         <v>745</v>
       </c>
-      <c r="U15" s="13">
+      <c r="U15" s="12">
         <v>526</v>
       </c>
-      <c r="V15" s="15">
+      <c r="V15" s="14">
         <v>526</v>
       </c>
-      <c r="W15" s="54">
+      <c r="W15" s="45">
         <v>874</v>
       </c>
-      <c r="X15" s="35">
+      <c r="X15" s="29">
         <v>526</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="11">
+      <c r="A16" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="10">
         <v>1332</v>
       </c>
-      <c r="C16" s="66">
+      <c r="C16" s="57">
         <v>780</v>
       </c>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="8">
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="7">
         <f t="shared" si="0"/>
         <v>0.4144144144144144</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="68">
         <v>946</v>
       </c>
-      <c r="H16" s="51">
+      <c r="H16" s="62">
         <v>810</v>
       </c>
-      <c r="I16" s="42">
+      <c r="I16" s="64">
         <f t="shared" si="1"/>
         <v>0.14376321353065538</v>
       </c>
-      <c r="J16" s="49">
-        <v>594</v>
-      </c>
-      <c r="K16" s="43">
+      <c r="J16" s="43">
+        <v>551</v>
+      </c>
+      <c r="K16" s="67">
         <f t="shared" si="2"/>
-        <v>0.37209302325581395</v>
-      </c>
-      <c r="L16" s="7">
+        <v>0.41754756871035942</v>
+      </c>
+      <c r="L16" s="62">
         <v>886</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="62">
         <v>810</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="62">
         <f t="shared" si="3"/>
         <v>8.5778781038374718E-2</v>
       </c>
-      <c r="O16" s="65">
-        <v>555</v>
-      </c>
-      <c r="P16" s="8">
+      <c r="O16" s="57">
+        <v>624</v>
+      </c>
+      <c r="P16" s="69">
         <f t="shared" si="4"/>
-        <v>0.37358916478555304</v>
-      </c>
-      <c r="Q16" s="13">
+        <v>0.29571106094808125</v>
+      </c>
+      <c r="Q16" s="12">
         <v>512</v>
       </c>
-      <c r="R16" s="15"/>
-      <c r="S16" s="13">
+      <c r="R16" s="14"/>
+      <c r="S16" s="12">
         <v>813</v>
       </c>
-      <c r="T16" s="15">
+      <c r="T16" s="14">
         <v>744</v>
       </c>
-      <c r="U16" s="13">
+      <c r="U16" s="12">
         <v>512</v>
       </c>
-      <c r="V16" s="15">
+      <c r="V16" s="14">
         <v>512</v>
       </c>
-      <c r="W16" s="54">
+      <c r="W16" s="45">
         <v>669</v>
       </c>
-      <c r="X16" s="35">
+      <c r="X16" s="29">
         <v>512</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="11">
+      <c r="A17" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="10">
         <v>1227</v>
       </c>
-      <c r="C17" s="66">
+      <c r="C17" s="57">
         <v>615</v>
       </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="8">
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="7">
         <f t="shared" si="0"/>
         <v>0.49877750611246946</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="68">
         <v>727</v>
       </c>
-      <c r="H17" s="51">
+      <c r="H17" s="62">
         <v>562</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="64">
         <f t="shared" si="1"/>
         <v>0.22696011004126548</v>
       </c>
-      <c r="J17" s="49">
-        <v>448</v>
-      </c>
-      <c r="K17" s="43">
+      <c r="J17" s="43">
+        <v>471</v>
+      </c>
+      <c r="K17" s="67">
         <f t="shared" si="2"/>
-        <v>0.38376891334250346</v>
-      </c>
-      <c r="L17" s="51">
+        <v>0.35213204951856947</v>
+      </c>
+      <c r="L17" s="62">
         <v>706</v>
       </c>
-      <c r="M17" s="49">
+      <c r="M17" s="62">
         <v>534</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="62">
         <f t="shared" si="3"/>
         <v>0.24362606232294617</v>
       </c>
-      <c r="O17" s="49">
-        <v>475</v>
-      </c>
-      <c r="P17" s="8">
+      <c r="O17" s="43">
+        <v>467</v>
+      </c>
+      <c r="P17" s="69">
         <f t="shared" si="4"/>
-        <v>0.32719546742209632</v>
-      </c>
-      <c r="Q17" s="13">
+        <v>0.3385269121813031</v>
+      </c>
+      <c r="Q17" s="12">
         <v>405</v>
       </c>
-      <c r="R17" s="15"/>
-      <c r="S17" s="13">
+      <c r="R17" s="14"/>
+      <c r="S17" s="12">
         <v>717</v>
       </c>
-      <c r="T17" s="15">
+      <c r="T17" s="14">
         <v>553</v>
       </c>
-      <c r="U17" s="13">
+      <c r="U17" s="12">
         <v>405</v>
       </c>
-      <c r="V17" s="15">
+      <c r="V17" s="14">
         <v>405</v>
       </c>
-      <c r="W17" s="54">
+      <c r="W17" s="45">
         <v>546</v>
       </c>
-      <c r="X17" s="35">
+      <c r="X17" s="29">
         <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="11">
+      <c r="A18" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="10">
         <v>4810</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>4347</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7">
         <f t="shared" si="0"/>
         <v>9.6257796257796263E-2</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="68">
         <v>3282</v>
       </c>
-      <c r="H18" s="51">
+      <c r="H18" s="62">
         <v>1744</v>
       </c>
-      <c r="I18" s="42">
+      <c r="I18" s="64">
         <f t="shared" si="1"/>
         <v>0.46861669713589277</v>
       </c>
-      <c r="J18" s="51">
-        <v>2015</v>
-      </c>
-      <c r="K18" s="43">
+      <c r="J18" s="62">
+        <v>1905</v>
+      </c>
+      <c r="K18" s="67">
         <f t="shared" si="2"/>
-        <v>0.38604509445460083</v>
-      </c>
-      <c r="L18" s="51">
+        <v>0.41956124314442411</v>
+      </c>
+      <c r="L18" s="62">
         <v>1918</v>
       </c>
-      <c r="M18" s="51">
+      <c r="M18" s="62">
         <v>1655</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="62">
         <f t="shared" si="3"/>
         <v>0.13712200208550573</v>
       </c>
-      <c r="O18" s="49">
+      <c r="O18" s="43">
+        <v>1341</v>
+      </c>
+      <c r="P18" s="69">
+        <f t="shared" si="4"/>
+        <v>0.30083420229405633</v>
+      </c>
+      <c r="Q18" s="12">
         <v>1317</v>
       </c>
-      <c r="P18" s="8">
-        <f t="shared" si="4"/>
-        <v>0.31334723670490094</v>
-      </c>
-      <c r="Q18" s="13">
+      <c r="R18" s="14"/>
+      <c r="S18" s="12">
+        <v>2055</v>
+      </c>
+      <c r="T18" s="14">
+        <v>1555</v>
+      </c>
+      <c r="U18" s="12">
         <v>1317</v>
       </c>
-      <c r="R18" s="15"/>
-      <c r="S18" s="13">
-        <v>2055</v>
-      </c>
-      <c r="T18" s="15">
-        <v>1555</v>
-      </c>
-      <c r="U18" s="13">
+      <c r="V18" s="14">
         <v>1317</v>
       </c>
-      <c r="V18" s="15">
-        <v>1317</v>
-      </c>
-      <c r="W18" s="54">
+      <c r="W18" s="45">
         <v>1443</v>
       </c>
-      <c r="X18" s="35">
+      <c r="X18" s="29">
         <v>1317</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="11">
+      <c r="A19" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="10">
         <v>5232</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G19" s="11">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" s="68">
         <v>3849</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="62">
         <v>2680</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I19" s="64">
         <f t="shared" si="1"/>
         <v>0.30371525071447131</v>
       </c>
-      <c r="J19" s="68">
-        <v>2768</v>
-      </c>
-      <c r="K19" s="43">
+      <c r="J19" s="59">
+        <v>2686</v>
+      </c>
+      <c r="K19" s="67">
         <f t="shared" si="2"/>
-        <v>0.28085216939464797</v>
-      </c>
-      <c r="L19" s="51">
+        <v>0.302156404260847</v>
+      </c>
+      <c r="L19" s="62">
         <v>2170</v>
       </c>
-      <c r="M19" s="49">
+      <c r="M19" s="62">
         <v>1559</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="62">
         <f t="shared" si="3"/>
         <v>0.28156682027649771</v>
       </c>
-      <c r="O19" s="49">
-        <v>1514</v>
-      </c>
-      <c r="P19" s="8">
+      <c r="O19" s="43">
+        <v>1411</v>
+      </c>
+      <c r="P19" s="69">
         <f t="shared" si="4"/>
-        <v>0.30230414746543777</v>
-      </c>
-      <c r="Q19" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="R19" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="S19" s="13">
+        <v>0.34976958525345619</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="S19" s="12">
         <v>2296</v>
       </c>
-      <c r="T19" s="15">
+      <c r="T19" s="14">
         <v>1690</v>
       </c>
-      <c r="U19" s="13">
+      <c r="U19" s="12">
         <v>1242</v>
       </c>
-      <c r="V19" s="15">
+      <c r="V19" s="14">
         <v>1239</v>
       </c>
-      <c r="W19" s="54">
+      <c r="W19" s="45">
         <v>1454</v>
       </c>
-      <c r="X19" s="35">
+      <c r="X19" s="29">
         <v>1244</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="11">
+      <c r="A20" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="10">
         <v>5284</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G20" s="11">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="68">
         <v>3053</v>
       </c>
-      <c r="H20" s="49">
+      <c r="H20" s="62">
         <v>1522</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="64">
         <f t="shared" si="1"/>
         <v>0.50147396003930556</v>
       </c>
-      <c r="J20" s="49">
-        <v>1821</v>
-      </c>
-      <c r="K20" s="43">
+      <c r="J20" s="43">
+        <v>1441</v>
+      </c>
+      <c r="K20" s="67">
         <f t="shared" si="2"/>
-        <v>0.40353750409433342</v>
-      </c>
-      <c r="L20" s="49">
+        <v>0.52800524074680644</v>
+      </c>
+      <c r="L20" s="62">
         <v>1749</v>
       </c>
-      <c r="M20" s="49">
+      <c r="M20" s="62">
         <v>1559</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="62">
         <f t="shared" si="3"/>
         <v>0.10863350485991996</v>
       </c>
-      <c r="O20" s="49">
-        <v>1491</v>
-      </c>
-      <c r="P20" s="8">
+      <c r="O20" s="43">
+        <v>1377</v>
+      </c>
+      <c r="P20" s="69">
         <f t="shared" si="4"/>
-        <v>0.14751286449399656</v>
-      </c>
-      <c r="Q20" s="13" t="s">
+        <v>0.21269296740994853</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="R20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="R20" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="S20" s="13">
+      <c r="S20" s="12">
         <v>2006</v>
       </c>
-      <c r="T20" s="15">
+      <c r="T20" s="14">
         <v>1769</v>
       </c>
-      <c r="U20" s="13">
+      <c r="U20" s="12">
         <v>1222</v>
       </c>
-      <c r="V20" s="15">
+      <c r="V20" s="14">
         <v>1222</v>
       </c>
-      <c r="W20" s="54">
+      <c r="W20" s="45">
         <v>1468</v>
       </c>
-      <c r="X20" s="35">
+      <c r="X20" s="29">
         <v>1231</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="11">
+      <c r="A21" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="10">
         <v>6039</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G21" s="11">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="68">
         <v>2584</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="62">
         <v>2542</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="64">
         <f t="shared" si="1"/>
         <v>1.6253869969040248E-2</v>
       </c>
-      <c r="J21" s="68">
+      <c r="J21" s="59">
         <v>2478</v>
       </c>
-      <c r="K21" s="43">
+      <c r="K21" s="67">
         <f t="shared" si="2"/>
         <v>4.1021671826625389E-2</v>
       </c>
-      <c r="L21" s="49">
+      <c r="L21" s="62">
         <v>1598</v>
       </c>
-      <c r="M21" s="49">
+      <c r="M21" s="62">
         <v>1355</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="62">
         <f t="shared" si="3"/>
         <v>0.15206508135168961</v>
       </c>
-      <c r="O21" s="49">
+      <c r="O21" s="43">
         <v>1305</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P21" s="69">
         <f t="shared" si="4"/>
         <v>0.18335419274092615</v>
       </c>
-      <c r="Q21" s="13" t="s">
+      <c r="Q21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="R21" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="S21" s="13">
+      <c r="S21" s="12">
         <v>2408</v>
       </c>
-      <c r="T21" s="15">
+      <c r="T21" s="14">
         <v>1734</v>
       </c>
-      <c r="U21" s="13">
+      <c r="U21" s="12">
         <v>1139</v>
       </c>
-      <c r="V21" s="15">
+      <c r="V21" s="14">
         <v>1134</v>
       </c>
-      <c r="W21" s="54">
+      <c r="W21" s="45">
         <v>1274</v>
       </c>
-      <c r="X21" s="35">
+      <c r="X21" s="29">
         <v>1290</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="11">
+      <c r="A22" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="10">
         <v>6214</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G22" s="11">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" s="68">
         <v>3849</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="62">
         <v>3462</v>
       </c>
-      <c r="I22" s="42">
+      <c r="I22" s="64">
         <f t="shared" si="1"/>
         <v>0.10054559625876851</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="62">
         <v>3385</v>
       </c>
-      <c r="K22" s="43">
+      <c r="K22" s="67">
         <f t="shared" si="2"/>
         <v>0.12055079241361392</v>
       </c>
-      <c r="L22" s="51">
+      <c r="L22" s="62">
         <v>1873</v>
       </c>
-      <c r="M22" s="49">
+      <c r="M22" s="62">
         <v>1587</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="62">
         <f t="shared" si="3"/>
         <v>0.15269620928990923</v>
       </c>
-      <c r="O22" s="49">
-        <v>1451</v>
-      </c>
-      <c r="P22" s="8">
+      <c r="O22" s="43">
+        <v>1422</v>
+      </c>
+      <c r="P22" s="69">
         <f t="shared" si="4"/>
-        <v>0.22530699412706887</v>
-      </c>
-      <c r="Q22" s="13" t="s">
+        <v>0.2407901761879338</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="R22" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="S22" s="13">
+      <c r="S22" s="12">
         <v>2082</v>
       </c>
-      <c r="T22" s="15">
+      <c r="T22" s="14">
         <v>1735</v>
       </c>
-      <c r="U22" s="13">
+      <c r="U22" s="12">
         <v>1230</v>
       </c>
-      <c r="V22" s="15">
+      <c r="V22" s="14">
         <v>1226</v>
       </c>
-      <c r="W22" s="54">
+      <c r="W22" s="45">
         <v>1297</v>
       </c>
-      <c r="X22" s="35">
+      <c r="X22" s="29">
         <v>1499</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="11">
+      <c r="A23" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="10">
         <v>6206</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G23" s="11">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="68">
         <v>2976</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="62">
         <v>2769</v>
       </c>
-      <c r="I23" s="42">
+      <c r="I23" s="64">
         <f t="shared" si="1"/>
         <v>6.955645161290322E-2</v>
       </c>
-      <c r="J23" s="64">
+      <c r="J23" s="59">
         <v>2769</v>
       </c>
-      <c r="K23" s="43">
+      <c r="K23" s="67">
         <f t="shared" si="2"/>
         <v>6.955645161290322E-2</v>
       </c>
-      <c r="L23" s="51">
+      <c r="L23" s="62">
         <v>1936</v>
       </c>
-      <c r="M23" s="49">
+      <c r="M23" s="62">
         <v>1585</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="62">
         <f t="shared" si="3"/>
         <v>0.18130165289256198</v>
       </c>
-      <c r="O23" s="49">
+      <c r="O23" s="43">
         <v>1333</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P23" s="69">
         <f t="shared" si="4"/>
         <v>0.31146694214876031</v>
       </c>
-      <c r="Q23" s="13" t="s">
+      <c r="Q23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="R23" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="R23" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="S23" s="13">
+      <c r="S23" s="12">
         <v>2038</v>
       </c>
-      <c r="T23" s="15">
+      <c r="T23" s="14">
         <v>1604</v>
       </c>
-      <c r="U23" s="13">
+      <c r="U23" s="12">
         <v>948</v>
       </c>
-      <c r="V23" s="15">
+      <c r="V23" s="14">
         <v>943</v>
       </c>
-      <c r="W23" s="54">
+      <c r="W23" s="45">
         <v>1224</v>
       </c>
-      <c r="X23" s="35">
+      <c r="X23" s="29">
         <v>1333</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="12">
+      <c r="A24" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="11">
         <v>6198</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G24" s="52">
+      <c r="C24" s="8"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" s="70">
         <v>1905</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="58">
         <v>1537</v>
       </c>
-      <c r="I24" s="42">
+      <c r="I24" s="64">
         <f t="shared" si="1"/>
         <v>0.1931758530183727</v>
       </c>
-      <c r="J24" s="46">
-        <v>1551</v>
-      </c>
-      <c r="K24" s="43">
+      <c r="J24" s="65">
+        <v>1546</v>
+      </c>
+      <c r="K24" s="67">
         <f t="shared" si="2"/>
-        <v>0.1858267716535433</v>
-      </c>
-      <c r="L24" s="46">
+        <v>0.18845144356955382</v>
+      </c>
+      <c r="L24" s="58">
         <v>1688</v>
       </c>
-      <c r="M24" s="46">
+      <c r="M24" s="58">
         <v>1688</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O24" s="46">
-        <v>1336</v>
-      </c>
-      <c r="P24" s="10">
+      <c r="O24" s="65">
+        <v>1312</v>
+      </c>
+      <c r="P24" s="71">
         <f t="shared" si="4"/>
-        <v>0.20853080568720378</v>
-      </c>
-      <c r="Q24" s="16" t="s">
+        <v>0.22274881516587677</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="R24" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="R24" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="S24" s="16">
+      <c r="S24" s="15">
         <v>2369</v>
       </c>
-      <c r="T24" s="18">
+      <c r="T24" s="16">
         <v>1700</v>
       </c>
-      <c r="U24" s="16">
+      <c r="U24" s="15">
         <v>1001</v>
       </c>
-      <c r="V24" s="18">
+      <c r="V24" s="16">
         <v>974</v>
       </c>
-      <c r="W24" s="55">
+      <c r="W24" s="46">
         <v>1184</v>
       </c>
-      <c r="X24" s="35">
+      <c r="X24" s="29">
         <v>1279</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="58">
+      <c r="A25" s="11"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49">
         <f>AVERAGE(F5:F24)</f>
         <v>0.38696242821194859</v>
       </c>
-      <c r="G25" s="47"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57">
+      <c r="G25" s="41"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48">
         <f>AVERAGE(I5:I24)</f>
         <v>0.18375758709152726</v>
       </c>
-      <c r="J25" s="57"/>
-      <c r="K25" s="58">
+      <c r="J25" s="48"/>
+      <c r="K25" s="49">
         <f>AVERAGE(K5:K24)</f>
-        <v>0.29608434007636181</v>
-      </c>
-      <c r="L25" s="47"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57">
+        <v>0.29861612818446981</v>
+      </c>
+      <c r="L25" s="41"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48">
         <f>AVERAGE(N5:N24)</f>
         <v>0.15844389585019375</v>
       </c>
-      <c r="O25" s="57"/>
-      <c r="P25" s="58">
+      <c r="O25" s="48"/>
+      <c r="P25" s="49">
         <f>AVERAGE(P5:P24)</f>
-        <v>0.30685887787672039</v>
-      </c>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="60"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="35"/>
+        <v>0.2994785302227353</v>
+      </c>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="29"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="7"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="6"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="73"/>
+        <v>3</v>
+      </c>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="75"/>
       <c r="Q27" s="74" t="s">
-        <v>177</v>
-      </c>
-      <c r="R27" s="73"/>
-      <c r="S27" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="T27" s="73"/>
+        <v>166</v>
+      </c>
+      <c r="R27" s="75"/>
+      <c r="S27" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="T27" s="75"/>
       <c r="U27" s="74" t="s">
-        <v>172</v>
-      </c>
-      <c r="V27" s="73"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="7"/>
+        <v>161</v>
+      </c>
+      <c r="V27" s="75"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="6"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="75"/>
       <c r="G28" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="73"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="75"/>
       <c r="L28" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="3" t="s">
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="S28" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="U28" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="V28" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="W28" s="63"/>
-      <c r="X28" s="70"/>
-      <c r="Y28" s="7"/>
+      <c r="S28" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U28" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="V28" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="W28" s="54"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="6"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="41">
+      <c r="A29" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="35">
         <v>633</v>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="36">
         <v>422</v>
       </c>
-      <c r="D29" s="42">
+      <c r="D29" s="36">
         <f t="shared" ref="D29:D43" si="5">(B29-C29)/B29</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E29" s="42">
+      <c r="E29" s="36">
         <v>362</v>
       </c>
       <c r="F29">
         <f>(B29-E29)/B29</f>
         <v>0.42812006319115326</v>
       </c>
-      <c r="G29" s="41">
+      <c r="G29" s="66">
         <v>510</v>
       </c>
-      <c r="H29" s="42">
+      <c r="H29" s="64">
         <v>475</v>
       </c>
-      <c r="I29" s="42">
+      <c r="I29" s="64">
         <f>(G29-H29)/G29</f>
         <v>6.8627450980392163E-2</v>
       </c>
-      <c r="J29" s="69">
+      <c r="J29" s="63">
         <v>284</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="72">
         <f>(G29-J29)/G29</f>
         <v>0.44313725490196076</v>
       </c>
-      <c r="L29" s="41">
+      <c r="L29" s="66">
         <v>580</v>
       </c>
-      <c r="M29" s="42">
+      <c r="M29" s="64">
         <v>467</v>
       </c>
-      <c r="N29" s="42">
+      <c r="N29" s="64">
         <f t="shared" ref="N29:N58" si="6">(L29-M29)/L29</f>
         <v>0.19482758620689655</v>
       </c>
-      <c r="O29" s="69">
-        <v>271</v>
-      </c>
-      <c r="P29">
+      <c r="O29" s="63">
+        <v>288</v>
+      </c>
+      <c r="P29" s="72">
         <f>(L29-O29)/L29</f>
-        <v>0.53275862068965518</v>
-      </c>
-      <c r="Q29" s="19">
+        <v>0.50344827586206897</v>
+      </c>
+      <c r="Q29" s="17">
         <v>257</v>
       </c>
-      <c r="R29" s="20"/>
-      <c r="S29" s="19">
+      <c r="R29" s="18"/>
+      <c r="S29" s="17">
         <v>327</v>
       </c>
-      <c r="T29" s="20">
+      <c r="T29" s="18">
         <v>321</v>
       </c>
-      <c r="U29" s="19">
+      <c r="U29" s="17">
         <v>257</v>
       </c>
-      <c r="V29" s="20">
+      <c r="V29" s="18">
         <v>257</v>
       </c>
-      <c r="W29" s="11"/>
-      <c r="X29" s="35">
+      <c r="W29" s="10"/>
+      <c r="X29" s="29">
         <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A30" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="11">
+      <c r="A30" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="10">
         <v>522</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>409</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <f t="shared" si="5"/>
         <v>0.21647509578544061</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="G30" s="11">
+      <c r="E30" s="6"/>
+      <c r="G30" s="68">
         <v>475</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="62">
         <v>409</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="62">
         <f t="shared" ref="I30:I58" si="7">(G30-H30)/G30</f>
         <v>0.13894736842105262</v>
       </c>
-      <c r="J30" s="49">
-        <v>321</v>
-      </c>
-      <c r="K30">
+      <c r="J30" s="43">
+        <v>300</v>
+      </c>
+      <c r="K30" s="72">
         <f t="shared" ref="K30:K58" si="8">(G30-J30)/G30</f>
-        <v>0.32421052631578945</v>
-      </c>
-      <c r="L30" s="11">
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="L30" s="68">
         <v>529</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="62">
         <v>409</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N30" s="62">
         <f t="shared" si="6"/>
         <v>0.22684310018903592</v>
       </c>
-      <c r="O30" s="65">
-        <v>331</v>
-      </c>
-      <c r="P30">
+      <c r="O30" s="59">
+        <v>351</v>
+      </c>
+      <c r="P30" s="72">
         <f t="shared" ref="P30:P58" si="9">(L30-O30)/L30</f>
-        <v>0.37429111531190928</v>
-      </c>
-      <c r="Q30" s="13">
+        <v>0.33648393194706994</v>
+      </c>
+      <c r="Q30" s="12">
         <v>289</v>
       </c>
-      <c r="R30" s="15"/>
-      <c r="S30" s="13">
+      <c r="R30" s="14"/>
+      <c r="S30" s="12">
         <v>382</v>
       </c>
-      <c r="T30" s="15">
+      <c r="T30" s="14">
         <v>350</v>
       </c>
-      <c r="U30" s="13">
+      <c r="U30" s="12">
         <v>289</v>
       </c>
-      <c r="V30" s="15">
+      <c r="V30" s="14">
         <v>289</v>
       </c>
-      <c r="X30" s="35">
+      <c r="X30" s="29">
         <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A31" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="11">
+      <c r="A31" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="10">
         <v>1273</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>942</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <f t="shared" si="5"/>
         <v>0.26001571091908876</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="G31" s="48">
+      <c r="E31" s="6"/>
+      <c r="G31" s="68">
         <v>657</v>
       </c>
-      <c r="H31" s="49">
+      <c r="H31" s="62">
         <v>586</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="62">
         <f t="shared" si="7"/>
         <v>0.1080669710806697</v>
       </c>
-      <c r="J31" s="49">
-        <v>603</v>
-      </c>
-      <c r="K31">
+      <c r="J31" s="43">
+        <v>584</v>
+      </c>
+      <c r="K31" s="72">
         <f t="shared" si="8"/>
-        <v>8.2191780821917804E-2</v>
-      </c>
-      <c r="L31" s="11">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L31" s="68">
         <v>813</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="62">
         <v>734</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="62">
         <f t="shared" si="6"/>
         <v>9.7170971709717099E-2</v>
       </c>
-      <c r="O31" s="65">
-        <v>575</v>
-      </c>
-      <c r="P31">
+      <c r="O31" s="56">
+        <v>576</v>
+      </c>
+      <c r="P31" s="72">
         <f t="shared" si="9"/>
-        <v>0.29274292742927427</v>
-      </c>
-      <c r="Q31" s="13">
+        <v>0.29151291512915128</v>
+      </c>
+      <c r="Q31" s="12">
         <v>576</v>
       </c>
-      <c r="R31" s="15"/>
-      <c r="S31" s="13">
+      <c r="R31" s="14"/>
+      <c r="S31" s="12">
         <v>710</v>
       </c>
-      <c r="T31" s="15">
+      <c r="T31" s="14">
         <v>631</v>
       </c>
-      <c r="U31" s="13">
+      <c r="U31" s="12">
         <v>576</v>
       </c>
-      <c r="V31" s="15">
+      <c r="V31" s="14">
         <v>576</v>
       </c>
-      <c r="X31" s="35">
+      <c r="X31" s="29">
         <v>576</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="11">
+      <c r="A32" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="10">
         <v>1388</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>744</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <f t="shared" si="5"/>
         <v>0.46397694524495675</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="G32" s="11">
+      <c r="E32" s="6"/>
+      <c r="G32" s="68">
         <v>744</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="62">
         <v>686</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="62">
         <f t="shared" si="7"/>
         <v>7.7956989247311828E-2</v>
       </c>
-      <c r="J32" s="49">
+      <c r="J32" s="42">
         <v>606</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="72">
         <f t="shared" si="8"/>
         <v>0.18548387096774194</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L32" s="68">
         <v>909</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="62">
         <v>707</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N32" s="62">
         <f t="shared" si="6"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="O32" s="65">
+      <c r="O32" s="57">
         <v>607</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="72">
         <f t="shared" si="9"/>
         <v>0.33223322332233224</v>
       </c>
-      <c r="Q32" s="13">
+      <c r="Q32" s="12">
         <v>606</v>
       </c>
-      <c r="R32" s="15"/>
-      <c r="S32" s="13">
+      <c r="R32" s="14"/>
+      <c r="S32" s="12">
         <v>653</v>
       </c>
-      <c r="T32" s="15">
+      <c r="T32" s="14">
         <v>607</v>
       </c>
-      <c r="U32" s="13">
+      <c r="U32" s="12">
         <v>606</v>
       </c>
-      <c r="V32" s="15">
+      <c r="V32" s="14">
         <v>606</v>
       </c>
-      <c r="X32" s="35">
+      <c r="X32" s="29">
         <v>606</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A33" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="11">
+      <c r="A33" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="10">
         <v>1009</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>708</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <f t="shared" si="5"/>
         <v>0.29831516352824577</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="G33" s="11">
+      <c r="E33" s="6"/>
+      <c r="G33" s="68">
         <v>730</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="62">
         <v>644</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="62">
         <f t="shared" si="7"/>
         <v>0.11780821917808219</v>
       </c>
-      <c r="J33" s="65">
-        <v>443</v>
-      </c>
-      <c r="K33">
+      <c r="J33" s="57">
+        <v>473</v>
+      </c>
+      <c r="K33" s="72">
         <f t="shared" si="8"/>
-        <v>0.39315068493150684</v>
-      </c>
-      <c r="L33" s="11">
+        <v>0.35205479452054794</v>
+      </c>
+      <c r="L33" s="68">
         <v>644</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="62">
         <v>644</v>
       </c>
-      <c r="N33" s="7">
+      <c r="N33" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O33" s="65">
+      <c r="O33" s="57">
         <v>453</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="72">
         <f t="shared" si="9"/>
         <v>0.296583850931677</v>
       </c>
-      <c r="Q33" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="R33" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="S33" s="13">
+      <c r="Q33" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="R33" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="S33" s="12">
         <v>482</v>
       </c>
-      <c r="T33" s="15">
+      <c r="T33" s="14">
         <v>505</v>
       </c>
-      <c r="U33" s="13">
+      <c r="U33" s="12">
         <v>395</v>
       </c>
-      <c r="V33" s="15">
+      <c r="V33" s="14">
         <v>389</v>
       </c>
-      <c r="X33" s="35">
+      <c r="X33" s="29">
         <v>394</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A34" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="11">
+      <c r="A34" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="10">
         <v>1181</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>742</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <f t="shared" si="5"/>
         <v>0.37171888230313294</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="G34" s="11">
+      <c r="E34" s="6"/>
+      <c r="G34" s="68">
         <v>648</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="62">
         <v>531</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="62">
         <f t="shared" si="7"/>
         <v>0.18055555555555555</v>
       </c>
-      <c r="J34" s="65">
-        <v>471</v>
-      </c>
-      <c r="K34">
+      <c r="J34" s="57">
+        <v>462</v>
+      </c>
+      <c r="K34" s="72">
         <f t="shared" si="8"/>
-        <v>0.27314814814814814</v>
-      </c>
-      <c r="L34" s="11">
+        <v>0.28703703703703703</v>
+      </c>
+      <c r="L34" s="68">
         <v>649</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="62">
         <v>531</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N34" s="62">
         <f t="shared" si="6"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="O34" s="65">
-        <v>459</v>
-      </c>
-      <c r="P34">
+      <c r="O34" s="57">
+        <v>447</v>
+      </c>
+      <c r="P34" s="72">
         <f t="shared" si="9"/>
-        <v>0.29275808936825887</v>
-      </c>
-      <c r="Q34" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="R34" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="S34" s="13">
+        <v>0.31124807395993837</v>
+      </c>
+      <c r="Q34" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="R34" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="S34" s="12">
         <v>489</v>
       </c>
-      <c r="T34" s="15">
+      <c r="T34" s="14">
         <v>497</v>
       </c>
-      <c r="U34" s="13">
+      <c r="U34" s="12">
         <v>416</v>
       </c>
-      <c r="V34" s="15">
+      <c r="V34" s="14">
         <v>412</v>
       </c>
-      <c r="X34" s="35">
+      <c r="X34" s="29">
         <v>410</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A35" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="11">
+      <c r="A35" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="10">
         <v>2140</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>1112</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <f t="shared" si="5"/>
         <v>0.48037383177570092</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="G35" s="11">
+      <c r="E35" s="6"/>
+      <c r="G35" s="68">
         <v>1302</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="62">
         <v>979</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="62">
         <f t="shared" si="7"/>
         <v>0.24807987711213517</v>
       </c>
-      <c r="J35" s="68">
-        <v>747</v>
-      </c>
-      <c r="K35">
+      <c r="J35" s="57">
+        <v>593</v>
+      </c>
+      <c r="K35" s="72">
         <f t="shared" si="8"/>
-        <v>0.42626728110599077</v>
-      </c>
-      <c r="L35" s="11">
+        <v>0.54454685099846389</v>
+      </c>
+      <c r="L35" s="68">
         <v>1315</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M35" s="62">
         <v>1047</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N35" s="62">
         <f t="shared" si="6"/>
         <v>0.20380228136882128</v>
       </c>
-      <c r="O35" s="64">
-        <v>732</v>
-      </c>
-      <c r="P35">
+      <c r="O35" s="59">
+        <v>727</v>
+      </c>
+      <c r="P35" s="72">
         <f t="shared" si="9"/>
-        <v>0.44334600760456272</v>
-      </c>
-      <c r="Q35" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="R35" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="S35" s="13">
+        <v>0.44714828897338404</v>
+      </c>
+      <c r="Q35" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="R35" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="S35" s="12">
         <v>717</v>
       </c>
-      <c r="T35" s="15">
+      <c r="T35" s="14">
         <v>632</v>
       </c>
-      <c r="U35" s="13">
+      <c r="U35" s="12">
         <v>519</v>
       </c>
-      <c r="V35" s="15">
+      <c r="V35" s="14">
         <v>512</v>
       </c>
-      <c r="X35" s="35">
+      <c r="X35" s="29">
         <v>547</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A36" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="11">
+      <c r="A36" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="10">
         <v>1697</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>1070</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <f t="shared" si="5"/>
         <v>0.36947554507955216</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="G36" s="11">
+      <c r="E36" s="6"/>
+      <c r="G36" s="68">
         <v>1475</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="62">
         <v>895</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="62">
         <f t="shared" si="7"/>
         <v>0.39322033898305087</v>
       </c>
-      <c r="J36" s="66">
-        <v>776</v>
-      </c>
-      <c r="K36">
+      <c r="J36" s="59">
+        <v>716</v>
+      </c>
+      <c r="K36" s="72">
         <f t="shared" si="8"/>
-        <v>0.47389830508474579</v>
-      </c>
-      <c r="L36" s="11">
+        <v>0.51457627118644067</v>
+      </c>
+      <c r="L36" s="68">
         <v>1397</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M36" s="62">
         <v>967</v>
       </c>
-      <c r="N36" s="7">
+      <c r="N36" s="62">
         <f t="shared" si="6"/>
         <v>0.30780243378668576</v>
       </c>
-      <c r="O36" s="64">
-        <v>945</v>
-      </c>
-      <c r="P36">
+      <c r="O36" s="59">
+        <v>797</v>
+      </c>
+      <c r="P36" s="72">
         <f t="shared" si="9"/>
-        <v>0.32355046528274872</v>
-      </c>
-      <c r="Q36" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="R36" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="S36" s="13">
+        <v>0.42949176807444522</v>
+      </c>
+      <c r="Q36" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="R36" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="S36" s="12">
         <v>847</v>
       </c>
-      <c r="T36" s="15">
+      <c r="T36" s="14">
         <v>706</v>
       </c>
-      <c r="U36" s="13">
+      <c r="U36" s="12">
         <v>628</v>
       </c>
-      <c r="V36" s="15">
+      <c r="V36" s="14">
         <v>628</v>
       </c>
-      <c r="X36" s="35">
+      <c r="X36" s="29">
         <v>631</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A37" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="11">
+      <c r="A37" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="10">
         <v>977</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>837</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <f t="shared" si="5"/>
         <v>0.14329580348004095</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="G37" s="11">
+      <c r="E37" s="6"/>
+      <c r="G37" s="68">
         <v>819</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="62">
         <v>819</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="62">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J37" s="65">
-        <v>482</v>
-      </c>
-      <c r="K37">
+      <c r="J37" s="57">
+        <v>516</v>
+      </c>
+      <c r="K37" s="72">
         <f t="shared" si="8"/>
-        <v>0.41147741147741146</v>
-      </c>
-      <c r="L37" s="11">
+        <v>0.36996336996336998</v>
+      </c>
+      <c r="L37" s="68">
         <v>819</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M37" s="62">
         <v>819</v>
       </c>
-      <c r="N37" s="7">
+      <c r="N37" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O37" s="65">
-        <v>498</v>
-      </c>
-      <c r="P37">
+      <c r="O37" s="59">
+        <v>540</v>
+      </c>
+      <c r="P37" s="72">
         <f t="shared" si="9"/>
-        <v>0.39194139194139194</v>
-      </c>
-      <c r="Q37" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="R37" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="S37" s="13">
+        <v>0.34065934065934067</v>
+      </c>
+      <c r="Q37" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R37" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="S37" s="12">
         <v>535</v>
       </c>
-      <c r="T37" s="15">
+      <c r="T37" s="14">
         <v>533</v>
       </c>
-      <c r="U37" s="13">
+      <c r="U37" s="12">
         <v>470</v>
       </c>
-      <c r="V37" s="15">
+      <c r="V37" s="14">
         <v>464</v>
       </c>
-      <c r="X37" s="35">
+      <c r="X37" s="29">
         <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A38" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="11">
+      <c r="A38" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="10">
         <v>1082</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>742</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <f t="shared" si="5"/>
         <v>0.3142329020332717</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="G38" s="11">
+      <c r="E38" s="6"/>
+      <c r="G38" s="68">
         <v>959</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="62">
         <v>633</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="62">
         <f t="shared" si="7"/>
         <v>0.33993743482794575</v>
       </c>
-      <c r="J38" s="65">
-        <v>587</v>
-      </c>
-      <c r="K38">
+      <c r="J38" s="57">
+        <v>558</v>
+      </c>
+      <c r="K38" s="72">
         <f t="shared" si="8"/>
-        <v>0.38790406673618355</v>
-      </c>
-      <c r="L38" s="11">
+        <v>0.4181438998957247</v>
+      </c>
+      <c r="L38" s="68">
         <v>740</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M38" s="62">
         <v>693</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N38" s="62">
         <f t="shared" si="6"/>
         <v>6.3513513513513517E-2</v>
       </c>
-      <c r="O38" s="65">
-        <v>600</v>
-      </c>
-      <c r="P38">
+      <c r="O38" s="57">
+        <v>604</v>
+      </c>
+      <c r="P38" s="72">
         <f t="shared" si="9"/>
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="Q38" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="R38" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="S38" s="13">
+        <v>0.18378378378378379</v>
+      </c>
+      <c r="Q38" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="R38" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="S38" s="12">
         <v>629</v>
       </c>
-      <c r="T38" s="15">
+      <c r="T38" s="14">
         <v>621</v>
       </c>
-      <c r="U38" s="13">
+      <c r="U38" s="12">
         <v>534</v>
       </c>
-      <c r="V38" s="15">
+      <c r="V38" s="14">
         <v>533</v>
       </c>
-      <c r="X38" s="35">
+      <c r="X38" s="29">
         <v>538</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A39" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="11">
+      <c r="A39" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="10">
         <v>2653</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <v>1202</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <f t="shared" si="5"/>
         <v>0.54692800603090841</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="G39" s="11">
+      <c r="E39" s="6"/>
+      <c r="G39" s="68">
         <v>1258</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="62">
         <v>862</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="62">
         <f t="shared" si="7"/>
         <v>0.31478537360890302</v>
       </c>
-      <c r="J39" s="66">
-        <v>758</v>
-      </c>
-      <c r="K39">
+      <c r="J39" s="57">
+        <v>692</v>
+      </c>
+      <c r="K39" s="72">
         <f t="shared" si="8"/>
-        <v>0.39745627980922099</v>
-      </c>
-      <c r="L39" s="11">
+        <v>0.44992050874403816</v>
+      </c>
+      <c r="L39" s="68">
         <v>1153</v>
       </c>
-      <c r="M39" s="7">
+      <c r="M39" s="62">
         <v>970</v>
       </c>
-      <c r="N39" s="7">
+      <c r="N39" s="62">
         <f t="shared" si="6"/>
         <v>0.15871639202081528</v>
       </c>
-      <c r="O39" s="64">
-        <v>815</v>
-      </c>
-      <c r="P39">
+      <c r="O39" s="59">
+        <v>713</v>
+      </c>
+      <c r="P39" s="72">
         <f t="shared" si="9"/>
-        <v>0.29314830875975717</v>
-      </c>
-      <c r="Q39" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="R39" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="S39" s="13">
+        <v>0.38161318300086733</v>
+      </c>
+      <c r="Q39" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="R39" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="S39" s="12">
         <v>708</v>
       </c>
-      <c r="T39" s="15">
+      <c r="T39" s="14">
         <v>767</v>
       </c>
-      <c r="U39" s="13">
+      <c r="U39" s="12">
         <v>659</v>
       </c>
-      <c r="V39" s="15">
+      <c r="V39" s="14">
         <v>659</v>
       </c>
-      <c r="X39" s="35">
+      <c r="X39" s="29">
         <v>701</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A40" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="11">
+      <c r="A40" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="10">
         <v>2016</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="6">
         <v>1375</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="6">
         <f t="shared" si="5"/>
         <v>0.31795634920634919</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="G40" s="11">
+      <c r="E40" s="6"/>
+      <c r="G40" s="68">
         <v>1511</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="62">
         <v>1162</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="62">
         <f t="shared" si="7"/>
         <v>0.23097286565188616</v>
       </c>
-      <c r="J40" s="68">
-        <v>743</v>
-      </c>
-      <c r="K40">
+      <c r="J40" s="59">
+        <v>783</v>
+      </c>
+      <c r="K40" s="72">
         <f t="shared" si="8"/>
-        <v>0.50827266710787555</v>
-      </c>
-      <c r="L40" s="11">
+        <v>0.48180013236267372</v>
+      </c>
+      <c r="L40" s="68">
         <v>1357</v>
       </c>
-      <c r="M40" s="7">
+      <c r="M40" s="62">
         <v>935</v>
       </c>
-      <c r="N40" s="7">
+      <c r="N40" s="62">
         <f t="shared" si="6"/>
         <v>0.31098010316875463</v>
       </c>
-      <c r="O40" s="64">
-        <v>821</v>
-      </c>
-      <c r="P40">
+      <c r="O40" s="59">
+        <v>763</v>
+      </c>
+      <c r="P40" s="72">
         <f t="shared" si="9"/>
-        <v>0.39498894620486369</v>
-      </c>
-      <c r="Q40" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="R40" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="S40" s="13">
+        <v>0.43773028739867353</v>
+      </c>
+      <c r="Q40" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="R40" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="S40" s="12">
         <v>720</v>
       </c>
-      <c r="T40" s="15">
+      <c r="T40" s="14">
         <v>727</v>
       </c>
-      <c r="U40" s="13">
+      <c r="U40" s="12">
         <v>652</v>
       </c>
-      <c r="V40" s="15">
+      <c r="V40" s="14">
         <v>645</v>
       </c>
-      <c r="X40" s="35">
+      <c r="X40" s="29">
         <v>720</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A41" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="11">
+      <c r="A41" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="10">
         <v>1401</v>
       </c>
-      <c r="C41" s="49">
+      <c r="C41" s="42">
         <v>754</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="6">
         <f t="shared" si="5"/>
         <v>0.46181299072091364</v>
       </c>
-      <c r="E41" s="49"/>
-      <c r="G41" s="11">
+      <c r="E41" s="42"/>
+      <c r="G41" s="68">
         <v>860</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="62">
         <v>816</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="62">
         <f t="shared" si="7"/>
         <v>5.1162790697674418E-2</v>
       </c>
-      <c r="J41" s="65">
-        <v>680</v>
-      </c>
-      <c r="K41">
+      <c r="J41" s="57">
+        <v>676</v>
+      </c>
+      <c r="K41" s="72">
         <f t="shared" si="8"/>
-        <v>0.20930232558139536</v>
-      </c>
-      <c r="L41" s="11">
+        <v>0.21395348837209302</v>
+      </c>
+      <c r="L41" s="68">
         <v>946</v>
       </c>
-      <c r="M41" s="49">
+      <c r="M41" s="62">
         <v>740</v>
       </c>
-      <c r="N41" s="7">
+      <c r="N41" s="62">
         <f t="shared" si="6"/>
         <v>0.21775898520084566</v>
       </c>
-      <c r="O41" s="49">
-        <v>671</v>
-      </c>
-      <c r="P41">
+      <c r="O41" s="43">
+        <v>696</v>
+      </c>
+      <c r="P41" s="72">
         <f t="shared" si="9"/>
-        <v>0.29069767441860467</v>
-      </c>
-      <c r="Q41" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="R41" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="S41" s="13">
+        <v>0.26427061310782241</v>
+      </c>
+      <c r="Q41" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="R41" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="S41" s="12">
         <v>766</v>
       </c>
-      <c r="T41" s="15">
+      <c r="T41" s="14">
         <v>768</v>
       </c>
-      <c r="U41" s="13">
+      <c r="U41" s="12">
         <v>662</v>
       </c>
-      <c r="V41" s="15">
+      <c r="V41" s="14">
         <v>656</v>
       </c>
-      <c r="X41" s="35">
+      <c r="X41" s="29">
         <v>683</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A42" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="11">
+      <c r="A42" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="10">
         <v>1796</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <v>1103</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="6">
         <f t="shared" si="5"/>
         <v>0.38585746102449886</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="G42" s="11">
+      <c r="E42" s="6"/>
+      <c r="G42" s="68">
         <v>1003</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="62">
         <v>936</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="62">
         <f t="shared" si="7"/>
         <v>6.6799601196410763E-2</v>
       </c>
-      <c r="J42" s="65">
+      <c r="J42" s="57">
         <v>749</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="72">
         <f t="shared" si="8"/>
         <v>0.25324027916251246</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L42" s="68">
         <v>1030</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M42" s="62">
         <v>936</v>
       </c>
-      <c r="N42" s="7">
+      <c r="N42" s="62">
         <f t="shared" si="6"/>
         <v>9.1262135922330095E-2</v>
       </c>
-      <c r="O42" s="65">
-        <v>759</v>
-      </c>
-      <c r="P42">
+      <c r="O42" s="57">
+        <v>764</v>
+      </c>
+      <c r="P42" s="72">
         <f t="shared" si="9"/>
-        <v>0.26310679611650484</v>
-      </c>
-      <c r="Q42" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="R42" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="S42" s="13">
+        <v>0.258252427184466</v>
+      </c>
+      <c r="Q42" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="R42" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="S42" s="12">
         <v>871</v>
       </c>
-      <c r="T42" s="15">
+      <c r="T42" s="14">
         <v>888</v>
       </c>
-      <c r="U42" s="13">
+      <c r="U42" s="12">
         <v>736</v>
       </c>
-      <c r="V42" s="15">
+      <c r="V42" s="14">
         <v>735</v>
       </c>
-      <c r="X42" s="35">
+      <c r="X42" s="29">
         <v>775</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A43" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" s="11">
+      <c r="A43" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="10">
         <v>2457</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <v>2305</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <f t="shared" si="5"/>
         <v>6.1864061864061862E-2</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="G43" s="11">
+      <c r="E43" s="6"/>
+      <c r="G43" s="68">
         <v>1315</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="62">
         <v>994</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="62">
         <f t="shared" si="7"/>
         <v>0.24410646387832699</v>
       </c>
-      <c r="J43" s="68">
-        <v>1013</v>
-      </c>
-      <c r="K43">
+      <c r="J43" s="57">
+        <v>740</v>
+      </c>
+      <c r="K43" s="72">
         <f t="shared" si="8"/>
-        <v>0.22965779467680608</v>
-      </c>
-      <c r="L43" s="11">
+        <v>0.43726235741444869</v>
+      </c>
+      <c r="L43" s="68">
         <v>1281</v>
       </c>
-      <c r="M43" s="7">
+      <c r="M43" s="62">
         <v>1191</v>
       </c>
-      <c r="N43" s="7">
+      <c r="N43" s="62">
         <f t="shared" si="6"/>
         <v>7.0257611241217793E-2</v>
       </c>
-      <c r="O43" s="64">
-        <v>1008</v>
-      </c>
-      <c r="P43">
+      <c r="O43" s="59">
+        <v>809</v>
+      </c>
+      <c r="P43" s="72">
         <f t="shared" si="9"/>
-        <v>0.21311475409836064</v>
-      </c>
-      <c r="Q43" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="R43" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="S43" s="13">
+        <v>0.36846213895394225</v>
+      </c>
+      <c r="Q43" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="R43" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="S43" s="12">
         <v>818</v>
       </c>
-      <c r="T43" s="15">
+      <c r="T43" s="14">
         <v>788</v>
       </c>
-      <c r="U43" s="13">
+      <c r="U43" s="12">
         <v>677</v>
       </c>
-      <c r="V43" s="15">
+      <c r="V43" s="14">
         <v>671</v>
       </c>
-      <c r="X43" s="35">
+      <c r="X43" s="29">
         <v>796</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A44" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="11">
+      <c r="A44" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="10">
         <v>2547</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="G44" s="11">
+      <c r="C44" s="6"/>
+      <c r="D44" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="G44" s="68">
         <v>1535</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="62">
         <v>1275</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="62">
         <f t="shared" si="7"/>
         <v>0.16938110749185667</v>
       </c>
-      <c r="J44" s="68">
-        <v>986</v>
-      </c>
-      <c r="K44">
+      <c r="J44" s="57">
+        <v>783</v>
+      </c>
+      <c r="K44" s="72">
         <f t="shared" si="8"/>
-        <v>0.35765472312703583</v>
-      </c>
-      <c r="L44" s="11">
+        <v>0.48990228013029313</v>
+      </c>
+      <c r="L44" s="68">
         <v>1953</v>
       </c>
-      <c r="M44" s="7">
+      <c r="M44" s="62">
         <v>1598</v>
       </c>
-      <c r="N44" s="7">
+      <c r="N44" s="62">
         <f t="shared" si="6"/>
         <v>0.18177163338453661</v>
       </c>
-      <c r="O44" s="64">
-        <v>942</v>
-      </c>
-      <c r="P44">
+      <c r="O44" s="59">
+        <v>915</v>
+      </c>
+      <c r="P44" s="72">
         <f t="shared" si="9"/>
-        <v>0.51766513056835639</v>
-      </c>
-      <c r="Q44" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="R44" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="S44" s="13">
+        <v>0.53149001536098306</v>
+      </c>
+      <c r="Q44" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="R44" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="S44" s="12">
         <v>831</v>
       </c>
-      <c r="T44" s="15">
+      <c r="T44" s="14">
         <v>808</v>
       </c>
-      <c r="U44" s="13">
+      <c r="U44" s="12">
         <v>679</v>
       </c>
-      <c r="V44" s="15">
+      <c r="V44" s="14">
         <v>679</v>
       </c>
-      <c r="X44" s="35">
+      <c r="X44" s="29">
         <v>798</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="11">
+      <c r="A45" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="10">
         <v>1449</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="G45" s="11">
+      <c r="C45" s="6"/>
+      <c r="D45" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="G45" s="68">
         <v>1168</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="62">
         <v>1029</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="62">
         <f t="shared" si="7"/>
         <v>0.1190068493150685</v>
       </c>
-      <c r="J45" s="65">
-        <v>821</v>
-      </c>
-      <c r="K45">
+      <c r="J45" s="57">
+        <v>864</v>
+      </c>
+      <c r="K45" s="72">
         <f t="shared" si="8"/>
-        <v>0.2970890410958904</v>
-      </c>
-      <c r="L45" s="11">
+        <v>0.26027397260273971</v>
+      </c>
+      <c r="L45" s="68">
         <v>1222</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M45" s="62">
         <v>1190</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N45" s="62">
         <f t="shared" si="6"/>
         <v>2.6186579378068741E-2</v>
       </c>
-      <c r="O45" s="66">
-        <v>928</v>
-      </c>
-      <c r="P45">
+      <c r="O45" s="57">
+        <v>837</v>
+      </c>
+      <c r="P45" s="72">
         <f t="shared" si="9"/>
-        <v>0.24058919803600654</v>
-      </c>
-      <c r="Q45" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="R45" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="S45" s="13">
+        <v>0.31505728314238951</v>
+      </c>
+      <c r="Q45" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="R45" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="S45" s="12">
         <v>910</v>
       </c>
-      <c r="T45" s="15">
+      <c r="T45" s="14">
         <v>935</v>
       </c>
-      <c r="U45" s="13">
+      <c r="U45" s="12">
         <v>804</v>
       </c>
-      <c r="V45" s="15">
+      <c r="V45" s="14">
         <v>800</v>
       </c>
-      <c r="X45" s="35">
+      <c r="X45" s="29">
         <v>902</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="11">
+      <c r="A46" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="10">
         <v>2089</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="G46" s="11">
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="G46" s="68">
         <v>1312</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="62">
         <v>1022</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="62">
         <f t="shared" si="7"/>
         <v>0.22103658536585366</v>
       </c>
-      <c r="J46" s="65">
-        <v>788</v>
-      </c>
-      <c r="K46">
+      <c r="J46" s="56">
+        <v>790</v>
+      </c>
+      <c r="K46" s="72">
         <f t="shared" si="8"/>
-        <v>0.39939024390243905</v>
-      </c>
-      <c r="L46" s="11">
+        <v>0.39786585365853661</v>
+      </c>
+      <c r="L46" s="68">
         <v>1172</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M46" s="62">
         <v>1096</v>
       </c>
-      <c r="N46" s="7">
+      <c r="N46" s="62">
         <f t="shared" si="6"/>
         <v>6.4846416382252553E-2</v>
       </c>
-      <c r="O46" s="65">
-        <v>822</v>
-      </c>
-      <c r="P46">
+      <c r="O46" s="57">
+        <v>803</v>
+      </c>
+      <c r="P46" s="72">
         <f t="shared" si="9"/>
-        <v>0.29863481228668942</v>
-      </c>
-      <c r="Q46" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="R46" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="S46" s="13">
+        <v>0.31484641638225258</v>
+      </c>
+      <c r="Q46" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="R46" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="S46" s="12">
         <v>951</v>
       </c>
-      <c r="T46" s="15">
+      <c r="T46" s="14">
         <v>939</v>
       </c>
-      <c r="U46" s="13">
+      <c r="U46" s="12">
         <v>803</v>
       </c>
-      <c r="V46" s="15">
+      <c r="V46" s="14">
         <v>799</v>
       </c>
-      <c r="X46" s="35">
+      <c r="X46" s="29">
         <v>878</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A47" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="11">
+      <c r="A47" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="10">
         <v>1740</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="G47" s="11">
+      <c r="C47" s="6"/>
+      <c r="D47" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="G47" s="68">
         <v>1040</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="62">
         <v>892</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="62">
         <f t="shared" si="7"/>
         <v>0.1423076923076923</v>
       </c>
-      <c r="J47" s="68">
-        <v>733</v>
-      </c>
-      <c r="K47">
+      <c r="J47" s="57">
+        <v>567</v>
+      </c>
+      <c r="K47" s="72">
         <f t="shared" si="8"/>
-        <v>0.2951923076923077</v>
-      </c>
-      <c r="L47" s="11">
+        <v>0.4548076923076923</v>
+      </c>
+      <c r="L47" s="68">
         <v>1011</v>
       </c>
-      <c r="M47" s="7">
+      <c r="M47" s="62">
         <v>757</v>
       </c>
-      <c r="N47" s="7">
+      <c r="N47" s="62">
         <f t="shared" si="6"/>
         <v>0.25123639960435212</v>
       </c>
-      <c r="O47" s="64">
-        <v>627</v>
-      </c>
-      <c r="P47">
+      <c r="O47" s="57">
+        <v>574</v>
+      </c>
+      <c r="P47" s="72">
         <f t="shared" si="9"/>
-        <v>0.37982195845697331</v>
-      </c>
-      <c r="Q47" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="R47" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="S47" s="13">
+        <v>0.43224530168150344</v>
+      </c>
+      <c r="Q47" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="R47" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="S47" s="12">
         <v>601</v>
       </c>
-      <c r="T47" s="15">
+      <c r="T47" s="14">
         <v>598</v>
       </c>
-      <c r="U47" s="13">
+      <c r="U47" s="12">
         <v>525</v>
       </c>
-      <c r="V47" s="15">
+      <c r="V47" s="14">
         <v>524</v>
       </c>
-      <c r="X47" s="35">
+      <c r="X47" s="29">
         <v>585</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A48" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="11">
+      <c r="A48" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="10">
         <v>2345</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <v>1110</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="6">
         <f>(B48-C48)/B48</f>
         <v>0.5266524520255863</v>
       </c>
-      <c r="E48" s="7"/>
-      <c r="G48" s="11">
+      <c r="E48" s="6"/>
+      <c r="G48" s="68">
         <v>1315</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="62">
         <v>905</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="62">
         <f t="shared" si="7"/>
         <v>0.31178707224334601</v>
       </c>
-      <c r="J48" s="65">
-        <v>795</v>
-      </c>
-      <c r="K48">
+      <c r="J48" s="57">
+        <v>732</v>
+      </c>
+      <c r="K48" s="72">
         <f t="shared" si="8"/>
-        <v>0.39543726235741444</v>
-      </c>
-      <c r="L48" s="11">
+        <v>0.44334600760456272</v>
+      </c>
+      <c r="L48" s="68">
         <v>1309</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M48" s="62">
         <v>927</v>
       </c>
-      <c r="N48" s="7">
+      <c r="N48" s="62">
         <f t="shared" si="6"/>
         <v>0.29182582123758594</v>
       </c>
-      <c r="O48" s="64">
-        <v>858</v>
-      </c>
-      <c r="P48">
+      <c r="O48" s="57">
+        <v>809</v>
+      </c>
+      <c r="P48" s="72">
         <f t="shared" si="9"/>
-        <v>0.34453781512605042</v>
-      </c>
-      <c r="Q48" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="R48" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="S48" s="13">
+        <v>0.3819709702062643</v>
+      </c>
+      <c r="Q48" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="R48" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="S48" s="12">
         <v>815</v>
       </c>
-      <c r="T48" s="15">
+      <c r="T48" s="14">
         <v>854</v>
       </c>
-      <c r="U48" s="13">
+      <c r="U48" s="12">
         <v>712</v>
       </c>
-      <c r="V48" s="15">
+      <c r="V48" s="14">
         <v>705</v>
       </c>
-      <c r="X48" s="35">
+      <c r="X48" s="29">
         <v>810</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A49" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="11">
+      <c r="A49" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="10">
         <v>1949</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>1232</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="6">
         <f>(B49-C49)/B49</f>
         <v>0.36788096459722935</v>
       </c>
-      <c r="E49" s="7"/>
-      <c r="G49" s="11">
+      <c r="E49" s="6"/>
+      <c r="G49" s="68">
         <v>1378</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="62">
         <v>1160</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="62">
         <f t="shared" si="7"/>
         <v>0.15820029027576196</v>
       </c>
-      <c r="J49" s="65">
-        <v>935</v>
-      </c>
-      <c r="K49">
+      <c r="J49" s="57">
+        <v>829</v>
+      </c>
+      <c r="K49" s="72">
         <f t="shared" si="8"/>
-        <v>0.32148040638606679</v>
-      </c>
-      <c r="L49" s="11">
+        <v>0.39840348330914371</v>
+      </c>
+      <c r="L49" s="68">
         <v>1365</v>
       </c>
-      <c r="M49" s="7">
+      <c r="M49" s="62">
         <v>1240</v>
       </c>
-      <c r="N49" s="7">
+      <c r="N49" s="62">
         <f t="shared" si="6"/>
         <v>9.1575091575091569E-2</v>
       </c>
-      <c r="O49" s="68">
-        <v>1011</v>
-      </c>
-      <c r="P49">
+      <c r="O49" s="57">
+        <v>840</v>
+      </c>
+      <c r="P49" s="72">
         <f t="shared" si="9"/>
-        <v>0.25934065934065936</v>
-      </c>
-      <c r="Q49" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="R49" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="S49" s="13">
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="Q49" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="R49" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="S49" s="12">
         <v>965</v>
       </c>
-      <c r="T49" s="15">
+      <c r="T49" s="14">
         <v>937</v>
       </c>
-      <c r="U49" s="13">
+      <c r="U49" s="12">
         <v>815</v>
       </c>
-      <c r="V49" s="15">
+      <c r="V49" s="14">
         <v>808</v>
       </c>
-      <c r="X49" s="35">
+      <c r="X49" s="29">
         <v>959</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A50" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" s="11">
+      <c r="A50" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="10">
         <v>1985</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <v>1985</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="G50" s="11">
+      <c r="D50" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="G50" s="68">
         <v>1603</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="62">
         <v>1013</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="62">
         <f t="shared" si="7"/>
         <v>0.36805988771054271</v>
       </c>
-      <c r="J50" s="65">
-        <v>810</v>
-      </c>
-      <c r="K50">
+      <c r="J50" s="57">
+        <v>758</v>
+      </c>
+      <c r="K50" s="72">
         <f t="shared" si="8"/>
-        <v>0.49469744229569557</v>
-      </c>
-      <c r="L50" s="11">
+        <v>0.52713661883967566</v>
+      </c>
+      <c r="L50" s="68">
         <v>1212</v>
       </c>
-      <c r="M50" s="7">
+      <c r="M50" s="62">
         <v>1073</v>
       </c>
-      <c r="N50" s="7">
+      <c r="N50" s="62">
         <f t="shared" si="6"/>
         <v>0.11468646864686469</v>
       </c>
-      <c r="O50" s="65">
-        <v>763</v>
-      </c>
-      <c r="P50">
+      <c r="O50" s="57">
+        <v>802</v>
+      </c>
+      <c r="P50" s="72">
         <f t="shared" si="9"/>
-        <v>0.37046204620462048</v>
-      </c>
-      <c r="Q50" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="R50" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="S50" s="13">
+        <v>0.33828382838283827</v>
+      </c>
+      <c r="Q50" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="R50" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="S50" s="12">
         <v>902</v>
       </c>
-      <c r="T50" s="15">
+      <c r="T50" s="14">
         <v>826</v>
       </c>
-      <c r="U50" s="13">
+      <c r="U50" s="12">
         <v>720</v>
       </c>
-      <c r="V50" s="15">
+      <c r="V50" s="14">
         <v>708</v>
       </c>
-      <c r="X50" s="35">
+      <c r="X50" s="29">
         <v>896</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A51" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" s="11">
+      <c r="A51" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="10">
         <v>1429</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <v>960</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="6">
         <f>(B51-C51)/B51</f>
         <v>0.32820153953813858</v>
       </c>
-      <c r="E51" s="7"/>
-      <c r="G51" s="11">
+      <c r="E51" s="6"/>
+      <c r="G51" s="68">
         <v>1136</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="62">
         <v>748</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="62">
         <f t="shared" si="7"/>
         <v>0.34154929577464788</v>
       </c>
-      <c r="J51" s="68">
-        <v>735</v>
-      </c>
-      <c r="K51">
+      <c r="J51" s="57">
+        <v>535</v>
+      </c>
+      <c r="K51" s="72">
         <f t="shared" si="8"/>
-        <v>0.35299295774647887</v>
-      </c>
-      <c r="L51" s="11">
+        <v>0.52904929577464788</v>
+      </c>
+      <c r="L51" s="68">
         <v>902</v>
       </c>
-      <c r="M51" s="7">
+      <c r="M51" s="62">
         <v>677</v>
       </c>
-      <c r="N51" s="7">
+      <c r="N51" s="62">
         <f t="shared" si="6"/>
         <v>0.24944567627494457</v>
       </c>
-      <c r="O51" s="64">
-        <v>639</v>
-      </c>
-      <c r="P51">
+      <c r="O51" s="59">
+        <v>558</v>
+      </c>
+      <c r="P51" s="72">
         <f t="shared" si="9"/>
-        <v>0.29157427937915742</v>
-      </c>
-      <c r="Q51" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="R51" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="S51" s="13">
+        <v>0.38137472283813745</v>
+      </c>
+      <c r="Q51" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="R51" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="S51" s="12">
         <v>632</v>
       </c>
-      <c r="T51" s="15">
+      <c r="T51" s="14">
         <v>548</v>
       </c>
-      <c r="U51" s="13">
+      <c r="U51" s="12">
         <v>476</v>
       </c>
-      <c r="V51" s="15">
+      <c r="V51" s="14">
         <v>476</v>
       </c>
-      <c r="X51" s="35">
+      <c r="X51" s="29">
         <v>537</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A52" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="11">
+      <c r="A52" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="10">
         <v>1847</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <v>1159</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="6">
         <f>(B52-C52)/B52</f>
         <v>0.37249593936112613</v>
       </c>
-      <c r="E52" s="7"/>
-      <c r="G52" s="11">
+      <c r="E52" s="6"/>
+      <c r="G52" s="68">
         <v>1014</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="62">
         <v>884</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="62">
         <f t="shared" si="7"/>
         <v>0.12820512820512819</v>
       </c>
-      <c r="J52" s="68">
-        <v>838</v>
-      </c>
-      <c r="K52">
+      <c r="J52" s="57">
+        <v>622</v>
+      </c>
+      <c r="K52" s="72">
         <f t="shared" si="8"/>
-        <v>0.17357001972386588</v>
-      </c>
-      <c r="L52" s="11">
+        <v>0.38658777120315579</v>
+      </c>
+      <c r="L52" s="68">
         <v>1037</v>
       </c>
-      <c r="M52" s="7">
+      <c r="M52" s="62">
         <v>953</v>
       </c>
-      <c r="N52" s="7">
+      <c r="N52" s="62">
         <f t="shared" si="6"/>
         <v>8.1002892960462869E-2</v>
       </c>
-      <c r="O52" s="65">
+      <c r="O52" s="59">
+        <v>691</v>
+      </c>
+      <c r="P52" s="72">
+        <f t="shared" si="9"/>
+        <v>0.33365477338476374</v>
+      </c>
+      <c r="Q52" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="R52" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="S52" s="12">
         <v>674</v>
       </c>
-      <c r="P52">
-        <f t="shared" si="9"/>
-        <v>0.35004821600771457</v>
-      </c>
-      <c r="Q52" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="R52" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="S52" s="13">
-        <v>674</v>
-      </c>
-      <c r="T52" s="15">
+      <c r="T52" s="14">
         <v>687</v>
       </c>
-      <c r="U52" s="13">
+      <c r="U52" s="12">
         <v>568</v>
       </c>
-      <c r="V52" s="15">
+      <c r="V52" s="14">
         <v>564</v>
       </c>
-      <c r="X52" s="35">
+      <c r="X52" s="29">
         <v>648</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A53" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="11">
+      <c r="A53" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="10">
         <v>3083</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="G53" s="11">
+      <c r="C53" s="6"/>
+      <c r="D53" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="G53" s="68">
         <v>1201</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="62">
         <v>1069</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53" s="62">
         <f t="shared" si="7"/>
         <v>0.10990840965861781</v>
       </c>
-      <c r="J53" s="66">
-        <v>893</v>
-      </c>
-      <c r="K53">
+      <c r="J53" s="57">
+        <v>772</v>
+      </c>
+      <c r="K53" s="72">
         <f t="shared" si="8"/>
-        <v>0.25645295587010825</v>
-      </c>
-      <c r="L53" s="11">
+        <v>0.35720233139050789</v>
+      </c>
+      <c r="L53" s="68">
         <v>1124</v>
       </c>
-      <c r="M53" s="7">
+      <c r="M53" s="62">
         <v>1079</v>
       </c>
-      <c r="N53" s="7">
+      <c r="N53" s="62">
         <f t="shared" si="6"/>
         <v>4.0035587188612103E-2</v>
       </c>
-      <c r="O53" s="64">
-        <v>942</v>
-      </c>
-      <c r="P53">
+      <c r="O53" s="57">
+        <v>810</v>
+      </c>
+      <c r="P53" s="72">
         <f t="shared" si="9"/>
-        <v>0.16192170818505339</v>
-      </c>
-      <c r="Q53" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="R53" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="S53" s="13">
+        <v>0.2793594306049822</v>
+      </c>
+      <c r="Q53" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="R53" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="S53" s="12">
         <v>897</v>
       </c>
-      <c r="T53" s="15">
+      <c r="T53" s="14">
         <v>885</v>
       </c>
-      <c r="U53" s="13">
+      <c r="U53" s="12">
         <v>755</v>
       </c>
-      <c r="V53" s="15">
+      <c r="V53" s="14">
         <v>752</v>
       </c>
-      <c r="X53" s="35">
+      <c r="X53" s="29">
         <v>879</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A54" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" s="11">
+      <c r="A54" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="10">
         <v>2339</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="G54" s="11">
+      <c r="C54" s="6"/>
+      <c r="D54" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="G54" s="68">
         <v>1301</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="62">
         <v>1067</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="62">
         <f t="shared" si="7"/>
         <v>0.17986164488854728</v>
       </c>
-      <c r="J54" s="65">
-        <v>888</v>
-      </c>
-      <c r="K54">
+      <c r="J54" s="57">
+        <v>772</v>
+      </c>
+      <c r="K54" s="72">
         <f t="shared" si="8"/>
-        <v>0.31744811683320523</v>
-      </c>
-      <c r="L54" s="11">
+        <v>0.40661029976940816</v>
+      </c>
+      <c r="L54" s="68">
         <v>1450</v>
       </c>
-      <c r="M54" s="7">
+      <c r="M54" s="62">
         <v>1161</v>
       </c>
-      <c r="N54" s="7">
+      <c r="N54" s="62">
         <f t="shared" si="6"/>
         <v>0.19931034482758619</v>
       </c>
-      <c r="O54" s="64">
-        <v>1003</v>
-      </c>
-      <c r="P54">
+      <c r="O54" s="57">
+        <v>819</v>
+      </c>
+      <c r="P54" s="72">
         <f t="shared" si="9"/>
-        <v>0.30827586206896551</v>
-      </c>
-      <c r="Q54" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="R54" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="S54" s="13">
+        <v>0.43517241379310345</v>
+      </c>
+      <c r="Q54" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="R54" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="S54" s="12">
         <v>903</v>
       </c>
-      <c r="T54" s="15">
+      <c r="T54" s="14">
         <v>915</v>
       </c>
-      <c r="U54" s="13">
+      <c r="U54" s="12">
         <v>751</v>
       </c>
-      <c r="V54" s="15">
+      <c r="V54" s="14">
         <v>745</v>
       </c>
-      <c r="X54" s="35">
+      <c r="X54" s="29">
         <v>898</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A55" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="11">
+      <c r="A55" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="10">
         <v>2991</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="G55" s="11">
+      <c r="C55" s="6"/>
+      <c r="D55" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="G55" s="68">
         <v>1675</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="62">
         <v>1213</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="62">
         <f t="shared" si="7"/>
         <v>0.27582089552238803</v>
       </c>
-      <c r="J55" s="68">
-        <v>1389</v>
-      </c>
-      <c r="K55">
+      <c r="J55" s="57">
+        <v>911</v>
+      </c>
+      <c r="K55" s="72">
         <f t="shared" si="8"/>
-        <v>0.17074626865671641</v>
-      </c>
-      <c r="L55" s="11">
+        <v>0.45611940298507464</v>
+      </c>
+      <c r="L55" s="68">
         <v>1638</v>
       </c>
-      <c r="M55" s="7">
+      <c r="M55" s="62">
         <v>1550</v>
       </c>
-      <c r="N55" s="7">
+      <c r="N55" s="62">
         <f t="shared" si="6"/>
         <v>5.3724053724053727E-2</v>
       </c>
-      <c r="O55" s="64">
-        <v>1379</v>
-      </c>
-      <c r="P55">
+      <c r="O55" s="57">
+        <v>897</v>
+      </c>
+      <c r="P55" s="72">
         <f t="shared" si="9"/>
-        <v>0.15811965811965811</v>
-      </c>
-      <c r="Q55" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="R55" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="S55" s="13">
+        <v>0.45238095238095238</v>
+      </c>
+      <c r="Q55" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="R55" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="S55" s="12">
         <v>981</v>
       </c>
-      <c r="T55" s="15">
+      <c r="T55" s="14">
         <v>982</v>
       </c>
-      <c r="U55" s="13">
+      <c r="U55" s="12">
         <v>838</v>
       </c>
-      <c r="V55" s="15">
+      <c r="V55" s="14">
         <v>831</v>
       </c>
-      <c r="X55" s="35">
+      <c r="X55" s="29">
         <v>981</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A56" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56" s="11">
+      <c r="A56" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="10">
         <v>2402</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E56" s="7"/>
-      <c r="G56" s="11">
+      <c r="C56" s="6"/>
+      <c r="D56" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="G56" s="68">
         <v>1567</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="62">
         <v>1034</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="62">
         <f t="shared" si="7"/>
         <v>0.34014039566049775</v>
       </c>
-      <c r="J56" s="68">
-        <v>771</v>
-      </c>
-      <c r="K56">
+      <c r="J56" s="57">
+        <v>595</v>
+      </c>
+      <c r="K56" s="72">
         <f t="shared" si="8"/>
-        <v>0.5079770261646458</v>
-      </c>
-      <c r="L56" s="11">
+        <v>0.62029355456285895</v>
+      </c>
+      <c r="L56" s="68">
         <v>1210</v>
       </c>
-      <c r="M56" s="7">
+      <c r="M56" s="62">
         <v>921</v>
       </c>
-      <c r="N56" s="7">
+      <c r="N56" s="62">
         <f t="shared" si="6"/>
         <v>0.23884297520661157</v>
       </c>
-      <c r="O56" s="64">
-        <v>806</v>
-      </c>
-      <c r="P56">
+      <c r="O56" s="59">
+        <v>644</v>
+      </c>
+      <c r="P56" s="72">
         <f t="shared" si="9"/>
-        <v>0.33388429752066118</v>
-      </c>
-      <c r="Q56" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="R56" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="S56" s="13">
+        <v>0.46776859504132229</v>
+      </c>
+      <c r="Q56" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="R56" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="S56" s="12">
         <v>703</v>
       </c>
-      <c r="T56" s="15">
+      <c r="T56" s="14">
         <v>633</v>
       </c>
-      <c r="U56" s="13">
+      <c r="U56" s="12">
         <v>545</v>
       </c>
-      <c r="V56" s="15">
+      <c r="V56" s="14">
         <v>543</v>
       </c>
-      <c r="X56" s="35">
+      <c r="X56" s="29">
         <v>572</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A57" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="B57" s="11">
+      <c r="A57" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="10">
         <v>2843</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E57" s="7"/>
-      <c r="G57" s="11">
+      <c r="C57" s="6"/>
+      <c r="D57" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="G57" s="68">
         <v>1993</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="62">
         <v>1057</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I57" s="62">
         <f t="shared" si="7"/>
         <v>0.46964375313597589</v>
       </c>
-      <c r="J57" s="68">
-        <v>1036</v>
-      </c>
-      <c r="K57">
+      <c r="J57" s="57">
+        <v>728</v>
+      </c>
+      <c r="K57" s="72">
         <f t="shared" si="8"/>
-        <v>0.4801806322127446</v>
-      </c>
-      <c r="L57" s="11">
+        <v>0.63472152533868542</v>
+      </c>
+      <c r="L57" s="68">
         <v>1633</v>
       </c>
-      <c r="M57" s="7">
+      <c r="M57" s="62">
         <v>1207</v>
       </c>
-      <c r="N57" s="7">
+      <c r="N57" s="62">
         <f t="shared" si="6"/>
         <v>0.2608695652173913</v>
       </c>
-      <c r="O57" s="64">
-        <v>1068</v>
-      </c>
-      <c r="P57">
+      <c r="O57" s="59">
+        <v>1034</v>
+      </c>
+      <c r="P57" s="72">
         <f t="shared" si="9"/>
-        <v>0.34598897734231476</v>
-      </c>
-      <c r="Q57" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="R57" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="S57" s="13">
+        <v>0.3668095529699939</v>
+      </c>
+      <c r="Q57" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="R57" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="S57" s="12">
         <v>760</v>
       </c>
-      <c r="T57" s="15">
+      <c r="T57" s="14">
         <v>800</v>
       </c>
-      <c r="U57" s="13">
+      <c r="U57" s="12">
         <v>657</v>
       </c>
-      <c r="V57" s="15">
+      <c r="V57" s="14">
         <v>654</v>
       </c>
-      <c r="X57" s="35">
+      <c r="X57" s="29">
         <v>710</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A58" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" s="12">
+      <c r="A58" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="11">
         <v>2637</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E58" s="9"/>
-      <c r="G58" s="12">
+      <c r="C58" s="8"/>
+      <c r="D58" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="G58" s="70">
         <v>1084</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="58">
         <v>830</v>
       </c>
-      <c r="I58" s="9">
+      <c r="I58" s="58">
         <f t="shared" si="7"/>
         <v>0.23431734317343172</v>
       </c>
-      <c r="J58" s="67">
-        <v>780</v>
-      </c>
-      <c r="K58">
+      <c r="J58" s="65">
+        <v>597</v>
+      </c>
+      <c r="K58" s="72">
         <f t="shared" si="8"/>
-        <v>0.28044280442804426</v>
-      </c>
-      <c r="L58" s="12">
+        <v>0.44926199261992622</v>
+      </c>
+      <c r="L58" s="70">
         <v>1073</v>
       </c>
-      <c r="M58" s="9">
+      <c r="M58" s="58">
         <v>846</v>
       </c>
-      <c r="N58" s="9">
+      <c r="N58" s="58">
         <f t="shared" si="6"/>
         <v>0.21155638397017706</v>
       </c>
-      <c r="O58" s="9">
-        <v>939</v>
-      </c>
-      <c r="P58" s="10">
+      <c r="O58" s="58">
+        <v>657</v>
+      </c>
+      <c r="P58" s="71">
         <f t="shared" si="9"/>
-        <v>0.12488350419384903</v>
-      </c>
-      <c r="Q58" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="R58" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="S58" s="16">
+        <v>0.38769804287045667</v>
+      </c>
+      <c r="Q58" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="R58" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="S58" s="15">
         <v>657</v>
       </c>
-      <c r="T58" s="18">
+      <c r="T58" s="16">
         <v>640</v>
       </c>
-      <c r="U58" s="16">
+      <c r="U58" s="15">
         <v>557</v>
       </c>
-      <c r="V58" s="18">
+      <c r="V58" s="16">
         <v>555</v>
       </c>
-      <c r="X58" s="35">
+      <c r="X58" s="29">
         <v>615</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A59" s="6"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="10">
+      <c r="A59" s="5"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="9">
         <f>AVERAGE(D29:D43,D48:D49,D51:D52)</f>
         <v>0.34846647251850404</v>
       </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="10">
+      <c r="E59" s="8"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="9">
         <f>AVERAGE(I29:I58)</f>
         <v>0.20500845503829185</v>
       </c>
-      <c r="J59" s="9"/>
-      <c r="K59" s="43">
+      <c r="J59" s="8"/>
+      <c r="K59" s="37">
         <f>AVERAGE(K29:K58)</f>
-        <v>0.33665169617739554</v>
-      </c>
-      <c r="L59" s="12"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="10">
+        <v>0.40807447871222163</v>
+      </c>
+      <c r="L59" s="11"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="9">
         <f>AVERAGE(N29:N58)</f>
         <v>0.15679638026492096</v>
       </c>
-      <c r="O59" s="9"/>
-      <c r="P59" s="58">
+      <c r="O59" s="8"/>
+      <c r="P59" s="49">
         <f>AVERAGE(P29:P58)</f>
-        <v>0.31367331611686061</v>
-      </c>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="10"/>
-      <c r="S59" s="12"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="12"/>
-      <c r="V59" s="10"/>
+        <v>0.36618832619814312</v>
+      </c>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="9"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="K60" s="42"/>
+      <c r="K60" s="36"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="B27:P27"/>
+    <mergeCell ref="Q27:R27"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="B27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9025,393 +9013,772 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DA6576-D08F-48A0-9AA7-B9AB38E55133}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="75" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
+    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
       <c r="B3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="74" t="s">
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="R3" s="75"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="L3" s="73"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="3" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37" t="e">
+        <f>(B5-C5)/B5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36" t="e">
+        <f t="shared" ref="I5:I19" si="0">(G5-H5)/G5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J5" s="64">
+        <v>49</v>
+      </c>
+      <c r="K5" s="37" t="e">
+        <f t="shared" ref="K5:K19" si="1">(G5-J5)/G5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" s="22"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36" t="e">
+        <f>(L5-M5)/L5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O5" s="60">
+        <v>42</v>
+      </c>
+      <c r="P5" s="37" t="e">
+        <f>(L5-O5)/L5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>49</v>
+      </c>
+      <c r="R5" s="18">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="7" t="e">
+        <f t="shared" ref="F6:F18" si="2">(B6-C6)/B6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J6" s="62">
+        <v>31</v>
+      </c>
+      <c r="K6" s="37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="6" t="e">
+        <f t="shared" ref="N6:N19" si="3">(L6-M6)/L6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O6" s="42">
+        <v>32</v>
+      </c>
+      <c r="P6" s="7" t="e">
+        <f t="shared" ref="P6:P19" si="4">(L6-O6)/L6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>41</v>
+      </c>
+      <c r="R6" s="14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" s="62"/>
+      <c r="K7" s="37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" s="21"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O7" s="42">
+        <v>204</v>
+      </c>
+      <c r="P7" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>263</v>
+      </c>
+      <c r="R7" s="14">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" s="62"/>
+      <c r="K8" s="37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" s="21"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O8" s="42">
+        <v>79</v>
+      </c>
+      <c r="P8" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>89</v>
+      </c>
+      <c r="R8" s="14">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" s="62"/>
+      <c r="K9" s="37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" s="73"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O9" s="59">
+        <v>193</v>
+      </c>
+      <c r="P9" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>188</v>
+      </c>
+      <c r="R9" s="14">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" s="62"/>
+      <c r="K10" s="37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="21"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10" s="57">
+        <v>100</v>
+      </c>
+      <c r="P10" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>128</v>
+      </c>
+      <c r="R10" s="14">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" s="62"/>
+      <c r="K11" s="37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" s="73"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O11" s="56">
+        <v>153</v>
+      </c>
+      <c r="P11" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>188</v>
+      </c>
+      <c r="R11" s="14">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" s="62"/>
+      <c r="K12" s="37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" s="21"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O12" s="62">
+        <v>574</v>
+      </c>
+      <c r="P12" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>523</v>
+      </c>
+      <c r="R12" s="14">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" s="62"/>
+      <c r="K13" s="37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="21"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O13" s="43">
+        <v>434</v>
+      </c>
+      <c r="P13" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>444</v>
+      </c>
+      <c r="R13" s="14">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J14" s="62"/>
+      <c r="K14" s="37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" s="73"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O14" s="57">
+        <v>300</v>
+      </c>
+      <c r="P14" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>363</v>
+      </c>
+      <c r="R14" s="14">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>156</v>
       </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="62"/>
+      <c r="K15" s="37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L15" s="21"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O15" s="56">
+        <v>634</v>
+      </c>
+      <c r="P15" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>716</v>
+      </c>
+      <c r="R15" s="14">
+        <v>649</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="19">
-        <v>49</v>
-      </c>
-      <c r="L5" s="20">
-        <v>42</v>
+      <c r="B16" s="21"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="62"/>
+      <c r="K16" s="37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" s="21"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O16" s="59">
+        <v>566</v>
+      </c>
+      <c r="P16" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>565</v>
+      </c>
+      <c r="R16" s="14">
+        <v>518</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="13">
-        <v>41</v>
-      </c>
-      <c r="L6" s="15">
-        <v>32</v>
+      <c r="B17" s="21"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="62"/>
+      <c r="K17" s="37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="21"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O17" s="43">
+        <v>493</v>
+      </c>
+      <c r="P17" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>542</v>
+      </c>
+      <c r="R17" s="14">
+        <v>478</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="13">
-        <v>263</v>
-      </c>
-      <c r="L7" s="15">
-        <v>211</v>
+      <c r="B18" s="21"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="62"/>
+      <c r="K18" s="37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="21"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O18" s="59">
+        <v>711</v>
+      </c>
+      <c r="P18" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>694</v>
+      </c>
+      <c r="R18" s="14">
+        <v>694</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="13">
-        <v>89</v>
-      </c>
-      <c r="L8" s="15">
-        <v>81</v>
+      <c r="B19" s="21"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="62"/>
+      <c r="K19" s="37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="24"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O19" s="62">
+        <v>515</v>
+      </c>
+      <c r="P19" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>448</v>
+      </c>
+      <c r="R19" s="16">
+        <v>383</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="13">
-        <v>188</v>
-      </c>
-      <c r="L9" s="15">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="13">
-        <v>128</v>
-      </c>
-      <c r="L10" s="15">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="13">
-        <v>188</v>
-      </c>
-      <c r="L11" s="15">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="13">
-        <v>523</v>
-      </c>
-      <c r="L12" s="15">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="13">
-        <v>444</v>
-      </c>
-      <c r="L13" s="15">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="13">
-        <v>363</v>
-      </c>
-      <c r="L14" s="15">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="13">
-        <v>716</v>
-      </c>
-      <c r="L15" s="15">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="13">
-        <v>565</v>
-      </c>
-      <c r="L16" s="15">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="13">
-        <v>542</v>
-      </c>
-      <c r="L17" s="15">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="13">
-        <v>694</v>
-      </c>
-      <c r="L18" s="15">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="16">
-        <v>448</v>
-      </c>
-      <c r="L19" s="18">
-        <v>383</v>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49" t="e">
+        <f>AVERAGE(F5:F19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G20" s="41"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48" t="e">
+        <f>AVERAGE(I5:I19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49" t="e">
+        <f>AVERAGE(K5:K19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="41"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48" t="e">
+        <f>AVERAGE(N5:N19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O20" s="48"/>
+      <c r="P20" s="49" t="e">
+        <f>AVERAGE(P5:P19)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:P4"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="B3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9420,7 +9787,7 @@
   <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="A3" sqref="A3:P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9429,1383 +9796,1383 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="75" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
+      <c r="A1" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="73"/>
+        <v>3</v>
+      </c>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="75"/>
       <c r="Q3" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="R3" s="73"/>
-      <c r="S3" s="76" t="s">
-        <v>151</v>
-      </c>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="78"/>
+        <v>143</v>
+      </c>
+      <c r="R3" s="75"/>
+      <c r="S3" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="80"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="73"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="75"/>
       <c r="G4" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="73"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="75"/>
       <c r="L4" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="R4" s="2" t="s">
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="V4" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="23">
+      <c r="A5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="21">
         <v>91</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37">
         <f>(B5-C5)/B5</f>
         <v>1</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="22">
         <v>91</v>
       </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42">
+      <c r="H5" s="36"/>
+      <c r="I5" s="36">
         <f t="shared" ref="I5:I24" si="0">(G5-H5)/G5</f>
         <v>1</v>
       </c>
-      <c r="J5" s="69">
+      <c r="J5" s="60">
         <v>66</v>
       </c>
-      <c r="K5" s="43">
+      <c r="K5" s="37">
         <f t="shared" ref="K5:K24" si="1">(G5-J5)/G5</f>
         <v>0.27472527472527475</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="23">
         <v>91</v>
       </c>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42">
+      <c r="M5" s="36"/>
+      <c r="N5" s="36">
         <f>(L5-M5)/L5</f>
         <v>1</v>
       </c>
-      <c r="O5" s="69">
+      <c r="O5" s="60">
         <v>66</v>
       </c>
-      <c r="P5" s="43">
+      <c r="P5" s="37">
         <f>(L5-O5)/L5</f>
         <v>0.27472527472527475</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="17">
         <v>66</v>
       </c>
-      <c r="R5" s="20">
+      <c r="R5" s="18">
         <v>66</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="10">
         <v>66</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="6">
         <v>66</v>
       </c>
-      <c r="U5" s="35">
+      <c r="U5" s="29">
         <v>66</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="7">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="23">
+      <c r="A6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="21">
         <v>128</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="8">
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="7">
         <f t="shared" ref="F6:F18" si="2">(B6-C6)/B6</f>
         <v>1</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="22">
         <v>128</v>
       </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="42">
+      <c r="H6" s="42"/>
+      <c r="I6" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J6" s="49">
+      <c r="J6" s="42">
         <v>107</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="37">
         <f t="shared" si="1"/>
         <v>0.1640625</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="23">
         <v>128</v>
       </c>
-      <c r="M6" s="49"/>
-      <c r="N6" s="7">
+      <c r="M6" s="42"/>
+      <c r="N6" s="6">
         <f t="shared" ref="N6:N24" si="3">(L6-M6)/L6</f>
         <v>1</v>
       </c>
-      <c r="O6" s="49">
+      <c r="O6" s="42">
         <v>107</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="7">
         <f t="shared" ref="P6:P24" si="4">(L6-O6)/L6</f>
         <v>0.1640625</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="12">
         <v>107</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="14">
         <v>107</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="10">
         <v>107</v>
       </c>
-      <c r="T6" s="35">
+      <c r="T6" s="29">
         <v>107</v>
       </c>
-      <c r="U6" s="35">
+      <c r="U6" s="29">
         <v>107</v>
       </c>
-      <c r="V6" s="32">
+      <c r="V6" s="26">
         <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="23">
+      <c r="A7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="21">
         <v>298</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="8">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="22">
         <v>298</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="42">
+      <c r="H7" s="42"/>
+      <c r="I7" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J7" s="71">
+      <c r="J7" s="62">
         <v>236</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K7" s="37">
         <f t="shared" si="1"/>
         <v>0.20805369127516779</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="23">
         <v>298</v>
       </c>
-      <c r="M7" s="49"/>
-      <c r="N7" s="7">
+      <c r="M7" s="42"/>
+      <c r="N7" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O7" s="49">
+      <c r="O7" s="42">
         <v>221</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="7">
         <f t="shared" si="4"/>
         <v>0.25838926174496646</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="12">
         <v>221</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="14">
         <v>221</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="10">
         <v>221</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="6">
         <v>221</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="6">
         <v>221</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7" s="7">
         <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="23">
+      <c r="A8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="21">
         <v>396</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="8">
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="22">
         <v>396</v>
       </c>
-      <c r="H8" s="49"/>
-      <c r="I8" s="42">
+      <c r="H8" s="42"/>
+      <c r="I8" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J8" s="49">
+      <c r="J8" s="42">
         <v>355</v>
       </c>
-      <c r="K8" s="43">
+      <c r="K8" s="37">
         <f t="shared" si="1"/>
         <v>0.10353535353535354</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="23">
         <v>396</v>
       </c>
-      <c r="M8" s="49"/>
-      <c r="N8" s="7">
+      <c r="M8" s="42"/>
+      <c r="N8" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O8" s="49">
+      <c r="O8" s="42">
         <v>355</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="7">
         <f t="shared" si="4"/>
         <v>0.10353535353535354</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="12">
         <v>355</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8" s="14">
         <v>355</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="10">
         <v>355</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="6">
         <v>355</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="6">
         <v>355</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V8" s="7">
         <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="23">
+      <c r="A9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="21">
         <v>119</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="8">
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="19">
         <v>119</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="42">
+      <c r="H9" s="6"/>
+      <c r="I9" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J9" s="42">
         <v>119</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="20">
         <v>119</v>
       </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O9" s="65">
+      <c r="O9" s="56">
         <v>119</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="12">
         <v>119</v>
       </c>
-      <c r="R9" s="15">
+      <c r="R9" s="14">
         <v>119</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S9" s="10">
         <v>119</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="6">
         <v>119</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="6">
         <v>119</v>
       </c>
-      <c r="V9" s="8">
+      <c r="V9" s="7">
         <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="23">
+      <c r="A10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="21">
         <v>360</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="8">
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="22">
         <v>360</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="42">
+      <c r="H10" s="6"/>
+      <c r="I10" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J10" s="49">
+      <c r="J10" s="42">
         <v>320</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="37">
         <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="23">
         <v>360</v>
       </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7">
+      <c r="M10" s="6"/>
+      <c r="N10" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O10" s="65">
+      <c r="O10" s="56">
         <v>320</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="7">
         <f t="shared" si="4"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="12">
         <v>320</v>
       </c>
-      <c r="R10" s="15">
+      <c r="R10" s="14">
         <v>320</v>
       </c>
-      <c r="S10" s="11">
+      <c r="S10" s="10">
         <v>320</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="6">
         <v>320</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="6">
         <v>320</v>
       </c>
-      <c r="V10" s="8">
+      <c r="V10" s="7">
         <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="23">
+      <c r="A11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="21">
         <v>397</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="8">
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="19">
         <v>397</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="42">
+      <c r="H11" s="6"/>
+      <c r="I11" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J11" s="49">
+      <c r="J11" s="42">
         <v>397</v>
       </c>
-      <c r="K11" s="43">
+      <c r="K11" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="20">
         <v>397</v>
       </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7">
+      <c r="M11" s="6"/>
+      <c r="N11" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O11" s="65">
+      <c r="O11" s="56">
         <v>397</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="12">
         <v>397</v>
       </c>
-      <c r="R11" s="15">
+      <c r="R11" s="14">
         <v>397</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="10">
         <v>397</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T11" s="6">
         <v>397</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U11" s="6">
         <v>397</v>
       </c>
-      <c r="V11" s="8">
+      <c r="V11" s="7">
         <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" s="23">
+      <c r="A12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="21">
         <v>325</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="8">
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="22">
         <v>325</v>
       </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="42">
+      <c r="H12" s="42"/>
+      <c r="I12" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J12" s="49">
+      <c r="J12" s="42">
         <v>253</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="37">
         <f t="shared" si="1"/>
         <v>0.22153846153846155</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="23">
         <v>325</v>
       </c>
-      <c r="M12" s="49"/>
-      <c r="N12" s="7">
+      <c r="M12" s="42"/>
+      <c r="N12" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O12" s="49">
+      <c r="O12" s="42">
         <v>253</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="7">
         <f t="shared" si="4"/>
         <v>0.22153846153846155</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="12">
         <v>253</v>
       </c>
-      <c r="R12" s="15">
+      <c r="R12" s="14">
         <v>253</v>
       </c>
-      <c r="S12" s="11">
+      <c r="S12" s="10">
         <v>253</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="6">
         <v>253</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="6">
         <v>253</v>
       </c>
-      <c r="V12" s="8">
+      <c r="V12" s="7">
         <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13" s="23">
+      <c r="A13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="21">
         <v>257</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="8">
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="22">
         <v>290</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="42">
+      <c r="H13" s="42"/>
+      <c r="I13" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J13" s="71">
-        <v>220</v>
-      </c>
-      <c r="K13" s="43">
+      <c r="J13" s="42">
+        <v>210</v>
+      </c>
+      <c r="K13" s="37">
         <f t="shared" si="1"/>
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="L13" s="25">
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="L13" s="23">
         <v>257</v>
       </c>
-      <c r="M13" s="49"/>
-      <c r="N13" s="7">
+      <c r="M13" s="42"/>
+      <c r="N13" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O13" s="49">
+      <c r="O13" s="42">
         <v>210</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="7">
         <f t="shared" si="4"/>
         <v>0.1828793774319066</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="12">
         <v>210</v>
       </c>
-      <c r="R13" s="15">
+      <c r="R13" s="14">
         <v>210</v>
       </c>
-      <c r="S13" s="11">
+      <c r="S13" s="10">
         <v>210</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T13" s="6">
         <v>210</v>
       </c>
-      <c r="U13" s="7">
+      <c r="U13" s="6">
         <v>210</v>
       </c>
-      <c r="V13" s="8">
+      <c r="V13" s="7">
         <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B14" s="26">
+      <c r="A14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="24">
         <v>516</v>
       </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="8">
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="30">
         <v>516</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="42">
+      <c r="H14" s="6"/>
+      <c r="I14" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J14" s="49">
+      <c r="J14" s="42">
         <v>516</v>
       </c>
-      <c r="K14" s="43">
+      <c r="K14" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14" s="31">
         <v>516</v>
       </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7">
+      <c r="M14" s="6"/>
+      <c r="N14" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O14" s="65">
+      <c r="O14" s="56">
         <v>516</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="16">
+      <c r="Q14" s="15">
         <v>516</v>
       </c>
-      <c r="R14" s="18">
+      <c r="R14" s="16">
         <v>516</v>
       </c>
-      <c r="S14" s="12">
+      <c r="S14" s="11">
         <v>516</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14" s="8">
         <v>516</v>
       </c>
-      <c r="U14" s="9">
+      <c r="U14" s="8">
         <v>516</v>
       </c>
-      <c r="V14" s="10">
+      <c r="V14" s="9">
         <v>519</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" s="23">
+      <c r="A15" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="21">
         <v>719</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="8">
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="22">
         <v>664</v>
       </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="42">
+      <c r="H15" s="42"/>
+      <c r="I15" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J15" s="71">
-        <v>479</v>
-      </c>
-      <c r="K15" s="43">
+      <c r="J15" s="62">
+        <v>489</v>
+      </c>
+      <c r="K15" s="37">
         <f t="shared" si="1"/>
-        <v>0.27861445783132532</v>
-      </c>
-      <c r="L15" s="25">
+        <v>0.26355421686746988</v>
+      </c>
+      <c r="L15" s="23">
         <v>664</v>
       </c>
-      <c r="M15" s="49"/>
-      <c r="N15" s="7">
+      <c r="M15" s="42"/>
+      <c r="N15" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O15" s="71">
+      <c r="O15" s="62">
         <v>495</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="7">
         <f t="shared" si="4"/>
         <v>0.25451807228915663</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="12">
         <v>468</v>
       </c>
-      <c r="R15" s="15">
+      <c r="R15" s="14">
         <v>468</v>
       </c>
-      <c r="S15" s="11">
+      <c r="S15" s="10">
         <v>479</v>
       </c>
-      <c r="T15" s="7">
+      <c r="T15" s="6">
         <v>491</v>
       </c>
-      <c r="U15" s="7">
+      <c r="U15" s="6">
         <v>469</v>
       </c>
-      <c r="V15" s="8">
+      <c r="V15" s="7">
         <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" s="23">
+      <c r="A16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="21">
         <v>628</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="8">
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="22">
         <v>571</v>
       </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="42">
+      <c r="H16" s="43"/>
+      <c r="I16" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J16" s="71">
+      <c r="J16" s="43">
         <v>459</v>
       </c>
-      <c r="K16" s="43">
+      <c r="K16" s="37">
         <f t="shared" si="1"/>
         <v>0.19614711033274956</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="23">
         <v>586</v>
       </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7">
+      <c r="M16" s="6"/>
+      <c r="N16" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O16" s="68">
-        <v>466</v>
-      </c>
-      <c r="P16" s="8">
+      <c r="O16" s="59">
+        <v>541</v>
+      </c>
+      <c r="P16" s="7">
         <f t="shared" si="4"/>
-        <v>0.20477815699658702</v>
-      </c>
-      <c r="Q16" s="13">
+        <v>7.6791808873720141E-2</v>
+      </c>
+      <c r="Q16" s="12">
         <v>446</v>
       </c>
-      <c r="R16" s="15">
+      <c r="R16" s="14">
         <v>446</v>
       </c>
-      <c r="S16" s="11">
+      <c r="S16" s="10">
         <v>495</v>
       </c>
-      <c r="T16" s="35">
+      <c r="T16" s="29">
         <v>482</v>
       </c>
-      <c r="U16" s="35">
+      <c r="U16" s="29">
         <v>482</v>
       </c>
-      <c r="V16" s="8">
+      <c r="V16" s="7">
         <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17" s="23">
+      <c r="A17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="21">
         <v>761</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="8">
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="22">
         <v>731</v>
       </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="42">
+      <c r="H17" s="43"/>
+      <c r="I17" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J17" s="71">
-        <v>473</v>
-      </c>
-      <c r="K17" s="43">
+      <c r="J17" s="43">
+        <v>479</v>
+      </c>
+      <c r="K17" s="37">
         <f t="shared" si="1"/>
-        <v>0.35294117647058826</v>
-      </c>
-      <c r="L17" s="25">
+        <v>0.34473324213406292</v>
+      </c>
+      <c r="L17" s="23">
         <v>723</v>
       </c>
-      <c r="M17" s="49"/>
-      <c r="N17" s="7">
+      <c r="M17" s="42"/>
+      <c r="N17" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O17" s="71">
-        <v>479</v>
-      </c>
-      <c r="P17" s="8">
+      <c r="O17" s="43">
+        <v>473</v>
+      </c>
+      <c r="P17" s="7">
         <f t="shared" si="4"/>
-        <v>0.33748271092669435</v>
-      </c>
-      <c r="Q17" s="13">
+        <v>0.34578146611341631</v>
+      </c>
+      <c r="Q17" s="12">
         <v>466</v>
       </c>
-      <c r="R17" s="15">
+      <c r="R17" s="14">
         <v>466</v>
       </c>
-      <c r="S17" s="11">
+      <c r="S17" s="10">
         <v>553</v>
       </c>
-      <c r="T17" s="35">
+      <c r="T17" s="29">
         <v>538</v>
       </c>
-      <c r="U17" s="35">
+      <c r="U17" s="29">
         <v>533</v>
       </c>
-      <c r="V17" s="8">
+      <c r="V17" s="7">
         <v>538</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B18" s="23">
+      <c r="A18" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="21">
         <v>891</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="22">
         <v>851</v>
       </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="42">
+      <c r="H18" s="43"/>
+      <c r="I18" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J18" s="71">
+      <c r="J18" s="43">
         <v>572</v>
       </c>
-      <c r="K18" s="43">
+      <c r="K18" s="37">
         <f t="shared" si="1"/>
         <v>0.32784958871915393</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L18" s="23">
         <v>816</v>
       </c>
-      <c r="M18" s="51"/>
-      <c r="N18" s="7">
+      <c r="M18" s="43"/>
+      <c r="N18" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O18" s="71">
-        <v>567</v>
-      </c>
-      <c r="P18" s="8">
+      <c r="O18" s="62">
+        <v>655</v>
+      </c>
+      <c r="P18" s="7">
         <f t="shared" si="4"/>
-        <v>0.30514705882352944</v>
-      </c>
-      <c r="Q18" s="13">
+        <v>0.19730392156862744</v>
+      </c>
+      <c r="Q18" s="12">
         <v>554</v>
       </c>
-      <c r="R18" s="15">
+      <c r="R18" s="14">
         <v>554</v>
       </c>
-      <c r="S18" s="11">
+      <c r="S18" s="10">
         <v>656</v>
       </c>
-      <c r="T18" s="35">
+      <c r="T18" s="29">
         <v>650</v>
       </c>
-      <c r="U18" s="35">
+      <c r="U18" s="29">
         <v>634</v>
       </c>
-      <c r="V18" s="8">
+      <c r="V18" s="7">
         <v>618</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B19" s="23">
+      <c r="A19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="21">
         <v>815</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G19" s="24">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" s="22">
         <v>762</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="42">
+      <c r="H19" s="6"/>
+      <c r="I19" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J19" s="71">
+      <c r="J19" s="43">
         <v>584</v>
       </c>
-      <c r="K19" s="43">
+      <c r="K19" s="37">
         <f t="shared" si="1"/>
         <v>0.23359580052493439</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19" s="23">
         <v>784</v>
       </c>
-      <c r="M19" s="49"/>
-      <c r="N19" s="7">
+      <c r="M19" s="42"/>
+      <c r="N19" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O19" s="71">
-        <v>561</v>
-      </c>
-      <c r="P19" s="8">
+      <c r="O19" s="43">
+        <v>592</v>
+      </c>
+      <c r="P19" s="7">
         <f t="shared" si="4"/>
-        <v>0.28443877551020408</v>
-      </c>
-      <c r="Q19" s="13">
+        <v>0.24489795918367346</v>
+      </c>
+      <c r="Q19" s="12">
         <v>514</v>
       </c>
-      <c r="R19" s="15">
+      <c r="R19" s="14">
         <v>514</v>
       </c>
-      <c r="S19" s="11">
+      <c r="S19" s="10">
         <v>650</v>
       </c>
-      <c r="T19" s="35">
+      <c r="T19" s="29">
         <v>662</v>
       </c>
-      <c r="U19" s="35">
+      <c r="U19" s="29">
         <v>625</v>
       </c>
-      <c r="V19" s="8">
+      <c r="V19" s="7">
         <v>625</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B20" s="23">
+      <c r="A20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="21">
         <v>960</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G20" s="24">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="22">
         <v>826</v>
       </c>
-      <c r="H20" s="49"/>
-      <c r="I20" s="42">
+      <c r="H20" s="42"/>
+      <c r="I20" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J20" s="71">
+      <c r="J20" s="43">
         <v>700</v>
       </c>
-      <c r="K20" s="43">
+      <c r="K20" s="37">
         <f t="shared" si="1"/>
         <v>0.15254237288135594</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="23">
         <v>879</v>
       </c>
-      <c r="M20" s="49"/>
-      <c r="N20" s="7">
+      <c r="M20" s="42"/>
+      <c r="N20" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O20" s="71">
-        <v>650</v>
-      </c>
-      <c r="P20" s="8">
+      <c r="O20" s="43">
+        <v>664</v>
+      </c>
+      <c r="P20" s="7">
         <f t="shared" si="4"/>
-        <v>0.26052332195676908</v>
-      </c>
-      <c r="Q20" s="13">
+        <v>0.24459613196814561</v>
+      </c>
+      <c r="Q20" s="12">
         <v>608</v>
       </c>
-      <c r="R20" s="15">
+      <c r="R20" s="14">
         <v>608</v>
       </c>
-      <c r="S20" s="11">
+      <c r="S20" s="10">
         <v>762</v>
       </c>
-      <c r="T20" s="35">
+      <c r="T20" s="29">
         <v>785</v>
       </c>
-      <c r="U20" s="35">
+      <c r="U20" s="29">
         <v>717</v>
       </c>
-      <c r="V20" s="8">
+      <c r="V20" s="7">
         <v>730</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B21" s="23">
+      <c r="A21" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="21">
         <v>1243</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G21" s="24">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="22">
         <v>1167</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="42">
+      <c r="H21" s="6"/>
+      <c r="I21" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J21" s="71">
-        <v>897</v>
-      </c>
-      <c r="K21" s="43">
+      <c r="J21" s="62">
+        <v>949</v>
+      </c>
+      <c r="K21" s="37">
         <f t="shared" si="1"/>
-        <v>0.23136246786632392</v>
-      </c>
-      <c r="L21" s="25">
+        <v>0.1868037703513282</v>
+      </c>
+      <c r="L21" s="23">
         <v>1139</v>
       </c>
-      <c r="M21" s="49"/>
-      <c r="N21" s="7">
+      <c r="M21" s="42"/>
+      <c r="N21" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O21" s="71">
-        <v>905</v>
-      </c>
-      <c r="P21" s="8">
+      <c r="O21" s="43">
+        <v>910</v>
+      </c>
+      <c r="P21" s="7">
         <f t="shared" si="4"/>
-        <v>0.2054433713784021</v>
-      </c>
-      <c r="Q21" s="13">
+        <v>0.20105355575065847</v>
+      </c>
+      <c r="Q21" s="12">
         <v>881</v>
       </c>
-      <c r="R21" s="15">
+      <c r="R21" s="14">
         <v>879</v>
       </c>
-      <c r="S21" s="11">
+      <c r="S21" s="10">
         <v>1020</v>
       </c>
-      <c r="T21" s="35">
+      <c r="T21" s="29">
         <v>1081</v>
       </c>
-      <c r="U21" s="35">
+      <c r="U21" s="29">
         <v>964</v>
       </c>
-      <c r="V21" s="8">
+      <c r="V21" s="7">
         <v>947</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" s="23">
+      <c r="A22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="21">
         <v>1260</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G22" s="24">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" s="22">
         <v>1207</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="42">
+      <c r="H22" s="6"/>
+      <c r="I22" s="36">
+        <f>(G22-H22)/G22</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="62">
+        <v>973</v>
+      </c>
+      <c r="K22" s="37">
+        <f t="shared" si="1"/>
+        <v>0.19386909693454846</v>
+      </c>
+      <c r="L22" s="23">
+        <v>1179</v>
+      </c>
+      <c r="M22" s="42"/>
+      <c r="N22" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O22" s="62">
+        <v>970</v>
+      </c>
+      <c r="P22" s="7">
+        <f t="shared" si="4"/>
+        <v>0.17726887192536048</v>
+      </c>
+      <c r="Q22" s="12">
+        <v>894</v>
+      </c>
+      <c r="R22" s="14">
+        <v>894</v>
+      </c>
+      <c r="S22" s="10">
+        <v>1030</v>
+      </c>
+      <c r="T22" s="29">
+        <v>1122</v>
+      </c>
+      <c r="U22" s="29">
+        <v>970</v>
+      </c>
+      <c r="V22" s="7">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="21">
+        <v>1610</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="22">
+        <v>1500</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J22" s="71">
-        <v>973</v>
-      </c>
-      <c r="K22" s="43">
+      <c r="J23" s="62">
+        <v>1175</v>
+      </c>
+      <c r="K23" s="37">
         <f t="shared" si="1"/>
-        <v>0.19386909693454846</v>
-      </c>
-      <c r="L22" s="25">
-        <v>1179</v>
-      </c>
-      <c r="M22" s="49"/>
-      <c r="N22" s="7">
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="L23" s="23">
+        <v>1513</v>
+      </c>
+      <c r="M23" s="42"/>
+      <c r="N23" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O22" s="71">
-        <v>970</v>
-      </c>
-      <c r="P22" s="8">
+      <c r="O23" s="62">
+        <v>1184</v>
+      </c>
+      <c r="P23" s="7">
         <f t="shared" si="4"/>
-        <v>0.17726887192536048</v>
-      </c>
-      <c r="Q22" s="13">
-        <v>894</v>
-      </c>
-      <c r="R22" s="15">
-        <v>894</v>
-      </c>
-      <c r="S22" s="11">
-        <v>1030</v>
-      </c>
-      <c r="T22" s="35">
-        <v>1122</v>
-      </c>
-      <c r="U22" s="35">
-        <v>970</v>
-      </c>
-      <c r="V22" s="8">
-        <v>922</v>
+        <v>0.21744877726371448</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>1192</v>
+      </c>
+      <c r="R23" s="14">
+        <v>1088</v>
+      </c>
+      <c r="S23" s="10">
+        <v>1180</v>
+      </c>
+      <c r="T23" s="29">
+        <v>1243</v>
+      </c>
+      <c r="U23" s="29">
+        <v>1105</v>
+      </c>
+      <c r="V23" s="7">
+        <v>1105</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B23" s="23">
-        <v>1610</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G23" s="24">
-        <v>1500</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="42">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="24">
+        <v>2011</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" s="27">
+        <v>1761</v>
+      </c>
+      <c r="H24" s="40"/>
+      <c r="I24" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J23" s="71">
-        <v>1154</v>
-      </c>
-      <c r="K23" s="43">
+      <c r="J24" s="58">
+        <v>1463</v>
+      </c>
+      <c r="K24" s="37">
         <f t="shared" si="1"/>
-        <v>0.23066666666666666</v>
-      </c>
-      <c r="L23" s="25">
-        <v>1513</v>
-      </c>
-      <c r="M23" s="49"/>
-      <c r="N23" s="7">
+        <v>0.16922203293583191</v>
+      </c>
+      <c r="L24" s="28">
+        <v>1976</v>
+      </c>
+      <c r="M24" s="40"/>
+      <c r="N24" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O23" s="71">
-        <v>1175</v>
-      </c>
-      <c r="P23" s="8">
+      <c r="O24" s="58">
+        <v>1400</v>
+      </c>
+      <c r="P24" s="9">
         <f t="shared" si="4"/>
-        <v>0.22339722405816259</v>
-      </c>
-      <c r="Q23" s="13">
-        <v>1192</v>
-      </c>
-      <c r="R23" s="15">
-        <v>1088</v>
-      </c>
-      <c r="S23" s="11">
-        <v>1180</v>
-      </c>
-      <c r="T23" s="35">
-        <v>1243</v>
-      </c>
-      <c r="U23" s="35">
-        <v>1105</v>
-      </c>
-      <c r="V23" s="8">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B24" s="26">
-        <v>2011</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G24" s="33">
-        <v>1761</v>
-      </c>
-      <c r="H24" s="46"/>
-      <c r="I24" s="42">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J24" s="67">
-        <v>1463</v>
-      </c>
-      <c r="K24" s="43">
-        <f t="shared" si="1"/>
-        <v>0.16922203293583191</v>
-      </c>
-      <c r="L24" s="34">
-        <v>1976</v>
-      </c>
-      <c r="M24" s="46"/>
-      <c r="N24" s="7">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O24" s="67">
-        <v>1328</v>
-      </c>
-      <c r="P24" s="10">
-        <f t="shared" si="4"/>
-        <v>0.32793522267206476</v>
-      </c>
-      <c r="Q24" s="16">
+        <v>0.291497975708502</v>
+      </c>
+      <c r="Q24" s="15">
         <v>1276</v>
       </c>
-      <c r="R24" s="18">
+      <c r="R24" s="16">
         <v>1196</v>
       </c>
-      <c r="S24" s="12">
+      <c r="S24" s="11">
         <v>1538</v>
       </c>
-      <c r="T24" s="9">
+      <c r="T24" s="8">
         <v>1615</v>
       </c>
-      <c r="U24" s="9">
+      <c r="U24" s="8">
         <v>1404</v>
       </c>
-      <c r="V24" s="10">
+      <c r="V24" s="9">
         <v>1384</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="58">
+      <c r="A25" s="11"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49">
         <f>AVERAGE(F5:F24)</f>
         <v>1</v>
       </c>
-      <c r="G25" s="47"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57">
+      <c r="G25" s="41"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48">
         <f>AVERAGE(I5:I24)</f>
         <v>1</v>
       </c>
-      <c r="J25" s="57"/>
-      <c r="K25" s="58">
+      <c r="J25" s="48"/>
+      <c r="K25" s="49">
         <f>AVERAGE(K5:K24)</f>
-        <v>0.18456082368468371</v>
-      </c>
-      <c r="L25" s="47"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57">
+        <v>0.18219361797494937</v>
+      </c>
+      <c r="L25" s="41"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48">
         <f>AVERAGE(N5:N24)</f>
         <v>1</v>
       </c>
-      <c r="O25" s="57"/>
-      <c r="P25" s="58">
+      <c r="O25" s="48"/>
+      <c r="P25" s="49">
         <f>AVERAGE(P5:P24)</f>
-        <v>0.19485870633120025</v>
+        <v>0.17836999403660245</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/data/Benchmarks/MKS.xlsx
+++ b/data/Benchmarks/MKS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\GitHub\MSTS_FJSP\data\Benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BC2E9A-9B1E-489F-BAE2-78238E35F964}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9E2332-604F-4F15-8615-D331A239B0A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{87D6751E-06B1-440E-A7B4-B38AD42E9B96}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{87D6751E-06B1-440E-A7B4-B38AD42E9B96}"/>
   </bookViews>
   <sheets>
     <sheet name="Birgin Test Cases" sheetId="1" r:id="rId1"/>
@@ -819,7 +819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -875,19 +875,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -959,6 +950,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -980,7 +978,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1413,7 +1410,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Birgin Test Cases'!$S$4</c:f>
+              <c:f>'Birgin Test Cases'!$U$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1540,7 +1537,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Birgin Test Cases'!$S$5:$S$24</c:f>
+              <c:f>'Birgin Test Cases'!$U$5:$U$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1618,7 +1615,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Birgin Test Cases'!$T$4</c:f>
+              <c:f>'Birgin Test Cases'!$V$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1707,7 +1704,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Birgin Test Cases'!$T$5:$T$24</c:f>
+              <c:f>'Birgin Test Cases'!$V$5:$V$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1800,7 +1797,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Birgin Test Cases'!$Q$3:$R$3</c:f>
+              <c:f>'Birgin Test Cases'!$S$3:$T$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1831,7 +1828,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Birgin Test Cases'!$X$5:$X$24</c:f>
+              <c:f>'Birgin Test Cases'!$Z$5:$Z$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2717,7 +2714,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Birgin Test Cases'!$S$4</c:f>
+              <c:f>'Birgin Test Cases'!$U$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2836,7 +2833,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Birgin Test Cases'!$S$29:$S$58</c:f>
+              <c:f>'Birgin Test Cases'!$U$29:$U$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -2944,7 +2941,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Birgin Test Cases'!$T$4</c:f>
+              <c:f>'Birgin Test Cases'!$V$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3063,7 +3060,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Birgin Test Cases'!$T$29:$T$58</c:f>
+              <c:f>'Birgin Test Cases'!$V$29:$V$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3186,7 +3183,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Birgin Test Cases'!$Q$3:$R$3</c:f>
+              <c:f>'Birgin Test Cases'!$S$3:$T$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3315,7 +3312,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Birgin Test Cases'!$X$29:$X$58</c:f>
+              <c:f>'Birgin Test Cases'!$Z$29:$Z$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4767,13 +4764,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>597535</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>171238</xdr:rowOff>
@@ -4803,13 +4800,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -5139,10 +5136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C717E4-2E19-4E10-82CD-C66DD0E858F2}">
-  <dimension ref="A1:Y61"/>
+  <dimension ref="A1:AA61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:P25"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5151,11 +5148,11 @@
     <col min="7" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9.77734375" customWidth="1"/>
     <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="74" t="s">
         <v>71</v>
       </c>
@@ -5170,7 +5167,7 @@
       <c r="J1" s="74"/>
       <c r="K1" s="74"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="71" t="s">
         <v>4</v>
@@ -5189,22 +5186,24 @@
       <c r="N3" s="73"/>
       <c r="O3" s="73"/>
       <c r="P3" s="72"/>
-      <c r="Q3" s="71" t="s">
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="R3" s="72"/>
-      <c r="S3" s="73" t="s">
+      <c r="T3" s="72"/>
+      <c r="U3" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="72"/>
-      <c r="U3" s="71" t="s">
+      <c r="V3" s="72"/>
+      <c r="W3" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="V3" s="72"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="7"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="71" t="s">
         <v>0</v>
@@ -5227,333 +5226,363 @@
       <c r="N4" s="73"/>
       <c r="O4" s="73"/>
       <c r="P4" s="72"/>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="39" t="s">
+      <c r="U4" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="U4" s="38" t="s">
+      <c r="W4" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="V4" s="38" t="s">
+      <c r="X4" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="W4" s="38" t="s">
+      <c r="Y4" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="X4" s="70"/>
+      <c r="Z4" s="67"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="38">
         <v>2048</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="39">
         <v>1431</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40">
         <f>(B5-C5)/B5</f>
         <v>0.30126953125</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="38">
         <v>1406</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="39">
         <v>1297</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="39">
         <f>(G5-H5)/G5</f>
         <v>7.7524893314367002E-2</v>
       </c>
-      <c r="J5" s="69">
+      <c r="J5" s="66">
         <v>811</v>
       </c>
-      <c r="K5" s="43">
+      <c r="K5" s="40">
         <f>(G5-J5)/G5</f>
         <v>0.42318634423897583</v>
       </c>
-      <c r="L5" s="42">
+      <c r="L5" s="39">
         <v>1335</v>
       </c>
-      <c r="M5" s="42">
+      <c r="M5" s="39">
         <v>1335</v>
       </c>
-      <c r="N5" s="42">
+      <c r="N5" s="39">
         <f>(L5-M5)/L5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="69">
+      <c r="O5" s="66">
         <v>805</v>
       </c>
-      <c r="P5" s="43">
+      <c r="P5" s="40">
         <f>(L5-O5)/L5</f>
         <v>0.39700374531835209</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="66">
+        <v>805</v>
+      </c>
+      <c r="R5" s="40" t="e">
+        <f>(N5-Q5)/N5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S5" s="19">
         <v>773</v>
       </c>
-      <c r="R5" s="20"/>
-      <c r="S5" s="19">
+      <c r="T5" s="20"/>
+      <c r="U5" s="19">
         <v>1318</v>
       </c>
-      <c r="T5" s="20">
+      <c r="V5" s="20">
         <v>1130</v>
       </c>
-      <c r="U5" s="19">
+      <c r="W5" s="19">
         <v>773</v>
       </c>
-      <c r="V5" s="20">
+      <c r="X5" s="20">
         <v>773</v>
       </c>
-      <c r="W5" s="53">
+      <c r="Y5" s="50">
         <v>886</v>
       </c>
-      <c r="X5" s="35">
+      <c r="Z5" s="32">
         <v>773</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="11">
         <v>2023</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="46">
         <v>820</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F18" si="0">(B6-C6)/B6</f>
         <v>0.59466139396935247</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="45">
         <v>1126</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="46">
         <v>902</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="39">
         <f t="shared" ref="I6:I24" si="1">(G6-H6)/G6</f>
         <v>0.19893428063943161</v>
       </c>
-      <c r="J6" s="49">
+      <c r="J6" s="46">
         <v>866</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="40">
         <f t="shared" ref="K6:K24" si="2">(G6-J6)/G6</f>
         <v>0.23090586145648312</v>
       </c>
-      <c r="L6" s="51">
+      <c r="L6" s="48">
         <v>1140</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="46">
         <v>824</v>
       </c>
       <c r="N6" s="7">
         <f t="shared" ref="N6:N24" si="3">(L6-M6)/L6</f>
         <v>0.27719298245614032</v>
       </c>
-      <c r="O6" s="49">
+      <c r="O6" s="46">
         <v>954</v>
       </c>
       <c r="P6" s="8">
         <f t="shared" ref="P6:P24" si="4">(L6-O6)/L6</f>
         <v>0.16315789473684211</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="46">
+        <v>954</v>
+      </c>
+      <c r="R6" s="8">
+        <f t="shared" ref="R6:R24" si="5">(N6-Q6)/N6</f>
+        <v>-3440.6455696202538</v>
+      </c>
+      <c r="S6" s="13">
         <v>825</v>
       </c>
-      <c r="R6" s="15"/>
-      <c r="S6" s="13">
+      <c r="T6" s="15"/>
+      <c r="U6" s="13">
         <v>1243</v>
       </c>
-      <c r="T6" s="15">
+      <c r="V6" s="15">
         <v>1133</v>
       </c>
-      <c r="U6" s="13">
+      <c r="W6" s="13">
         <v>825</v>
       </c>
-      <c r="V6" s="15">
+      <c r="X6" s="15">
         <v>825</v>
       </c>
-      <c r="W6" s="54">
+      <c r="Y6" s="51">
         <v>944</v>
       </c>
-      <c r="X6" s="35">
+      <c r="Z6" s="32">
         <v>825</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="11">
         <v>747</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="48">
         <v>453</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="8">
         <f t="shared" si="0"/>
         <v>0.39357429718875503</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="45">
         <v>454</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="46">
         <v>404</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="39">
         <f t="shared" si="1"/>
         <v>0.11013215859030837</v>
       </c>
-      <c r="J7" s="49">
+      <c r="J7" s="46">
         <v>366</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K7" s="40">
         <f t="shared" si="2"/>
         <v>0.19383259911894274</v>
       </c>
-      <c r="L7" s="49">
+      <c r="L7" s="46">
         <v>422</v>
       </c>
-      <c r="M7" s="49">
+      <c r="M7" s="46">
         <v>404</v>
       </c>
       <c r="N7" s="7">
         <f t="shared" si="3"/>
         <v>4.2654028436018961E-2</v>
       </c>
-      <c r="O7" s="49">
+      <c r="O7" s="46">
         <v>384</v>
       </c>
       <c r="P7" s="8">
         <f t="shared" si="4"/>
         <v>9.004739336492891E-2</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="46">
+        <v>384</v>
+      </c>
+      <c r="R7" s="8">
+        <f t="shared" si="5"/>
+        <v>-9001.6666666666661</v>
+      </c>
+      <c r="S7" s="13">
         <v>347</v>
       </c>
-      <c r="R7" s="15"/>
-      <c r="S7" s="13">
+      <c r="T7" s="15"/>
+      <c r="U7" s="13">
         <v>439</v>
       </c>
-      <c r="T7" s="15">
+      <c r="V7" s="15">
         <v>575</v>
       </c>
-      <c r="U7" s="13">
+      <c r="W7" s="13">
         <v>347</v>
       </c>
-      <c r="V7" s="15">
+      <c r="X7" s="15">
         <v>347</v>
       </c>
-      <c r="W7" s="54">
+      <c r="Y7" s="51">
         <v>406</v>
       </c>
-      <c r="X7" s="35">
+      <c r="Z7" s="32">
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="11">
         <v>1055</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="62">
         <v>489</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
       <c r="F8" s="8">
         <f t="shared" si="0"/>
         <v>0.53649289099526065</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="47">
         <v>567</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="46">
         <v>472</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="39">
         <f t="shared" si="1"/>
         <v>0.16754850088183421</v>
       </c>
-      <c r="J8" s="49">
+      <c r="J8" s="46">
         <v>413</v>
       </c>
-      <c r="K8" s="43">
+      <c r="K8" s="40">
         <f t="shared" si="2"/>
         <v>0.27160493827160492</v>
       </c>
       <c r="L8" s="7">
         <v>585</v>
       </c>
-      <c r="M8" s="49">
+      <c r="M8" s="46">
         <v>472</v>
       </c>
       <c r="N8" s="7">
         <f t="shared" si="3"/>
         <v>0.19316239316239317</v>
       </c>
-      <c r="O8" s="49">
+      <c r="O8" s="46">
         <v>427</v>
       </c>
       <c r="P8" s="8">
         <f t="shared" si="4"/>
         <v>0.27008547008547007</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="46">
+        <v>427</v>
+      </c>
+      <c r="R8" s="8">
+        <f t="shared" si="5"/>
+        <v>-2209.575221238938</v>
+      </c>
+      <c r="S8" s="13">
         <v>390</v>
       </c>
-      <c r="R8" s="15"/>
-      <c r="S8" s="13">
+      <c r="T8" s="15"/>
+      <c r="U8" s="13">
         <v>569</v>
       </c>
-      <c r="T8" s="15">
+      <c r="V8" s="15">
         <v>576</v>
       </c>
-      <c r="U8" s="13">
+      <c r="W8" s="13">
         <v>390</v>
       </c>
-      <c r="V8" s="15">
+      <c r="X8" s="15">
         <v>390</v>
       </c>
-      <c r="W8" s="54">
+      <c r="Y8" s="51">
         <v>628</v>
       </c>
-      <c r="X8" s="35">
+      <c r="Z8" s="32">
         <v>390</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="11">
         <v>1069</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="61">
         <v>688</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
       <c r="F9" s="8">
         <f t="shared" si="0"/>
         <v>0.35640785781103834</v>
@@ -5564,14 +5593,14 @@
       <c r="H9" s="7">
         <v>688</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="39">
         <f t="shared" si="1"/>
         <v>0.29435897435897435</v>
       </c>
-      <c r="J9" s="65">
+      <c r="J9" s="62">
         <v>490</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="40">
         <f t="shared" si="2"/>
         <v>0.49743589743589745</v>
       </c>
@@ -5585,48 +5614,55 @@
         <f t="shared" si="3"/>
         <v>0.29435897435897435</v>
       </c>
-      <c r="O9" s="65">
+      <c r="O9" s="62">
         <v>514</v>
       </c>
       <c r="P9" s="8">
         <f t="shared" si="4"/>
         <v>0.47282051282051279</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="62">
+        <v>514</v>
+      </c>
+      <c r="R9" s="8">
+        <f t="shared" si="5"/>
+        <v>-1745.1672473867598</v>
+      </c>
+      <c r="S9" s="13">
         <v>445</v>
       </c>
-      <c r="R9" s="15"/>
-      <c r="S9" s="13">
+      <c r="T9" s="15"/>
+      <c r="U9" s="13">
         <v>566</v>
       </c>
-      <c r="T9" s="15">
+      <c r="V9" s="15">
         <v>608</v>
       </c>
-      <c r="U9" s="13">
+      <c r="W9" s="13">
         <v>445</v>
       </c>
-      <c r="V9" s="15">
+      <c r="X9" s="15">
         <v>445</v>
       </c>
-      <c r="W9" s="54">
+      <c r="Y9" s="51">
         <v>689</v>
       </c>
-      <c r="X9" s="35">
+      <c r="Z9" s="32">
         <v>445</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="11">
         <v>1151</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="61">
         <v>685</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="8">
         <f t="shared" si="0"/>
         <v>0.40486533449174633</v>
@@ -5637,14 +5673,14 @@
       <c r="H10" s="7">
         <v>685</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="39">
         <f t="shared" si="1"/>
         <v>0.21534936998854526</v>
       </c>
-      <c r="J10" s="65">
+      <c r="J10" s="62">
         <v>565</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="40">
         <f t="shared" si="2"/>
         <v>0.35280641466208479</v>
       </c>
@@ -5658,50 +5694,57 @@
         <f t="shared" si="3"/>
         <v>0.20441347270615565</v>
       </c>
-      <c r="O10" s="65">
+      <c r="O10" s="62">
         <v>500</v>
       </c>
       <c r="P10" s="8">
         <f t="shared" si="4"/>
         <v>0.41927990708478513</v>
       </c>
-      <c r="Q10" s="13" t="s">
+      <c r="Q10" s="62">
+        <v>500</v>
+      </c>
+      <c r="R10" s="8">
+        <f t="shared" si="5"/>
+        <v>-2445.022727272727</v>
+      </c>
+      <c r="S10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="15">
+      <c r="T10" s="15">
         <v>446</v>
       </c>
-      <c r="S10" s="13">
+      <c r="U10" s="13">
         <v>633</v>
       </c>
-      <c r="T10" s="15">
+      <c r="V10" s="15">
         <v>633</v>
       </c>
-      <c r="U10" s="13">
+      <c r="W10" s="13">
         <v>447</v>
       </c>
-      <c r="V10" s="15">
+      <c r="X10" s="15">
         <v>447</v>
       </c>
-      <c r="W10" s="54">
+      <c r="Y10" s="51">
         <v>606</v>
       </c>
-      <c r="X10" s="35">
+      <c r="Z10" s="32">
         <v>446</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="11">
         <v>982</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="61">
         <v>835</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
       <c r="F11" s="8">
         <f t="shared" si="0"/>
         <v>0.14969450101832993</v>
@@ -5712,14 +5755,14 @@
       <c r="H11" s="7">
         <v>835</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="39">
         <f t="shared" si="1"/>
         <v>0.24159854677565848</v>
       </c>
-      <c r="J11" s="65">
+      <c r="J11" s="62">
         <v>498</v>
       </c>
-      <c r="K11" s="43">
+      <c r="K11" s="40">
         <f t="shared" si="2"/>
         <v>0.54768392370572205</v>
       </c>
@@ -5733,194 +5776,215 @@
         <f t="shared" si="3"/>
         <v>0.18377321603128055</v>
       </c>
-      <c r="O11" s="65">
+      <c r="O11" s="62">
         <v>479</v>
       </c>
       <c r="P11" s="8">
         <f t="shared" si="4"/>
         <v>0.53176930596285432</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="62">
+        <v>479</v>
+      </c>
+      <c r="R11" s="8">
+        <f t="shared" si="5"/>
+        <v>-2605.4734042553191</v>
+      </c>
+      <c r="S11" s="13">
         <v>444</v>
       </c>
-      <c r="R11" s="15"/>
-      <c r="S11" s="13">
+      <c r="T11" s="15"/>
+      <c r="U11" s="13">
         <v>628</v>
       </c>
-      <c r="T11" s="15">
+      <c r="V11" s="15">
         <v>628</v>
       </c>
-      <c r="U11" s="13">
+      <c r="W11" s="13">
         <v>444</v>
       </c>
-      <c r="V11" s="15">
+      <c r="X11" s="15">
         <v>444</v>
       </c>
-      <c r="W11" s="54">
+      <c r="Y11" s="51">
         <v>714</v>
       </c>
-      <c r="X11" s="35">
+      <c r="Z11" s="32">
         <v>444</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="11">
         <v>1154</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="61">
         <v>537</v>
       </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
       <c r="F12" s="8">
         <f t="shared" si="0"/>
         <v>0.53466204506065862</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="45">
         <v>512</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="46">
         <v>463</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="39">
         <f t="shared" si="1"/>
         <v>9.5703125E-2</v>
       </c>
-      <c r="J12" s="49">
+      <c r="J12" s="46">
         <v>413</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="40">
         <f t="shared" si="2"/>
         <v>0.193359375</v>
       </c>
       <c r="L12" s="7">
         <v>538</v>
       </c>
-      <c r="M12" s="49">
+      <c r="M12" s="46">
         <v>463</v>
       </c>
       <c r="N12" s="7">
         <f t="shared" si="3"/>
         <v>0.13940520446096655</v>
       </c>
-      <c r="O12" s="49">
+      <c r="O12" s="46">
         <v>361</v>
       </c>
       <c r="P12" s="8">
         <f t="shared" si="4"/>
         <v>0.32899628252788105</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="46">
+        <v>361</v>
+      </c>
+      <c r="R12" s="8">
+        <f t="shared" si="5"/>
+        <v>-2588.5733333333333</v>
+      </c>
+      <c r="S12" s="13">
         <v>353</v>
       </c>
-      <c r="R12" s="15"/>
-      <c r="S12" s="13">
+      <c r="T12" s="15"/>
+      <c r="U12" s="13">
         <v>531</v>
       </c>
-      <c r="T12" s="15">
+      <c r="V12" s="15">
         <v>485</v>
       </c>
-      <c r="U12" s="13">
+      <c r="W12" s="13">
         <v>353</v>
       </c>
-      <c r="V12" s="15">
+      <c r="X12" s="15">
         <v>353</v>
       </c>
-      <c r="W12" s="54">
+      <c r="Y12" s="51">
         <v>411</v>
       </c>
-      <c r="X12" s="35">
+      <c r="Z12" s="32">
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="41" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="11">
         <v>554</v>
       </c>
-      <c r="C13" s="65">
+      <c r="C13" s="62">
         <v>333</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
       <c r="F13" s="8">
         <f t="shared" si="0"/>
         <v>0.39891696750902528</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13" s="47">
         <v>399</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13" s="46">
         <v>331</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="39">
         <f t="shared" si="1"/>
         <v>0.17042606516290726</v>
       </c>
-      <c r="J13" s="49">
+      <c r="J13" s="46">
         <v>242</v>
       </c>
-      <c r="K13" s="43">
+      <c r="K13" s="40">
         <f t="shared" si="2"/>
         <v>0.39348370927318294</v>
       </c>
-      <c r="L13" s="49">
+      <c r="L13" s="46">
         <v>401</v>
       </c>
-      <c r="M13" s="49">
+      <c r="M13" s="46">
         <v>331</v>
       </c>
       <c r="N13" s="7">
         <f t="shared" si="3"/>
         <v>0.1745635910224439</v>
       </c>
-      <c r="O13" s="49">
+      <c r="O13" s="46">
         <v>276</v>
       </c>
       <c r="P13" s="8">
         <f t="shared" si="4"/>
         <v>0.3117206982543641</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="46">
+        <v>276</v>
+      </c>
+      <c r="R13" s="8">
+        <f t="shared" si="5"/>
+        <v>-1580.0857142857142</v>
+      </c>
+      <c r="S13" s="13">
         <v>242</v>
       </c>
-      <c r="R13" s="15"/>
-      <c r="S13" s="13">
+      <c r="T13" s="15"/>
+      <c r="U13" s="13">
         <v>506</v>
       </c>
-      <c r="T13" s="15">
+      <c r="V13" s="15">
         <v>402</v>
       </c>
-      <c r="U13" s="13">
+      <c r="W13" s="13">
         <v>242</v>
       </c>
-      <c r="V13" s="15">
+      <c r="X13" s="15">
         <v>242</v>
       </c>
-      <c r="W13" s="54">
+      <c r="Y13" s="51">
         <v>297</v>
       </c>
-      <c r="X13" s="35">
+      <c r="Z13" s="32">
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" s="41" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="11">
         <v>880</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="61">
         <v>723</v>
       </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
       <c r="F14" s="8">
         <f t="shared" si="0"/>
         <v>0.17840909090909091</v>
@@ -5931,14 +5995,14 @@
       <c r="H14" s="7">
         <v>712</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="65">
+      <c r="J14" s="62">
         <v>427</v>
       </c>
-      <c r="K14" s="43">
+      <c r="K14" s="40">
         <f t="shared" si="2"/>
         <v>0.4002808988764045</v>
       </c>
@@ -5952,121 +6016,135 @@
         <f t="shared" si="3"/>
         <v>0.20289855072463769</v>
       </c>
-      <c r="O14" s="65">
+      <c r="O14" s="62">
         <v>400</v>
       </c>
       <c r="P14" s="8">
         <f t="shared" si="4"/>
         <v>0.55406911928651059</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q14" s="62">
+        <v>400</v>
+      </c>
+      <c r="R14" s="8">
+        <f t="shared" si="5"/>
+        <v>-1970.4285714285713</v>
+      </c>
+      <c r="S14" s="13">
         <v>399</v>
       </c>
-      <c r="R14" s="15"/>
-      <c r="S14" s="13">
+      <c r="T14" s="15"/>
+      <c r="U14" s="13">
         <v>541</v>
       </c>
-      <c r="T14" s="15">
+      <c r="V14" s="15">
         <v>513</v>
       </c>
-      <c r="U14" s="13">
+      <c r="W14" s="13">
         <v>399</v>
       </c>
-      <c r="V14" s="15">
+      <c r="X14" s="15">
         <v>399</v>
       </c>
-      <c r="W14" s="54">
+      <c r="Y14" s="51">
         <v>452</v>
       </c>
-      <c r="X14" s="35">
+      <c r="Z14" s="32">
         <v>399</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" s="41" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="11">
         <v>1549</v>
       </c>
-      <c r="C15" s="65">
+      <c r="C15" s="62">
         <v>683</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
       <c r="F15" s="8">
         <f t="shared" si="0"/>
         <v>0.55907036797934151</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="45">
         <v>742</v>
       </c>
-      <c r="H15" s="49">
+      <c r="H15" s="46">
         <v>683</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="39">
         <f t="shared" si="1"/>
         <v>7.9514824797843664E-2</v>
       </c>
-      <c r="J15" s="49">
+      <c r="J15" s="46">
         <v>613</v>
       </c>
-      <c r="K15" s="43">
+      <c r="K15" s="40">
         <f t="shared" si="2"/>
         <v>0.1738544474393531</v>
       </c>
       <c r="L15" s="7">
         <v>783</v>
       </c>
-      <c r="M15" s="49">
+      <c r="M15" s="46">
         <v>694</v>
       </c>
       <c r="N15" s="7">
         <f t="shared" si="3"/>
         <v>0.1136653895274585</v>
       </c>
-      <c r="O15" s="49">
+      <c r="O15" s="46">
         <v>622</v>
       </c>
       <c r="P15" s="8">
         <f t="shared" si="4"/>
         <v>0.20561941251596424</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="46">
+        <v>622</v>
+      </c>
+      <c r="R15" s="8">
+        <f t="shared" si="5"/>
+        <v>-5471.2022471910113</v>
+      </c>
+      <c r="S15" s="13">
         <v>526</v>
       </c>
-      <c r="R15" s="15"/>
-      <c r="S15" s="13">
+      <c r="T15" s="15"/>
+      <c r="U15" s="13">
         <v>740</v>
       </c>
-      <c r="T15" s="15">
+      <c r="V15" s="15">
         <v>745</v>
       </c>
-      <c r="U15" s="13">
+      <c r="W15" s="13">
         <v>526</v>
       </c>
-      <c r="V15" s="15">
+      <c r="X15" s="15">
         <v>526</v>
       </c>
-      <c r="W15" s="54">
+      <c r="Y15" s="51">
         <v>874</v>
       </c>
-      <c r="X15" s="35">
+      <c r="Z15" s="32">
         <v>526</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="11">
         <v>1332</v>
       </c>
-      <c r="C16" s="66">
+      <c r="C16" s="63">
         <v>780</v>
       </c>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="8">
         <f t="shared" si="0"/>
         <v>0.4144144144144144</v>
@@ -6074,17 +6152,17 @@
       <c r="G16" s="11">
         <v>946</v>
       </c>
-      <c r="H16" s="51">
+      <c r="H16" s="48">
         <v>810</v>
       </c>
-      <c r="I16" s="42">
+      <c r="I16" s="39">
         <f t="shared" si="1"/>
         <v>0.14376321353065538</v>
       </c>
-      <c r="J16" s="49">
+      <c r="J16" s="46">
         <v>594</v>
       </c>
-      <c r="K16" s="43">
+      <c r="K16" s="40">
         <f t="shared" si="2"/>
         <v>0.37209302325581395</v>
       </c>
@@ -6098,48 +6176,55 @@
         <f t="shared" si="3"/>
         <v>8.5778781038374718E-2</v>
       </c>
-      <c r="O16" s="65">
+      <c r="O16" s="62">
         <v>555</v>
       </c>
       <c r="P16" s="8">
         <f t="shared" si="4"/>
         <v>0.37358916478555304</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="62">
+        <v>555</v>
+      </c>
+      <c r="R16" s="8">
+        <f t="shared" si="5"/>
+        <v>-6469.1315789473683</v>
+      </c>
+      <c r="S16" s="13">
         <v>512</v>
       </c>
-      <c r="R16" s="15"/>
-      <c r="S16" s="13">
+      <c r="T16" s="15"/>
+      <c r="U16" s="13">
         <v>813</v>
       </c>
-      <c r="T16" s="15">
+      <c r="V16" s="15">
         <v>744</v>
       </c>
-      <c r="U16" s="13">
+      <c r="W16" s="13">
         <v>512</v>
       </c>
-      <c r="V16" s="15">
+      <c r="X16" s="15">
         <v>512</v>
       </c>
-      <c r="W16" s="54">
+      <c r="Y16" s="51">
         <v>669</v>
       </c>
-      <c r="X16" s="35">
+      <c r="Z16" s="32">
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A17" s="41" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="11">
         <v>1227</v>
       </c>
-      <c r="C17" s="66">
+      <c r="C17" s="63">
         <v>615</v>
       </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
       <c r="F17" s="8">
         <f t="shared" si="0"/>
         <v>0.49877750611246946</v>
@@ -6147,62 +6232,69 @@
       <c r="G17" s="11">
         <v>727</v>
       </c>
-      <c r="H17" s="51">
+      <c r="H17" s="48">
         <v>562</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="39">
         <f t="shared" si="1"/>
         <v>0.22696011004126548</v>
       </c>
-      <c r="J17" s="49">
+      <c r="J17" s="46">
         <v>448</v>
       </c>
-      <c r="K17" s="43">
+      <c r="K17" s="40">
         <f t="shared" si="2"/>
         <v>0.38376891334250346</v>
       </c>
-      <c r="L17" s="51">
+      <c r="L17" s="48">
         <v>706</v>
       </c>
-      <c r="M17" s="49">
+      <c r="M17" s="46">
         <v>534</v>
       </c>
       <c r="N17" s="7">
         <f t="shared" si="3"/>
         <v>0.24362606232294617</v>
       </c>
-      <c r="O17" s="49">
+      <c r="O17" s="46">
         <v>475</v>
       </c>
       <c r="P17" s="8">
         <f t="shared" si="4"/>
         <v>0.32719546742209632</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="46">
+        <v>475</v>
+      </c>
+      <c r="R17" s="8">
+        <f t="shared" si="5"/>
+        <v>-1948.7093023255813</v>
+      </c>
+      <c r="S17" s="13">
         <v>405</v>
       </c>
-      <c r="R17" s="15"/>
-      <c r="S17" s="13">
+      <c r="T17" s="15"/>
+      <c r="U17" s="13">
         <v>717</v>
       </c>
-      <c r="T17" s="15">
+      <c r="V17" s="15">
         <v>553</v>
       </c>
-      <c r="U17" s="13">
+      <c r="W17" s="13">
         <v>405</v>
       </c>
-      <c r="V17" s="15">
+      <c r="X17" s="15">
         <v>405</v>
       </c>
-      <c r="W17" s="54">
+      <c r="Y17" s="51">
         <v>546</v>
       </c>
-      <c r="X17" s="35">
+      <c r="Z17" s="32">
         <v>405</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" s="44" t="s">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A18" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="11">
@@ -6220,62 +6312,69 @@
       <c r="G18" s="11">
         <v>3282</v>
       </c>
-      <c r="H18" s="51">
+      <c r="H18" s="48">
         <v>1744</v>
       </c>
-      <c r="I18" s="42">
+      <c r="I18" s="39">
         <f t="shared" si="1"/>
         <v>0.46861669713589277</v>
       </c>
-      <c r="J18" s="51">
+      <c r="J18" s="48">
         <v>2015</v>
       </c>
-      <c r="K18" s="43">
+      <c r="K18" s="40">
         <f t="shared" si="2"/>
         <v>0.38604509445460083</v>
       </c>
-      <c r="L18" s="51">
+      <c r="L18" s="48">
         <v>1918</v>
       </c>
-      <c r="M18" s="51">
+      <c r="M18" s="48">
         <v>1655</v>
       </c>
       <c r="N18" s="7">
         <f t="shared" si="3"/>
         <v>0.13712200208550573</v>
       </c>
-      <c r="O18" s="49">
+      <c r="O18" s="46">
         <v>1317</v>
       </c>
       <c r="P18" s="8">
         <f t="shared" si="4"/>
         <v>0.31334723670490094</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="46">
         <v>1317</v>
       </c>
-      <c r="R18" s="15"/>
+      <c r="R18" s="8">
+        <f t="shared" si="5"/>
+        <v>-9603.5855513307979</v>
+      </c>
       <c r="S18" s="13">
+        <v>1317</v>
+      </c>
+      <c r="T18" s="15"/>
+      <c r="U18" s="13">
         <v>2055</v>
       </c>
-      <c r="T18" s="15">
+      <c r="V18" s="15">
         <v>1555</v>
       </c>
-      <c r="U18" s="13">
+      <c r="W18" s="13">
         <v>1317</v>
       </c>
-      <c r="V18" s="15">
+      <c r="X18" s="15">
         <v>1317</v>
       </c>
-      <c r="W18" s="54">
+      <c r="Y18" s="51">
         <v>1443</v>
       </c>
-      <c r="X18" s="35">
+      <c r="Z18" s="32">
         <v>1317</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" s="44" t="s">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A19" s="41" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="11">
@@ -6293,61 +6392,68 @@
       <c r="H19" s="7">
         <v>2680</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I19" s="39">
         <f t="shared" si="1"/>
         <v>0.30371525071447131</v>
       </c>
-      <c r="J19" s="68">
+      <c r="J19" s="65">
         <v>2768</v>
       </c>
-      <c r="K19" s="43">
+      <c r="K19" s="40">
         <f t="shared" si="2"/>
         <v>0.28085216939464797</v>
       </c>
-      <c r="L19" s="51">
+      <c r="L19" s="48">
         <v>2170</v>
       </c>
-      <c r="M19" s="49">
+      <c r="M19" s="46">
         <v>1559</v>
       </c>
       <c r="N19" s="7">
         <f t="shared" si="3"/>
         <v>0.28156682027649771</v>
       </c>
-      <c r="O19" s="49">
+      <c r="O19" s="46">
         <v>1514</v>
       </c>
       <c r="P19" s="8">
         <f t="shared" si="4"/>
         <v>0.30230414746543777</v>
       </c>
-      <c r="Q19" s="13" t="s">
+      <c r="Q19" s="46">
+        <v>1514</v>
+      </c>
+      <c r="R19" s="8">
+        <f t="shared" si="5"/>
+        <v>-5376.0540098199672</v>
+      </c>
+      <c r="S19" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="R19" s="15" t="s">
+      <c r="T19" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="S19" s="13">
+      <c r="U19" s="13">
         <v>2296</v>
       </c>
-      <c r="T19" s="15">
+      <c r="V19" s="15">
         <v>1690</v>
       </c>
-      <c r="U19" s="13">
+      <c r="W19" s="13">
         <v>1242</v>
       </c>
-      <c r="V19" s="15">
+      <c r="X19" s="15">
         <v>1239</v>
       </c>
-      <c r="W19" s="54">
+      <c r="Y19" s="51">
         <v>1454</v>
       </c>
-      <c r="X19" s="35">
+      <c r="Z19" s="32">
         <v>1244</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" s="44" t="s">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A20" s="41" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="11">
@@ -6362,64 +6468,71 @@
       <c r="G20" s="11">
         <v>3053</v>
       </c>
-      <c r="H20" s="49">
+      <c r="H20" s="46">
         <v>1522</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="39">
         <f t="shared" si="1"/>
         <v>0.50147396003930556</v>
       </c>
-      <c r="J20" s="49">
+      <c r="J20" s="46">
         <v>1821</v>
       </c>
-      <c r="K20" s="43">
+      <c r="K20" s="40">
         <f t="shared" si="2"/>
         <v>0.40353750409433342</v>
       </c>
-      <c r="L20" s="49">
+      <c r="L20" s="46">
         <v>1749</v>
       </c>
-      <c r="M20" s="49">
+      <c r="M20" s="46">
         <v>1559</v>
       </c>
       <c r="N20" s="7">
         <f t="shared" si="3"/>
         <v>0.10863350485991996</v>
       </c>
-      <c r="O20" s="49">
+      <c r="O20" s="46">
         <v>1491</v>
       </c>
       <c r="P20" s="8">
         <f t="shared" si="4"/>
         <v>0.14751286449399656</v>
       </c>
-      <c r="Q20" s="13" t="s">
+      <c r="Q20" s="46">
+        <v>1491</v>
+      </c>
+      <c r="R20" s="8">
+        <f t="shared" si="5"/>
+        <v>-13724.047368421052</v>
+      </c>
+      <c r="S20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="R20" s="15" t="s">
+      <c r="T20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="S20" s="13">
+      <c r="U20" s="13">
         <v>2006</v>
       </c>
-      <c r="T20" s="15">
+      <c r="V20" s="15">
         <v>1769</v>
       </c>
-      <c r="U20" s="13">
+      <c r="W20" s="13">
         <v>1222</v>
       </c>
-      <c r="V20" s="15">
+      <c r="X20" s="15">
         <v>1222</v>
       </c>
-      <c r="W20" s="54">
+      <c r="Y20" s="51">
         <v>1468</v>
       </c>
-      <c r="X20" s="35">
+      <c r="Z20" s="32">
         <v>1231</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" s="44" t="s">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A21" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="11">
@@ -6437,61 +6550,68 @@
       <c r="H21" s="7">
         <v>2542</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="39">
         <f t="shared" si="1"/>
         <v>1.6253869969040248E-2</v>
       </c>
-      <c r="J21" s="68">
+      <c r="J21" s="65">
         <v>2478</v>
       </c>
-      <c r="K21" s="43">
+      <c r="K21" s="40">
         <f t="shared" si="2"/>
         <v>4.1021671826625389E-2</v>
       </c>
-      <c r="L21" s="49">
+      <c r="L21" s="46">
         <v>1598</v>
       </c>
-      <c r="M21" s="49">
+      <c r="M21" s="46">
         <v>1355</v>
       </c>
       <c r="N21" s="7">
         <f t="shared" si="3"/>
         <v>0.15206508135168961</v>
       </c>
-      <c r="O21" s="49">
+      <c r="O21" s="46">
         <v>1305</v>
       </c>
       <c r="P21" s="8">
         <f t="shared" si="4"/>
         <v>0.18335419274092615</v>
       </c>
-      <c r="Q21" s="13" t="s">
+      <c r="Q21" s="46">
+        <v>1305</v>
+      </c>
+      <c r="R21" s="8">
+        <f t="shared" si="5"/>
+        <v>-8580.8518518518504</v>
+      </c>
+      <c r="S21" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="R21" s="15" t="s">
+      <c r="T21" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="S21" s="13">
+      <c r="U21" s="13">
         <v>2408</v>
       </c>
-      <c r="T21" s="15">
+      <c r="V21" s="15">
         <v>1734</v>
       </c>
-      <c r="U21" s="13">
+      <c r="W21" s="13">
         <v>1139</v>
       </c>
-      <c r="V21" s="15">
+      <c r="X21" s="15">
         <v>1134</v>
       </c>
-      <c r="W21" s="54">
+      <c r="Y21" s="51">
         <v>1274</v>
       </c>
-      <c r="X21" s="35">
+      <c r="Z21" s="32">
         <v>1290</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" s="44" t="s">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="11">
@@ -6509,61 +6629,68 @@
       <c r="H22" s="7">
         <v>3462</v>
       </c>
-      <c r="I22" s="42">
+      <c r="I22" s="39">
         <f t="shared" si="1"/>
         <v>0.10054559625876851</v>
       </c>
       <c r="J22" s="7">
         <v>3385</v>
       </c>
-      <c r="K22" s="43">
+      <c r="K22" s="40">
         <f t="shared" si="2"/>
         <v>0.12055079241361392</v>
       </c>
-      <c r="L22" s="51">
+      <c r="L22" s="48">
         <v>1873</v>
       </c>
-      <c r="M22" s="49">
+      <c r="M22" s="46">
         <v>1587</v>
       </c>
       <c r="N22" s="7">
         <f t="shared" si="3"/>
         <v>0.15269620928990923</v>
       </c>
-      <c r="O22" s="49">
+      <c r="O22" s="46">
         <v>1451</v>
       </c>
       <c r="P22" s="8">
         <f t="shared" si="4"/>
         <v>0.22530699412706887</v>
       </c>
-      <c r="Q22" s="13" t="s">
+      <c r="Q22" s="46">
+        <v>1451</v>
+      </c>
+      <c r="R22" s="8">
+        <f t="shared" si="5"/>
+        <v>-9501.5279720279723</v>
+      </c>
+      <c r="S22" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="R22" s="15" t="s">
+      <c r="T22" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="S22" s="13">
+      <c r="U22" s="13">
         <v>2082</v>
       </c>
-      <c r="T22" s="15">
+      <c r="V22" s="15">
         <v>1735</v>
       </c>
-      <c r="U22" s="13">
+      <c r="W22" s="13">
         <v>1230</v>
       </c>
-      <c r="V22" s="15">
+      <c r="X22" s="15">
         <v>1226</v>
       </c>
-      <c r="W22" s="54">
+      <c r="Y22" s="51">
         <v>1297</v>
       </c>
-      <c r="X22" s="35">
+      <c r="Z22" s="32">
         <v>1499</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A23" s="41" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="11">
@@ -6581,61 +6708,68 @@
       <c r="H23" s="7">
         <v>2769</v>
       </c>
-      <c r="I23" s="42">
+      <c r="I23" s="39">
         <f t="shared" si="1"/>
         <v>6.955645161290322E-2</v>
       </c>
-      <c r="J23" s="64">
+      <c r="J23" s="61">
         <v>2769</v>
       </c>
-      <c r="K23" s="43">
+      <c r="K23" s="40">
         <f t="shared" si="2"/>
         <v>6.955645161290322E-2</v>
       </c>
-      <c r="L23" s="51">
+      <c r="L23" s="48">
         <v>1936</v>
       </c>
-      <c r="M23" s="49">
+      <c r="M23" s="46">
         <v>1585</v>
       </c>
       <c r="N23" s="7">
         <f t="shared" si="3"/>
         <v>0.18130165289256198</v>
       </c>
-      <c r="O23" s="49">
+      <c r="O23" s="46">
         <v>1333</v>
       </c>
       <c r="P23" s="8">
         <f t="shared" si="4"/>
         <v>0.31146694214876031</v>
       </c>
-      <c r="Q23" s="13" t="s">
+      <c r="Q23" s="46">
+        <v>1333</v>
+      </c>
+      <c r="R23" s="8">
+        <f t="shared" si="5"/>
+        <v>-7351.3874643874642</v>
+      </c>
+      <c r="S23" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="R23" s="15" t="s">
+      <c r="T23" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="S23" s="13">
+      <c r="U23" s="13">
         <v>2038</v>
       </c>
-      <c r="T23" s="15">
+      <c r="V23" s="15">
         <v>1604</v>
       </c>
-      <c r="U23" s="13">
+      <c r="W23" s="13">
         <v>948</v>
       </c>
-      <c r="V23" s="15">
+      <c r="X23" s="15">
         <v>943</v>
       </c>
-      <c r="W23" s="54">
+      <c r="Y23" s="51">
         <v>1224</v>
       </c>
-      <c r="X23" s="35">
+      <c r="Z23" s="32">
         <v>1333</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" s="45" t="s">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A24" s="42" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="12">
@@ -6647,107 +6781,119 @@
       <c r="F24" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="G24" s="52">
+      <c r="G24" s="49">
         <v>1905</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="43">
         <v>1537</v>
       </c>
-      <c r="I24" s="42">
+      <c r="I24" s="39">
         <f t="shared" si="1"/>
         <v>0.1931758530183727</v>
       </c>
-      <c r="J24" s="46">
+      <c r="J24" s="43">
         <v>1551</v>
       </c>
-      <c r="K24" s="43">
+      <c r="K24" s="40">
         <f t="shared" si="2"/>
         <v>0.1858267716535433</v>
       </c>
-      <c r="L24" s="46">
+      <c r="L24" s="43">
         <v>1688</v>
       </c>
-      <c r="M24" s="46">
+      <c r="M24" s="43">
         <v>1688</v>
       </c>
       <c r="N24" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O24" s="46">
+      <c r="O24" s="43">
         <v>1336</v>
       </c>
       <c r="P24" s="10">
         <f t="shared" si="4"/>
         <v>0.20853080568720378</v>
       </c>
-      <c r="Q24" s="16" t="s">
+      <c r="Q24" s="43">
+        <v>1336</v>
+      </c>
+      <c r="R24" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S24" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="R24" s="18" t="s">
+      <c r="T24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="S24" s="16">
+      <c r="U24" s="16">
         <v>2369</v>
       </c>
-      <c r="T24" s="18">
+      <c r="V24" s="18">
         <v>1700</v>
       </c>
-      <c r="U24" s="16">
+      <c r="W24" s="16">
         <v>1001</v>
       </c>
-      <c r="V24" s="18">
+      <c r="X24" s="18">
         <v>974</v>
       </c>
-      <c r="W24" s="55">
+      <c r="Y24" s="52">
         <v>1184</v>
       </c>
-      <c r="X24" s="35">
+      <c r="Z24" s="32">
         <v>1279</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="58">
+      <c r="B25" s="44"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="55">
         <f>AVERAGE(F5:F24)</f>
         <v>0.38696242821194859</v>
       </c>
-      <c r="G25" s="47"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57">
+      <c r="G25" s="44"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54">
         <f>AVERAGE(I5:I24)</f>
         <v>0.18375758709152726</v>
       </c>
-      <c r="J25" s="57"/>
-      <c r="K25" s="58">
+      <c r="J25" s="54"/>
+      <c r="K25" s="55">
         <f>AVERAGE(K5:K24)</f>
         <v>0.29608434007636181</v>
       </c>
-      <c r="L25" s="47"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57">
+      <c r="L25" s="44"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54">
         <f>AVERAGE(N5:N24)</f>
         <v>0.15844389585019375</v>
       </c>
-      <c r="O25" s="57"/>
-      <c r="P25" s="58">
+      <c r="O25" s="54"/>
+      <c r="P25" s="55">
         <f>AVERAGE(P5:P24)</f>
         <v>0.30685887787672039</v>
       </c>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="60"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="55" t="e">
+        <f>AVERAGE(R5:R24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S25" s="44"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="55"/>
       <c r="W25" s="56"/>
-      <c r="X25" s="35"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="32"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -6755,10 +6901,10 @@
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="24"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
@@ -6770,11 +6916,13 @@
       <c r="T26" s="14"/>
       <c r="U26" s="14"/>
       <c r="V26" s="14"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="7"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="7"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="71" t="s">
         <v>4</v>
@@ -6793,22 +6941,24 @@
       <c r="N27" s="73"/>
       <c r="O27" s="73"/>
       <c r="P27" s="72"/>
-      <c r="Q27" s="71" t="s">
+      <c r="Q27" s="69"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="R27" s="72"/>
-      <c r="S27" s="73" t="s">
+      <c r="T27" s="72"/>
+      <c r="U27" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="T27" s="72"/>
-      <c r="U27" s="71" t="s">
+      <c r="V27" s="72"/>
+      <c r="W27" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="V27" s="72"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="7"/>
+      <c r="X27" s="72"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="7"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="71" t="s">
         <v>0</v>
@@ -6831,106 +6981,115 @@
       <c r="N28" s="73"/>
       <c r="O28" s="73"/>
       <c r="P28" s="72"/>
-      <c r="Q28" s="3" t="s">
+      <c r="Q28" s="70"/>
+      <c r="R28" s="70"/>
+      <c r="S28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R28" s="2" t="s">
+      <c r="T28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S28" s="39" t="s">
+      <c r="U28" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="T28" s="2" t="s">
+      <c r="V28" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="U28" s="38" t="s">
+      <c r="W28" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="V28" s="38" t="s">
+      <c r="X28" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="W28" s="63"/>
-      <c r="X28" s="70"/>
-      <c r="Y28" s="7"/>
+      <c r="Y28" s="60"/>
+      <c r="Z28" s="67"/>
+      <c r="AA28" s="7"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29" s="61" t="s">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A29" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="38">
         <v>633</v>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="39">
         <v>422</v>
       </c>
-      <c r="D29" s="42">
-        <f t="shared" ref="D29:D43" si="5">(B29-C29)/B29</f>
+      <c r="D29" s="39">
+        <f t="shared" ref="D29:D43" si="6">(B29-C29)/B29</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E29" s="42">
+      <c r="E29" s="39">
         <v>362</v>
       </c>
       <c r="F29">
         <f>(B29-E29)/B29</f>
         <v>0.42812006319115326</v>
       </c>
-      <c r="G29" s="41">
+      <c r="G29" s="38">
         <v>510</v>
       </c>
-      <c r="H29" s="42">
+      <c r="H29" s="39">
         <v>475</v>
       </c>
-      <c r="I29" s="42">
+      <c r="I29" s="39">
         <f>(G29-H29)/G29</f>
         <v>6.8627450980392163E-2</v>
       </c>
-      <c r="J29" s="69">
+      <c r="J29" s="66">
         <v>295</v>
       </c>
       <c r="K29">
         <f>(G29-J29)/G29</f>
         <v>0.42156862745098039</v>
       </c>
-      <c r="L29" s="41">
+      <c r="L29" s="38">
         <v>580</v>
       </c>
-      <c r="M29" s="42">
+      <c r="M29" s="39">
         <v>467</v>
       </c>
-      <c r="N29" s="42">
-        <f t="shared" ref="N29:N58" si="6">(L29-M29)/L29</f>
+      <c r="N29" s="39">
+        <f t="shared" ref="N29:N58" si="7">(L29-M29)/L29</f>
         <v>0.19482758620689655</v>
       </c>
-      <c r="O29" s="69">
+      <c r="O29" s="66">
         <v>271</v>
       </c>
       <c r="P29">
         <f>(L29-O29)/L29</f>
         <v>0.53275862068965518</v>
       </c>
-      <c r="Q29" s="19">
+      <c r="Q29" s="66">
+        <v>288</v>
+      </c>
+      <c r="R29">
+        <f>(O29-Q29)/O29</f>
+        <v>-6.273062730627306E-2</v>
+      </c>
+      <c r="S29" s="19">
         <v>257</v>
       </c>
-      <c r="R29" s="20"/>
-      <c r="S29" s="19">
+      <c r="T29" s="20"/>
+      <c r="U29" s="19">
         <v>327</v>
       </c>
-      <c r="T29" s="20">
+      <c r="V29" s="20">
         <v>321</v>
       </c>
-      <c r="U29" s="19">
+      <c r="W29" s="19">
         <v>257</v>
       </c>
-      <c r="V29" s="20">
+      <c r="X29" s="20">
         <v>257</v>
       </c>
-      <c r="W29" s="11"/>
-      <c r="X29" s="35">
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="32">
         <v>257</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A30" s="61" t="s">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A30" s="58" t="s">
         <v>42</v>
       </c>
       <c r="B30" s="11">
@@ -6940,7 +7099,7 @@
         <v>409</v>
       </c>
       <c r="D30" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.21647509578544061</v>
       </c>
       <c r="E30" s="7"/>
@@ -6951,14 +7110,14 @@
         <v>409</v>
       </c>
       <c r="I30" s="7">
-        <f t="shared" ref="I30:I58" si="7">(G30-H30)/G30</f>
+        <f t="shared" ref="I30:I58" si="8">(G30-H30)/G30</f>
         <v>0.13894736842105262</v>
       </c>
-      <c r="J30" s="49">
+      <c r="J30" s="46">
         <v>321</v>
       </c>
       <c r="K30">
-        <f t="shared" ref="K30:K58" si="8">(G30-J30)/G30</f>
+        <f t="shared" ref="K30:K58" si="9">(G30-J30)/G30</f>
         <v>0.32421052631578945</v>
       </c>
       <c r="L30" s="11">
@@ -6968,38 +7127,45 @@
         <v>409</v>
       </c>
       <c r="N30" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.22684310018903592</v>
       </c>
-      <c r="O30" s="65">
+      <c r="O30" s="62">
         <v>331</v>
       </c>
       <c r="P30">
-        <f t="shared" ref="P30:P58" si="9">(L30-O30)/L30</f>
+        <f t="shared" ref="P30:P58" si="10">(L30-O30)/L30</f>
         <v>0.37429111531190928</v>
       </c>
-      <c r="Q30" s="13">
+      <c r="Q30" s="62">
+        <v>318</v>
+      </c>
+      <c r="R30">
+        <f t="shared" ref="R30:R58" si="11">(O30-Q30)/O30</f>
+        <v>3.9274924471299093E-2</v>
+      </c>
+      <c r="S30" s="13">
         <v>289</v>
       </c>
-      <c r="R30" s="15"/>
-      <c r="S30" s="13">
+      <c r="T30" s="15"/>
+      <c r="U30" s="13">
         <v>382</v>
       </c>
-      <c r="T30" s="15">
+      <c r="V30" s="15">
         <v>350</v>
       </c>
-      <c r="U30" s="13">
+      <c r="W30" s="13">
         <v>289</v>
       </c>
-      <c r="V30" s="15">
+      <c r="X30" s="15">
         <v>289</v>
       </c>
-      <c r="X30" s="35">
+      <c r="Z30" s="32">
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A31" s="61" t="s">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A31" s="58" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="11">
@@ -7009,25 +7175,25 @@
         <v>942</v>
       </c>
       <c r="D31" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.26001571091908876</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="G31" s="48">
+      <c r="G31" s="45">
         <v>657</v>
       </c>
-      <c r="H31" s="49">
+      <c r="H31" s="46">
         <v>586</v>
       </c>
       <c r="I31" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1080669710806697</v>
       </c>
-      <c r="J31" s="49">
+      <c r="J31" s="46">
         <v>603</v>
       </c>
       <c r="K31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.2191780821917804E-2</v>
       </c>
       <c r="L31" s="11">
@@ -7037,38 +7203,45 @@
         <v>734</v>
       </c>
       <c r="N31" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.7170971709717099E-2</v>
       </c>
       <c r="O31" s="65">
         <v>575</v>
       </c>
       <c r="P31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.29274292742927427</v>
       </c>
-      <c r="Q31" s="13">
+      <c r="Q31" s="62">
         <v>576</v>
       </c>
-      <c r="R31" s="15"/>
+      <c r="R31">
+        <f t="shared" si="11"/>
+        <v>-1.7391304347826088E-3</v>
+      </c>
       <c r="S31" s="13">
+        <v>576</v>
+      </c>
+      <c r="T31" s="15"/>
+      <c r="U31" s="13">
         <v>710</v>
       </c>
-      <c r="T31" s="15">
+      <c r="V31" s="15">
         <v>631</v>
       </c>
-      <c r="U31" s="13">
+      <c r="W31" s="13">
         <v>576</v>
       </c>
-      <c r="V31" s="15">
+      <c r="X31" s="15">
         <v>576</v>
       </c>
-      <c r="X31" s="35">
+      <c r="Z31" s="32">
         <v>576</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" s="61" t="s">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A32" s="58" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="11">
@@ -7078,7 +7251,7 @@
         <v>744</v>
       </c>
       <c r="D32" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.46397694524495675</v>
       </c>
       <c r="E32" s="7"/>
@@ -7089,14 +7262,14 @@
         <v>686</v>
       </c>
       <c r="I32" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.7956989247311828E-2</v>
       </c>
-      <c r="J32" s="49">
+      <c r="J32" s="46">
         <v>606</v>
       </c>
       <c r="K32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.18548387096774194</v>
       </c>
       <c r="L32" s="11">
@@ -7106,38 +7279,45 @@
         <v>707</v>
       </c>
       <c r="N32" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="O32" s="65">
+      <c r="O32" s="62">
         <v>607</v>
       </c>
       <c r="P32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.33223322332233224</v>
       </c>
-      <c r="Q32" s="13">
+      <c r="Q32" s="62">
+        <v>607</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="13">
         <v>606</v>
       </c>
-      <c r="R32" s="15"/>
-      <c r="S32" s="13">
+      <c r="T32" s="15"/>
+      <c r="U32" s="13">
         <v>653</v>
       </c>
-      <c r="T32" s="15">
+      <c r="V32" s="15">
         <v>607</v>
       </c>
-      <c r="U32" s="13">
+      <c r="W32" s="13">
         <v>606</v>
       </c>
-      <c r="V32" s="15">
+      <c r="X32" s="15">
         <v>606</v>
       </c>
-      <c r="X32" s="35">
+      <c r="Z32" s="32">
         <v>606</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A33" s="61" t="s">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A33" s="58" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="11">
@@ -7147,7 +7327,7 @@
         <v>708</v>
       </c>
       <c r="D33" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.29831516352824577</v>
       </c>
       <c r="E33" s="7"/>
@@ -7158,14 +7338,14 @@
         <v>644</v>
       </c>
       <c r="I33" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11780821917808219</v>
       </c>
-      <c r="J33" s="65">
+      <c r="J33" s="62">
         <v>443</v>
       </c>
       <c r="K33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.39315068493150684</v>
       </c>
       <c r="L33" s="11">
@@ -7175,40 +7355,47 @@
         <v>644</v>
       </c>
       <c r="N33" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O33" s="65">
+      <c r="O33" s="62">
         <v>453</v>
       </c>
       <c r="P33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.296583850931677</v>
       </c>
-      <c r="Q33" s="13" t="s">
+      <c r="Q33" s="62">
+        <v>453</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="R33" s="15" t="s">
+      <c r="T33" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="S33" s="13">
+      <c r="U33" s="13">
         <v>482</v>
       </c>
-      <c r="T33" s="15">
+      <c r="V33" s="15">
         <v>505</v>
       </c>
-      <c r="U33" s="13">
+      <c r="W33" s="13">
         <v>395</v>
       </c>
-      <c r="V33" s="15">
+      <c r="X33" s="15">
         <v>389</v>
       </c>
-      <c r="X33" s="35">
+      <c r="Z33" s="32">
         <v>394</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A34" s="61" t="s">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A34" s="58" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="11">
@@ -7218,7 +7405,7 @@
         <v>742</v>
       </c>
       <c r="D34" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.37171888230313294</v>
       </c>
       <c r="E34" s="7"/>
@@ -7229,14 +7416,14 @@
         <v>531</v>
       </c>
       <c r="I34" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.18055555555555555</v>
       </c>
-      <c r="J34" s="65">
+      <c r="J34" s="62">
         <v>471</v>
       </c>
       <c r="K34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.27314814814814814</v>
       </c>
       <c r="L34" s="11">
@@ -7246,40 +7433,47 @@
         <v>531</v>
       </c>
       <c r="N34" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="O34" s="65">
+      <c r="O34" s="62">
         <v>459</v>
       </c>
       <c r="P34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.29275808936825887</v>
       </c>
-      <c r="Q34" s="13" t="s">
+      <c r="Q34" s="62">
+        <v>446</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="11"/>
+        <v>2.8322440087145968E-2</v>
+      </c>
+      <c r="S34" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="R34" s="15" t="s">
+      <c r="T34" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="S34" s="13">
+      <c r="U34" s="13">
         <v>489</v>
       </c>
-      <c r="T34" s="15">
+      <c r="V34" s="15">
         <v>497</v>
       </c>
-      <c r="U34" s="13">
+      <c r="W34" s="13">
         <v>416</v>
       </c>
-      <c r="V34" s="15">
+      <c r="X34" s="15">
         <v>412</v>
       </c>
-      <c r="X34" s="35">
+      <c r="Z34" s="32">
         <v>410</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A35" s="61" t="s">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A35" s="58" t="s">
         <v>47</v>
       </c>
       <c r="B35" s="11">
@@ -7289,7 +7483,7 @@
         <v>1112</v>
       </c>
       <c r="D35" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.48037383177570092</v>
       </c>
       <c r="E35" s="7"/>
@@ -7300,14 +7494,14 @@
         <v>979</v>
       </c>
       <c r="I35" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.24807987711213517</v>
       </c>
-      <c r="J35" s="68">
+      <c r="J35" s="65">
         <v>747</v>
       </c>
       <c r="K35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.42626728110599077</v>
       </c>
       <c r="L35" s="11">
@@ -7317,40 +7511,47 @@
         <v>1047</v>
       </c>
       <c r="N35" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.20380228136882128</v>
       </c>
-      <c r="O35" s="64">
+      <c r="O35" s="61">
         <v>732</v>
       </c>
       <c r="P35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.44334600760456272</v>
       </c>
-      <c r="Q35" s="13" t="s">
+      <c r="Q35" s="61">
+        <v>729</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="11"/>
+        <v>4.0983606557377051E-3</v>
+      </c>
+      <c r="S35" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="R35" s="15" t="s">
+      <c r="T35" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="S35" s="13">
+      <c r="U35" s="13">
         <v>717</v>
       </c>
-      <c r="T35" s="15">
+      <c r="V35" s="15">
         <v>632</v>
       </c>
-      <c r="U35" s="13">
+      <c r="W35" s="13">
         <v>519</v>
       </c>
-      <c r="V35" s="15">
+      <c r="X35" s="15">
         <v>512</v>
       </c>
-      <c r="X35" s="35">
+      <c r="Z35" s="32">
         <v>547</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A36" s="61" t="s">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A36" s="58" t="s">
         <v>48</v>
       </c>
       <c r="B36" s="11">
@@ -7360,7 +7561,7 @@
         <v>1070</v>
       </c>
       <c r="D36" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.36947554507955216</v>
       </c>
       <c r="E36" s="7"/>
@@ -7371,14 +7572,14 @@
         <v>895</v>
       </c>
       <c r="I36" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.39322033898305087</v>
       </c>
-      <c r="J36" s="66">
+      <c r="J36" s="63">
         <v>776</v>
       </c>
       <c r="K36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.47389830508474579</v>
       </c>
       <c r="L36" s="11">
@@ -7388,40 +7589,47 @@
         <v>967</v>
       </c>
       <c r="N36" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.30780243378668576</v>
       </c>
-      <c r="O36" s="64">
+      <c r="O36" s="61">
         <v>945</v>
       </c>
       <c r="P36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.32355046528274872</v>
       </c>
-      <c r="Q36" s="13" t="s">
+      <c r="Q36" s="62">
+        <v>704</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="11"/>
+        <v>0.25502645502645505</v>
+      </c>
+      <c r="S36" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="R36" s="15" t="s">
+      <c r="T36" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="S36" s="13">
+      <c r="U36" s="13">
         <v>847</v>
       </c>
-      <c r="T36" s="15">
+      <c r="V36" s="15">
         <v>706</v>
       </c>
-      <c r="U36" s="13">
+      <c r="W36" s="13">
         <v>628</v>
       </c>
-      <c r="V36" s="15">
+      <c r="X36" s="15">
         <v>628</v>
       </c>
-      <c r="X36" s="35">
+      <c r="Z36" s="32">
         <v>631</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A37" s="61" t="s">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A37" s="58" t="s">
         <v>49</v>
       </c>
       <c r="B37" s="11">
@@ -7431,7 +7639,7 @@
         <v>837</v>
       </c>
       <c r="D37" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.14329580348004095</v>
       </c>
       <c r="E37" s="7"/>
@@ -7442,57 +7650,64 @@
         <v>819</v>
       </c>
       <c r="I37" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="62">
+        <v>482</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="9"/>
+        <v>0.41147741147741146</v>
+      </c>
+      <c r="L37" s="11">
+        <v>819</v>
+      </c>
+      <c r="M37" s="7">
+        <v>819</v>
+      </c>
+      <c r="N37" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J37" s="65">
+      <c r="O37" s="62">
+        <v>498</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="10"/>
+        <v>0.39194139194139194</v>
+      </c>
+      <c r="Q37" s="62">
         <v>482</v>
       </c>
-      <c r="K37">
-        <f t="shared" si="8"/>
-        <v>0.41147741147741146</v>
-      </c>
-      <c r="L37" s="11">
-        <v>819</v>
-      </c>
-      <c r="M37" s="7">
-        <v>819</v>
-      </c>
-      <c r="N37" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="65">
-        <v>498</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="9"/>
-        <v>0.39194139194139194</v>
-      </c>
-      <c r="Q37" s="13" t="s">
+      <c r="R37">
+        <f t="shared" si="11"/>
+        <v>3.2128514056224897E-2</v>
+      </c>
+      <c r="S37" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="R37" s="15" t="s">
+      <c r="T37" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="S37" s="13">
+      <c r="U37" s="13">
         <v>535</v>
       </c>
-      <c r="T37" s="15">
+      <c r="V37" s="15">
         <v>533</v>
       </c>
-      <c r="U37" s="13">
+      <c r="W37" s="13">
         <v>470</v>
       </c>
-      <c r="V37" s="15">
+      <c r="X37" s="15">
         <v>464</v>
       </c>
-      <c r="X37" s="35">
+      <c r="Z37" s="32">
         <v>471</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A38" s="61" t="s">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A38" s="58" t="s">
         <v>50</v>
       </c>
       <c r="B38" s="11">
@@ -7502,7 +7717,7 @@
         <v>742</v>
       </c>
       <c r="D38" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.3142329020332717</v>
       </c>
       <c r="E38" s="7"/>
@@ -7513,14 +7728,14 @@
         <v>633</v>
       </c>
       <c r="I38" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.33993743482794575</v>
       </c>
-      <c r="J38" s="65">
+      <c r="J38" s="62">
         <v>587</v>
       </c>
       <c r="K38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.38790406673618355</v>
       </c>
       <c r="L38" s="11">
@@ -7530,40 +7745,47 @@
         <v>693</v>
       </c>
       <c r="N38" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.3513513513513517E-2</v>
       </c>
-      <c r="O38" s="65">
+      <c r="O38" s="62">
         <v>600</v>
       </c>
       <c r="P38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.1891891891891892</v>
       </c>
-      <c r="Q38" s="13" t="s">
+      <c r="Q38" s="62">
+        <v>569</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="11"/>
+        <v>5.1666666666666666E-2</v>
+      </c>
+      <c r="S38" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="R38" s="15" t="s">
+      <c r="T38" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="S38" s="13">
+      <c r="U38" s="13">
         <v>629</v>
       </c>
-      <c r="T38" s="15">
+      <c r="V38" s="15">
         <v>621</v>
       </c>
-      <c r="U38" s="13">
+      <c r="W38" s="13">
         <v>534</v>
       </c>
-      <c r="V38" s="15">
+      <c r="X38" s="15">
         <v>533</v>
       </c>
-      <c r="X38" s="35">
+      <c r="Z38" s="32">
         <v>538</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A39" s="61" t="s">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A39" s="58" t="s">
         <v>51</v>
       </c>
       <c r="B39" s="11">
@@ -7573,7 +7795,7 @@
         <v>1202</v>
       </c>
       <c r="D39" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.54692800603090841</v>
       </c>
       <c r="E39" s="7"/>
@@ -7584,14 +7806,14 @@
         <v>862</v>
       </c>
       <c r="I39" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.31478537360890302</v>
       </c>
-      <c r="J39" s="66">
+      <c r="J39" s="63">
         <v>758</v>
       </c>
       <c r="K39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.39745627980922099</v>
       </c>
       <c r="L39" s="11">
@@ -7601,40 +7823,47 @@
         <v>970</v>
       </c>
       <c r="N39" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.15871639202081528</v>
       </c>
-      <c r="O39" s="64">
+      <c r="O39" s="61">
         <v>815</v>
       </c>
       <c r="P39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.29314830875975717</v>
       </c>
-      <c r="Q39" s="13" t="s">
+      <c r="Q39" s="62">
+        <v>706</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="11"/>
+        <v>0.13374233128834356</v>
+      </c>
+      <c r="S39" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="R39" s="15" t="s">
+      <c r="T39" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="S39" s="13">
+      <c r="U39" s="13">
         <v>708</v>
       </c>
-      <c r="T39" s="15">
+      <c r="V39" s="15">
         <v>767</v>
       </c>
-      <c r="U39" s="13">
+      <c r="W39" s="13">
         <v>659</v>
       </c>
-      <c r="V39" s="15">
+      <c r="X39" s="15">
         <v>659</v>
       </c>
-      <c r="X39" s="35">
+      <c r="Z39" s="32">
         <v>701</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A40" s="61" t="s">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A40" s="58" t="s">
         <v>52</v>
       </c>
       <c r="B40" s="11">
@@ -7644,7 +7873,7 @@
         <v>1375</v>
       </c>
       <c r="D40" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.31795634920634919</v>
       </c>
       <c r="E40" s="7"/>
@@ -7655,14 +7884,14 @@
         <v>1162</v>
       </c>
       <c r="I40" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.23097286565188616</v>
       </c>
-      <c r="J40" s="68">
+      <c r="J40" s="65">
         <v>743</v>
       </c>
       <c r="K40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.50827266710787555</v>
       </c>
       <c r="L40" s="11">
@@ -7672,53 +7901,60 @@
         <v>935</v>
       </c>
       <c r="N40" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.31098010316875463</v>
       </c>
-      <c r="O40" s="64">
+      <c r="O40" s="61">
         <v>821</v>
       </c>
       <c r="P40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.39498894620486369</v>
       </c>
-      <c r="Q40" s="13" t="s">
+      <c r="Q40" s="61">
+        <v>812</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="11"/>
+        <v>1.0962241169305725E-2</v>
+      </c>
+      <c r="S40" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="R40" s="15" t="s">
+      <c r="T40" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="S40" s="13">
+      <c r="U40" s="13">
         <v>720</v>
       </c>
-      <c r="T40" s="15">
+      <c r="V40" s="15">
         <v>727</v>
       </c>
-      <c r="U40" s="13">
+      <c r="W40" s="13">
         <v>652</v>
       </c>
-      <c r="V40" s="15">
+      <c r="X40" s="15">
         <v>645</v>
       </c>
-      <c r="X40" s="35">
+      <c r="Z40" s="32">
         <v>720</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A41" s="61" t="s">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A41" s="58" t="s">
         <v>53</v>
       </c>
       <c r="B41" s="11">
         <v>1401</v>
       </c>
-      <c r="C41" s="49">
+      <c r="C41" s="46">
         <v>754</v>
       </c>
       <c r="D41" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.46181299072091364</v>
       </c>
-      <c r="E41" s="49"/>
+      <c r="E41" s="46"/>
       <c r="G41" s="11">
         <v>860</v>
       </c>
@@ -7726,57 +7962,64 @@
         <v>816</v>
       </c>
       <c r="I41" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.1162790697674418E-2</v>
       </c>
-      <c r="J41" s="65">
+      <c r="J41" s="62">
         <v>680</v>
       </c>
       <c r="K41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.20930232558139536</v>
       </c>
       <c r="L41" s="11">
         <v>946</v>
       </c>
-      <c r="M41" s="49">
+      <c r="M41" s="46">
         <v>740</v>
       </c>
       <c r="N41" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.21775898520084566</v>
       </c>
-      <c r="O41" s="49">
+      <c r="O41" s="46">
         <v>671</v>
       </c>
       <c r="P41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.29069767441860467</v>
       </c>
-      <c r="Q41" s="13" t="s">
+      <c r="Q41" s="46">
+        <v>677</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="11"/>
+        <v>-8.9418777943368107E-3</v>
+      </c>
+      <c r="S41" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="R41" s="15" t="s">
+      <c r="T41" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="S41" s="13">
+      <c r="U41" s="13">
         <v>766</v>
       </c>
-      <c r="T41" s="15">
+      <c r="V41" s="15">
         <v>768</v>
       </c>
-      <c r="U41" s="13">
+      <c r="W41" s="13">
         <v>662</v>
       </c>
-      <c r="V41" s="15">
+      <c r="X41" s="15">
         <v>656</v>
       </c>
-      <c r="X41" s="35">
+      <c r="Z41" s="32">
         <v>683</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A42" s="61" t="s">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A42" s="58" t="s">
         <v>54</v>
       </c>
       <c r="B42" s="11">
@@ -7786,7 +8029,7 @@
         <v>1103</v>
       </c>
       <c r="D42" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.38585746102449886</v>
       </c>
       <c r="E42" s="7"/>
@@ -7797,14 +8040,14 @@
         <v>936</v>
       </c>
       <c r="I42" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.6799601196410763E-2</v>
       </c>
-      <c r="J42" s="65">
+      <c r="J42" s="62">
         <v>749</v>
       </c>
       <c r="K42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.25324027916251246</v>
       </c>
       <c r="L42" s="11">
@@ -7814,40 +8057,47 @@
         <v>936</v>
       </c>
       <c r="N42" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.1262135922330095E-2</v>
       </c>
-      <c r="O42" s="65">
+      <c r="O42" s="62">
         <v>759</v>
       </c>
       <c r="P42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.26310679611650484</v>
       </c>
-      <c r="Q42" s="13" t="s">
+      <c r="Q42" s="62">
+        <v>756</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="11"/>
+        <v>3.952569169960474E-3</v>
+      </c>
+      <c r="S42" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="R42" s="15" t="s">
+      <c r="T42" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="S42" s="13">
+      <c r="U42" s="13">
         <v>871</v>
       </c>
-      <c r="T42" s="15">
+      <c r="V42" s="15">
         <v>888</v>
       </c>
-      <c r="U42" s="13">
+      <c r="W42" s="13">
         <v>736</v>
       </c>
-      <c r="V42" s="15">
+      <c r="X42" s="15">
         <v>735</v>
       </c>
-      <c r="X42" s="35">
+      <c r="Z42" s="32">
         <v>775</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A43" s="61" t="s">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A43" s="58" t="s">
         <v>55</v>
       </c>
       <c r="B43" s="11">
@@ -7857,7 +8107,7 @@
         <v>2305</v>
       </c>
       <c r="D43" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.1864061864061862E-2</v>
       </c>
       <c r="E43" s="7"/>
@@ -7868,14 +8118,14 @@
         <v>994</v>
       </c>
       <c r="I43" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.24410646387832699</v>
       </c>
-      <c r="J43" s="68">
+      <c r="J43" s="65">
         <v>1013</v>
       </c>
       <c r="K43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.22965779467680608</v>
       </c>
       <c r="L43" s="11">
@@ -7885,40 +8135,47 @@
         <v>1191</v>
       </c>
       <c r="N43" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.0257611241217793E-2</v>
       </c>
-      <c r="O43" s="64">
+      <c r="O43" s="61">
         <v>1008</v>
       </c>
       <c r="P43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.21311475409836064</v>
       </c>
-      <c r="Q43" s="13" t="s">
+      <c r="Q43" s="62">
+        <v>779</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="11"/>
+        <v>0.22718253968253968</v>
+      </c>
+      <c r="S43" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="R43" s="15" t="s">
+      <c r="T43" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="S43" s="13">
+      <c r="U43" s="13">
         <v>818</v>
       </c>
-      <c r="T43" s="15">
+      <c r="V43" s="15">
         <v>788</v>
       </c>
-      <c r="U43" s="13">
+      <c r="W43" s="13">
         <v>677</v>
       </c>
-      <c r="V43" s="15">
+      <c r="X43" s="15">
         <v>671</v>
       </c>
-      <c r="X43" s="35">
+      <c r="Z43" s="32">
         <v>796</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A44" s="61" t="s">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A44" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B44" s="11">
@@ -7936,14 +8193,14 @@
         <v>1275</v>
       </c>
       <c r="I44" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.16938110749185667</v>
       </c>
-      <c r="J44" s="68">
+      <c r="J44" s="65">
         <v>986</v>
       </c>
       <c r="K44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.35765472312703583</v>
       </c>
       <c r="L44" s="11">
@@ -7953,40 +8210,47 @@
         <v>1598</v>
       </c>
       <c r="N44" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.18177163338453661</v>
       </c>
-      <c r="O44" s="64">
+      <c r="O44" s="61">
         <v>942</v>
       </c>
       <c r="P44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.51766513056835639</v>
       </c>
-      <c r="Q44" s="13" t="s">
+      <c r="Q44" s="61">
+        <v>916</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="11"/>
+        <v>2.7600849256900213E-2</v>
+      </c>
+      <c r="S44" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="R44" s="15" t="s">
+      <c r="T44" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="S44" s="13">
+      <c r="U44" s="13">
         <v>831</v>
       </c>
-      <c r="T44" s="15">
+      <c r="V44" s="15">
         <v>808</v>
       </c>
-      <c r="U44" s="13">
+      <c r="W44" s="13">
         <v>679</v>
       </c>
-      <c r="V44" s="15">
+      <c r="X44" s="15">
         <v>679</v>
       </c>
-      <c r="X44" s="35">
+      <c r="Z44" s="32">
         <v>798</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" s="61" t="s">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A45" s="58" t="s">
         <v>57</v>
       </c>
       <c r="B45" s="11">
@@ -8004,14 +8268,14 @@
         <v>1029</v>
       </c>
       <c r="I45" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1190068493150685</v>
       </c>
-      <c r="J45" s="65">
+      <c r="J45" s="62">
         <v>821</v>
       </c>
       <c r="K45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.2970890410958904</v>
       </c>
       <c r="L45" s="11">
@@ -8021,40 +8285,47 @@
         <v>1190</v>
       </c>
       <c r="N45" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.6186579378068741E-2</v>
       </c>
-      <c r="O45" s="66">
+      <c r="O45" s="63">
         <v>928</v>
       </c>
       <c r="P45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.24058919803600654</v>
       </c>
-      <c r="Q45" s="13" t="s">
+      <c r="Q45" s="62">
+        <v>819</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="11"/>
+        <v>0.11745689655172414</v>
+      </c>
+      <c r="S45" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="R45" s="15" t="s">
+      <c r="T45" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="S45" s="13">
+      <c r="U45" s="13">
         <v>910</v>
       </c>
-      <c r="T45" s="15">
+      <c r="V45" s="15">
         <v>935</v>
       </c>
-      <c r="U45" s="13">
+      <c r="W45" s="13">
         <v>804</v>
       </c>
-      <c r="V45" s="15">
+      <c r="X45" s="15">
         <v>800</v>
       </c>
-      <c r="X45" s="35">
+      <c r="Z45" s="32">
         <v>902</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46" s="61" t="s">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A46" s="58" t="s">
         <v>58</v>
       </c>
       <c r="B46" s="11">
@@ -8072,14 +8343,14 @@
         <v>1022</v>
       </c>
       <c r="I46" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.22103658536585366</v>
       </c>
-      <c r="J46" s="65">
+      <c r="J46" s="62">
         <v>788</v>
       </c>
       <c r="K46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.39939024390243905</v>
       </c>
       <c r="L46" s="11">
@@ -8089,40 +8360,47 @@
         <v>1096</v>
       </c>
       <c r="N46" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.4846416382252553E-2</v>
       </c>
-      <c r="O46" s="65">
+      <c r="O46" s="62">
         <v>822</v>
       </c>
       <c r="P46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.29863481228668942</v>
       </c>
-      <c r="Q46" s="13" t="s">
+      <c r="Q46" s="62">
+        <v>802</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="11"/>
+        <v>2.4330900243309004E-2</v>
+      </c>
+      <c r="S46" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="R46" s="15" t="s">
+      <c r="T46" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="S46" s="13">
+      <c r="U46" s="13">
         <v>951</v>
       </c>
-      <c r="T46" s="15">
+      <c r="V46" s="15">
         <v>939</v>
       </c>
-      <c r="U46" s="13">
+      <c r="W46" s="13">
         <v>803</v>
       </c>
-      <c r="V46" s="15">
+      <c r="X46" s="15">
         <v>799</v>
       </c>
-      <c r="X46" s="35">
+      <c r="Z46" s="32">
         <v>878</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A47" s="61" t="s">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A47" s="58" t="s">
         <v>59</v>
       </c>
       <c r="B47" s="11">
@@ -8140,14 +8418,14 @@
         <v>892</v>
       </c>
       <c r="I47" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1423076923076923</v>
       </c>
-      <c r="J47" s="68">
+      <c r="J47" s="65">
         <v>733</v>
       </c>
       <c r="K47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.2951923076923077</v>
       </c>
       <c r="L47" s="11">
@@ -8157,40 +8435,47 @@
         <v>757</v>
       </c>
       <c r="N47" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.25123639960435212</v>
       </c>
-      <c r="O47" s="64">
+      <c r="O47" s="61">
         <v>627</v>
       </c>
       <c r="P47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.37982195845697331</v>
       </c>
-      <c r="Q47" s="13" t="s">
+      <c r="Q47" s="61">
+        <v>608</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="11"/>
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="S47" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="R47" s="15" t="s">
+      <c r="T47" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="S47" s="13">
+      <c r="U47" s="13">
         <v>601</v>
       </c>
-      <c r="T47" s="15">
+      <c r="V47" s="15">
         <v>598</v>
       </c>
-      <c r="U47" s="13">
+      <c r="W47" s="13">
         <v>525</v>
       </c>
-      <c r="V47" s="15">
+      <c r="X47" s="15">
         <v>524</v>
       </c>
-      <c r="X47" s="35">
+      <c r="Z47" s="32">
         <v>585</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A48" s="61" t="s">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A48" s="58" t="s">
         <v>60</v>
       </c>
       <c r="B48" s="11">
@@ -8211,14 +8496,14 @@
         <v>905</v>
       </c>
       <c r="I48" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.31178707224334601</v>
       </c>
-      <c r="J48" s="65">
+      <c r="J48" s="62">
         <v>795</v>
       </c>
       <c r="K48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.39543726235741444</v>
       </c>
       <c r="L48" s="11">
@@ -8228,40 +8513,47 @@
         <v>927</v>
       </c>
       <c r="N48" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.29182582123758594</v>
       </c>
-      <c r="O48" s="64">
+      <c r="O48" s="61">
         <v>858</v>
       </c>
       <c r="P48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.34453781512605042</v>
       </c>
-      <c r="Q48" s="13" t="s">
+      <c r="Q48" s="62">
+        <v>784</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="11"/>
+        <v>8.6247086247086241E-2</v>
+      </c>
+      <c r="S48" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="R48" s="15" t="s">
+      <c r="T48" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="S48" s="13">
+      <c r="U48" s="13">
         <v>815</v>
       </c>
-      <c r="T48" s="15">
+      <c r="V48" s="15">
         <v>854</v>
       </c>
-      <c r="U48" s="13">
+      <c r="W48" s="13">
         <v>712</v>
       </c>
-      <c r="V48" s="15">
+      <c r="X48" s="15">
         <v>705</v>
       </c>
-      <c r="X48" s="35">
+      <c r="Z48" s="32">
         <v>810</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A49" s="61" t="s">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A49" s="58" t="s">
         <v>61</v>
       </c>
       <c r="B49" s="11">
@@ -8282,14 +8574,14 @@
         <v>1160</v>
       </c>
       <c r="I49" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.15820029027576196</v>
       </c>
-      <c r="J49" s="65">
+      <c r="J49" s="62">
         <v>935</v>
       </c>
       <c r="K49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.32148040638606679</v>
       </c>
       <c r="L49" s="11">
@@ -8299,40 +8591,47 @@
         <v>1240</v>
       </c>
       <c r="N49" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.1575091575091569E-2</v>
       </c>
-      <c r="O49" s="68">
+      <c r="O49" s="65">
         <v>1011</v>
       </c>
       <c r="P49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.25934065934065936</v>
       </c>
-      <c r="Q49" s="13" t="s">
+      <c r="Q49" s="62">
+        <v>823</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="11"/>
+        <v>0.18595450049455983</v>
+      </c>
+      <c r="S49" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="R49" s="15" t="s">
+      <c r="T49" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="S49" s="13">
+      <c r="U49" s="13">
         <v>965</v>
       </c>
-      <c r="T49" s="15">
+      <c r="V49" s="15">
         <v>937</v>
       </c>
-      <c r="U49" s="13">
+      <c r="W49" s="13">
         <v>815</v>
       </c>
-      <c r="V49" s="15">
+      <c r="X49" s="15">
         <v>808</v>
       </c>
-      <c r="X49" s="35">
+      <c r="Z49" s="32">
         <v>959</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A50" s="61" t="s">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A50" s="58" t="s">
         <v>62</v>
       </c>
       <c r="B50" s="11">
@@ -8352,14 +8651,14 @@
         <v>1013</v>
       </c>
       <c r="I50" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.36805988771054271</v>
       </c>
-      <c r="J50" s="65">
+      <c r="J50" s="62">
         <v>810</v>
       </c>
       <c r="K50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.49469744229569557</v>
       </c>
       <c r="L50" s="11">
@@ -8369,40 +8668,47 @@
         <v>1073</v>
       </c>
       <c r="N50" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.11468646864686469</v>
       </c>
-      <c r="O50" s="65">
+      <c r="O50" s="62">
         <v>763</v>
       </c>
       <c r="P50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.37046204620462048</v>
       </c>
-      <c r="Q50" s="13" t="s">
+      <c r="Q50" s="62">
+        <v>775</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="11"/>
+        <v>-1.5727391874180863E-2</v>
+      </c>
+      <c r="S50" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="R50" s="15" t="s">
+      <c r="T50" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="S50" s="13">
+      <c r="U50" s="13">
         <v>902</v>
       </c>
-      <c r="T50" s="15">
+      <c r="V50" s="15">
         <v>826</v>
       </c>
-      <c r="U50" s="13">
+      <c r="W50" s="13">
         <v>720</v>
       </c>
-      <c r="V50" s="15">
+      <c r="X50" s="15">
         <v>708</v>
       </c>
-      <c r="X50" s="35">
+      <c r="Z50" s="32">
         <v>896</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A51" s="61" t="s">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A51" s="58" t="s">
         <v>63</v>
       </c>
       <c r="B51" s="11">
@@ -8423,14 +8729,14 @@
         <v>748</v>
       </c>
       <c r="I51" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.34154929577464788</v>
       </c>
-      <c r="J51" s="68">
+      <c r="J51" s="65">
         <v>735</v>
       </c>
       <c r="K51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.35299295774647887</v>
       </c>
       <c r="L51" s="11">
@@ -8440,40 +8746,47 @@
         <v>677</v>
       </c>
       <c r="N51" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.24944567627494457</v>
       </c>
-      <c r="O51" s="64">
+      <c r="O51" s="61">
         <v>639</v>
       </c>
       <c r="P51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.29157427937915742</v>
       </c>
-      <c r="Q51" s="13" t="s">
+      <c r="Q51" s="62">
+        <v>545</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="11"/>
+        <v>0.14710485133020346</v>
+      </c>
+      <c r="S51" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="R51" s="15" t="s">
+      <c r="T51" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="S51" s="13">
+      <c r="U51" s="13">
         <v>632</v>
       </c>
-      <c r="T51" s="15">
+      <c r="V51" s="15">
         <v>548</v>
       </c>
-      <c r="U51" s="13">
+      <c r="W51" s="13">
         <v>476</v>
       </c>
-      <c r="V51" s="15">
+      <c r="X51" s="15">
         <v>476</v>
       </c>
-      <c r="X51" s="35">
+      <c r="Z51" s="32">
         <v>537</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A52" s="61" t="s">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A52" s="58" t="s">
         <v>64</v>
       </c>
       <c r="B52" s="11">
@@ -8494,14 +8807,14 @@
         <v>884</v>
       </c>
       <c r="I52" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.12820512820512819</v>
       </c>
-      <c r="J52" s="68">
+      <c r="J52" s="65">
         <v>838</v>
       </c>
       <c r="K52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.17357001972386588</v>
       </c>
       <c r="L52" s="11">
@@ -8511,40 +8824,47 @@
         <v>953</v>
       </c>
       <c r="N52" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.1002892960462869E-2</v>
       </c>
-      <c r="O52" s="65">
+      <c r="O52" s="62">
         <v>674</v>
       </c>
       <c r="P52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.35004821600771457</v>
       </c>
-      <c r="Q52" s="13" t="s">
+      <c r="Q52" s="62">
+        <v>656</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="11"/>
+        <v>2.6706231454005934E-2</v>
+      </c>
+      <c r="S52" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="R52" s="15" t="s">
+      <c r="T52" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="S52" s="13">
+      <c r="U52" s="13">
         <v>674</v>
       </c>
-      <c r="T52" s="15">
+      <c r="V52" s="15">
         <v>687</v>
       </c>
-      <c r="U52" s="13">
+      <c r="W52" s="13">
         <v>568</v>
       </c>
-      <c r="V52" s="15">
+      <c r="X52" s="15">
         <v>564</v>
       </c>
-      <c r="X52" s="35">
+      <c r="Z52" s="32">
         <v>648</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A53" s="61" t="s">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A53" s="58" t="s">
         <v>65</v>
       </c>
       <c r="B53" s="11">
@@ -8562,14 +8882,14 @@
         <v>1069</v>
       </c>
       <c r="I53" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.10990840965861781</v>
       </c>
-      <c r="J53" s="66">
+      <c r="J53" s="63">
         <v>893</v>
       </c>
       <c r="K53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.25645295587010825</v>
       </c>
       <c r="L53" s="11">
@@ -8579,40 +8899,47 @@
         <v>1079</v>
       </c>
       <c r="N53" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.0035587188612103E-2</v>
       </c>
-      <c r="O53" s="64">
+      <c r="O53" s="61">
         <v>942</v>
       </c>
       <c r="P53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.16192170818505339</v>
       </c>
-      <c r="Q53" s="13" t="s">
+      <c r="Q53" s="62">
+        <v>784</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="11"/>
+        <v>0.16772823779193205</v>
+      </c>
+      <c r="S53" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="R53" s="15" t="s">
+      <c r="T53" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="S53" s="13">
+      <c r="U53" s="13">
         <v>897</v>
       </c>
-      <c r="T53" s="15">
+      <c r="V53" s="15">
         <v>885</v>
       </c>
-      <c r="U53" s="13">
+      <c r="W53" s="13">
         <v>755</v>
       </c>
-      <c r="V53" s="15">
+      <c r="X53" s="15">
         <v>752</v>
       </c>
-      <c r="X53" s="35">
+      <c r="Z53" s="32">
         <v>879</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A54" s="61" t="s">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A54" s="58" t="s">
         <v>66</v>
       </c>
       <c r="B54" s="11">
@@ -8630,14 +8957,14 @@
         <v>1067</v>
       </c>
       <c r="I54" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.17986164488854728</v>
       </c>
-      <c r="J54" s="65">
+      <c r="J54" s="62">
         <v>888</v>
       </c>
       <c r="K54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.31744811683320523</v>
       </c>
       <c r="L54" s="11">
@@ -8647,40 +8974,47 @@
         <v>1161</v>
       </c>
       <c r="N54" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.19931034482758619</v>
       </c>
-      <c r="O54" s="64">
+      <c r="O54" s="61">
         <v>1003</v>
       </c>
       <c r="P54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.30827586206896551</v>
       </c>
-      <c r="Q54" s="13" t="s">
+      <c r="Q54" s="62">
+        <v>881</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="11"/>
+        <v>0.12163509471585245</v>
+      </c>
+      <c r="S54" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="R54" s="15" t="s">
+      <c r="T54" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="S54" s="13">
+      <c r="U54" s="13">
         <v>903</v>
       </c>
-      <c r="T54" s="15">
+      <c r="V54" s="15">
         <v>915</v>
       </c>
-      <c r="U54" s="13">
+      <c r="W54" s="13">
         <v>751</v>
       </c>
-      <c r="V54" s="15">
+      <c r="X54" s="15">
         <v>745</v>
       </c>
-      <c r="X54" s="35">
+      <c r="Z54" s="32">
         <v>898</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A55" s="61" t="s">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A55" s="58" t="s">
         <v>67</v>
       </c>
       <c r="B55" s="11">
@@ -8698,14 +9032,14 @@
         <v>1213</v>
       </c>
       <c r="I55" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.27582089552238803</v>
       </c>
-      <c r="J55" s="68">
+      <c r="J55" s="65">
         <v>1389</v>
       </c>
       <c r="K55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.17074626865671641</v>
       </c>
       <c r="L55" s="11">
@@ -8715,40 +9049,47 @@
         <v>1550</v>
       </c>
       <c r="N55" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.3724053724053727E-2</v>
       </c>
-      <c r="O55" s="64">
+      <c r="O55" s="61">
         <v>1379</v>
       </c>
       <c r="P55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.15811965811965811</v>
       </c>
-      <c r="Q55" s="13" t="s">
+      <c r="Q55" s="61">
+        <v>1046</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="11"/>
+        <v>0.24147933284989123</v>
+      </c>
+      <c r="S55" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="R55" s="15" t="s">
+      <c r="T55" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="S55" s="13">
+      <c r="U55" s="13">
         <v>981</v>
       </c>
-      <c r="T55" s="15">
+      <c r="V55" s="15">
         <v>982</v>
       </c>
-      <c r="U55" s="13">
+      <c r="W55" s="13">
         <v>838</v>
       </c>
-      <c r="V55" s="15">
+      <c r="X55" s="15">
         <v>831</v>
       </c>
-      <c r="X55" s="35">
+      <c r="Z55" s="32">
         <v>981</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A56" s="61" t="s">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A56" s="58" t="s">
         <v>68</v>
       </c>
       <c r="B56" s="11">
@@ -8766,14 +9107,14 @@
         <v>1034</v>
       </c>
       <c r="I56" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.34014039566049775</v>
       </c>
-      <c r="J56" s="68">
+      <c r="J56" s="65">
         <v>771</v>
       </c>
       <c r="K56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.5079770261646458</v>
       </c>
       <c r="L56" s="11">
@@ -8783,40 +9124,47 @@
         <v>921</v>
       </c>
       <c r="N56" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.23884297520661157</v>
       </c>
-      <c r="O56" s="64">
+      <c r="O56" s="61">
         <v>806</v>
       </c>
       <c r="P56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.33388429752066118</v>
       </c>
-      <c r="Q56" s="13" t="s">
+      <c r="Q56" s="62">
+        <v>596</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="11"/>
+        <v>0.26054590570719605</v>
+      </c>
+      <c r="S56" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="R56" s="15" t="s">
+      <c r="T56" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="S56" s="13">
+      <c r="U56" s="13">
         <v>703</v>
       </c>
-      <c r="T56" s="15">
+      <c r="V56" s="15">
         <v>633</v>
       </c>
-      <c r="U56" s="13">
+      <c r="W56" s="13">
         <v>545</v>
       </c>
-      <c r="V56" s="15">
+      <c r="X56" s="15">
         <v>543</v>
       </c>
-      <c r="X56" s="35">
+      <c r="Z56" s="32">
         <v>572</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A57" s="61" t="s">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A57" s="58" t="s">
         <v>69</v>
       </c>
       <c r="B57" s="11">
@@ -8834,14 +9182,14 @@
         <v>1057</v>
       </c>
       <c r="I57" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.46964375313597589</v>
       </c>
-      <c r="J57" s="68">
+      <c r="J57" s="65">
         <v>1036</v>
       </c>
       <c r="K57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.4801806322127446</v>
       </c>
       <c r="L57" s="11">
@@ -8851,40 +9199,47 @@
         <v>1207</v>
       </c>
       <c r="N57" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.2608695652173913</v>
       </c>
-      <c r="O57" s="64">
+      <c r="O57" s="61">
         <v>1068</v>
       </c>
       <c r="P57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.34598897734231476</v>
       </c>
-      <c r="Q57" s="13" t="s">
+      <c r="Q57" s="63">
+        <v>799</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="11"/>
+        <v>0.25187265917602997</v>
+      </c>
+      <c r="S57" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="R57" s="15" t="s">
+      <c r="T57" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="S57" s="13">
+      <c r="U57" s="13">
         <v>760</v>
       </c>
-      <c r="T57" s="15">
+      <c r="V57" s="15">
         <v>800</v>
       </c>
-      <c r="U57" s="13">
+      <c r="W57" s="13">
         <v>657</v>
       </c>
-      <c r="V57" s="15">
+      <c r="X57" s="15">
         <v>654</v>
       </c>
-      <c r="X57" s="35">
+      <c r="Z57" s="32">
         <v>710</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A58" s="62" t="s">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A58" s="59" t="s">
         <v>70</v>
       </c>
       <c r="B58" s="12">
@@ -8902,14 +9257,14 @@
         <v>830</v>
       </c>
       <c r="I58" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.23431734317343172</v>
       </c>
-      <c r="J58" s="67">
+      <c r="J58" s="64">
         <v>780</v>
       </c>
       <c r="K58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.28044280442804426</v>
       </c>
       <c r="L58" s="12">
@@ -8919,39 +9274,46 @@
         <v>846</v>
       </c>
       <c r="N58" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.21155638397017706</v>
       </c>
       <c r="O58" s="9">
         <v>939</v>
       </c>
       <c r="P58" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.12488350419384903</v>
       </c>
-      <c r="Q58" s="16" t="s">
+      <c r="Q58" s="9">
+        <v>659</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="11"/>
+        <v>0.29818956336528224</v>
+      </c>
+      <c r="S58" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="R58" s="18" t="s">
+      <c r="T58" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="S58" s="16">
+      <c r="U58" s="16">
         <v>657</v>
       </c>
-      <c r="T58" s="18">
+      <c r="V58" s="18">
         <v>640</v>
       </c>
-      <c r="U58" s="16">
+      <c r="W58" s="16">
         <v>557</v>
       </c>
-      <c r="V58" s="18">
+      <c r="X58" s="18">
         <v>555</v>
       </c>
-      <c r="X58" s="35">
+      <c r="Z58" s="32">
         <v>615</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="12"/>
       <c r="C59" s="9"/>
@@ -8960,7 +9322,7 @@
         <v>0.34846647251850404</v>
       </c>
       <c r="E59" s="9"/>
-      <c r="F59" s="58"/>
+      <c r="F59" s="55"/>
       <c r="G59" s="12"/>
       <c r="H59" s="9"/>
       <c r="I59" s="10">
@@ -8968,7 +9330,7 @@
         <v>0.20500845503829185</v>
       </c>
       <c r="J59" s="9"/>
-      <c r="K59" s="43">
+      <c r="K59" s="40">
         <f>AVERAGE(K29:K58)</f>
         <v>0.33593274192902955</v>
       </c>
@@ -8979,29 +9341,34 @@
         <v>0.15679638026492096</v>
       </c>
       <c r="O59" s="9"/>
-      <c r="P59" s="58">
+      <c r="P59" s="55">
         <f>AVERAGE(P29:P58)</f>
         <v>0.31367331611686061</v>
       </c>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="10"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="55">
+        <f>AVERAGE(R29:R58)</f>
+        <v>8.9479105145036944E-2</v>
+      </c>
       <c r="S59" s="12"/>
       <c r="T59" s="10"/>
       <c r="U59" s="12"/>
       <c r="V59" s="10"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="10"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="K60" s="42"/>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="K60" s="39"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>175</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="S27:T27"/>
     <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="G28:K28"/>
     <mergeCell ref="L28:P28"/>
@@ -9009,11 +9376,11 @@
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="L4:P4"/>
     <mergeCell ref="B27:P27"/>
-    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="W3:X3"/>
     <mergeCell ref="U3:V3"/>
+    <mergeCell ref="A1:K1"/>
     <mergeCell ref="S3:T3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="Q3:R3"/>
     <mergeCell ref="B3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -9028,7 +9395,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9110,8 +9477,12 @@
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
+      <c r="F5" s="24">
+        <v>49</v>
+      </c>
+      <c r="G5" s="25">
+        <v>42</v>
+      </c>
       <c r="H5" s="13"/>
       <c r="I5" s="14"/>
       <c r="J5" s="15"/>
@@ -9130,8 +9501,12 @@
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
       <c r="E6" s="23"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29"/>
+      <c r="F6" s="27">
+        <v>31</v>
+      </c>
+      <c r="G6" s="25">
+        <v>32</v>
+      </c>
       <c r="H6" s="13"/>
       <c r="I6" s="14"/>
       <c r="J6" s="15"/>
@@ -9150,8 +9525,12 @@
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
       <c r="E7" s="23"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="29"/>
+      <c r="F7" s="24">
+        <v>213</v>
+      </c>
+      <c r="G7" s="28">
+        <v>204</v>
+      </c>
       <c r="H7" s="13"/>
       <c r="I7" s="21"/>
       <c r="J7" s="22"/>
@@ -9170,8 +9549,12 @@
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
       <c r="E8" s="23"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
+      <c r="F8" s="27">
+        <v>77</v>
+      </c>
+      <c r="G8" s="28">
+        <v>79</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="21"/>
       <c r="J8" s="22"/>
@@ -9190,8 +9573,12 @@
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
       <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
+      <c r="F9" s="27">
+        <v>186</v>
+      </c>
+      <c r="G9" s="25">
+        <v>193</v>
+      </c>
       <c r="H9" s="13"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -9210,8 +9597,12 @@
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
       <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
+      <c r="F10" s="24">
+        <v>108</v>
+      </c>
+      <c r="G10" s="25">
+        <v>100</v>
+      </c>
       <c r="H10" s="13"/>
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
@@ -9230,8 +9621,12 @@
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
       <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
+      <c r="F11" s="24">
+        <v>158</v>
+      </c>
+      <c r="G11" s="28">
+        <v>153</v>
+      </c>
       <c r="H11" s="13"/>
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
@@ -9250,8 +9645,12 @@
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
+      <c r="F12" s="24">
+        <v>552</v>
+      </c>
+      <c r="G12" s="25">
+        <v>574</v>
+      </c>
       <c r="H12" s="13"/>
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
@@ -9270,8 +9669,12 @@
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
+      <c r="F13" s="24">
+        <v>440</v>
+      </c>
+      <c r="G13" s="25">
+        <v>434</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="21"/>
       <c r="J13" s="22"/>
@@ -9290,8 +9693,12 @@
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
       <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
+      <c r="F14" s="24">
+        <v>316</v>
+      </c>
+      <c r="G14" s="25">
+        <v>300</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
       <c r="J14" s="15"/>
@@ -9310,8 +9717,12 @@
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
+      <c r="F15" s="27">
+        <v>626</v>
+      </c>
+      <c r="G15" s="28">
+        <v>634</v>
+      </c>
       <c r="H15" s="13"/>
       <c r="I15" s="14"/>
       <c r="J15" s="15"/>
@@ -9330,8 +9741,12 @@
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="27"/>
+      <c r="F16" s="24">
+        <v>540</v>
+      </c>
+      <c r="G16" s="25">
+        <v>566</v>
+      </c>
       <c r="H16" s="13"/>
       <c r="I16" s="14"/>
       <c r="J16" s="15"/>
@@ -9350,8 +9765,12 @@
       <c r="C17" s="14"/>
       <c r="D17" s="15"/>
       <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="29"/>
+      <c r="F17" s="24">
+        <v>548</v>
+      </c>
+      <c r="G17" s="25">
+        <v>493</v>
+      </c>
       <c r="H17" s="13"/>
       <c r="I17" s="14"/>
       <c r="J17" s="15"/>
@@ -9370,8 +9789,12 @@
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
       <c r="E18" s="23"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="27"/>
+      <c r="F18" s="24">
+        <v>723</v>
+      </c>
+      <c r="G18" s="25">
+        <v>711</v>
+      </c>
       <c r="H18" s="13"/>
       <c r="I18" s="14"/>
       <c r="J18" s="15"/>
@@ -9390,8 +9813,12 @@
       <c r="C19" s="17"/>
       <c r="D19" s="18"/>
       <c r="E19" s="26"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="31"/>
+      <c r="F19" s="30">
+        <v>610</v>
+      </c>
+      <c r="G19" s="31">
+        <v>515</v>
+      </c>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
       <c r="J19" s="18"/>
@@ -9412,6 +9839,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9419,8 +9847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849930BA-C1CC-4AFE-B573-763F33389D3C}">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9518,40 +9946,40 @@
       <c r="B5" s="23">
         <v>91</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43">
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40">
         <f>(B5-C5)/B5</f>
         <v>1</v>
       </c>
       <c r="G5" s="24">
         <v>91</v>
       </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42">
-        <f>(G5-H5)/G5</f>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39">
+        <f t="shared" ref="I5:I24" si="0">(G5-H5)/G5</f>
         <v>1</v>
       </c>
-      <c r="J5" s="69">
+      <c r="J5" s="66">
         <v>66</v>
       </c>
-      <c r="K5" s="43">
-        <f>(G5-J5)/G5</f>
+      <c r="K5" s="40">
+        <f t="shared" ref="K5:K24" si="1">(G5-J5)/G5</f>
         <v>0.27472527472527475</v>
       </c>
       <c r="L5" s="25">
         <v>91</v>
       </c>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42">
+      <c r="M5" s="39"/>
+      <c r="N5" s="39">
         <f>(L5-M5)/L5</f>
         <v>1</v>
       </c>
-      <c r="O5" s="69">
+      <c r="O5" s="66">
         <v>66</v>
       </c>
-      <c r="P5" s="43">
+      <c r="P5" s="40">
         <f>(L5-O5)/L5</f>
         <v>0.27472527472527475</v>
       </c>
@@ -9567,7 +9995,7 @@
       <c r="T5" s="7">
         <v>66</v>
       </c>
-      <c r="U5" s="35">
+      <c r="U5" s="32">
         <v>66</v>
       </c>
       <c r="V5" s="8">
@@ -9581,41 +10009,41 @@
       <c r="B6" s="23">
         <v>128</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F18" si="0">(B6-C6)/B6</f>
+        <f t="shared" ref="F6:F18" si="2">(B6-C6)/B6</f>
         <v>1</v>
       </c>
       <c r="G6" s="24">
         <v>128</v>
       </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="42">
-        <f>(G6-H6)/G6</f>
+      <c r="H6" s="46"/>
+      <c r="I6" s="39">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J6" s="49">
+      <c r="J6" s="46">
         <v>107</v>
       </c>
-      <c r="K6" s="43">
-        <f>(G6-J6)/G6</f>
+      <c r="K6" s="40">
+        <f t="shared" si="1"/>
         <v>0.1640625</v>
       </c>
       <c r="L6" s="25">
         <v>128</v>
       </c>
-      <c r="M6" s="49"/>
+      <c r="M6" s="46"/>
       <c r="N6" s="7">
-        <f t="shared" ref="N6:N24" si="1">(L6-M6)/L6</f>
+        <f t="shared" ref="N6:N24" si="3">(L6-M6)/L6</f>
         <v>1</v>
       </c>
-      <c r="O6" s="49">
+      <c r="O6" s="46">
         <v>107</v>
       </c>
       <c r="P6" s="8">
-        <f t="shared" ref="P6:P24" si="2">(L6-O6)/L6</f>
+        <f t="shared" ref="P6:P24" si="4">(L6-O6)/L6</f>
         <v>0.1640625</v>
       </c>
       <c r="Q6" s="13">
@@ -9627,13 +10055,13 @@
       <c r="S6" s="11">
         <v>107</v>
       </c>
-      <c r="T6" s="35">
+      <c r="T6" s="32">
         <v>107</v>
       </c>
-      <c r="U6" s="35">
+      <c r="U6" s="32">
         <v>107</v>
       </c>
-      <c r="V6" s="32">
+      <c r="V6" s="29">
         <v>107</v>
       </c>
     </row>
@@ -9644,41 +10072,41 @@
       <c r="B7" s="23">
         <v>298</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="24">
+        <v>298</v>
+      </c>
+      <c r="H7" s="46"/>
+      <c r="I7" s="39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="24">
-        <v>298</v>
-      </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="42">
-        <f>(G7-H7)/G7</f>
-        <v>1</v>
-      </c>
-      <c r="J7" s="78">
+      <c r="J7" s="68">
         <v>236</v>
       </c>
-      <c r="K7" s="43">
-        <f>(G7-J7)/G7</f>
+      <c r="K7" s="40">
+        <f t="shared" si="1"/>
         <v>0.20805369127516779</v>
       </c>
       <c r="L7" s="25">
         <v>298</v>
       </c>
-      <c r="M7" s="49"/>
+      <c r="M7" s="46"/>
       <c r="N7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O7" s="49">
+      <c r="O7" s="46">
         <v>221</v>
       </c>
       <c r="P7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.25838926174496646</v>
       </c>
       <c r="Q7" s="13">
@@ -9707,41 +10135,41 @@
       <c r="B8" s="23">
         <v>396</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
       <c r="F8" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="24">
+        <v>396</v>
+      </c>
+      <c r="H8" s="46"/>
+      <c r="I8" s="39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G8" s="24">
-        <v>396</v>
-      </c>
-      <c r="H8" s="49"/>
-      <c r="I8" s="42">
-        <f>(G8-H8)/G8</f>
-        <v>1</v>
-      </c>
-      <c r="J8" s="49">
+      <c r="J8" s="46">
         <v>355</v>
       </c>
-      <c r="K8" s="43">
-        <f>(G8-J8)/G8</f>
+      <c r="K8" s="40">
+        <f t="shared" si="1"/>
         <v>0.10353535353535354</v>
       </c>
       <c r="L8" s="25">
         <v>396</v>
       </c>
-      <c r="M8" s="49"/>
+      <c r="M8" s="46"/>
       <c r="N8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O8" s="49">
+      <c r="O8" s="46">
         <v>355</v>
       </c>
       <c r="P8" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10353535353535354</v>
       </c>
       <c r="Q8" s="13">
@@ -9770,26 +10198,26 @@
       <c r="B9" s="23">
         <v>119</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
       <c r="F9" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="21">
+        <v>119</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="21">
+      <c r="J9" s="46">
         <v>119</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="42">
-        <f>(G9-H9)/G9</f>
-        <v>1</v>
-      </c>
-      <c r="J9" s="49">
-        <v>119</v>
-      </c>
-      <c r="K9" s="43">
-        <f>(G9-J9)/G9</f>
+      <c r="K9" s="40">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L9" s="22">
@@ -9797,14 +10225,14 @@
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O9" s="65">
+      <c r="O9" s="62">
         <v>119</v>
       </c>
       <c r="P9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q9" s="13">
@@ -9833,26 +10261,26 @@
       <c r="B10" s="23">
         <v>360</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="24">
+        <v>360</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10" s="24">
-        <v>360</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="42">
-        <f>(G10-H10)/G10</f>
-        <v>1</v>
-      </c>
-      <c r="J10" s="49">
+      <c r="J10" s="46">
         <v>320</v>
       </c>
-      <c r="K10" s="43">
-        <f>(G10-J10)/G10</f>
+      <c r="K10" s="40">
+        <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="L10" s="25">
@@ -9860,14 +10288,14 @@
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O10" s="65">
+      <c r="O10" s="62">
         <v>320</v>
       </c>
       <c r="P10" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="Q10" s="13">
@@ -9896,26 +10324,26 @@
       <c r="B11" s="23">
         <v>397</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
       <c r="F11" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="21">
+        <v>397</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="21">
+      <c r="J11" s="46">
         <v>397</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="42">
-        <f>(G11-H11)/G11</f>
-        <v>1</v>
-      </c>
-      <c r="J11" s="49">
-        <v>397</v>
-      </c>
-      <c r="K11" s="43">
-        <f>(G11-J11)/G11</f>
+      <c r="K11" s="40">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L11" s="22">
@@ -9923,14 +10351,14 @@
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O11" s="65">
+      <c r="O11" s="62">
         <v>397</v>
       </c>
       <c r="P11" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q11" s="13">
@@ -9959,41 +10387,41 @@
       <c r="B12" s="23">
         <v>325</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
       <c r="F12" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="24">
+        <v>325</v>
+      </c>
+      <c r="H12" s="46"/>
+      <c r="I12" s="39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G12" s="24">
-        <v>325</v>
-      </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="42">
-        <f>(G12-H12)/G12</f>
-        <v>1</v>
-      </c>
-      <c r="J12" s="49">
+      <c r="J12" s="46">
         <v>253</v>
       </c>
-      <c r="K12" s="43">
-        <f>(G12-J12)/G12</f>
+      <c r="K12" s="40">
+        <f t="shared" si="1"/>
         <v>0.22153846153846155</v>
       </c>
       <c r="L12" s="25">
         <v>325</v>
       </c>
-      <c r="M12" s="49"/>
+      <c r="M12" s="46"/>
       <c r="N12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O12" s="49">
+      <c r="O12" s="46">
         <v>253</v>
       </c>
       <c r="P12" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.22153846153846155</v>
       </c>
       <c r="Q12" s="13">
@@ -10022,41 +10450,41 @@
       <c r="B13" s="23">
         <v>257</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
       <c r="F13" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="24">
+        <v>290</v>
+      </c>
+      <c r="H13" s="46"/>
+      <c r="I13" s="39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="24">
-        <v>290</v>
-      </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="42">
-        <f>(G13-H13)/G13</f>
-        <v>1</v>
-      </c>
-      <c r="J13" s="78">
+      <c r="J13" s="68">
         <v>220</v>
       </c>
-      <c r="K13" s="43">
-        <f>(G13-J13)/G13</f>
+      <c r="K13" s="40">
+        <f t="shared" si="1"/>
         <v>0.2413793103448276</v>
       </c>
       <c r="L13" s="25">
         <v>257</v>
       </c>
-      <c r="M13" s="49"/>
+      <c r="M13" s="46"/>
       <c r="N13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O13" s="49">
+      <c r="O13" s="46">
         <v>210</v>
       </c>
       <c r="P13" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.1828793774319066</v>
       </c>
       <c r="Q13" s="13">
@@ -10085,41 +10513,41 @@
       <c r="B14" s="26">
         <v>516</v>
       </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
       <c r="F14" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="33">
+        <v>516</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G14" s="36">
+      <c r="J14" s="46">
         <v>516</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="42">
-        <f>(G14-H14)/G14</f>
-        <v>1</v>
-      </c>
-      <c r="J14" s="49">
-        <v>516</v>
-      </c>
-      <c r="K14" s="43">
-        <f>(G14-J14)/G14</f>
+      <c r="K14" s="40">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14" s="34">
         <v>516</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O14" s="65">
+      <c r="O14" s="62">
         <v>516</v>
       </c>
       <c r="P14" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q14" s="16">
@@ -10142,47 +10570,47 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="42" t="s">
         <v>132</v>
       </c>
       <c r="B15" s="23">
         <v>719</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
       <c r="F15" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="24">
+        <v>664</v>
+      </c>
+      <c r="H15" s="46"/>
+      <c r="I15" s="39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G15" s="24">
-        <v>664</v>
-      </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="42">
-        <f>(G15-H15)/G15</f>
-        <v>1</v>
-      </c>
-      <c r="J15" s="78">
+      <c r="J15" s="68">
         <v>479</v>
       </c>
-      <c r="K15" s="43">
-        <f>(G15-J15)/G15</f>
+      <c r="K15" s="40">
+        <f t="shared" si="1"/>
         <v>0.27861445783132532</v>
       </c>
       <c r="L15" s="25">
         <v>664</v>
       </c>
-      <c r="M15" s="49"/>
+      <c r="M15" s="46"/>
       <c r="N15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O15" s="78">
+      <c r="O15" s="68">
         <v>495</v>
       </c>
       <c r="P15" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.25451807228915663</v>
       </c>
       <c r="Q15" s="13">
@@ -10211,26 +10639,26 @@
       <c r="B16" s="23">
         <v>628</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="24">
+        <v>571</v>
+      </c>
+      <c r="H16" s="48"/>
+      <c r="I16" s="39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G16" s="24">
-        <v>571</v>
-      </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="42">
-        <f>(G16-H16)/G16</f>
-        <v>1</v>
-      </c>
-      <c r="J16" s="78">
+      <c r="J16" s="68">
         <v>459</v>
       </c>
-      <c r="K16" s="43">
-        <f>(G16-J16)/G16</f>
+      <c r="K16" s="40">
+        <f t="shared" si="1"/>
         <v>0.19614711033274956</v>
       </c>
       <c r="L16" s="25">
@@ -10238,14 +10666,14 @@
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O16" s="68">
+      <c r="O16" s="65">
         <v>466</v>
       </c>
       <c r="P16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.20477815699658702</v>
       </c>
       <c r="Q16" s="13">
@@ -10257,10 +10685,10 @@
       <c r="S16" s="11">
         <v>495</v>
       </c>
-      <c r="T16" s="35">
+      <c r="T16" s="32">
         <v>482</v>
       </c>
-      <c r="U16" s="35">
+      <c r="U16" s="32">
         <v>482</v>
       </c>
       <c r="V16" s="8">
@@ -10274,41 +10702,41 @@
       <c r="B17" s="23">
         <v>761</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
       <c r="F17" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="24">
+        <v>731</v>
+      </c>
+      <c r="H17" s="48"/>
+      <c r="I17" s="39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G17" s="24">
-        <v>731</v>
-      </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="42">
-        <f>(G17-H17)/G17</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="78">
+      <c r="J17" s="68">
         <v>473</v>
       </c>
-      <c r="K17" s="43">
-        <f>(G17-J17)/G17</f>
+      <c r="K17" s="40">
+        <f t="shared" si="1"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="L17" s="25">
         <v>723</v>
       </c>
-      <c r="M17" s="49"/>
+      <c r="M17" s="46"/>
       <c r="N17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O17" s="78">
+      <c r="O17" s="68">
         <v>479</v>
       </c>
       <c r="P17" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.33748271092669435</v>
       </c>
       <c r="Q17" s="13">
@@ -10320,10 +10748,10 @@
       <c r="S17" s="11">
         <v>553</v>
       </c>
-      <c r="T17" s="35">
+      <c r="T17" s="32">
         <v>538</v>
       </c>
-      <c r="U17" s="35">
+      <c r="U17" s="32">
         <v>533</v>
       </c>
       <c r="V17" s="8">
@@ -10341,37 +10769,37 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="24">
+        <v>851</v>
+      </c>
+      <c r="H18" s="48"/>
+      <c r="I18" s="39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G18" s="24">
-        <v>851</v>
-      </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="42">
-        <f>(G18-H18)/G18</f>
-        <v>1</v>
-      </c>
-      <c r="J18" s="78">
+      <c r="J18" s="68">
         <v>572</v>
       </c>
-      <c r="K18" s="43">
-        <f>(G18-J18)/G18</f>
+      <c r="K18" s="40">
+        <f t="shared" si="1"/>
         <v>0.32784958871915393</v>
       </c>
       <c r="L18" s="25">
         <v>816</v>
       </c>
-      <c r="M18" s="51"/>
+      <c r="M18" s="48"/>
       <c r="N18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O18" s="78">
+      <c r="O18" s="68">
         <v>567</v>
       </c>
       <c r="P18" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.30514705882352944</v>
       </c>
       <c r="Q18" s="13">
@@ -10383,10 +10811,10 @@
       <c r="S18" s="11">
         <v>656</v>
       </c>
-      <c r="T18" s="35">
+      <c r="T18" s="32">
         <v>650</v>
       </c>
-      <c r="U18" s="35">
+      <c r="U18" s="32">
         <v>634</v>
       </c>
       <c r="V18" s="8">
@@ -10410,30 +10838,30 @@
         <v>762</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="42">
-        <f>(G19-H19)/G19</f>
+      <c r="I19" s="39">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J19" s="78">
+      <c r="J19" s="68">
         <v>584</v>
       </c>
-      <c r="K19" s="43">
-        <f>(G19-J19)/G19</f>
+      <c r="K19" s="40">
+        <f t="shared" si="1"/>
         <v>0.23359580052493439</v>
       </c>
       <c r="L19" s="25">
         <v>784</v>
       </c>
-      <c r="M19" s="49"/>
+      <c r="M19" s="46"/>
       <c r="N19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O19" s="78">
+      <c r="O19" s="68">
         <v>561</v>
       </c>
       <c r="P19" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.28443877551020408</v>
       </c>
       <c r="Q19" s="13">
@@ -10445,10 +10873,10 @@
       <c r="S19" s="11">
         <v>650</v>
       </c>
-      <c r="T19" s="35">
+      <c r="T19" s="32">
         <v>662</v>
       </c>
-      <c r="U19" s="35">
+      <c r="U19" s="32">
         <v>625</v>
       </c>
       <c r="V19" s="8">
@@ -10471,31 +10899,31 @@
       <c r="G20" s="24">
         <v>826</v>
       </c>
-      <c r="H20" s="49"/>
-      <c r="I20" s="42">
-        <f>(G20-H20)/G20</f>
+      <c r="H20" s="46"/>
+      <c r="I20" s="39">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J20" s="78">
+      <c r="J20" s="68">
         <v>700</v>
       </c>
-      <c r="K20" s="43">
-        <f>(G20-J20)/G20</f>
+      <c r="K20" s="40">
+        <f t="shared" si="1"/>
         <v>0.15254237288135594</v>
       </c>
       <c r="L20" s="25">
         <v>879</v>
       </c>
-      <c r="M20" s="49"/>
+      <c r="M20" s="46"/>
       <c r="N20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O20" s="78">
+      <c r="O20" s="68">
         <v>650</v>
       </c>
       <c r="P20" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.26052332195676908</v>
       </c>
       <c r="Q20" s="13">
@@ -10507,10 +10935,10 @@
       <c r="S20" s="11">
         <v>762</v>
       </c>
-      <c r="T20" s="35">
+      <c r="T20" s="32">
         <v>785</v>
       </c>
-      <c r="U20" s="35">
+      <c r="U20" s="32">
         <v>717</v>
       </c>
       <c r="V20" s="8">
@@ -10534,30 +10962,30 @@
         <v>1167</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="42">
-        <f>(G21-H21)/G21</f>
+      <c r="I21" s="39">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J21" s="78">
+      <c r="J21" s="68">
         <v>897</v>
       </c>
-      <c r="K21" s="43">
-        <f>(G21-J21)/G21</f>
+      <c r="K21" s="40">
+        <f t="shared" si="1"/>
         <v>0.23136246786632392</v>
       </c>
       <c r="L21" s="25">
         <v>1139</v>
       </c>
-      <c r="M21" s="49"/>
+      <c r="M21" s="46"/>
       <c r="N21" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O21" s="78">
+      <c r="O21" s="68">
         <v>905</v>
       </c>
       <c r="P21" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.2054433713784021</v>
       </c>
       <c r="Q21" s="13">
@@ -10569,10 +10997,10 @@
       <c r="S21" s="11">
         <v>1020</v>
       </c>
-      <c r="T21" s="35">
+      <c r="T21" s="32">
         <v>1081</v>
       </c>
-      <c r="U21" s="35">
+      <c r="U21" s="32">
         <v>964</v>
       </c>
       <c r="V21" s="8">
@@ -10596,30 +11024,30 @@
         <v>1207</v>
       </c>
       <c r="H22" s="7"/>
-      <c r="I22" s="42">
-        <f>(G22-H22)/G22</f>
+      <c r="I22" s="39">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J22" s="78">
+      <c r="J22" s="68">
         <v>973</v>
       </c>
-      <c r="K22" s="43">
-        <f>(G22-J22)/G22</f>
+      <c r="K22" s="40">
+        <f t="shared" si="1"/>
         <v>0.19386909693454846</v>
       </c>
       <c r="L22" s="25">
         <v>1179</v>
       </c>
-      <c r="M22" s="49"/>
+      <c r="M22" s="46"/>
       <c r="N22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O22" s="78">
+      <c r="O22" s="68">
         <v>970</v>
       </c>
       <c r="P22" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17726887192536048</v>
       </c>
       <c r="Q22" s="13">
@@ -10631,10 +11059,10 @@
       <c r="S22" s="11">
         <v>1030</v>
       </c>
-      <c r="T22" s="35">
+      <c r="T22" s="32">
         <v>1122</v>
       </c>
-      <c r="U22" s="35">
+      <c r="U22" s="32">
         <v>970</v>
       </c>
       <c r="V22" s="8">
@@ -10658,30 +11086,30 @@
         <v>1500</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="42">
-        <f>(G23-H23)/G23</f>
+      <c r="I23" s="39">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J23" s="78">
+      <c r="J23" s="68">
         <v>1154</v>
       </c>
-      <c r="K23" s="43">
-        <f>(G23-J23)/G23</f>
+      <c r="K23" s="40">
+        <f t="shared" si="1"/>
         <v>0.23066666666666666</v>
       </c>
       <c r="L23" s="25">
         <v>1513</v>
       </c>
-      <c r="M23" s="49"/>
+      <c r="M23" s="46"/>
       <c r="N23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O23" s="78">
+      <c r="O23" s="68">
         <v>1175</v>
       </c>
       <c r="P23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.22339722405816259</v>
       </c>
       <c r="Q23" s="13">
@@ -10693,10 +11121,10 @@
       <c r="S23" s="11">
         <v>1180</v>
       </c>
-      <c r="T23" s="35">
+      <c r="T23" s="32">
         <v>1243</v>
       </c>
-      <c r="U23" s="35">
+      <c r="U23" s="32">
         <v>1105</v>
       </c>
       <c r="V23" s="8">
@@ -10716,34 +11144,34 @@
       <c r="F24" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="30">
         <v>1761</v>
       </c>
-      <c r="H24" s="46"/>
-      <c r="I24" s="42">
-        <f>(G24-H24)/G24</f>
+      <c r="H24" s="43"/>
+      <c r="I24" s="39">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J24" s="67">
+      <c r="J24" s="64">
         <v>1463</v>
       </c>
-      <c r="K24" s="43">
-        <f>(G24-J24)/G24</f>
+      <c r="K24" s="40">
+        <f t="shared" si="1"/>
         <v>0.16922203293583191</v>
       </c>
-      <c r="L24" s="34">
+      <c r="L24" s="31">
         <v>1976</v>
       </c>
-      <c r="M24" s="46"/>
+      <c r="M24" s="43"/>
       <c r="N24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O24" s="67">
+      <c r="O24" s="64">
         <v>1328</v>
       </c>
       <c r="P24" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.32793522267206476</v>
       </c>
       <c r="Q24" s="16">
@@ -10767,33 +11195,33 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="58">
+      <c r="B25" s="44"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="55">
         <f>AVERAGE(F5:F24)</f>
         <v>1</v>
       </c>
-      <c r="G25" s="47"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57">
+      <c r="G25" s="44"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54">
         <f>AVERAGE(I5:I24)</f>
         <v>1</v>
       </c>
-      <c r="J25" s="57"/>
-      <c r="K25" s="58">
+      <c r="J25" s="54"/>
+      <c r="K25" s="55">
         <f>AVERAGE(K5:K24)</f>
         <v>0.18456082368468371</v>
       </c>
-      <c r="L25" s="47"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57">
+      <c r="L25" s="44"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54">
         <f>AVERAGE(N5:N24)</f>
         <v>1</v>
       </c>
-      <c r="O25" s="57"/>
-      <c r="P25" s="58">
+      <c r="O25" s="54"/>
+      <c r="P25" s="55">
         <f>AVERAGE(P5:P24)</f>
         <v>0.19485870633120025</v>
       </c>
@@ -10810,13 +11238,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="S3:V3"/>
     <mergeCell ref="B3:P3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="L4:P4"/>
     <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
